--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>['12', '30']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['44', '59']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1863,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -4208,6 +4214,418 @@
       </c>
       <c r="BP17">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7487067</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45499.54166666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18">
+        <v>2.6</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>4.5</v>
+      </c>
+      <c r="T18">
+        <v>1.51</v>
+      </c>
+      <c r="U18">
+        <v>2.4</v>
+      </c>
+      <c r="V18">
+        <v>3.34</v>
+      </c>
+      <c r="W18">
+        <v>1.3</v>
+      </c>
+      <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>1.04</v>
+      </c>
+      <c r="Z18">
+        <v>1.91</v>
+      </c>
+      <c r="AA18">
+        <v>3.2</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>6.85</v>
+      </c>
+      <c r="AE18">
+        <v>1.42</v>
+      </c>
+      <c r="AF18">
+        <v>2.75</v>
+      </c>
+      <c r="AG18">
+        <v>2.3</v>
+      </c>
+      <c r="AH18">
+        <v>1.58</v>
+      </c>
+      <c r="AI18">
+        <v>2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.75</v>
+      </c>
+      <c r="AK18">
+        <v>1.2</v>
+      </c>
+      <c r="AL18">
+        <v>1.28</v>
+      </c>
+      <c r="AM18">
+        <v>1.8</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>0.84</v>
+      </c>
+      <c r="AS18">
+        <v>0.97</v>
+      </c>
+      <c r="AT18">
+        <v>1.81</v>
+      </c>
+      <c r="AU18">
+        <v>2</v>
+      </c>
+      <c r="AV18">
+        <v>7</v>
+      </c>
+      <c r="AW18">
+        <v>12</v>
+      </c>
+      <c r="AX18">
+        <v>11</v>
+      </c>
+      <c r="AY18">
+        <v>14</v>
+      </c>
+      <c r="AZ18">
+        <v>18</v>
+      </c>
+      <c r="BA18">
+        <v>5</v>
+      </c>
+      <c r="BB18">
+        <v>3</v>
+      </c>
+      <c r="BC18">
+        <v>8</v>
+      </c>
+      <c r="BD18">
+        <v>1.51</v>
+      </c>
+      <c r="BE18">
+        <v>8.5</v>
+      </c>
+      <c r="BF18">
+        <v>3.16</v>
+      </c>
+      <c r="BG18">
+        <v>1.35</v>
+      </c>
+      <c r="BH18">
+        <v>2.84</v>
+      </c>
+      <c r="BI18">
+        <v>1.63</v>
+      </c>
+      <c r="BJ18">
+        <v>2.09</v>
+      </c>
+      <c r="BK18">
+        <v>2.11</v>
+      </c>
+      <c r="BL18">
+        <v>1.65</v>
+      </c>
+      <c r="BM18">
+        <v>2.79</v>
+      </c>
+      <c r="BN18">
+        <v>1.36</v>
+      </c>
+      <c r="BO18">
+        <v>3.92</v>
+      </c>
+      <c r="BP18">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7486473</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45499.66666666666</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>2.2</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>1.39</v>
+      </c>
+      <c r="U19">
+        <v>2.8</v>
+      </c>
+      <c r="V19">
+        <v>2.82</v>
+      </c>
+      <c r="W19">
+        <v>1.4</v>
+      </c>
+      <c r="X19">
+        <v>7.2</v>
+      </c>
+      <c r="Y19">
+        <v>1.08</v>
+      </c>
+      <c r="Z19">
+        <v>1.65</v>
+      </c>
+      <c r="AA19">
+        <v>3.55</v>
+      </c>
+      <c r="AB19">
+        <v>5.5</v>
+      </c>
+      <c r="AC19">
+        <v>1.02</v>
+      </c>
+      <c r="AD19">
+        <v>9.1</v>
+      </c>
+      <c r="AE19">
+        <v>1.3</v>
+      </c>
+      <c r="AF19">
+        <v>3.3</v>
+      </c>
+      <c r="AG19">
+        <v>2.1</v>
+      </c>
+      <c r="AH19">
+        <v>1.7</v>
+      </c>
+      <c r="AI19">
+        <v>2.1</v>
+      </c>
+      <c r="AJ19">
+        <v>1.68</v>
+      </c>
+      <c r="AK19">
+        <v>1.06</v>
+      </c>
+      <c r="AL19">
+        <v>1.17</v>
+      </c>
+      <c r="AM19">
+        <v>2.6</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>0.5</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>1.85</v>
+      </c>
+      <c r="AS19">
+        <v>1.69</v>
+      </c>
+      <c r="AT19">
+        <v>3.54</v>
+      </c>
+      <c r="AU19">
+        <v>8</v>
+      </c>
+      <c r="AV19">
+        <v>5</v>
+      </c>
+      <c r="AW19">
+        <v>9</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>17</v>
+      </c>
+      <c r="AZ19">
+        <v>6</v>
+      </c>
+      <c r="BA19">
+        <v>9</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>11</v>
+      </c>
+      <c r="BD19">
+        <v>1.64</v>
+      </c>
+      <c r="BE19">
+        <v>8</v>
+      </c>
+      <c r="BF19">
+        <v>2.77</v>
+      </c>
+      <c r="BG19">
+        <v>1.28</v>
+      </c>
+      <c r="BH19">
+        <v>3.2</v>
+      </c>
+      <c r="BI19">
+        <v>1.52</v>
+      </c>
+      <c r="BJ19">
+        <v>2.3</v>
+      </c>
+      <c r="BK19">
+        <v>1.92</v>
+      </c>
+      <c r="BL19">
+        <v>1.79</v>
+      </c>
+      <c r="BM19">
+        <v>2.48</v>
+      </c>
+      <c r="BN19">
+        <v>1.45</v>
+      </c>
+      <c r="BO19">
+        <v>3.42</v>
+      </c>
+      <c r="BP19">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -347,6 +350,12 @@
   </si>
   <si>
     <t>['44', '59']</t>
+  </si>
+  <si>
+    <t>['45+12', '52']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +976,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1791,7 +1800,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -1997,7 +2006,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2078,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2203,7 +2212,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2490,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2693,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2821,7 +2830,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3027,7 +3036,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3233,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3439,7 +3448,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3645,7 +3654,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3851,7 +3860,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4263,7 +4272,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4469,7 +4478,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4626,6 +4635,418 @@
       </c>
       <c r="BP19">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7486475</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45500.54166666666</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.53</v>
+      </c>
+      <c r="U20">
+        <v>2.37</v>
+      </c>
+      <c r="V20">
+        <v>3.44</v>
+      </c>
+      <c r="W20">
+        <v>1.28</v>
+      </c>
+      <c r="X20">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>1.04</v>
+      </c>
+      <c r="Z20">
+        <v>2.2</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>3.1</v>
+      </c>
+      <c r="AC20">
+        <v>1.05</v>
+      </c>
+      <c r="AD20">
+        <v>6.9</v>
+      </c>
+      <c r="AE20">
+        <v>1.45</v>
+      </c>
+      <c r="AF20">
+        <v>2.65</v>
+      </c>
+      <c r="AG20">
+        <v>2.3</v>
+      </c>
+      <c r="AH20">
+        <v>1.55</v>
+      </c>
+      <c r="AI20">
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <v>1.75</v>
+      </c>
+      <c r="AK20">
+        <v>1.33</v>
+      </c>
+      <c r="AL20">
+        <v>1.3</v>
+      </c>
+      <c r="AM20">
+        <v>1.6</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1.5</v>
+      </c>
+      <c r="AQ20">
+        <v>2</v>
+      </c>
+      <c r="AR20">
+        <v>1.45</v>
+      </c>
+      <c r="AS20">
+        <v>0.71</v>
+      </c>
+      <c r="AT20">
+        <v>2.16</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>6</v>
+      </c>
+      <c r="AW20">
+        <v>8</v>
+      </c>
+      <c r="AX20">
+        <v>3</v>
+      </c>
+      <c r="AY20">
+        <v>12</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
+        <v>9</v>
+      </c>
+      <c r="BD20">
+        <v>1.75</v>
+      </c>
+      <c r="BE20">
+        <v>7.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.45</v>
+      </c>
+      <c r="BG20">
+        <v>1.36</v>
+      </c>
+      <c r="BH20">
+        <v>2.8</v>
+      </c>
+      <c r="BI20">
+        <v>1.64</v>
+      </c>
+      <c r="BJ20">
+        <v>2.07</v>
+      </c>
+      <c r="BK20">
+        <v>2.08</v>
+      </c>
+      <c r="BL20">
+        <v>1.63</v>
+      </c>
+      <c r="BM20">
+        <v>2.8</v>
+      </c>
+      <c r="BN20">
+        <v>1.36</v>
+      </c>
+      <c r="BO20">
+        <v>3.85</v>
+      </c>
+      <c r="BP20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7486469</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45500.66666666666</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21">
+        <v>2.5</v>
+      </c>
+      <c r="R21">
+        <v>2.05</v>
+      </c>
+      <c r="S21">
+        <v>4.33</v>
+      </c>
+      <c r="T21">
+        <v>1.43</v>
+      </c>
+      <c r="U21">
+        <v>2.65</v>
+      </c>
+      <c r="V21">
+        <v>2.86</v>
+      </c>
+      <c r="W21">
+        <v>1.39</v>
+      </c>
+      <c r="X21">
+        <v>7.3</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>1.8</v>
+      </c>
+      <c r="AA21">
+        <v>3.3</v>
+      </c>
+      <c r="AB21">
+        <v>3.9</v>
+      </c>
+      <c r="AC21">
+        <v>1.02</v>
+      </c>
+      <c r="AD21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE21">
+        <v>1.33</v>
+      </c>
+      <c r="AF21">
+        <v>3.1</v>
+      </c>
+      <c r="AG21">
+        <v>1.95</v>
+      </c>
+      <c r="AH21">
+        <v>1.75</v>
+      </c>
+      <c r="AI21">
+        <v>1.83</v>
+      </c>
+      <c r="AJ21">
+        <v>1.9</v>
+      </c>
+      <c r="AK21">
+        <v>1.18</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.85</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>2</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21">
+        <v>1.79</v>
+      </c>
+      <c r="AS21">
+        <v>0.85</v>
+      </c>
+      <c r="AT21">
+        <v>2.64</v>
+      </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
+        <v>7</v>
+      </c>
+      <c r="AZ21">
+        <v>7</v>
+      </c>
+      <c r="BA21">
+        <v>9</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>12</v>
+      </c>
+      <c r="BD21">
+        <v>1.64</v>
+      </c>
+      <c r="BE21">
+        <v>8</v>
+      </c>
+      <c r="BF21">
+        <v>2.77</v>
+      </c>
+      <c r="BG21">
+        <v>1.33</v>
+      </c>
+      <c r="BH21">
+        <v>2.93</v>
+      </c>
+      <c r="BI21">
+        <v>1.8</v>
+      </c>
+      <c r="BJ21">
+        <v>2</v>
+      </c>
+      <c r="BK21">
+        <v>2.06</v>
+      </c>
+      <c r="BL21">
+        <v>1.68</v>
+      </c>
+      <c r="BM21">
+        <v>2.71</v>
+      </c>
+      <c r="BN21">
+        <v>1.38</v>
+      </c>
+      <c r="BO21">
+        <v>3.74</v>
+      </c>
+      <c r="BP21">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['51', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2084,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2705,7 +2711,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5047,6 +5053,418 @@
       </c>
       <c r="BP21">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7486474</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45501.54166666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22">
+        <v>2.1</v>
+      </c>
+      <c r="R22">
+        <v>2.2</v>
+      </c>
+      <c r="S22">
+        <v>5.5</v>
+      </c>
+      <c r="T22">
+        <v>1.37</v>
+      </c>
+      <c r="U22">
+        <v>2.95</v>
+      </c>
+      <c r="V22">
+        <v>2.74</v>
+      </c>
+      <c r="W22">
+        <v>1.42</v>
+      </c>
+      <c r="X22">
+        <v>6.8</v>
+      </c>
+      <c r="Y22">
+        <v>1.08</v>
+      </c>
+      <c r="Z22">
+        <v>1.62</v>
+      </c>
+      <c r="AA22">
+        <v>3.65</v>
+      </c>
+      <c r="AB22">
+        <v>4.4</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>9.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.25</v>
+      </c>
+      <c r="AF22">
+        <v>3.42</v>
+      </c>
+      <c r="AG22">
+        <v>1.9</v>
+      </c>
+      <c r="AH22">
+        <v>1.8</v>
+      </c>
+      <c r="AI22">
+        <v>1.95</v>
+      </c>
+      <c r="AJ22">
+        <v>1.8</v>
+      </c>
+      <c r="AK22">
+        <v>1.09</v>
+      </c>
+      <c r="AL22">
+        <v>1.18</v>
+      </c>
+      <c r="AM22">
+        <v>2.35</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1.5</v>
+      </c>
+      <c r="AR22">
+        <v>2.03</v>
+      </c>
+      <c r="AS22">
+        <v>0.77</v>
+      </c>
+      <c r="AT22">
+        <v>2.8</v>
+      </c>
+      <c r="AU22">
+        <v>2</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>13</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>15</v>
+      </c>
+      <c r="AZ22">
+        <v>6</v>
+      </c>
+      <c r="BA22">
+        <v>7</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>1.45</v>
+      </c>
+      <c r="BE22">
+        <v>8.5</v>
+      </c>
+      <c r="BF22">
+        <v>3.33</v>
+      </c>
+      <c r="BG22">
+        <v>1.26</v>
+      </c>
+      <c r="BH22">
+        <v>3.34</v>
+      </c>
+      <c r="BI22">
+        <v>1.5</v>
+      </c>
+      <c r="BJ22">
+        <v>2.35</v>
+      </c>
+      <c r="BK22">
+        <v>1.87</v>
+      </c>
+      <c r="BL22">
+        <v>1.83</v>
+      </c>
+      <c r="BM22">
+        <v>2.42</v>
+      </c>
+      <c r="BN22">
+        <v>1.47</v>
+      </c>
+      <c r="BO22">
+        <v>3.28</v>
+      </c>
+      <c r="BP22">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7486471</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45501.66666666666</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23">
+        <v>2.35</v>
+      </c>
+      <c r="R23">
+        <v>2.2</v>
+      </c>
+      <c r="S23">
+        <v>4.2</v>
+      </c>
+      <c r="T23">
+        <v>1.48</v>
+      </c>
+      <c r="U23">
+        <v>2.5</v>
+      </c>
+      <c r="V23">
+        <v>2.55</v>
+      </c>
+      <c r="W23">
+        <v>1.46</v>
+      </c>
+      <c r="X23">
+        <v>6.1</v>
+      </c>
+      <c r="Y23">
+        <v>1.1</v>
+      </c>
+      <c r="Z23">
+        <v>1.75</v>
+      </c>
+      <c r="AA23">
+        <v>3.45</v>
+      </c>
+      <c r="AB23">
+        <v>3.84</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>10.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.22</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>1.7</v>
+      </c>
+      <c r="AH23">
+        <v>2.03</v>
+      </c>
+      <c r="AI23">
+        <v>1.68</v>
+      </c>
+      <c r="AJ23">
+        <v>2.1</v>
+      </c>
+      <c r="AK23">
+        <v>1.18</v>
+      </c>
+      <c r="AL23">
+        <v>1.2</v>
+      </c>
+      <c r="AM23">
+        <v>1.95</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>2</v>
+      </c>
+      <c r="AS23">
+        <v>2.23</v>
+      </c>
+      <c r="AT23">
+        <v>4.23</v>
+      </c>
+      <c r="AU23">
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>9</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>12</v>
+      </c>
+      <c r="AZ23">
+        <v>9</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
+      </c>
+      <c r="BB23">
+        <v>5</v>
+      </c>
+      <c r="BC23">
+        <v>10</v>
+      </c>
+      <c r="BD23">
+        <v>1.46</v>
+      </c>
+      <c r="BE23">
+        <v>7.1</v>
+      </c>
+      <c r="BF23">
+        <v>3.58</v>
+      </c>
+      <c r="BG23">
+        <v>1.22</v>
+      </c>
+      <c r="BH23">
+        <v>3.65</v>
+      </c>
+      <c r="BI23">
+        <v>1.43</v>
+      </c>
+      <c r="BJ23">
+        <v>2.54</v>
+      </c>
+      <c r="BK23">
+        <v>1.98</v>
+      </c>
+      <c r="BL23">
+        <v>1.82</v>
+      </c>
+      <c r="BM23">
+        <v>2.23</v>
+      </c>
+      <c r="BN23">
+        <v>1.55</v>
+      </c>
+      <c r="BO23">
+        <v>2.98</v>
+      </c>
+      <c r="BP23">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -723,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +985,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1681,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1806,7 +1809,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2012,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2218,7 +2221,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2502,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2836,7 +2839,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3042,7 +3045,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3248,7 +3251,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3454,7 +3457,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3660,7 +3663,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3866,7 +3869,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4278,7 +4281,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4484,7 +4487,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4690,7 +4693,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4896,7 +4899,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5102,7 +5105,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5308,7 +5311,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5465,6 +5468,418 @@
       </c>
       <c r="BP23">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7486472</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45502.54166666666</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24">
+        <v>3.68</v>
+      </c>
+      <c r="R24">
+        <v>2.03</v>
+      </c>
+      <c r="S24">
+        <v>2.94</v>
+      </c>
+      <c r="T24">
+        <v>1.44</v>
+      </c>
+      <c r="U24">
+        <v>2.65</v>
+      </c>
+      <c r="V24">
+        <v>3.1</v>
+      </c>
+      <c r="W24">
+        <v>1.34</v>
+      </c>
+      <c r="X24">
+        <v>8.1</v>
+      </c>
+      <c r="Y24">
+        <v>1.06</v>
+      </c>
+      <c r="Z24">
+        <v>2.88</v>
+      </c>
+      <c r="AA24">
+        <v>3.1</v>
+      </c>
+      <c r="AB24">
+        <v>2.4</v>
+      </c>
+      <c r="AC24">
+        <v>1.03</v>
+      </c>
+      <c r="AD24">
+        <v>7.9</v>
+      </c>
+      <c r="AE24">
+        <v>1.34</v>
+      </c>
+      <c r="AF24">
+        <v>2.88</v>
+      </c>
+      <c r="AG24">
+        <v>2.19</v>
+      </c>
+      <c r="AH24">
+        <v>1.49</v>
+      </c>
+      <c r="AI24">
+        <v>1.85</v>
+      </c>
+      <c r="AJ24">
+        <v>1.85</v>
+      </c>
+      <c r="AK24">
+        <v>1.57</v>
+      </c>
+      <c r="AL24">
+        <v>1.31</v>
+      </c>
+      <c r="AM24">
+        <v>1.36</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1.7</v>
+      </c>
+      <c r="AS24">
+        <v>0.54</v>
+      </c>
+      <c r="AT24">
+        <v>2.24</v>
+      </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>2</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>9</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>5</v>
+      </c>
+      <c r="BC24">
+        <v>11</v>
+      </c>
+      <c r="BD24">
+        <v>2.2</v>
+      </c>
+      <c r="BE24">
+        <v>7</v>
+      </c>
+      <c r="BF24">
+        <v>2</v>
+      </c>
+      <c r="BG24">
+        <v>1.3</v>
+      </c>
+      <c r="BH24">
+        <v>3.08</v>
+      </c>
+      <c r="BI24">
+        <v>1.56</v>
+      </c>
+      <c r="BJ24">
+        <v>2.21</v>
+      </c>
+      <c r="BK24">
+        <v>2</v>
+      </c>
+      <c r="BL24">
+        <v>1.72</v>
+      </c>
+      <c r="BM24">
+        <v>2.6</v>
+      </c>
+      <c r="BN24">
+        <v>1.41</v>
+      </c>
+      <c r="BO24">
+        <v>3.65</v>
+      </c>
+      <c r="BP24">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7486470</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45502.66666666666</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25">
+        <v>4.33</v>
+      </c>
+      <c r="R25">
+        <v>2.08</v>
+      </c>
+      <c r="S25">
+        <v>2.54</v>
+      </c>
+      <c r="T25">
+        <v>1.43</v>
+      </c>
+      <c r="U25">
+        <v>2.7</v>
+      </c>
+      <c r="V25">
+        <v>2.99</v>
+      </c>
+      <c r="W25">
+        <v>1.36</v>
+      </c>
+      <c r="X25">
+        <v>7.7</v>
+      </c>
+      <c r="Y25">
+        <v>1.06</v>
+      </c>
+      <c r="Z25">
+        <v>3.55</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>2.25</v>
+      </c>
+      <c r="AC25">
+        <v>1.03</v>
+      </c>
+      <c r="AD25">
+        <v>8.4</v>
+      </c>
+      <c r="AE25">
+        <v>1.31</v>
+      </c>
+      <c r="AF25">
+        <v>3.04</v>
+      </c>
+      <c r="AG25">
+        <v>2.05</v>
+      </c>
+      <c r="AH25">
+        <v>1.74</v>
+      </c>
+      <c r="AI25">
+        <v>1.84</v>
+      </c>
+      <c r="AJ25">
+        <v>1.86</v>
+      </c>
+      <c r="AK25">
+        <v>1.79</v>
+      </c>
+      <c r="AL25">
+        <v>1.29</v>
+      </c>
+      <c r="AM25">
+        <v>1.26</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25">
+        <v>0.95</v>
+      </c>
+      <c r="AS25">
+        <v>1.86</v>
+      </c>
+      <c r="AT25">
+        <v>2.81</v>
+      </c>
+      <c r="AU25">
+        <v>3</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>2</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>5</v>
+      </c>
+      <c r="AZ25">
+        <v>9</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>12</v>
+      </c>
+      <c r="BC25">
+        <v>12</v>
+      </c>
+      <c r="BD25">
+        <v>2.6</v>
+      </c>
+      <c r="BE25">
+        <v>7</v>
+      </c>
+      <c r="BF25">
+        <v>1.75</v>
+      </c>
+      <c r="BG25">
+        <v>1.28</v>
+      </c>
+      <c r="BH25">
+        <v>3.2</v>
+      </c>
+      <c r="BI25">
+        <v>1.53</v>
+      </c>
+      <c r="BJ25">
+        <v>2.28</v>
+      </c>
+      <c r="BK25">
+        <v>1.93</v>
+      </c>
+      <c r="BL25">
+        <v>1.78</v>
+      </c>
+      <c r="BM25">
+        <v>2.5</v>
+      </c>
+      <c r="BN25">
+        <v>1.44</v>
+      </c>
+      <c r="BO25">
+        <v>3.42</v>
+      </c>
+      <c r="BP25">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['10', '27', '80', '84']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -365,6 +368,9 @@
   </si>
   <si>
     <t>['51', '90+5']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +991,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1809,7 +1815,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2015,7 +2021,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2221,7 +2227,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2508,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2839,7 +2845,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3045,7 +3051,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3251,7 +3257,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3457,7 +3463,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3663,7 +3669,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3869,7 +3875,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4153,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4281,7 +4287,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4487,7 +4493,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4693,7 +4699,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4774,7 +4780,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -4899,7 +4905,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5105,7 +5111,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5311,7 +5317,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5880,6 +5886,418 @@
       </c>
       <c r="BP25">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7486479</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45506.54166666666</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26">
+        <v>2.95</v>
+      </c>
+      <c r="R26">
+        <v>1.87</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>1.58</v>
+      </c>
+      <c r="U26">
+        <v>2.26</v>
+      </c>
+      <c r="V26">
+        <v>3.72</v>
+      </c>
+      <c r="W26">
+        <v>1.25</v>
+      </c>
+      <c r="X26">
+        <v>10.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.03</v>
+      </c>
+      <c r="Z26">
+        <v>2.15</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3.3</v>
+      </c>
+      <c r="AC26">
+        <v>1.1</v>
+      </c>
+      <c r="AD26">
+        <v>6</v>
+      </c>
+      <c r="AE26">
+        <v>1.5</v>
+      </c>
+      <c r="AF26">
+        <v>2.4</v>
+      </c>
+      <c r="AG26">
+        <v>2.43</v>
+      </c>
+      <c r="AH26">
+        <v>1.54</v>
+      </c>
+      <c r="AI26">
+        <v>2.15</v>
+      </c>
+      <c r="AJ26">
+        <v>1.65</v>
+      </c>
+      <c r="AK26">
+        <v>1.28</v>
+      </c>
+      <c r="AL26">
+        <v>1.3</v>
+      </c>
+      <c r="AM26">
+        <v>1.63</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1.29</v>
+      </c>
+      <c r="AS26">
+        <v>0.91</v>
+      </c>
+      <c r="AT26">
+        <v>2.2</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>8</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>13</v>
+      </c>
+      <c r="AZ26">
+        <v>7</v>
+      </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>2</v>
+      </c>
+      <c r="BC26">
+        <v>8</v>
+      </c>
+      <c r="BD26">
+        <v>1.91</v>
+      </c>
+      <c r="BE26">
+        <v>7.5</v>
+      </c>
+      <c r="BF26">
+        <v>2.2</v>
+      </c>
+      <c r="BG26">
+        <v>1.47</v>
+      </c>
+      <c r="BH26">
+        <v>2.43</v>
+      </c>
+      <c r="BI26">
+        <v>1.9</v>
+      </c>
+      <c r="BJ26">
+        <v>1.9</v>
+      </c>
+      <c r="BK26">
+        <v>2.4</v>
+      </c>
+      <c r="BL26">
+        <v>1.48</v>
+      </c>
+      <c r="BM26">
+        <v>3.3</v>
+      </c>
+      <c r="BN26">
+        <v>1.27</v>
+      </c>
+      <c r="BO26">
+        <v>4.6</v>
+      </c>
+      <c r="BP26">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7486481</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45506.66666666666</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27">
+        <v>2.7</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>1.46</v>
+      </c>
+      <c r="U27">
+        <v>2.55</v>
+      </c>
+      <c r="V27">
+        <v>3.14</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y27">
+        <v>1.06</v>
+      </c>
+      <c r="Z27">
+        <v>1.91</v>
+      </c>
+      <c r="AA27">
+        <v>3.3</v>
+      </c>
+      <c r="AB27">
+        <v>3.4</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>7.8</v>
+      </c>
+      <c r="AE27">
+        <v>1.36</v>
+      </c>
+      <c r="AF27">
+        <v>2.95</v>
+      </c>
+      <c r="AG27">
+        <v>2.05</v>
+      </c>
+      <c r="AH27">
+        <v>1.7</v>
+      </c>
+      <c r="AI27">
+        <v>1.9</v>
+      </c>
+      <c r="AJ27">
+        <v>1.83</v>
+      </c>
+      <c r="AK27">
+        <v>1.25</v>
+      </c>
+      <c r="AL27">
+        <v>1.25</v>
+      </c>
+      <c r="AM27">
+        <v>1.75</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>3</v>
+      </c>
+      <c r="AQ27">
+        <v>1.33</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>0.99</v>
+      </c>
+      <c r="AT27">
+        <v>1.99</v>
+      </c>
+      <c r="AU27">
+        <v>7</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>7</v>
+      </c>
+      <c r="AY27">
+        <v>12</v>
+      </c>
+      <c r="AZ27">
+        <v>9</v>
+      </c>
+      <c r="BA27">
+        <v>5</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>7</v>
+      </c>
+      <c r="BD27">
+        <v>1.43</v>
+      </c>
+      <c r="BE27">
+        <v>7.5</v>
+      </c>
+      <c r="BF27">
+        <v>3.7</v>
+      </c>
+      <c r="BG27">
+        <v>1.47</v>
+      </c>
+      <c r="BH27">
+        <v>2.43</v>
+      </c>
+      <c r="BI27">
+        <v>1.83</v>
+      </c>
+      <c r="BJ27">
+        <v>1.83</v>
+      </c>
+      <c r="BK27">
+        <v>2.4</v>
+      </c>
+      <c r="BL27">
+        <v>1.48</v>
+      </c>
+      <c r="BM27">
+        <v>3.3</v>
+      </c>
+      <c r="BN27">
+        <v>1.27</v>
+      </c>
+      <c r="BO27">
+        <v>4.6</v>
+      </c>
+      <c r="BP27">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,12 @@
     <t>['10', '27', '80', '84']</t>
   </si>
   <si>
+    <t>['34', '45+11']</t>
+  </si>
+  <si>
+    <t>['24', '72']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -371,6 +377,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['59', '69', '77']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +1000,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1069,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1815,7 +1824,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -1896,7 +1905,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2021,7 +2030,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2099,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2227,7 +2236,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2845,7 +2854,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3051,7 +3060,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3129,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3257,7 +3266,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3463,7 +3472,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3669,7 +3678,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3750,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3875,7 +3884,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4287,7 +4296,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4493,7 +4502,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4699,7 +4708,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4905,7 +4914,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5111,7 +5120,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5189,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5317,7 +5326,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5395,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5604,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.7</v>
@@ -6141,7 +6150,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6298,6 +6307,624 @@
       </c>
       <c r="BP27">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7486482</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45507.625</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28">
+        <v>2.15</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>1.4</v>
+      </c>
+      <c r="U28">
+        <v>2.75</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>7.1</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>1.57</v>
+      </c>
+      <c r="AA28">
+        <v>3.8</v>
+      </c>
+      <c r="AB28">
+        <v>5.25</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>9.1</v>
+      </c>
+      <c r="AE28">
+        <v>1.28</v>
+      </c>
+      <c r="AF28">
+        <v>3.4</v>
+      </c>
+      <c r="AG28">
+        <v>1.85</v>
+      </c>
+      <c r="AH28">
+        <v>1.75</v>
+      </c>
+      <c r="AI28">
+        <v>1.9</v>
+      </c>
+      <c r="AJ28">
+        <v>1.83</v>
+      </c>
+      <c r="AK28">
+        <v>1.1</v>
+      </c>
+      <c r="AL28">
+        <v>1.2</v>
+      </c>
+      <c r="AM28">
+        <v>2.25</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>1.81</v>
+      </c>
+      <c r="AS28">
+        <v>1.82</v>
+      </c>
+      <c r="AT28">
+        <v>3.63</v>
+      </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
+        <v>4</v>
+      </c>
+      <c r="AY28">
+        <v>12</v>
+      </c>
+      <c r="AZ28">
+        <v>8</v>
+      </c>
+      <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BB28">
+        <v>7</v>
+      </c>
+      <c r="BC28">
+        <v>10</v>
+      </c>
+      <c r="BD28">
+        <v>1.41</v>
+      </c>
+      <c r="BE28">
+        <v>8.5</v>
+      </c>
+      <c r="BF28">
+        <v>3.59</v>
+      </c>
+      <c r="BG28">
+        <v>1.4</v>
+      </c>
+      <c r="BH28">
+        <v>2.65</v>
+      </c>
+      <c r="BI28">
+        <v>1.71</v>
+      </c>
+      <c r="BJ28">
+        <v>1.97</v>
+      </c>
+      <c r="BK28">
+        <v>2.2</v>
+      </c>
+      <c r="BL28">
+        <v>1.57</v>
+      </c>
+      <c r="BM28">
+        <v>2.95</v>
+      </c>
+      <c r="BN28">
+        <v>1.32</v>
+      </c>
+      <c r="BO28">
+        <v>4.2</v>
+      </c>
+      <c r="BP28">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7486954</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45508.54166666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29">
+        <v>2.15</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>1.45</v>
+      </c>
+      <c r="U29">
+        <v>2.6</v>
+      </c>
+      <c r="V29">
+        <v>2.75</v>
+      </c>
+      <c r="W29">
+        <v>1.4</v>
+      </c>
+      <c r="X29">
+        <v>6.85</v>
+      </c>
+      <c r="Y29">
+        <v>1.08</v>
+      </c>
+      <c r="Z29">
+        <v>1.55</v>
+      </c>
+      <c r="AA29">
+        <v>3.95</v>
+      </c>
+      <c r="AB29">
+        <v>5.34</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>9.4</v>
+      </c>
+      <c r="AE29">
+        <v>1.28</v>
+      </c>
+      <c r="AF29">
+        <v>3.5</v>
+      </c>
+      <c r="AG29">
+        <v>1.86</v>
+      </c>
+      <c r="AH29">
+        <v>1.89</v>
+      </c>
+      <c r="AI29">
+        <v>1.9</v>
+      </c>
+      <c r="AJ29">
+        <v>1.85</v>
+      </c>
+      <c r="AK29">
+        <v>1.06</v>
+      </c>
+      <c r="AL29">
+        <v>1.25</v>
+      </c>
+      <c r="AM29">
+        <v>2.35</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>2.09</v>
+      </c>
+      <c r="AS29">
+        <v>0.65</v>
+      </c>
+      <c r="AT29">
+        <v>2.74</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>7</v>
+      </c>
+      <c r="AW29">
+        <v>10</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="AY29">
+        <v>10</v>
+      </c>
+      <c r="AZ29">
+        <v>11</v>
+      </c>
+      <c r="BA29">
+        <v>8</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>13</v>
+      </c>
+      <c r="BD29">
+        <v>1.34</v>
+      </c>
+      <c r="BE29">
+        <v>9.5</v>
+      </c>
+      <c r="BF29">
+        <v>3.86</v>
+      </c>
+      <c r="BG29">
+        <v>1.26</v>
+      </c>
+      <c r="BH29">
+        <v>3.35</v>
+      </c>
+      <c r="BI29">
+        <v>1.49</v>
+      </c>
+      <c r="BJ29">
+        <v>2.38</v>
+      </c>
+      <c r="BK29">
+        <v>1.8</v>
+      </c>
+      <c r="BL29">
+        <v>2</v>
+      </c>
+      <c r="BM29">
+        <v>2.35</v>
+      </c>
+      <c r="BN29">
+        <v>1.49</v>
+      </c>
+      <c r="BO29">
+        <v>3.2</v>
+      </c>
+      <c r="BP29">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7486645</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30">
+        <v>2.77</v>
+      </c>
+      <c r="R30">
+        <v>2.04</v>
+      </c>
+      <c r="S30">
+        <v>3.94</v>
+      </c>
+      <c r="T30">
+        <v>1.43</v>
+      </c>
+      <c r="U30">
+        <v>2.7</v>
+      </c>
+      <c r="V30">
+        <v>2.9</v>
+      </c>
+      <c r="W30">
+        <v>1.38</v>
+      </c>
+      <c r="X30">
+        <v>7.4</v>
+      </c>
+      <c r="Y30">
+        <v>1.07</v>
+      </c>
+      <c r="Z30">
+        <v>1.95</v>
+      </c>
+      <c r="AA30">
+        <v>3.42</v>
+      </c>
+      <c r="AB30">
+        <v>3.66</v>
+      </c>
+      <c r="AC30">
+        <v>1.03</v>
+      </c>
+      <c r="AD30">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE30">
+        <v>1.29</v>
+      </c>
+      <c r="AF30">
+        <v>3.14</v>
+      </c>
+      <c r="AG30">
+        <v>1.93</v>
+      </c>
+      <c r="AH30">
+        <v>1.83</v>
+      </c>
+      <c r="AI30">
+        <v>1.77</v>
+      </c>
+      <c r="AJ30">
+        <v>1.94</v>
+      </c>
+      <c r="AK30">
+        <v>1.31</v>
+      </c>
+      <c r="AL30">
+        <v>1.31</v>
+      </c>
+      <c r="AM30">
+        <v>1.66</v>
+      </c>
+      <c r="AN30">
+        <v>1.5</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1.67</v>
+      </c>
+      <c r="AR30">
+        <v>1.69</v>
+      </c>
+      <c r="AS30">
+        <v>0.84</v>
+      </c>
+      <c r="AT30">
+        <v>2.53</v>
+      </c>
+      <c r="AU30">
+        <v>7</v>
+      </c>
+      <c r="AV30">
+        <v>8</v>
+      </c>
+      <c r="AW30">
+        <v>7</v>
+      </c>
+      <c r="AX30">
+        <v>2</v>
+      </c>
+      <c r="AY30">
+        <v>14</v>
+      </c>
+      <c r="AZ30">
+        <v>10</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>3</v>
+      </c>
+      <c r="BD30">
+        <v>1.55</v>
+      </c>
+      <c r="BE30">
+        <v>7.5</v>
+      </c>
+      <c r="BF30">
+        <v>3.1</v>
+      </c>
+      <c r="BG30">
+        <v>1.26</v>
+      </c>
+      <c r="BH30">
+        <v>3.35</v>
+      </c>
+      <c r="BI30">
+        <v>1.49</v>
+      </c>
+      <c r="BJ30">
+        <v>2.38</v>
+      </c>
+      <c r="BK30">
+        <v>1.83</v>
+      </c>
+      <c r="BL30">
+        <v>1.83</v>
+      </c>
+      <c r="BM30">
+        <v>2.35</v>
+      </c>
+      <c r="BN30">
+        <v>1.49</v>
+      </c>
+      <c r="BO30">
+        <v>3.2</v>
+      </c>
+      <c r="BP30">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,9 @@
     <t>['24', '72']</t>
   </si>
   <si>
+    <t>['3', '42']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -380,6 +383,12 @@
   </si>
   <si>
     <t>['59', '69', '77']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['1', '68']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1009,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1824,7 +1833,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2030,7 +2039,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2236,7 +2245,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2854,7 +2863,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -2932,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3060,7 +3069,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3141,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3266,7 +3275,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3472,7 +3481,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3678,7 +3687,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3884,7 +3893,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -3965,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4296,7 +4305,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4502,7 +4511,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4708,7 +4717,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4914,7 +4923,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5120,7 +5129,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5326,7 +5335,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6150,7 +6159,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6768,7 +6777,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6925,6 +6934,418 @@
       </c>
       <c r="BP30">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7486478</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45509.54166666666</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31">
+        <v>3.3</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>3.4</v>
+      </c>
+      <c r="T31">
+        <v>1.56</v>
+      </c>
+      <c r="U31">
+        <v>2.31</v>
+      </c>
+      <c r="V31">
+        <v>3.54</v>
+      </c>
+      <c r="W31">
+        <v>1.27</v>
+      </c>
+      <c r="X31">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>1.03</v>
+      </c>
+      <c r="Z31">
+        <v>2.45</v>
+      </c>
+      <c r="AA31">
+        <v>3.04</v>
+      </c>
+      <c r="AB31">
+        <v>3.02</v>
+      </c>
+      <c r="AC31">
+        <v>1.06</v>
+      </c>
+      <c r="AD31">
+        <v>6.55</v>
+      </c>
+      <c r="AE31">
+        <v>1.55</v>
+      </c>
+      <c r="AF31">
+        <v>2.3</v>
+      </c>
+      <c r="AG31">
+        <v>2.37</v>
+      </c>
+      <c r="AH31">
+        <v>1.53</v>
+      </c>
+      <c r="AI31">
+        <v>2.05</v>
+      </c>
+      <c r="AJ31">
+        <v>1.72</v>
+      </c>
+      <c r="AK31">
+        <v>1.42</v>
+      </c>
+      <c r="AL31">
+        <v>1.3</v>
+      </c>
+      <c r="AM31">
+        <v>1.45</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0.5</v>
+      </c>
+      <c r="AQ31">
+        <v>1.5</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>1.13</v>
+      </c>
+      <c r="AT31">
+        <v>2.13</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>7</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>10</v>
+      </c>
+      <c r="AZ31">
+        <v>7</v>
+      </c>
+      <c r="BA31">
+        <v>3</v>
+      </c>
+      <c r="BB31">
+        <v>2</v>
+      </c>
+      <c r="BC31">
+        <v>5</v>
+      </c>
+      <c r="BD31">
+        <v>2.43</v>
+      </c>
+      <c r="BE31">
+        <v>7</v>
+      </c>
+      <c r="BF31">
+        <v>1.83</v>
+      </c>
+      <c r="BG31">
+        <v>1.4</v>
+      </c>
+      <c r="BH31">
+        <v>2.65</v>
+      </c>
+      <c r="BI31">
+        <v>1.71</v>
+      </c>
+      <c r="BJ31">
+        <v>1.97</v>
+      </c>
+      <c r="BK31">
+        <v>2.2</v>
+      </c>
+      <c r="BL31">
+        <v>1.57</v>
+      </c>
+      <c r="BM31">
+        <v>2.95</v>
+      </c>
+      <c r="BN31">
+        <v>1.32</v>
+      </c>
+      <c r="BO31">
+        <v>4.2</v>
+      </c>
+      <c r="BP31">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7486476</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45509.66666666666</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32">
+        <v>2.61</v>
+      </c>
+      <c r="R32">
+        <v>2.3</v>
+      </c>
+      <c r="S32">
+        <v>3.95</v>
+      </c>
+      <c r="T32">
+        <v>1.33</v>
+      </c>
+      <c r="U32">
+        <v>3.2</v>
+      </c>
+      <c r="V32">
+        <v>2.67</v>
+      </c>
+      <c r="W32">
+        <v>1.45</v>
+      </c>
+      <c r="X32">
+        <v>6.4</v>
+      </c>
+      <c r="Y32">
+        <v>1.1</v>
+      </c>
+      <c r="Z32">
+        <v>2.01</v>
+      </c>
+      <c r="AA32">
+        <v>3.35</v>
+      </c>
+      <c r="AB32">
+        <v>3.05</v>
+      </c>
+      <c r="AC32">
+        <v>1.02</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>1.25</v>
+      </c>
+      <c r="AF32">
+        <v>3.6</v>
+      </c>
+      <c r="AG32">
+        <v>1.83</v>
+      </c>
+      <c r="AH32">
+        <v>1.9</v>
+      </c>
+      <c r="AI32">
+        <v>1.65</v>
+      </c>
+      <c r="AJ32">
+        <v>2.1</v>
+      </c>
+      <c r="AK32">
+        <v>1.29</v>
+      </c>
+      <c r="AL32">
+        <v>1.29</v>
+      </c>
+      <c r="AM32">
+        <v>1.72</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>2</v>
+      </c>
+      <c r="AR32">
+        <v>1.69</v>
+      </c>
+      <c r="AS32">
+        <v>1.75</v>
+      </c>
+      <c r="AT32">
+        <v>3.44</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>8</v>
+      </c>
+      <c r="AW32">
+        <v>7</v>
+      </c>
+      <c r="AX32">
+        <v>8</v>
+      </c>
+      <c r="AY32">
+        <v>12</v>
+      </c>
+      <c r="AZ32">
+        <v>16</v>
+      </c>
+      <c r="BA32">
+        <v>2</v>
+      </c>
+      <c r="BB32">
+        <v>5</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>1.61</v>
+      </c>
+      <c r="BE32">
+        <v>7.5</v>
+      </c>
+      <c r="BF32">
+        <v>2.9</v>
+      </c>
+      <c r="BG32">
+        <v>1.32</v>
+      </c>
+      <c r="BH32">
+        <v>3.05</v>
+      </c>
+      <c r="BI32">
+        <v>1.57</v>
+      </c>
+      <c r="BJ32">
+        <v>2.2</v>
+      </c>
+      <c r="BK32">
+        <v>1.97</v>
+      </c>
+      <c r="BL32">
+        <v>1.71</v>
+      </c>
+      <c r="BM32">
+        <v>2.6</v>
+      </c>
+      <c r="BN32">
+        <v>1.42</v>
+      </c>
+      <c r="BO32">
+        <v>3.5</v>
+      </c>
+      <c r="BP32">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,9 @@
     <t>['3', '42']</t>
   </si>
   <si>
+    <t>['42', '87', '90+4']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>['1', '68']</t>
+  </si>
+  <si>
+    <t>['5', '43']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1015,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1833,7 +1839,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -1911,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2039,7 +2045,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2245,7 +2251,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2863,7 +2869,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3069,7 +3075,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3275,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3481,7 +3487,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3687,7 +3693,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3893,7 +3899,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4180,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4305,7 +4311,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4511,7 +4517,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4589,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -4717,7 +4723,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4923,7 +4929,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5129,7 +5135,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5335,7 +5341,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6159,7 +6165,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6777,7 +6783,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6983,7 +6989,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7189,7 +7195,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7346,6 +7352,212 @@
       </c>
       <c r="BP32">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7486487</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33">
+        <v>2.3</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>4.33</v>
+      </c>
+      <c r="T33">
+        <v>1.43</v>
+      </c>
+      <c r="U33">
+        <v>2.65</v>
+      </c>
+      <c r="V33">
+        <v>2.55</v>
+      </c>
+      <c r="W33">
+        <v>1.46</v>
+      </c>
+      <c r="X33">
+        <v>6.2</v>
+      </c>
+      <c r="Y33">
+        <v>1.1</v>
+      </c>
+      <c r="Z33">
+        <v>1.72</v>
+      </c>
+      <c r="AA33">
+        <v>3.69</v>
+      </c>
+      <c r="AB33">
+        <v>4.31</v>
+      </c>
+      <c r="AC33">
+        <v>1.02</v>
+      </c>
+      <c r="AD33">
+        <v>10.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.22</v>
+      </c>
+      <c r="AF33">
+        <v>4</v>
+      </c>
+      <c r="AG33">
+        <v>1.79</v>
+      </c>
+      <c r="AH33">
+        <v>1.98</v>
+      </c>
+      <c r="AI33">
+        <v>1.68</v>
+      </c>
+      <c r="AJ33">
+        <v>2.1</v>
+      </c>
+      <c r="AK33">
+        <v>1.17</v>
+      </c>
+      <c r="AL33">
+        <v>1.2</v>
+      </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>2.11</v>
+      </c>
+      <c r="AS33">
+        <v>1.68</v>
+      </c>
+      <c r="AT33">
+        <v>3.79</v>
+      </c>
+      <c r="AU33">
+        <v>9</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>11</v>
+      </c>
+      <c r="AX33">
+        <v>5</v>
+      </c>
+      <c r="AY33">
+        <v>20</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>8</v>
+      </c>
+      <c r="BD33">
+        <v>1.55</v>
+      </c>
+      <c r="BE33">
+        <v>8.5</v>
+      </c>
+      <c r="BF33">
+        <v>2.91</v>
+      </c>
+      <c r="BG33">
+        <v>1.26</v>
+      </c>
+      <c r="BH33">
+        <v>3.6</v>
+      </c>
+      <c r="BI33">
+        <v>1.44</v>
+      </c>
+      <c r="BJ33">
+        <v>2.6</v>
+      </c>
+      <c r="BK33">
+        <v>1.98</v>
+      </c>
+      <c r="BL33">
+        <v>1.82</v>
+      </c>
+      <c r="BM33">
+        <v>2.3</v>
+      </c>
+      <c r="BN33">
+        <v>1.55</v>
+      </c>
+      <c r="BO33">
+        <v>3.05</v>
+      </c>
+      <c r="BP33">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,15 @@
     <t>['42', '87', '90+4']</t>
   </si>
   <si>
+    <t>['79', '90+2']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -395,6 +404,15 @@
   </si>
   <si>
     <t>['5', '43']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1033,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1299,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1714,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1839,7 +1857,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2045,7 +2063,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2251,7 +2269,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2332,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2744,7 +2762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2869,7 +2887,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3075,7 +3093,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3281,7 +3299,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3487,7 +3505,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3693,7 +3711,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3899,7 +3917,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -3977,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4311,7 +4329,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4389,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4517,7 +4535,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4598,7 +4616,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4723,7 +4741,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4929,7 +4947,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5135,7 +5153,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5216,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5341,7 +5359,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5834,7 +5852,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6165,7 +6183,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6783,7 +6801,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6989,7 +7007,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7195,7 +7213,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7401,7 +7419,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7558,6 +7576,624 @@
       </c>
       <c r="BP33">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7486485</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q34">
+        <v>2.8</v>
+      </c>
+      <c r="R34">
+        <v>1.9</v>
+      </c>
+      <c r="S34">
+        <v>4.2</v>
+      </c>
+      <c r="T34">
+        <v>1.56</v>
+      </c>
+      <c r="U34">
+        <v>2.31</v>
+      </c>
+      <c r="V34">
+        <v>3.62</v>
+      </c>
+      <c r="W34">
+        <v>1.26</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
+        <v>1.03</v>
+      </c>
+      <c r="Z34">
+        <v>2.06</v>
+      </c>
+      <c r="AA34">
+        <v>3.04</v>
+      </c>
+      <c r="AB34">
+        <v>3.78</v>
+      </c>
+      <c r="AC34">
+        <v>1.1</v>
+      </c>
+      <c r="AD34">
+        <v>6</v>
+      </c>
+      <c r="AE34">
+        <v>1.5</v>
+      </c>
+      <c r="AF34">
+        <v>2.4</v>
+      </c>
+      <c r="AG34">
+        <v>2.37</v>
+      </c>
+      <c r="AH34">
+        <v>1.48</v>
+      </c>
+      <c r="AI34">
+        <v>2.15</v>
+      </c>
+      <c r="AJ34">
+        <v>1.66</v>
+      </c>
+      <c r="AK34">
+        <v>1.25</v>
+      </c>
+      <c r="AL34">
+        <v>1.3</v>
+      </c>
+      <c r="AM34">
+        <v>1.68</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1.5</v>
+      </c>
+      <c r="AP34">
+        <v>1.67</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1.21</v>
+      </c>
+      <c r="AS34">
+        <v>0.9</v>
+      </c>
+      <c r="AT34">
+        <v>2.11</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>5</v>
+      </c>
+      <c r="AW34">
+        <v>3</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>6</v>
+      </c>
+      <c r="AZ34">
+        <v>10</v>
+      </c>
+      <c r="BA34">
+        <v>8</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
+        <v>9</v>
+      </c>
+      <c r="BD34">
+        <v>1.75</v>
+      </c>
+      <c r="BE34">
+        <v>7.5</v>
+      </c>
+      <c r="BF34">
+        <v>2.45</v>
+      </c>
+      <c r="BG34">
+        <v>1.35</v>
+      </c>
+      <c r="BH34">
+        <v>2.84</v>
+      </c>
+      <c r="BI34">
+        <v>1.69</v>
+      </c>
+      <c r="BJ34">
+        <v>2.12</v>
+      </c>
+      <c r="BK34">
+        <v>2.13</v>
+      </c>
+      <c r="BL34">
+        <v>1.68</v>
+      </c>
+      <c r="BM34">
+        <v>2.79</v>
+      </c>
+      <c r="BN34">
+        <v>1.36</v>
+      </c>
+      <c r="BO34">
+        <v>4.2</v>
+      </c>
+      <c r="BP34">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7486484</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45514.54166666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35">
+        <v>3.25</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
+        <v>3.3</v>
+      </c>
+      <c r="T35">
+        <v>1.48</v>
+      </c>
+      <c r="U35">
+        <v>2.5</v>
+      </c>
+      <c r="V35">
+        <v>3.2</v>
+      </c>
+      <c r="W35">
+        <v>1.32</v>
+      </c>
+      <c r="X35">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y35">
+        <v>1.05</v>
+      </c>
+      <c r="Z35">
+        <v>2.59</v>
+      </c>
+      <c r="AA35">
+        <v>3.03</v>
+      </c>
+      <c r="AB35">
+        <v>2.78</v>
+      </c>
+      <c r="AC35">
+        <v>1.04</v>
+      </c>
+      <c r="AD35">
+        <v>7.4</v>
+      </c>
+      <c r="AE35">
+        <v>1.38</v>
+      </c>
+      <c r="AF35">
+        <v>2.9</v>
+      </c>
+      <c r="AG35">
+        <v>2.2</v>
+      </c>
+      <c r="AH35">
+        <v>1.57</v>
+      </c>
+      <c r="AI35">
+        <v>1.87</v>
+      </c>
+      <c r="AJ35">
+        <v>1.87</v>
+      </c>
+      <c r="AK35">
+        <v>1.44</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.47</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>2.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.51</v>
+      </c>
+      <c r="AS35">
+        <v>1.38</v>
+      </c>
+      <c r="AT35">
+        <v>2.89</v>
+      </c>
+      <c r="AU35">
+        <v>8</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>13</v>
+      </c>
+      <c r="AZ35">
+        <v>9</v>
+      </c>
+      <c r="BA35">
+        <v>10</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
+        <v>14</v>
+      </c>
+      <c r="BD35">
+        <v>1.95</v>
+      </c>
+      <c r="BE35">
+        <v>7.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.1</v>
+      </c>
+      <c r="BG35">
+        <v>1.34</v>
+      </c>
+      <c r="BH35">
+        <v>2.88</v>
+      </c>
+      <c r="BI35">
+        <v>1.54</v>
+      </c>
+      <c r="BJ35">
+        <v>2.4</v>
+      </c>
+      <c r="BK35">
+        <v>1.92</v>
+      </c>
+      <c r="BL35">
+        <v>1.88</v>
+      </c>
+      <c r="BM35">
+        <v>2.41</v>
+      </c>
+      <c r="BN35">
+        <v>1.54</v>
+      </c>
+      <c r="BO35">
+        <v>3.3</v>
+      </c>
+      <c r="BP35">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7486486</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45514.66666666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>2.7</v>
+      </c>
+      <c r="T36">
+        <v>1.46</v>
+      </c>
+      <c r="U36">
+        <v>2.55</v>
+      </c>
+      <c r="V36">
+        <v>3.04</v>
+      </c>
+      <c r="W36">
+        <v>1.35</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>3.99</v>
+      </c>
+      <c r="AA36">
+        <v>3.3</v>
+      </c>
+      <c r="AB36">
+        <v>1.9</v>
+      </c>
+      <c r="AC36">
+        <v>1.03</v>
+      </c>
+      <c r="AD36">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <v>1.36</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
+        <v>1.65</v>
+      </c>
+      <c r="AI36">
+        <v>1.87</v>
+      </c>
+      <c r="AJ36">
+        <v>1.87</v>
+      </c>
+      <c r="AK36">
+        <v>1.72</v>
+      </c>
+      <c r="AL36">
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <v>1.25</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0.5</v>
+      </c>
+      <c r="AP36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ36">
+        <v>0.67</v>
+      </c>
+      <c r="AR36">
+        <v>1.67</v>
+      </c>
+      <c r="AS36">
+        <v>1.66</v>
+      </c>
+      <c r="AT36">
+        <v>3.33</v>
+      </c>
+      <c r="AU36">
+        <v>4</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>6</v>
+      </c>
+      <c r="AY36">
+        <v>9</v>
+      </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+      <c r="BA36">
+        <v>2</v>
+      </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
+      <c r="BC36">
+        <v>5</v>
+      </c>
+      <c r="BD36">
+        <v>2.2</v>
+      </c>
+      <c r="BE36">
+        <v>7.5</v>
+      </c>
+      <c r="BF36">
+        <v>1.91</v>
+      </c>
+      <c r="BG36">
+        <v>1.36</v>
+      </c>
+      <c r="BH36">
+        <v>2.8</v>
+      </c>
+      <c r="BI36">
+        <v>1.65</v>
+      </c>
+      <c r="BJ36">
+        <v>2.05</v>
+      </c>
+      <c r="BK36">
+        <v>2.1</v>
+      </c>
+      <c r="BL36">
+        <v>1.62</v>
+      </c>
+      <c r="BM36">
+        <v>2.8</v>
+      </c>
+      <c r="BN36">
+        <v>1.36</v>
+      </c>
+      <c r="BO36">
+        <v>3.9</v>
+      </c>
+      <c r="BP36">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,12 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['38', '52', '63']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -413,6 +419,9 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['32', '82']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,7 +1042,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1114,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1320,7 +1329,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1523,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1857,7 +1866,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2063,7 +2072,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2141,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2269,7 +2278,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2887,7 +2896,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3093,7 +3102,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3299,7 +3308,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3505,7 +3514,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3711,7 +3720,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3917,7 +3926,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4329,7 +4338,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4410,7 +4419,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4535,7 +4544,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4741,7 +4750,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4947,7 +4956,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5025,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5153,7 +5162,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5359,7 +5368,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5437,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -6183,7 +6192,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6801,7 +6810,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6879,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7007,7 +7016,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7213,7 +7222,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7419,7 +7428,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7625,7 +7634,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7831,7 +7840,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8037,7 +8046,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8194,6 +8203,418 @@
       </c>
       <c r="BP36">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7486955</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45515.54166666666</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37">
+        <v>2.95</v>
+      </c>
+      <c r="R37">
+        <v>2.1</v>
+      </c>
+      <c r="S37">
+        <v>3.3</v>
+      </c>
+      <c r="T37">
+        <v>1.4</v>
+      </c>
+      <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>2.75</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>6.75</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>2.55</v>
+      </c>
+      <c r="AA37">
+        <v>3.1</v>
+      </c>
+      <c r="AB37">
+        <v>2.66</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>9.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.28</v>
+      </c>
+      <c r="AF37">
+        <v>3.5</v>
+      </c>
+      <c r="AG37">
+        <v>2.1</v>
+      </c>
+      <c r="AH37">
+        <v>1.65</v>
+      </c>
+      <c r="AI37">
+        <v>1.68</v>
+      </c>
+      <c r="AJ37">
+        <v>2.1</v>
+      </c>
+      <c r="AK37">
+        <v>1.4</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>1.55</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>1.33</v>
+      </c>
+      <c r="AQ37">
+        <v>2.33</v>
+      </c>
+      <c r="AR37">
+        <v>1.45</v>
+      </c>
+      <c r="AS37">
+        <v>1.78</v>
+      </c>
+      <c r="AT37">
+        <v>3.23</v>
+      </c>
+      <c r="AU37">
+        <v>7</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>9</v>
+      </c>
+      <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>16</v>
+      </c>
+      <c r="AZ37">
+        <v>7</v>
+      </c>
+      <c r="BA37">
+        <v>9</v>
+      </c>
+      <c r="BB37">
+        <v>1</v>
+      </c>
+      <c r="BC37">
+        <v>10</v>
+      </c>
+      <c r="BD37">
+        <v>2.1</v>
+      </c>
+      <c r="BE37">
+        <v>7.5</v>
+      </c>
+      <c r="BF37">
+        <v>2</v>
+      </c>
+      <c r="BG37">
+        <v>1.22</v>
+      </c>
+      <c r="BH37">
+        <v>3.65</v>
+      </c>
+      <c r="BI37">
+        <v>1.41</v>
+      </c>
+      <c r="BJ37">
+        <v>2.6</v>
+      </c>
+      <c r="BK37">
+        <v>1.92</v>
+      </c>
+      <c r="BL37">
+        <v>1.88</v>
+      </c>
+      <c r="BM37">
+        <v>2.2</v>
+      </c>
+      <c r="BN37">
+        <v>1.66</v>
+      </c>
+      <c r="BO37">
+        <v>2.93</v>
+      </c>
+      <c r="BP37">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7486483</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2.2</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>1.39</v>
+      </c>
+      <c r="U38">
+        <v>2.8</v>
+      </c>
+      <c r="V38">
+        <v>2.86</v>
+      </c>
+      <c r="W38">
+        <v>1.39</v>
+      </c>
+      <c r="X38">
+        <v>7.2</v>
+      </c>
+      <c r="Y38">
+        <v>1.07</v>
+      </c>
+      <c r="Z38">
+        <v>1.48</v>
+      </c>
+      <c r="AA38">
+        <v>3.92</v>
+      </c>
+      <c r="AB38">
+        <v>6.2</v>
+      </c>
+      <c r="AC38">
+        <v>1.02</v>
+      </c>
+      <c r="AD38">
+        <v>8.9</v>
+      </c>
+      <c r="AE38">
+        <v>1.3</v>
+      </c>
+      <c r="AF38">
+        <v>3.3</v>
+      </c>
+      <c r="AG38">
+        <v>2.05</v>
+      </c>
+      <c r="AH38">
+        <v>1.68</v>
+      </c>
+      <c r="AI38">
+        <v>2.05</v>
+      </c>
+      <c r="AJ38">
+        <v>1.72</v>
+      </c>
+      <c r="AK38">
+        <v>1.06</v>
+      </c>
+      <c r="AL38">
+        <v>1.17</v>
+      </c>
+      <c r="AM38">
+        <v>2.55</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>2</v>
+      </c>
+      <c r="AP38">
+        <v>1.5</v>
+      </c>
+      <c r="AQ38">
+        <v>1.33</v>
+      </c>
+      <c r="AR38">
+        <v>1.73</v>
+      </c>
+      <c r="AS38">
+        <v>1.54</v>
+      </c>
+      <c r="AT38">
+        <v>3.27</v>
+      </c>
+      <c r="AU38">
+        <v>7</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+      <c r="AW38">
+        <v>5</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>12</v>
+      </c>
+      <c r="AZ38">
+        <v>6</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>2</v>
+      </c>
+      <c r="BC38">
+        <v>5</v>
+      </c>
+      <c r="BD38">
+        <v>1.26</v>
+      </c>
+      <c r="BE38">
+        <v>10</v>
+      </c>
+      <c r="BF38">
+        <v>4.86</v>
+      </c>
+      <c r="BG38">
+        <v>1.29</v>
+      </c>
+      <c r="BH38">
+        <v>3.15</v>
+      </c>
+      <c r="BI38">
+        <v>1.53</v>
+      </c>
+      <c r="BJ38">
+        <v>2.28</v>
+      </c>
+      <c r="BK38">
+        <v>1.98</v>
+      </c>
+      <c r="BL38">
+        <v>1.82</v>
+      </c>
+      <c r="BM38">
+        <v>2.48</v>
+      </c>
+      <c r="BN38">
+        <v>1.45</v>
+      </c>
+      <c r="BO38">
+        <v>3.35</v>
+      </c>
+      <c r="BP38">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,9 @@
     <t>['38', '52', '63']</t>
   </si>
   <si>
+    <t>['13', '45+4']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>['32', '82']</t>
+  </si>
+  <si>
+    <t>['3', '57']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1048,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1866,7 +1872,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -1947,7 +1953,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2072,7 +2078,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2153,7 +2159,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2278,7 +2284,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2562,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2768,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2896,7 +2902,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3102,7 +3108,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3308,7 +3314,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3514,7 +3520,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3720,7 +3726,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3926,7 +3932,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4338,7 +4344,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4544,7 +4550,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4750,7 +4756,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4828,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -4956,7 +4962,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5037,7 +5043,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5162,7 +5168,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5368,7 +5374,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5655,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.7</v>
@@ -5858,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6192,7 +6198,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6810,7 +6816,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6891,7 +6897,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7016,7 +7022,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7222,7 +7228,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7428,7 +7434,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7634,7 +7640,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7840,7 +7846,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8046,7 +8052,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8252,7 +8258,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8615,6 +8621,418 @@
       </c>
       <c r="BP38">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7486956</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45516.54166666666</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39">
+        <v>3.75</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>3.1</v>
+      </c>
+      <c r="T39">
+        <v>1.54</v>
+      </c>
+      <c r="U39">
+        <v>2.36</v>
+      </c>
+      <c r="V39">
+        <v>3.54</v>
+      </c>
+      <c r="W39">
+        <v>1.27</v>
+      </c>
+      <c r="X39">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>1.03</v>
+      </c>
+      <c r="Z39">
+        <v>2.59</v>
+      </c>
+      <c r="AA39">
+        <v>2.92</v>
+      </c>
+      <c r="AB39">
+        <v>2.49</v>
+      </c>
+      <c r="AC39">
+        <v>1.06</v>
+      </c>
+      <c r="AD39">
+        <v>6.55</v>
+      </c>
+      <c r="AE39">
+        <v>1.47</v>
+      </c>
+      <c r="AF39">
+        <v>2.55</v>
+      </c>
+      <c r="AG39">
+        <v>2.31</v>
+      </c>
+      <c r="AH39">
+        <v>1.43</v>
+      </c>
+      <c r="AI39">
+        <v>2.05</v>
+      </c>
+      <c r="AJ39">
+        <v>1.72</v>
+      </c>
+      <c r="AK39">
+        <v>1.56</v>
+      </c>
+      <c r="AL39">
+        <v>1.35</v>
+      </c>
+      <c r="AM39">
+        <v>1.34</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>1.67</v>
+      </c>
+      <c r="AP39">
+        <v>1.67</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS39">
+        <v>1.07</v>
+      </c>
+      <c r="AT39">
+        <v>1.88</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+      <c r="AY39">
+        <v>8</v>
+      </c>
+      <c r="AZ39">
+        <v>7</v>
+      </c>
+      <c r="BA39">
+        <v>6</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
+        <v>9</v>
+      </c>
+      <c r="BD39">
+        <v>2.29</v>
+      </c>
+      <c r="BE39">
+        <v>7.5</v>
+      </c>
+      <c r="BF39">
+        <v>1.85</v>
+      </c>
+      <c r="BG39">
+        <v>1.4</v>
+      </c>
+      <c r="BH39">
+        <v>2.63</v>
+      </c>
+      <c r="BI39">
+        <v>1.72</v>
+      </c>
+      <c r="BJ39">
+        <v>1.96</v>
+      </c>
+      <c r="BK39">
+        <v>2.2</v>
+      </c>
+      <c r="BL39">
+        <v>1.56</v>
+      </c>
+      <c r="BM39">
+        <v>3</v>
+      </c>
+      <c r="BN39">
+        <v>1.32</v>
+      </c>
+      <c r="BO39">
+        <v>4.2</v>
+      </c>
+      <c r="BP39">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7486488</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45516.66666666666</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q40">
+        <v>3.3</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>3.2</v>
+      </c>
+      <c r="T40">
+        <v>1.46</v>
+      </c>
+      <c r="U40">
+        <v>2.55</v>
+      </c>
+      <c r="V40">
+        <v>3.1</v>
+      </c>
+      <c r="W40">
+        <v>1.34</v>
+      </c>
+      <c r="X40">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>1.06</v>
+      </c>
+      <c r="Z40">
+        <v>2.8</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>2.55</v>
+      </c>
+      <c r="AC40">
+        <v>1.03</v>
+      </c>
+      <c r="AD40">
+        <v>7.9</v>
+      </c>
+      <c r="AE40">
+        <v>1.36</v>
+      </c>
+      <c r="AF40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>2.1</v>
+      </c>
+      <c r="AH40">
+        <v>1.65</v>
+      </c>
+      <c r="AI40">
+        <v>1.8</v>
+      </c>
+      <c r="AJ40">
+        <v>1.95</v>
+      </c>
+      <c r="AK40">
+        <v>1.47</v>
+      </c>
+      <c r="AL40">
+        <v>1.28</v>
+      </c>
+      <c r="AM40">
+        <v>1.44</v>
+      </c>
+      <c r="AN40">
+        <v>1.5</v>
+      </c>
+      <c r="AO40">
+        <v>0.5</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
+        <v>0.67</v>
+      </c>
+      <c r="AR40">
+        <v>1.48</v>
+      </c>
+      <c r="AS40">
+        <v>0.89</v>
+      </c>
+      <c r="AT40">
+        <v>2.37</v>
+      </c>
+      <c r="AU40">
+        <v>7</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>6</v>
+      </c>
+      <c r="AX40">
+        <v>7</v>
+      </c>
+      <c r="AY40">
+        <v>13</v>
+      </c>
+      <c r="AZ40">
+        <v>11</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>9</v>
+      </c>
+      <c r="BD40">
+        <v>1.95</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.1</v>
+      </c>
+      <c r="BG40">
+        <v>1.36</v>
+      </c>
+      <c r="BH40">
+        <v>2.8</v>
+      </c>
+      <c r="BI40">
+        <v>1.65</v>
+      </c>
+      <c r="BJ40">
+        <v>2.05</v>
+      </c>
+      <c r="BK40">
+        <v>2.1</v>
+      </c>
+      <c r="BL40">
+        <v>1.62</v>
+      </c>
+      <c r="BM40">
+        <v>2.8</v>
+      </c>
+      <c r="BN40">
+        <v>1.36</v>
+      </c>
+      <c r="BO40">
+        <v>3.9</v>
+      </c>
+      <c r="BP40">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -8969,22 +8969,22 @@
         <v>2.37</v>
       </c>
       <c r="AU40">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW40">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX40">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY40">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ40">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA40">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['13', '45+4']</t>
   </si>
   <si>
+    <t>['35', '45', '63', '73', '84']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -428,6 +431,12 @@
   </si>
   <si>
     <t>['3', '57']</t>
+  </si>
+  <si>
+    <t>['39', '77']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1057,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1872,7 +1881,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2078,7 +2087,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2284,7 +2293,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2571,7 +2580,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2902,7 +2911,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -2980,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3108,7 +3117,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3186,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3314,7 +3323,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3520,7 +3529,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3726,7 +3735,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3807,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3932,7 +3941,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4344,7 +4353,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4550,7 +4559,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4756,7 +4765,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4837,7 +4846,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -4962,7 +4971,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5168,7 +5177,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5374,7 +5383,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6198,7 +6207,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6279,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -6688,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -6816,7 +6825,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7022,7 +7031,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7100,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7228,7 +7237,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7434,7 +7443,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7640,7 +7649,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7846,7 +7855,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8052,7 +8061,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8258,7 +8267,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8876,7 +8885,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9033,6 +9042,418 @@
       </c>
       <c r="BP40">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7486490</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45520.54166666666</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41">
+        <v>3.15</v>
+      </c>
+      <c r="R41">
+        <v>1.94</v>
+      </c>
+      <c r="S41">
+        <v>3.85</v>
+      </c>
+      <c r="T41">
+        <v>1.48</v>
+      </c>
+      <c r="U41">
+        <v>2.45</v>
+      </c>
+      <c r="V41">
+        <v>3.6</v>
+      </c>
+      <c r="W41">
+        <v>1.24</v>
+      </c>
+      <c r="X41">
+        <v>11</v>
+      </c>
+      <c r="Y41">
+        <v>1.04</v>
+      </c>
+      <c r="Z41">
+        <v>2.4</v>
+      </c>
+      <c r="AA41">
+        <v>3.05</v>
+      </c>
+      <c r="AB41">
+        <v>3.13</v>
+      </c>
+      <c r="AC41">
+        <v>1.1</v>
+      </c>
+      <c r="AD41">
+        <v>7.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.48</v>
+      </c>
+      <c r="AF41">
+        <v>2.4</v>
+      </c>
+      <c r="AG41">
+        <v>2.4</v>
+      </c>
+      <c r="AH41">
+        <v>1.52</v>
+      </c>
+      <c r="AI41">
+        <v>2.05</v>
+      </c>
+      <c r="AJ41">
+        <v>1.73</v>
+      </c>
+      <c r="AK41">
+        <v>1.33</v>
+      </c>
+      <c r="AL41">
+        <v>1.33</v>
+      </c>
+      <c r="AM41">
+        <v>1.57</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>0.5</v>
+      </c>
+      <c r="AP41">
+        <v>0.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.24</v>
+      </c>
+      <c r="AS41">
+        <v>1.13</v>
+      </c>
+      <c r="AT41">
+        <v>2.37</v>
+      </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>7</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>10</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>11</v>
+      </c>
+      <c r="BD41">
+        <v>2.06</v>
+      </c>
+      <c r="BE41">
+        <v>6.3</v>
+      </c>
+      <c r="BF41">
+        <v>2.17</v>
+      </c>
+      <c r="BG41">
+        <v>1.31</v>
+      </c>
+      <c r="BH41">
+        <v>3.04</v>
+      </c>
+      <c r="BI41">
+        <v>1.57</v>
+      </c>
+      <c r="BJ41">
+        <v>2.19</v>
+      </c>
+      <c r="BK41">
+        <v>2</v>
+      </c>
+      <c r="BL41">
+        <v>1.72</v>
+      </c>
+      <c r="BM41">
+        <v>2.6</v>
+      </c>
+      <c r="BN41">
+        <v>1.41</v>
+      </c>
+      <c r="BO41">
+        <v>3.65</v>
+      </c>
+      <c r="BP41">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7486957</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45520.66666666666</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s">
+        <v>112</v>
+      </c>
+      <c r="P42" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q42">
+        <v>2.07</v>
+      </c>
+      <c r="R42">
+        <v>2.35</v>
+      </c>
+      <c r="S42">
+        <v>5.4</v>
+      </c>
+      <c r="T42">
+        <v>1.32</v>
+      </c>
+      <c r="U42">
+        <v>3.1</v>
+      </c>
+      <c r="V42">
+        <v>2.8</v>
+      </c>
+      <c r="W42">
+        <v>1.38</v>
+      </c>
+      <c r="X42">
+        <v>7.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>1.45</v>
+      </c>
+      <c r="AA42">
+        <v>3.68</v>
+      </c>
+      <c r="AB42">
+        <v>5.05</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE42">
+        <v>1.26</v>
+      </c>
+      <c r="AF42">
+        <v>3.34</v>
+      </c>
+      <c r="AG42">
+        <v>1.77</v>
+      </c>
+      <c r="AH42">
+        <v>1.77</v>
+      </c>
+      <c r="AI42">
+        <v>1.98</v>
+      </c>
+      <c r="AJ42">
+        <v>1.79</v>
+      </c>
+      <c r="AK42">
+        <v>1.13</v>
+      </c>
+      <c r="AL42">
+        <v>1.19</v>
+      </c>
+      <c r="AM42">
+        <v>2.35</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.69</v>
+      </c>
+      <c r="AS42">
+        <v>1.02</v>
+      </c>
+      <c r="AT42">
+        <v>2.71</v>
+      </c>
+      <c r="AU42">
+        <v>12</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
+        <v>20</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>9</v>
+      </c>
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
+        <v>11</v>
+      </c>
+      <c r="BD42">
+        <v>1.26</v>
+      </c>
+      <c r="BE42">
+        <v>10</v>
+      </c>
+      <c r="BF42">
+        <v>4.86</v>
+      </c>
+      <c r="BG42">
+        <v>1.33</v>
+      </c>
+      <c r="BH42">
+        <v>2.93</v>
+      </c>
+      <c r="BI42">
+        <v>1.6</v>
+      </c>
+      <c r="BJ42">
+        <v>2.14</v>
+      </c>
+      <c r="BK42">
+        <v>2.04</v>
+      </c>
+      <c r="BL42">
+        <v>1.69</v>
+      </c>
+      <c r="BM42">
+        <v>2.71</v>
+      </c>
+      <c r="BN42">
+        <v>1.38</v>
+      </c>
+      <c r="BO42">
+        <v>3.74</v>
+      </c>
+      <c r="BP42">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,9 @@
     <t>['35', '45', '63', '73', '84']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1063,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1550,7 +1556,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1881,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -1959,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2087,7 +2093,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2293,7 +2299,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>2.33</v>
@@ -2911,7 +2917,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3117,7 +3123,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3198,7 +3204,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3323,7 +3329,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3529,7 +3535,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3735,7 +3741,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3941,7 +3947,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4353,7 +4359,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4559,7 +4565,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4637,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>2.33</v>
@@ -4765,7 +4771,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4971,7 +4977,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5177,7 +5183,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5383,7 +5389,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6207,7 +6213,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6494,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6825,7 +6831,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7031,7 +7037,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7112,7 +7118,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7237,7 +7243,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7443,7 +7449,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7521,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7649,7 +7655,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7855,7 +7861,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8061,7 +8067,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8267,7 +8273,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8885,7 +8891,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9091,7 +9097,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9297,7 +9303,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9454,6 +9460,418 @@
       </c>
       <c r="BP42">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7486492</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45521.54166666666</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>2.05</v>
+      </c>
+      <c r="S43">
+        <v>3.75</v>
+      </c>
+      <c r="T43">
+        <v>1.44</v>
+      </c>
+      <c r="U43">
+        <v>2.63</v>
+      </c>
+      <c r="V43">
+        <v>3.25</v>
+      </c>
+      <c r="W43">
+        <v>1.33</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>2.05</v>
+      </c>
+      <c r="AA43">
+        <v>3.1</v>
+      </c>
+      <c r="AB43">
+        <v>3.25</v>
+      </c>
+      <c r="AC43">
+        <v>1.04</v>
+      </c>
+      <c r="AD43">
+        <v>9</v>
+      </c>
+      <c r="AE43">
+        <v>1.21</v>
+      </c>
+      <c r="AF43">
+        <v>2.22</v>
+      </c>
+      <c r="AG43">
+        <v>2.05</v>
+      </c>
+      <c r="AH43">
+        <v>1.65</v>
+      </c>
+      <c r="AI43">
+        <v>1.83</v>
+      </c>
+      <c r="AJ43">
+        <v>1.83</v>
+      </c>
+      <c r="AK43">
+        <v>1.3</v>
+      </c>
+      <c r="AL43">
+        <v>1.35</v>
+      </c>
+      <c r="AM43">
+        <v>1.7</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>1.5</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.6</v>
+      </c>
+      <c r="AS43">
+        <v>1.14</v>
+      </c>
+      <c r="AT43">
+        <v>2.74</v>
+      </c>
+      <c r="AU43">
+        <v>4</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>14</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>18</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>7</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>1.64</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>2.67</v>
+      </c>
+      <c r="BG43">
+        <v>1.26</v>
+      </c>
+      <c r="BH43">
+        <v>3.35</v>
+      </c>
+      <c r="BI43">
+        <v>1.53</v>
+      </c>
+      <c r="BJ43">
+        <v>2.44</v>
+      </c>
+      <c r="BK43">
+        <v>2</v>
+      </c>
+      <c r="BL43">
+        <v>1.8</v>
+      </c>
+      <c r="BM43">
+        <v>2.4</v>
+      </c>
+      <c r="BN43">
+        <v>1.55</v>
+      </c>
+      <c r="BO43">
+        <v>3.2</v>
+      </c>
+      <c r="BP43">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7486494</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45521.66666666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>86</v>
+      </c>
+      <c r="P44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>2.4</v>
+      </c>
+      <c r="S44">
+        <v>6.5</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.11</v>
+      </c>
+      <c r="Z44">
+        <v>1.44</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>5.75</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>10</v>
+      </c>
+      <c r="AE44">
+        <v>1.22</v>
+      </c>
+      <c r="AF44">
+        <v>3.8</v>
+      </c>
+      <c r="AG44">
+        <v>1.73</v>
+      </c>
+      <c r="AH44">
+        <v>1.95</v>
+      </c>
+      <c r="AI44">
+        <v>1.83</v>
+      </c>
+      <c r="AJ44">
+        <v>1.83</v>
+      </c>
+      <c r="AK44">
+        <v>1.13</v>
+      </c>
+      <c r="AL44">
+        <v>1.2</v>
+      </c>
+      <c r="AM44">
+        <v>2.6</v>
+      </c>
+      <c r="AN44">
+        <v>1.33</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>2.23</v>
+      </c>
+      <c r="AS44">
+        <v>1.49</v>
+      </c>
+      <c r="AT44">
+        <v>3.72</v>
+      </c>
+      <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>5</v>
+      </c>
+      <c r="AW44">
+        <v>9</v>
+      </c>
+      <c r="AX44">
+        <v>5</v>
+      </c>
+      <c r="AY44">
+        <v>12</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>7</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>11</v>
+      </c>
+      <c r="BD44">
+        <v>1.34</v>
+      </c>
+      <c r="BE44">
+        <v>9</v>
+      </c>
+      <c r="BF44">
+        <v>4.09</v>
+      </c>
+      <c r="BG44">
+        <v>1.26</v>
+      </c>
+      <c r="BH44">
+        <v>3.35</v>
+      </c>
+      <c r="BI44">
+        <v>1.52</v>
+      </c>
+      <c r="BJ44">
+        <v>2.47</v>
+      </c>
+      <c r="BK44">
+        <v>1.91</v>
+      </c>
+      <c r="BL44">
+        <v>1.89</v>
+      </c>
+      <c r="BM44">
+        <v>2.38</v>
+      </c>
+      <c r="BN44">
+        <v>1.56</v>
+      </c>
+      <c r="BO44">
+        <v>3.2</v>
+      </c>
+      <c r="BP44">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,9 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -404,9 +407,6 @@
   </si>
   <si>
     <t>['51', '90+5']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['59', '69', '77']</t>
@@ -804,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1063,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1887,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2093,7 +2093,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2174,7 +2174,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2917,7 +2917,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3123,7 +3123,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3329,7 +3329,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3535,7 +3535,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3741,7 +3741,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3947,7 +3947,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4359,7 +4359,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4565,7 +4565,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4771,7 +4771,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4977,7 +4977,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5058,7 +5058,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5183,7 +5183,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5389,7 +5389,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6213,7 +6213,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -8972,7 +8972,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9417,10 +9417,10 @@
         <v>9</v>
       </c>
       <c r="BB42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD42">
         <v>1.26</v>
@@ -9872,6 +9872,212 @@
       </c>
       <c r="BP44">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7486493</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45522.64583333334</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>114</v>
+      </c>
+      <c r="P45" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q45">
+        <v>2.4</v>
+      </c>
+      <c r="R45">
+        <v>2.17</v>
+      </c>
+      <c r="S45">
+        <v>4.6</v>
+      </c>
+      <c r="T45">
+        <v>1.35</v>
+      </c>
+      <c r="U45">
+        <v>2.95</v>
+      </c>
+      <c r="V45">
+        <v>2.88</v>
+      </c>
+      <c r="W45">
+        <v>1.36</v>
+      </c>
+      <c r="X45">
+        <v>7.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.07</v>
+      </c>
+      <c r="Z45">
+        <v>1.68</v>
+      </c>
+      <c r="AA45">
+        <v>3.14</v>
+      </c>
+      <c r="AB45">
+        <v>4.04</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1.29</v>
+      </c>
+      <c r="AF45">
+        <v>3.6</v>
+      </c>
+      <c r="AG45">
+        <v>1.81</v>
+      </c>
+      <c r="AH45">
+        <v>1.73</v>
+      </c>
+      <c r="AI45">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45">
+        <v>1.95</v>
+      </c>
+      <c r="AK45">
+        <v>1.19</v>
+      </c>
+      <c r="AL45">
+        <v>1.24</v>
+      </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>0.67</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>0.75</v>
+      </c>
+      <c r="AR45">
+        <v>1.51</v>
+      </c>
+      <c r="AS45">
+        <v>0.89</v>
+      </c>
+      <c r="AT45">
+        <v>2.4</v>
+      </c>
+      <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AV45">
+        <v>5</v>
+      </c>
+      <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>11</v>
+      </c>
+      <c r="BA45">
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>4</v>
+      </c>
+      <c r="BD45">
+        <v>1.55</v>
+      </c>
+      <c r="BE45">
+        <v>8</v>
+      </c>
+      <c r="BF45">
+        <v>3.02</v>
+      </c>
+      <c r="BG45">
+        <v>1.29</v>
+      </c>
+      <c r="BH45">
+        <v>3.14</v>
+      </c>
+      <c r="BI45">
+        <v>1.55</v>
+      </c>
+      <c r="BJ45">
+        <v>2.23</v>
+      </c>
+      <c r="BK45">
+        <v>1.95</v>
+      </c>
+      <c r="BL45">
+        <v>1.76</v>
+      </c>
+      <c r="BM45">
+        <v>2.54</v>
+      </c>
+      <c r="BN45">
+        <v>1.43</v>
+      </c>
+      <c r="BO45">
+        <v>3.48</v>
+      </c>
+      <c r="BP45">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['38', '58', '70']</t>
+  </si>
+  <si>
+    <t>['7', '52', '57']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -443,6 +449,9 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['48', '83']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1141,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1887,7 +1896,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2093,7 +2102,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2299,7 +2308,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2917,7 +2926,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3123,7 +3132,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3329,7 +3338,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3535,7 +3544,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3741,7 +3750,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3947,7 +3956,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4028,7 +4037,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4359,7 +4368,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4565,7 +4574,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4771,7 +4780,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4977,7 +4986,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5183,7 +5192,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5261,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5389,7 +5398,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6497,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6831,7 +6840,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7037,7 +7046,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7243,7 +7252,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7324,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7449,7 +7458,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7655,7 +7664,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7861,7 +7870,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8067,7 +8076,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8273,7 +8282,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8891,7 +8900,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9097,7 +9106,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9303,7 +9312,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9715,7 +9724,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10078,6 +10087,418 @@
       </c>
       <c r="BP45">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7486489</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45523.54166666666</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46">
+        <v>2.86</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>3.92</v>
+      </c>
+      <c r="T46">
+        <v>1.47</v>
+      </c>
+      <c r="U46">
+        <v>2.57</v>
+      </c>
+      <c r="V46">
+        <v>3.2</v>
+      </c>
+      <c r="W46">
+        <v>1.32</v>
+      </c>
+      <c r="X46">
+        <v>8.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.05</v>
+      </c>
+      <c r="Z46">
+        <v>2.18</v>
+      </c>
+      <c r="AA46">
+        <v>3.2</v>
+      </c>
+      <c r="AB46">
+        <v>3.25</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>7.6</v>
+      </c>
+      <c r="AE46">
+        <v>1.36</v>
+      </c>
+      <c r="AF46">
+        <v>2.79</v>
+      </c>
+      <c r="AG46">
+        <v>2.15</v>
+      </c>
+      <c r="AH46">
+        <v>1.63</v>
+      </c>
+      <c r="AI46">
+        <v>1.89</v>
+      </c>
+      <c r="AJ46">
+        <v>1.81</v>
+      </c>
+      <c r="AK46">
+        <v>1.32</v>
+      </c>
+      <c r="AL46">
+        <v>1.32</v>
+      </c>
+      <c r="AM46">
+        <v>1.62</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>1.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.57</v>
+      </c>
+      <c r="AS46">
+        <v>1.93</v>
+      </c>
+      <c r="AT46">
+        <v>3.5</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>4</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>12</v>
+      </c>
+      <c r="AZ46">
+        <v>10</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>2</v>
+      </c>
+      <c r="BD46">
+        <v>1.64</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>2.67</v>
+      </c>
+      <c r="BG46">
+        <v>1.35</v>
+      </c>
+      <c r="BH46">
+        <v>2.85</v>
+      </c>
+      <c r="BI46">
+        <v>1.63</v>
+      </c>
+      <c r="BJ46">
+        <v>2.08</v>
+      </c>
+      <c r="BK46">
+        <v>1.98</v>
+      </c>
+      <c r="BL46">
+        <v>1.82</v>
+      </c>
+      <c r="BM46">
+        <v>2.75</v>
+      </c>
+      <c r="BN46">
+        <v>1.37</v>
+      </c>
+      <c r="BO46">
+        <v>3.8</v>
+      </c>
+      <c r="BP46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7486958</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45523.66666666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q47">
+        <v>2.38</v>
+      </c>
+      <c r="R47">
+        <v>2.17</v>
+      </c>
+      <c r="S47">
+        <v>4.75</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>2.88</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>1.34</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>1.87</v>
+      </c>
+      <c r="AA47">
+        <v>3.35</v>
+      </c>
+      <c r="AB47">
+        <v>4.1</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>8.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.3</v>
+      </c>
+      <c r="AF47">
+        <v>3.08</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>1.7</v>
+      </c>
+      <c r="AI47">
+        <v>1.91</v>
+      </c>
+      <c r="AJ47">
+        <v>1.85</v>
+      </c>
+      <c r="AK47">
+        <v>1.18</v>
+      </c>
+      <c r="AL47">
+        <v>1.28</v>
+      </c>
+      <c r="AM47">
+        <v>2.02</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.7</v>
+      </c>
+      <c r="AS47">
+        <v>0.92</v>
+      </c>
+      <c r="AT47">
+        <v>2.62</v>
+      </c>
+      <c r="AU47">
+        <v>9</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>4</v>
+      </c>
+      <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>13</v>
+      </c>
+      <c r="AZ47">
+        <v>7</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>7</v>
+      </c>
+      <c r="BC47">
+        <v>11</v>
+      </c>
+      <c r="BD47">
+        <v>1.69</v>
+      </c>
+      <c r="BE47">
+        <v>8</v>
+      </c>
+      <c r="BF47">
+        <v>2.62</v>
+      </c>
+      <c r="BG47">
+        <v>1.4</v>
+      </c>
+      <c r="BH47">
+        <v>2.65</v>
+      </c>
+      <c r="BI47">
+        <v>1.71</v>
+      </c>
+      <c r="BJ47">
+        <v>1.97</v>
+      </c>
+      <c r="BK47">
+        <v>2.2</v>
+      </c>
+      <c r="BL47">
+        <v>1.57</v>
+      </c>
+      <c r="BM47">
+        <v>2.95</v>
+      </c>
+      <c r="BN47">
+        <v>1.33</v>
+      </c>
+      <c r="BO47">
+        <v>4.1</v>
+      </c>
+      <c r="BP47">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['7', '52', '57']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -452,6 +455,9 @@
   </si>
   <si>
     <t>['48', '83']</t>
+  </si>
+  <si>
+    <t>['44', '53']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1771,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1896,7 +1902,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2102,7 +2108,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2308,7 +2314,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2389,7 +2395,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2592,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2798,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2926,7 +2932,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3132,7 +3138,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3338,7 +3344,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3544,7 +3550,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3750,7 +3756,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3956,7 +3962,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4368,7 +4374,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4574,7 +4580,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4655,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4780,7 +4786,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4858,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -4986,7 +4992,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5192,7 +5198,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5398,7 +5404,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5888,10 +5894,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6840,7 +6846,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7046,7 +7052,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7252,7 +7258,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7458,7 +7464,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7664,7 +7670,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7870,7 +7876,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -7951,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.51</v>
@@ -8076,7 +8082,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8157,7 +8163,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8282,7 +8288,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8772,7 +8778,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -8900,7 +8906,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -8978,7 +8984,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>0.75</v>
@@ -9106,7 +9112,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9312,7 +9318,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9724,7 +9730,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10342,7 +10348,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10499,6 +10505,418 @@
       </c>
       <c r="BP47">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7486496</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45527.54166666666</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q48">
+        <v>3.36</v>
+      </c>
+      <c r="R48">
+        <v>1.9</v>
+      </c>
+      <c r="S48">
+        <v>3.55</v>
+      </c>
+      <c r="T48">
+        <v>1.55</v>
+      </c>
+      <c r="U48">
+        <v>2.36</v>
+      </c>
+      <c r="V48">
+        <v>3.62</v>
+      </c>
+      <c r="W48">
+        <v>1.26</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.03</v>
+      </c>
+      <c r="Z48">
+        <v>2.67</v>
+      </c>
+      <c r="AA48">
+        <v>2.97</v>
+      </c>
+      <c r="AB48">
+        <v>2.64</v>
+      </c>
+      <c r="AC48">
+        <v>1.07</v>
+      </c>
+      <c r="AD48">
+        <v>6.4</v>
+      </c>
+      <c r="AE48">
+        <v>1.48</v>
+      </c>
+      <c r="AF48">
+        <v>2.45</v>
+      </c>
+      <c r="AG48">
+        <v>2.52</v>
+      </c>
+      <c r="AH48">
+        <v>1.46</v>
+      </c>
+      <c r="AI48">
+        <v>2.06</v>
+      </c>
+      <c r="AJ48">
+        <v>1.68</v>
+      </c>
+      <c r="AK48">
+        <v>1.42</v>
+      </c>
+      <c r="AL48">
+        <v>1.36</v>
+      </c>
+      <c r="AM48">
+        <v>1.45</v>
+      </c>
+      <c r="AN48">
+        <v>1.67</v>
+      </c>
+      <c r="AO48">
+        <v>2.33</v>
+      </c>
+      <c r="AP48">
+        <v>1.5</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>0.93</v>
+      </c>
+      <c r="AS48">
+        <v>1.38</v>
+      </c>
+      <c r="AT48">
+        <v>2.31</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>4</v>
+      </c>
+      <c r="AX48">
+        <v>4</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>5</v>
+      </c>
+      <c r="BD48">
+        <v>1.89</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>2.38</v>
+      </c>
+      <c r="BG48">
+        <v>1.27</v>
+      </c>
+      <c r="BH48">
+        <v>3.28</v>
+      </c>
+      <c r="BI48">
+        <v>1.54</v>
+      </c>
+      <c r="BJ48">
+        <v>2.42</v>
+      </c>
+      <c r="BK48">
+        <v>1.91</v>
+      </c>
+      <c r="BL48">
+        <v>1.88</v>
+      </c>
+      <c r="BM48">
+        <v>2.43</v>
+      </c>
+      <c r="BN48">
+        <v>1.54</v>
+      </c>
+      <c r="BO48">
+        <v>3.34</v>
+      </c>
+      <c r="BP48">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7486961</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45527.66666666666</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>117</v>
+      </c>
+      <c r="P49" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q49">
+        <v>3.65</v>
+      </c>
+      <c r="R49">
+        <v>2.21</v>
+      </c>
+      <c r="S49">
+        <v>2.91</v>
+      </c>
+      <c r="T49">
+        <v>1.37</v>
+      </c>
+      <c r="U49">
+        <v>3.01</v>
+      </c>
+      <c r="V49">
+        <v>2.88</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>6</v>
+      </c>
+      <c r="Y49">
+        <v>1.09</v>
+      </c>
+      <c r="Z49">
+        <v>3.15</v>
+      </c>
+      <c r="AA49">
+        <v>3.3</v>
+      </c>
+      <c r="AB49">
+        <v>2.13</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49">
+        <v>1.29</v>
+      </c>
+      <c r="AF49">
+        <v>3.3</v>
+      </c>
+      <c r="AG49">
+        <v>1.85</v>
+      </c>
+      <c r="AH49">
+        <v>1.85</v>
+      </c>
+      <c r="AI49">
+        <v>1.73</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>1.6</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.36</v>
+      </c>
+      <c r="AN49">
+        <v>1.33</v>
+      </c>
+      <c r="AO49">
+        <v>0.67</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1.25</v>
+      </c>
+      <c r="AR49">
+        <v>1.48</v>
+      </c>
+      <c r="AS49">
+        <v>1.63</v>
+      </c>
+      <c r="AT49">
+        <v>3.11</v>
+      </c>
+      <c r="AU49">
+        <v>9</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>7</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>16</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>4</v>
+      </c>
+      <c r="BC49">
+        <v>9</v>
+      </c>
+      <c r="BD49">
+        <v>2.14</v>
+      </c>
+      <c r="BE49">
+        <v>6.25</v>
+      </c>
+      <c r="BF49">
+        <v>2.09</v>
+      </c>
+      <c r="BG49">
+        <v>1.28</v>
+      </c>
+      <c r="BH49">
+        <v>3.2</v>
+      </c>
+      <c r="BI49">
+        <v>1.52</v>
+      </c>
+      <c r="BJ49">
+        <v>2.3</v>
+      </c>
+      <c r="BK49">
+        <v>1.92</v>
+      </c>
+      <c r="BL49">
+        <v>1.79</v>
+      </c>
+      <c r="BM49">
+        <v>2.5</v>
+      </c>
+      <c r="BN49">
+        <v>1.44</v>
+      </c>
+      <c r="BO49">
+        <v>3.42</v>
+      </c>
+      <c r="BP49">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,9 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['1', '42']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -458,6 +461,9 @@
   </si>
   <si>
     <t>['44', '53']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1084,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1159,7 +1165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1365,7 +1371,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1568,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1902,7 +1908,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2108,7 +2114,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2314,7 +2320,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2932,7 +2938,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3138,7 +3144,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3344,7 +3350,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3550,7 +3556,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3756,7 +3762,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3962,7 +3968,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4374,7 +4380,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4455,7 +4461,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4580,7 +4586,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4786,7 +4792,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4992,7 +4998,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5070,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.75</v>
@@ -5198,7 +5204,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5404,7 +5410,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5485,7 +5491,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -6846,7 +6852,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7052,7 +7058,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7258,7 +7264,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7464,7 +7470,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7670,7 +7676,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7876,7 +7882,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8082,7 +8088,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8288,7 +8294,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8366,10 +8372,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.45</v>
@@ -8575,7 +8581,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -8906,7 +8912,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9112,7 +9118,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9318,7 +9324,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9730,7 +9736,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10348,7 +10354,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10760,7 +10766,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -10916,6 +10922,418 @@
         <v>3.42</v>
       </c>
       <c r="BP49">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7486495</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45528.54166666666</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q50">
+        <v>2.2</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>5.5</v>
+      </c>
+      <c r="T50">
+        <v>1.44</v>
+      </c>
+      <c r="U50">
+        <v>2.6</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>9.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>1.54</v>
+      </c>
+      <c r="AA50">
+        <v>3.75</v>
+      </c>
+      <c r="AB50">
+        <v>5.4</v>
+      </c>
+      <c r="AC50">
+        <v>1.06</v>
+      </c>
+      <c r="AD50">
+        <v>8</v>
+      </c>
+      <c r="AE50">
+        <v>1.36</v>
+      </c>
+      <c r="AF50">
+        <v>3</v>
+      </c>
+      <c r="AG50">
+        <v>2.05</v>
+      </c>
+      <c r="AH50">
+        <v>1.68</v>
+      </c>
+      <c r="AI50">
+        <v>2</v>
+      </c>
+      <c r="AJ50">
+        <v>1.67</v>
+      </c>
+      <c r="AK50">
+        <v>1.1</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>2.25</v>
+      </c>
+      <c r="AN50">
+        <v>1.33</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>1.75</v>
+      </c>
+      <c r="AR50">
+        <v>1.75</v>
+      </c>
+      <c r="AS50">
+        <v>1.28</v>
+      </c>
+      <c r="AT50">
+        <v>3.03</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>6</v>
+      </c>
+      <c r="AZ50">
+        <v>11</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.3</v>
+      </c>
+      <c r="BE50">
+        <v>9.5</v>
+      </c>
+      <c r="BF50">
+        <v>4.44</v>
+      </c>
+      <c r="BG50">
+        <v>1.34</v>
+      </c>
+      <c r="BH50">
+        <v>2.88</v>
+      </c>
+      <c r="BI50">
+        <v>1.7</v>
+      </c>
+      <c r="BJ50">
+        <v>2.05</v>
+      </c>
+      <c r="BK50">
+        <v>2.09</v>
+      </c>
+      <c r="BL50">
+        <v>1.66</v>
+      </c>
+      <c r="BM50">
+        <v>2.75</v>
+      </c>
+      <c r="BN50">
+        <v>1.37</v>
+      </c>
+      <c r="BO50">
+        <v>3.84</v>
+      </c>
+      <c r="BP50">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7486960</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45528.66666666666</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q51">
+        <v>3.45</v>
+      </c>
+      <c r="R51">
+        <v>2.31</v>
+      </c>
+      <c r="S51">
+        <v>2.91</v>
+      </c>
+      <c r="T51">
+        <v>1.32</v>
+      </c>
+      <c r="U51">
+        <v>3.25</v>
+      </c>
+      <c r="V51">
+        <v>2.63</v>
+      </c>
+      <c r="W51">
+        <v>1.46</v>
+      </c>
+      <c r="X51">
+        <v>6.3</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>2.79</v>
+      </c>
+      <c r="AA51">
+        <v>3.45</v>
+      </c>
+      <c r="AB51">
+        <v>2.21</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>10.25</v>
+      </c>
+      <c r="AE51">
+        <v>1.22</v>
+      </c>
+      <c r="AF51">
+        <v>3.65</v>
+      </c>
+      <c r="AG51">
+        <v>1.83</v>
+      </c>
+      <c r="AH51">
+        <v>1.93</v>
+      </c>
+      <c r="AI51">
+        <v>1.62</v>
+      </c>
+      <c r="AJ51">
+        <v>2.24</v>
+      </c>
+      <c r="AK51">
+        <v>1.58</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.4</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>2.33</v>
+      </c>
+      <c r="AP51">
+        <v>3</v>
+      </c>
+      <c r="AQ51">
+        <v>1.75</v>
+      </c>
+      <c r="AR51">
+        <v>1.33</v>
+      </c>
+      <c r="AS51">
+        <v>1.56</v>
+      </c>
+      <c r="AT51">
+        <v>2.89</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>2</v>
+      </c>
+      <c r="AX51">
+        <v>5</v>
+      </c>
+      <c r="AY51">
+        <v>5</v>
+      </c>
+      <c r="AZ51">
+        <v>8</v>
+      </c>
+      <c r="BA51">
+        <v>2</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>2.2</v>
+      </c>
+      <c r="BE51">
+        <v>7.5</v>
+      </c>
+      <c r="BF51">
+        <v>1.91</v>
+      </c>
+      <c r="BG51">
+        <v>1.28</v>
+      </c>
+      <c r="BH51">
+        <v>3.18</v>
+      </c>
+      <c r="BI51">
+        <v>1.6</v>
+      </c>
+      <c r="BJ51">
+        <v>2.28</v>
+      </c>
+      <c r="BK51">
+        <v>1.91</v>
+      </c>
+      <c r="BL51">
+        <v>1.81</v>
+      </c>
+      <c r="BM51">
+        <v>2.51</v>
+      </c>
+      <c r="BN51">
+        <v>1.5</v>
+      </c>
+      <c r="BO51">
+        <v>3.42</v>
+      </c>
+      <c r="BP51">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>['1', '42']</t>
+  </si>
+  <si>
+    <t>['52', '70', '86']</t>
+  </si>
+  <si>
+    <t>['56', '90+6']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -825,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1090,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1908,7 +1914,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2114,7 +2120,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2192,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
         <v>0.75</v>
@@ -2320,7 +2326,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2813,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2938,7 +2944,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3019,7 +3025,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3144,7 +3150,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3350,7 +3356,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3556,7 +3562,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3762,7 +3768,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3968,7 +3974,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4380,7 +4386,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4458,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -4586,7 +4592,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4792,7 +4798,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4998,7 +5004,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5204,7 +5210,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5285,7 +5291,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5410,7 +5416,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5488,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23">
         <v>1.75</v>
@@ -6852,7 +6858,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6930,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7058,7 +7064,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7264,7 +7270,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7470,7 +7476,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7676,7 +7682,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7754,10 +7760,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -7882,7 +7888,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8088,7 +8094,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8294,7 +8300,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8578,7 +8584,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -8912,7 +8918,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9118,7 +9124,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9324,7 +9330,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9736,7 +9742,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10354,7 +10360,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10766,7 +10772,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11178,7 +11184,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11335,6 +11341,418 @@
       </c>
       <c r="BP51">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7486497</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45529.54166666666</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>2.31</v>
+      </c>
+      <c r="S52">
+        <v>5.8</v>
+      </c>
+      <c r="T52">
+        <v>1.34</v>
+      </c>
+      <c r="U52">
+        <v>3.1</v>
+      </c>
+      <c r="V52">
+        <v>2.6</v>
+      </c>
+      <c r="W52">
+        <v>1.46</v>
+      </c>
+      <c r="X52">
+        <v>6.35</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>1.49</v>
+      </c>
+      <c r="AA52">
+        <v>4.2</v>
+      </c>
+      <c r="AB52">
+        <v>5.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>10.25</v>
+      </c>
+      <c r="AE52">
+        <v>1.22</v>
+      </c>
+      <c r="AF52">
+        <v>3.65</v>
+      </c>
+      <c r="AG52">
+        <v>1.75</v>
+      </c>
+      <c r="AH52">
+        <v>1.95</v>
+      </c>
+      <c r="AI52">
+        <v>1.86</v>
+      </c>
+      <c r="AJ52">
+        <v>1.84</v>
+      </c>
+      <c r="AK52">
+        <v>1.11</v>
+      </c>
+      <c r="AL52">
+        <v>1.2</v>
+      </c>
+      <c r="AM52">
+        <v>2.49</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>1.8</v>
+      </c>
+      <c r="AQ52">
+        <v>0.75</v>
+      </c>
+      <c r="AR52">
+        <v>1.69</v>
+      </c>
+      <c r="AS52">
+        <v>1.01</v>
+      </c>
+      <c r="AT52">
+        <v>2.7</v>
+      </c>
+      <c r="AU52">
+        <v>12</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>9</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>21</v>
+      </c>
+      <c r="AZ52">
+        <v>3</v>
+      </c>
+      <c r="BA52">
+        <v>9</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>12</v>
+      </c>
+      <c r="BD52">
+        <v>1.45</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>3.33</v>
+      </c>
+      <c r="BG52">
+        <v>1.25</v>
+      </c>
+      <c r="BH52">
+        <v>3.42</v>
+      </c>
+      <c r="BI52">
+        <v>1.49</v>
+      </c>
+      <c r="BJ52">
+        <v>2.56</v>
+      </c>
+      <c r="BK52">
+        <v>1.83</v>
+      </c>
+      <c r="BL52">
+        <v>1.97</v>
+      </c>
+      <c r="BM52">
+        <v>2.31</v>
+      </c>
+      <c r="BN52">
+        <v>1.59</v>
+      </c>
+      <c r="BO52">
+        <v>3.18</v>
+      </c>
+      <c r="BP52">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7486499</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45529.66666666666</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q53">
+        <v>4.97</v>
+      </c>
+      <c r="R53">
+        <v>2.14</v>
+      </c>
+      <c r="S53">
+        <v>2.49</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.73</v>
+      </c>
+      <c r="V53">
+        <v>3.21</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>3.7</v>
+      </c>
+      <c r="AA53">
+        <v>3.3</v>
+      </c>
+      <c r="AB53">
+        <v>1.9</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>7.9</v>
+      </c>
+      <c r="AE53">
+        <v>1.34</v>
+      </c>
+      <c r="AF53">
+        <v>2.88</v>
+      </c>
+      <c r="AG53">
+        <v>2.1</v>
+      </c>
+      <c r="AH53">
+        <v>1.65</v>
+      </c>
+      <c r="AI53">
+        <v>1.96</v>
+      </c>
+      <c r="AJ53">
+        <v>1.75</v>
+      </c>
+      <c r="AK53">
+        <v>1.93</v>
+      </c>
+      <c r="AL53">
+        <v>1.28</v>
+      </c>
+      <c r="AM53">
+        <v>1.2</v>
+      </c>
+      <c r="AN53">
+        <v>1.67</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>0.5</v>
+      </c>
+      <c r="AR53">
+        <v>1.19</v>
+      </c>
+      <c r="AS53">
+        <v>1.17</v>
+      </c>
+      <c r="AT53">
+        <v>2.36</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>8</v>
+      </c>
+      <c r="AY53">
+        <v>10</v>
+      </c>
+      <c r="AZ53">
+        <v>12</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>2.45</v>
+      </c>
+      <c r="BE53">
+        <v>7.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.75</v>
+      </c>
+      <c r="BG53">
+        <v>1.24</v>
+      </c>
+      <c r="BH53">
+        <v>3.48</v>
+      </c>
+      <c r="BI53">
+        <v>1.52</v>
+      </c>
+      <c r="BJ53">
+        <v>2.48</v>
+      </c>
+      <c r="BK53">
+        <v>1.87</v>
+      </c>
+      <c r="BL53">
+        <v>1.93</v>
+      </c>
+      <c r="BM53">
+        <v>2.32</v>
+      </c>
+      <c r="BN53">
+        <v>1.58</v>
+      </c>
+      <c r="BO53">
+        <v>3.14</v>
+      </c>
+      <c r="BP53">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,9 @@
     <t>['56', '90+6']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -470,6 +473,12 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['27', '43']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1099,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1914,7 +1923,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -1995,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2120,7 +2129,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2326,7 +2335,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2944,7 +2953,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3150,7 +3159,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3356,7 +3365,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3562,7 +3571,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3768,7 +3777,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3974,7 +3983,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4052,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4261,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4386,7 +4395,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4592,7 +4601,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4798,7 +4807,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5004,7 +5013,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5210,7 +5219,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5416,7 +5425,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5703,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR24">
         <v>1.7</v>
@@ -6858,7 +6867,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6939,7 +6948,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7064,7 +7073,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7270,7 +7279,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7476,7 +7485,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7557,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -7682,7 +7691,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7888,7 +7897,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8094,7 +8103,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8172,7 +8181,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8300,7 +8309,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8793,7 +8802,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -8918,7 +8927,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9124,7 +9133,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9330,7 +9339,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9742,7 +9751,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10360,7 +10369,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10772,7 +10781,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11184,7 +11193,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11753,6 +11762,418 @@
       </c>
       <c r="BP53">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7486959</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45530.54166666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q54">
+        <v>4.3</v>
+      </c>
+      <c r="R54">
+        <v>2.05</v>
+      </c>
+      <c r="S54">
+        <v>2.6</v>
+      </c>
+      <c r="T54">
+        <v>1.48</v>
+      </c>
+      <c r="U54">
+        <v>2.5</v>
+      </c>
+      <c r="V54">
+        <v>3.1</v>
+      </c>
+      <c r="W54">
+        <v>1.32</v>
+      </c>
+      <c r="X54">
+        <v>9.25</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>3.4</v>
+      </c>
+      <c r="AA54">
+        <v>3.2</v>
+      </c>
+      <c r="AB54">
+        <v>1.95</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>9.75</v>
+      </c>
+      <c r="AE54">
+        <v>1.35</v>
+      </c>
+      <c r="AF54">
+        <v>2.95</v>
+      </c>
+      <c r="AG54">
+        <v>2.05</v>
+      </c>
+      <c r="AH54">
+        <v>1.65</v>
+      </c>
+      <c r="AI54">
+        <v>1.9</v>
+      </c>
+      <c r="AJ54">
+        <v>1.8</v>
+      </c>
+      <c r="AK54">
+        <v>1.8</v>
+      </c>
+      <c r="AL54">
+        <v>1.27</v>
+      </c>
+      <c r="AM54">
+        <v>1.24</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>1.5</v>
+      </c>
+      <c r="AP54">
+        <v>0.33</v>
+      </c>
+      <c r="AQ54">
+        <v>1.8</v>
+      </c>
+      <c r="AR54">
+        <v>1.5</v>
+      </c>
+      <c r="AS54">
+        <v>1.07</v>
+      </c>
+      <c r="AT54">
+        <v>2.57</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>3</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>7</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>9</v>
+      </c>
+      <c r="BC54">
+        <v>11</v>
+      </c>
+      <c r="BD54">
+        <v>2.53</v>
+      </c>
+      <c r="BE54">
+        <v>7.5</v>
+      </c>
+      <c r="BF54">
+        <v>1.75</v>
+      </c>
+      <c r="BG54">
+        <v>1.44</v>
+      </c>
+      <c r="BH54">
+        <v>2.5</v>
+      </c>
+      <c r="BI54">
+        <v>1.8</v>
+      </c>
+      <c r="BJ54">
+        <v>2</v>
+      </c>
+      <c r="BK54">
+        <v>2.32</v>
+      </c>
+      <c r="BL54">
+        <v>1.52</v>
+      </c>
+      <c r="BM54">
+        <v>3.15</v>
+      </c>
+      <c r="BN54">
+        <v>1.29</v>
+      </c>
+      <c r="BO54">
+        <v>4.5</v>
+      </c>
+      <c r="BP54">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7486498</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45530.66666666666</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q55">
+        <v>3.6</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>2.9</v>
+      </c>
+      <c r="T55">
+        <v>1.42</v>
+      </c>
+      <c r="U55">
+        <v>2.65</v>
+      </c>
+      <c r="V55">
+        <v>2.9</v>
+      </c>
+      <c r="W55">
+        <v>1.35</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
+        <v>2.8</v>
+      </c>
+      <c r="AA55">
+        <v>3.2</v>
+      </c>
+      <c r="AB55">
+        <v>2.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.06</v>
+      </c>
+      <c r="AD55">
+        <v>7.2</v>
+      </c>
+      <c r="AE55">
+        <v>1.28</v>
+      </c>
+      <c r="AF55">
+        <v>3.3</v>
+      </c>
+      <c r="AG55">
+        <v>1.95</v>
+      </c>
+      <c r="AH55">
+        <v>1.73</v>
+      </c>
+      <c r="AI55">
+        <v>1.78</v>
+      </c>
+      <c r="AJ55">
+        <v>1.95</v>
+      </c>
+      <c r="AK55">
+        <v>1.57</v>
+      </c>
+      <c r="AL55">
+        <v>1.35</v>
+      </c>
+      <c r="AM55">
+        <v>1.27</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>0.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.76</v>
+      </c>
+      <c r="AS55">
+        <v>1.34</v>
+      </c>
+      <c r="AT55">
+        <v>3.1</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>7</v>
+      </c>
+      <c r="AZ55">
+        <v>12</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>8</v>
+      </c>
+      <c r="BC55">
+        <v>13</v>
+      </c>
+      <c r="BD55">
+        <v>2.1</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>1.95</v>
+      </c>
+      <c r="BG55">
+        <v>1.23</v>
+      </c>
+      <c r="BH55">
+        <v>3.56</v>
+      </c>
+      <c r="BI55">
+        <v>1.55</v>
+      </c>
+      <c r="BJ55">
+        <v>2.41</v>
+      </c>
+      <c r="BK55">
+        <v>1.78</v>
+      </c>
+      <c r="BL55">
+        <v>2.01</v>
+      </c>
+      <c r="BM55">
+        <v>2.23</v>
+      </c>
+      <c r="BN55">
+        <v>1.64</v>
+      </c>
+      <c r="BO55">
+        <v>3.04</v>
+      </c>
+      <c r="BP55">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['22', '42']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -840,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1102,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1923,7 +1926,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2129,7 +2132,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2335,7 +2338,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2953,7 +2956,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3159,7 +3162,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3365,7 +3368,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3571,7 +3574,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3777,7 +3780,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3983,7 +3986,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4064,7 +4067,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4267,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4395,7 +4398,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4601,7 +4604,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4807,7 +4810,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5013,7 +5016,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5219,7 +5222,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5425,7 +5428,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6121,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6867,7 +6870,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7073,7 +7076,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7279,7 +7282,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7360,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7485,7 +7488,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7691,7 +7694,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7897,7 +7900,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8103,7 +8106,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8309,7 +8312,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8927,7 +8930,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9133,7 +9136,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9339,7 +9342,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9751,7 +9754,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10244,7 +10247,7 @@
         <v>3</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10369,7 +10372,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10781,7 +10784,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11193,7 +11196,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11811,7 +11814,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12017,7 +12020,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12174,6 +12177,212 @@
       </c>
       <c r="BP55">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7486500</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>122</v>
+      </c>
+      <c r="P56" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q56">
+        <v>3.25</v>
+      </c>
+      <c r="R56">
+        <v>2.08</v>
+      </c>
+      <c r="S56">
+        <v>3.3</v>
+      </c>
+      <c r="T56">
+        <v>1.38</v>
+      </c>
+      <c r="U56">
+        <v>2.8</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>1.33</v>
+      </c>
+      <c r="X56">
+        <v>8.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.06</v>
+      </c>
+      <c r="Z56">
+        <v>2.7</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>2.6</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>9</v>
+      </c>
+      <c r="AE56">
+        <v>1.32</v>
+      </c>
+      <c r="AF56">
+        <v>3.25</v>
+      </c>
+      <c r="AG56">
+        <v>2.48</v>
+      </c>
+      <c r="AH56">
+        <v>1.52</v>
+      </c>
+      <c r="AI56">
+        <v>1.76</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>1.44</v>
+      </c>
+      <c r="AL56">
+        <v>1.33</v>
+      </c>
+      <c r="AM56">
+        <v>1.47</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>1.33</v>
+      </c>
+      <c r="AP56">
+        <v>2.33</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.46</v>
+      </c>
+      <c r="AS56">
+        <v>1.76</v>
+      </c>
+      <c r="AT56">
+        <v>3.22</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>6</v>
+      </c>
+      <c r="AX56">
+        <v>8</v>
+      </c>
+      <c r="AY56">
+        <v>13</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>5</v>
+      </c>
+      <c r="BC56">
+        <v>7</v>
+      </c>
+      <c r="BD56">
+        <v>2</v>
+      </c>
+      <c r="BE56">
+        <v>7.5</v>
+      </c>
+      <c r="BF56">
+        <v>2.05</v>
+      </c>
+      <c r="BG56">
+        <v>1.35</v>
+      </c>
+      <c r="BH56">
+        <v>2.85</v>
+      </c>
+      <c r="BI56">
+        <v>1.7</v>
+      </c>
+      <c r="BJ56">
+        <v>2.05</v>
+      </c>
+      <c r="BK56">
+        <v>2.07</v>
+      </c>
+      <c r="BL56">
+        <v>1.64</v>
+      </c>
+      <c r="BM56">
+        <v>2.75</v>
+      </c>
+      <c r="BN56">
+        <v>1.37</v>
+      </c>
+      <c r="BO56">
+        <v>3.8</v>
+      </c>
+      <c r="BP56">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,12 @@
     <t>['22', '42']</t>
   </si>
   <si>
+    <t>['3', '9', '19', '42', '58', '78']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -482,6 +488,12 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['45+3', '82']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1386,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1595,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1801,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1926,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2132,7 +2144,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2338,7 +2350,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2956,7 +2968,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3162,7 +3174,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3240,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3368,7 +3380,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3574,7 +3586,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3780,7 +3792,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3986,7 +3998,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4398,7 +4410,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4476,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -4604,7 +4616,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4810,7 +4822,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5016,7 +5028,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5222,7 +5234,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5428,7 +5440,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5921,7 +5933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6539,7 +6551,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6742,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -6870,7 +6882,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7076,7 +7088,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7282,7 +7294,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7488,7 +7500,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7694,7 +7706,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7772,7 +7784,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -7900,7 +7912,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8106,7 +8118,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8187,7 +8199,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8312,7 +8324,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8930,7 +8942,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9136,7 +9148,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9342,7 +9354,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9420,7 +9432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9754,7 +9766,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9835,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10372,7 +10384,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10784,7 +10796,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -10865,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11196,7 +11208,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11686,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -11814,7 +11826,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12020,7 +12032,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12383,6 +12395,418 @@
       </c>
       <c r="BP56">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7486505</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>8</v>
+      </c>
+      <c r="O57" t="s">
+        <v>123</v>
+      </c>
+      <c r="P57" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q57">
+        <v>2.75</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>4.15</v>
+      </c>
+      <c r="T57">
+        <v>1.47</v>
+      </c>
+      <c r="U57">
+        <v>2.57</v>
+      </c>
+      <c r="V57">
+        <v>3.2</v>
+      </c>
+      <c r="W57">
+        <v>1.32</v>
+      </c>
+      <c r="X57">
+        <v>8.6</v>
+      </c>
+      <c r="Y57">
+        <v>1.05</v>
+      </c>
+      <c r="Z57">
+        <v>2.05</v>
+      </c>
+      <c r="AA57">
+        <v>3.1</v>
+      </c>
+      <c r="AB57">
+        <v>3.6</v>
+      </c>
+      <c r="AC57">
+        <v>1.04</v>
+      </c>
+      <c r="AD57">
+        <v>7.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.37</v>
+      </c>
+      <c r="AF57">
+        <v>2.75</v>
+      </c>
+      <c r="AG57">
+        <v>2.28</v>
+      </c>
+      <c r="AH57">
+        <v>1.6</v>
+      </c>
+      <c r="AI57">
+        <v>1.93</v>
+      </c>
+      <c r="AJ57">
+        <v>1.78</v>
+      </c>
+      <c r="AK57">
+        <v>1.29</v>
+      </c>
+      <c r="AL57">
+        <v>1.31</v>
+      </c>
+      <c r="AM57">
+        <v>1.68</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>2.2</v>
+      </c>
+      <c r="AQ57">
+        <v>0.75</v>
+      </c>
+      <c r="AR57">
+        <v>1.23</v>
+      </c>
+      <c r="AS57">
+        <v>1.41</v>
+      </c>
+      <c r="AT57">
+        <v>2.64</v>
+      </c>
+      <c r="AU57">
+        <v>8</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>8</v>
+      </c>
+      <c r="AY57">
+        <v>15</v>
+      </c>
+      <c r="AZ57">
+        <v>15</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>1.69</v>
+      </c>
+      <c r="BE57">
+        <v>7.5</v>
+      </c>
+      <c r="BF57">
+        <v>2.64</v>
+      </c>
+      <c r="BG57">
+        <v>1.44</v>
+      </c>
+      <c r="BH57">
+        <v>2.5</v>
+      </c>
+      <c r="BI57">
+        <v>1.82</v>
+      </c>
+      <c r="BJ57">
+        <v>1.98</v>
+      </c>
+      <c r="BK57">
+        <v>2.32</v>
+      </c>
+      <c r="BL57">
+        <v>1.52</v>
+      </c>
+      <c r="BM57">
+        <v>3.15</v>
+      </c>
+      <c r="BN57">
+        <v>1.29</v>
+      </c>
+      <c r="BO57">
+        <v>4.5</v>
+      </c>
+      <c r="BP57">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7486504</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>124</v>
+      </c>
+      <c r="P58" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q58">
+        <v>2.7</v>
+      </c>
+      <c r="R58">
+        <v>2.28</v>
+      </c>
+      <c r="S58">
+        <v>3.55</v>
+      </c>
+      <c r="T58">
+        <v>1.27</v>
+      </c>
+      <c r="U58">
+        <v>3.4</v>
+      </c>
+      <c r="V58">
+        <v>2.48</v>
+      </c>
+      <c r="W58">
+        <v>1.47</v>
+      </c>
+      <c r="X58">
+        <v>6.25</v>
+      </c>
+      <c r="Y58">
+        <v>1.1</v>
+      </c>
+      <c r="Z58">
+        <v>2.1</v>
+      </c>
+      <c r="AA58">
+        <v>3.4</v>
+      </c>
+      <c r="AB58">
+        <v>3.3</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.18</v>
+      </c>
+      <c r="AF58">
+        <v>4.1</v>
+      </c>
+      <c r="AG58">
+        <v>2.05</v>
+      </c>
+      <c r="AH58">
+        <v>1.74</v>
+      </c>
+      <c r="AI58">
+        <v>1.55</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
+        <v>1.33</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.68</v>
+      </c>
+      <c r="AN58">
+        <v>2.33</v>
+      </c>
+      <c r="AO58">
+        <v>1.25</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>1.2</v>
+      </c>
+      <c r="AR58">
+        <v>2.03</v>
+      </c>
+      <c r="AS58">
+        <v>1.59</v>
+      </c>
+      <c r="AT58">
+        <v>3.62</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
+        <v>8</v>
+      </c>
+      <c r="AX58">
+        <v>2</v>
+      </c>
+      <c r="AY58">
+        <v>12</v>
+      </c>
+      <c r="AZ58">
+        <v>4</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>5</v>
+      </c>
+      <c r="BD58">
+        <v>1.59</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.78</v>
+      </c>
+      <c r="BG58">
+        <v>1.26</v>
+      </c>
+      <c r="BH58">
+        <v>3.35</v>
+      </c>
+      <c r="BI58">
+        <v>1.49</v>
+      </c>
+      <c r="BJ58">
+        <v>2.38</v>
+      </c>
+      <c r="BK58">
+        <v>1.88</v>
+      </c>
+      <c r="BL58">
+        <v>1.92</v>
+      </c>
+      <c r="BM58">
+        <v>2.35</v>
+      </c>
+      <c r="BN58">
+        <v>1.49</v>
+      </c>
+      <c r="BO58">
+        <v>3.2</v>
+      </c>
+      <c r="BP58">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['16', '87']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -494,6 +497,12 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['90+4', '90+6']</t>
+  </si>
+  <si>
+    <t>['27', '55', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1123,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1192,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1938,7 +1947,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2016,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>1.8</v>
@@ -2144,7 +2153,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2350,7 +2359,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2428,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2968,7 +2977,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3174,7 +3183,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3255,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3380,7 +3389,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3461,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3586,7 +3595,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3792,7 +3801,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3873,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3998,7 +4007,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4410,7 +4419,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4616,7 +4625,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4694,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -4822,7 +4831,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5028,7 +5037,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5234,7 +5243,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5312,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5440,7 +5449,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6548,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -6757,7 +6766,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -6882,7 +6891,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7088,7 +7097,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7169,7 +7178,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7294,7 +7303,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7500,7 +7509,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7578,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -7706,7 +7715,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7912,7 +7921,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8118,7 +8127,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8324,7 +8333,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8942,7 +8951,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9148,7 +9157,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9229,7 +9238,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9354,7 +9363,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9638,10 +9647,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -9766,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9844,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10384,7 +10393,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10462,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10796,7 +10805,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11208,7 +11217,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11826,7 +11835,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12032,7 +12041,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12444,7 +12453,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12650,7 +12659,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12807,6 +12816,624 @@
       </c>
       <c r="BP58">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7486962</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45536.4375</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>86</v>
+      </c>
+      <c r="P59" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q59">
+        <v>3.51</v>
+      </c>
+      <c r="R59">
+        <v>1.93</v>
+      </c>
+      <c r="S59">
+        <v>3.74</v>
+      </c>
+      <c r="T59">
+        <v>1.57</v>
+      </c>
+      <c r="U59">
+        <v>2.36</v>
+      </c>
+      <c r="V59">
+        <v>3.72</v>
+      </c>
+      <c r="W59">
+        <v>1.25</v>
+      </c>
+      <c r="X59">
+        <v>10.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.03</v>
+      </c>
+      <c r="Z59">
+        <v>2.3</v>
+      </c>
+      <c r="AA59">
+        <v>3</v>
+      </c>
+      <c r="AB59">
+        <v>3.15</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>6.25</v>
+      </c>
+      <c r="AE59">
+        <v>1.53</v>
+      </c>
+      <c r="AF59">
+        <v>2.43</v>
+      </c>
+      <c r="AG59">
+        <v>2.28</v>
+      </c>
+      <c r="AH59">
+        <v>1.61</v>
+      </c>
+      <c r="AI59">
+        <v>2.11</v>
+      </c>
+      <c r="AJ59">
+        <v>1.65</v>
+      </c>
+      <c r="AK59">
+        <v>1.41</v>
+      </c>
+      <c r="AL59">
+        <v>1.36</v>
+      </c>
+      <c r="AM59">
+        <v>1.46</v>
+      </c>
+      <c r="AN59">
+        <v>1.5</v>
+      </c>
+      <c r="AO59">
+        <v>1.33</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1.75</v>
+      </c>
+      <c r="AR59">
+        <v>1.8</v>
+      </c>
+      <c r="AS59">
+        <v>1.3</v>
+      </c>
+      <c r="AT59">
+        <v>3.1</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>10</v>
+      </c>
+      <c r="AX59">
+        <v>7</v>
+      </c>
+      <c r="AY59">
+        <v>14</v>
+      </c>
+      <c r="AZ59">
+        <v>13</v>
+      </c>
+      <c r="BA59">
+        <v>9</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>12</v>
+      </c>
+      <c r="BD59">
+        <v>1.75</v>
+      </c>
+      <c r="BE59">
+        <v>8</v>
+      </c>
+      <c r="BF59">
+        <v>2.44</v>
+      </c>
+      <c r="BG59">
+        <v>1.32</v>
+      </c>
+      <c r="BH59">
+        <v>3.05</v>
+      </c>
+      <c r="BI59">
+        <v>1.57</v>
+      </c>
+      <c r="BJ59">
+        <v>2.2</v>
+      </c>
+      <c r="BK59">
+        <v>2</v>
+      </c>
+      <c r="BL59">
+        <v>1.73</v>
+      </c>
+      <c r="BM59">
+        <v>2.6</v>
+      </c>
+      <c r="BN59">
+        <v>1.42</v>
+      </c>
+      <c r="BO59">
+        <v>3.5</v>
+      </c>
+      <c r="BP59">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7486502</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45536.53125</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q60">
+        <v>3.3</v>
+      </c>
+      <c r="R60">
+        <v>2.14</v>
+      </c>
+      <c r="S60">
+        <v>3.15</v>
+      </c>
+      <c r="T60">
+        <v>1.34</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>2.8</v>
+      </c>
+      <c r="W60">
+        <v>1.38</v>
+      </c>
+      <c r="X60">
+        <v>7.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>2.5</v>
+      </c>
+      <c r="AA60">
+        <v>3.4</v>
+      </c>
+      <c r="AB60">
+        <v>2.45</v>
+      </c>
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>12</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.8</v>
+      </c>
+      <c r="AH60">
+        <v>1.9</v>
+      </c>
+      <c r="AI60">
+        <v>1.66</v>
+      </c>
+      <c r="AJ60">
+        <v>2.16</v>
+      </c>
+      <c r="AK60">
+        <v>1.48</v>
+      </c>
+      <c r="AL60">
+        <v>1.32</v>
+      </c>
+      <c r="AM60">
+        <v>1.45</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1.2</v>
+      </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
+      <c r="AR60">
+        <v>1.75</v>
+      </c>
+      <c r="AS60">
+        <v>1.23</v>
+      </c>
+      <c r="AT60">
+        <v>2.98</v>
+      </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>10</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>1.91</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.2</v>
+      </c>
+      <c r="BG60">
+        <v>1.28</v>
+      </c>
+      <c r="BH60">
+        <v>3.2</v>
+      </c>
+      <c r="BI60">
+        <v>1.52</v>
+      </c>
+      <c r="BJ60">
+        <v>2.32</v>
+      </c>
+      <c r="BK60">
+        <v>2</v>
+      </c>
+      <c r="BL60">
+        <v>1.8</v>
+      </c>
+      <c r="BM60">
+        <v>2.45</v>
+      </c>
+      <c r="BN60">
+        <v>1.46</v>
+      </c>
+      <c r="BO60">
+        <v>3.3</v>
+      </c>
+      <c r="BP60">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7486503</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45536.64583333334</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q61">
+        <v>1.98</v>
+      </c>
+      <c r="R61">
+        <v>2.4</v>
+      </c>
+      <c r="S61">
+        <v>5.75</v>
+      </c>
+      <c r="T61">
+        <v>1.29</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.65</v>
+      </c>
+      <c r="W61">
+        <v>1.42</v>
+      </c>
+      <c r="X61">
+        <v>6.75</v>
+      </c>
+      <c r="Y61">
+        <v>1.09</v>
+      </c>
+      <c r="Z61">
+        <v>1.44</v>
+      </c>
+      <c r="AA61">
+        <v>4.2</v>
+      </c>
+      <c r="AB61">
+        <v>6.5</v>
+      </c>
+      <c r="AC61">
+        <v>1.03</v>
+      </c>
+      <c r="AD61">
+        <v>14</v>
+      </c>
+      <c r="AE61">
+        <v>1.24</v>
+      </c>
+      <c r="AF61">
+        <v>3.6</v>
+      </c>
+      <c r="AG61">
+        <v>1.75</v>
+      </c>
+      <c r="AH61">
+        <v>1.95</v>
+      </c>
+      <c r="AI61">
+        <v>1.93</v>
+      </c>
+      <c r="AJ61">
+        <v>1.82</v>
+      </c>
+      <c r="AK61">
+        <v>1.1</v>
+      </c>
+      <c r="AL61">
+        <v>1.2</v>
+      </c>
+      <c r="AM61">
+        <v>2.6</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1.4</v>
+      </c>
+      <c r="AQ61">
+        <v>0.75</v>
+      </c>
+      <c r="AR61">
+        <v>2.06</v>
+      </c>
+      <c r="AS61">
+        <v>1.21</v>
+      </c>
+      <c r="AT61">
+        <v>3.27</v>
+      </c>
+      <c r="AU61">
+        <v>9</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>6</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>15</v>
+      </c>
+      <c r="AZ61">
+        <v>7</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>1.31</v>
+      </c>
+      <c r="BE61">
+        <v>9.5</v>
+      </c>
+      <c r="BF61">
+        <v>4.13</v>
+      </c>
+      <c r="BG61">
+        <v>1.28</v>
+      </c>
+      <c r="BH61">
+        <v>3.2</v>
+      </c>
+      <c r="BI61">
+        <v>1.52</v>
+      </c>
+      <c r="BJ61">
+        <v>2.32</v>
+      </c>
+      <c r="BK61">
+        <v>2</v>
+      </c>
+      <c r="BL61">
+        <v>1.8</v>
+      </c>
+      <c r="BM61">
+        <v>2.45</v>
+      </c>
+      <c r="BN61">
+        <v>1.46</v>
+      </c>
+      <c r="BO61">
+        <v>3.3</v>
+      </c>
+      <c r="BP61">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,12 @@
     <t>['16', '87']</t>
   </si>
   <si>
+    <t>['45+7', '90+3']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -503,6 +509,9 @@
   </si>
   <si>
     <t>['27', '55', '90+3']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1947,7 +1956,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2153,7 +2162,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2234,7 +2243,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2359,7 +2368,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2646,7 +2655,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2977,7 +2986,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3055,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3183,7 +3192,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3389,7 +3398,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3595,7 +3604,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3801,7 +3810,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4007,7 +4016,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4419,7 +4428,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4625,7 +4634,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4831,7 +4840,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4912,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5037,7 +5046,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5118,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5243,7 +5252,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5449,7 +5458,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6354,7 +6363,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -6891,7 +6900,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7097,7 +7106,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7175,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7303,7 +7312,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7509,7 +7518,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7715,7 +7724,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7921,7 +7930,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8127,7 +8136,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8333,7 +8342,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8951,7 +8960,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9032,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9157,7 +9166,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9235,7 +9244,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9363,7 +9372,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9444,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -9775,7 +9784,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10062,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10393,7 +10402,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10805,7 +10814,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11217,7 +11226,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11835,7 +11844,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12041,7 +12050,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12453,7 +12462,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12659,7 +12668,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12770,13 +12779,13 @@
         <v>4</v>
       </c>
       <c r="BA58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB58">
         <v>0</v>
       </c>
       <c r="BC58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD58">
         <v>1.59</v>
@@ -12865,7 +12874,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13071,7 +13080,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13434,6 +13443,418 @@
       </c>
       <c r="BP61">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7486501</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45537.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>126</v>
+      </c>
+      <c r="P62" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q62">
+        <v>2.88</v>
+      </c>
+      <c r="R62">
+        <v>2.05</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3.25</v>
+      </c>
+      <c r="W62">
+        <v>1.33</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
+        <v>2.1</v>
+      </c>
+      <c r="AA62">
+        <v>3</v>
+      </c>
+      <c r="AB62">
+        <v>3.55</v>
+      </c>
+      <c r="AC62">
+        <v>1.05</v>
+      </c>
+      <c r="AD62">
+        <v>8</v>
+      </c>
+      <c r="AE62">
+        <v>1.3</v>
+      </c>
+      <c r="AF62">
+        <v>3.2</v>
+      </c>
+      <c r="AG62">
+        <v>2.21</v>
+      </c>
+      <c r="AH62">
+        <v>1.65</v>
+      </c>
+      <c r="AI62">
+        <v>1.83</v>
+      </c>
+      <c r="AJ62">
+        <v>1.83</v>
+      </c>
+      <c r="AK62">
+        <v>1.28</v>
+      </c>
+      <c r="AL62">
+        <v>1.3</v>
+      </c>
+      <c r="AM62">
+        <v>1.71</v>
+      </c>
+      <c r="AN62">
+        <v>0.33</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>0.8</v>
+      </c>
+      <c r="AR62">
+        <v>1.4</v>
+      </c>
+      <c r="AS62">
+        <v>1.03</v>
+      </c>
+      <c r="AT62">
+        <v>2.43</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>5</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>8</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>14</v>
+      </c>
+      <c r="BD62">
+        <v>1.82</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.4</v>
+      </c>
+      <c r="BG62">
+        <v>1.35</v>
+      </c>
+      <c r="BH62">
+        <v>2.85</v>
+      </c>
+      <c r="BI62">
+        <v>1.63</v>
+      </c>
+      <c r="BJ62">
+        <v>2.08</v>
+      </c>
+      <c r="BK62">
+        <v>2.07</v>
+      </c>
+      <c r="BL62">
+        <v>1.64</v>
+      </c>
+      <c r="BM62">
+        <v>2.75</v>
+      </c>
+      <c r="BN62">
+        <v>1.37</v>
+      </c>
+      <c r="BO62">
+        <v>3.8</v>
+      </c>
+      <c r="BP62">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7486963</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45537.64583333334</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q63">
+        <v>2.41</v>
+      </c>
+      <c r="R63">
+        <v>2.04</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>1.48</v>
+      </c>
+      <c r="U63">
+        <v>2.5</v>
+      </c>
+      <c r="V63">
+        <v>3.4</v>
+      </c>
+      <c r="W63">
+        <v>1.3</v>
+      </c>
+      <c r="X63">
+        <v>10</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>1.8</v>
+      </c>
+      <c r="AA63">
+        <v>3.35</v>
+      </c>
+      <c r="AB63">
+        <v>4.33</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>7.6</v>
+      </c>
+      <c r="AE63">
+        <v>1.36</v>
+      </c>
+      <c r="AF63">
+        <v>2.79</v>
+      </c>
+      <c r="AG63">
+        <v>2.12</v>
+      </c>
+      <c r="AH63">
+        <v>1.7</v>
+      </c>
+      <c r="AI63">
+        <v>2</v>
+      </c>
+      <c r="AJ63">
+        <v>1.73</v>
+      </c>
+      <c r="AK63">
+        <v>1.19</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.94</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>0.75</v>
+      </c>
+      <c r="AP63">
+        <v>3</v>
+      </c>
+      <c r="AQ63">
+        <v>0.6</v>
+      </c>
+      <c r="AR63">
+        <v>1.64</v>
+      </c>
+      <c r="AS63">
+        <v>1.03</v>
+      </c>
+      <c r="AT63">
+        <v>2.67</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>2</v>
+      </c>
+      <c r="AX63">
+        <v>7</v>
+      </c>
+      <c r="AY63">
+        <v>5</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>11</v>
+      </c>
+      <c r="BD63">
+        <v>1.51</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>3.17</v>
+      </c>
+      <c r="BG63">
+        <v>1.4</v>
+      </c>
+      <c r="BH63">
+        <v>2.65</v>
+      </c>
+      <c r="BI63">
+        <v>1.71</v>
+      </c>
+      <c r="BJ63">
+        <v>1.97</v>
+      </c>
+      <c r="BK63">
+        <v>2.2</v>
+      </c>
+      <c r="BL63">
+        <v>1.57</v>
+      </c>
+      <c r="BM63">
+        <v>2.95</v>
+      </c>
+      <c r="BN63">
+        <v>1.32</v>
+      </c>
+      <c r="BO63">
+        <v>4.2</v>
+      </c>
+      <c r="BP63">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['10', '63', '87']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -873,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1213,7 +1219,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
         <v>0.75</v>
@@ -1956,7 +1962,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2162,7 +2168,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2368,7 +2374,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2861,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2986,7 +2992,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3192,7 +3198,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3398,7 +3404,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3604,7 +3610,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3810,7 +3816,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4016,7 +4022,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4428,7 +4434,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4509,7 +4515,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4634,7 +4640,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4840,7 +4846,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5046,7 +5052,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5124,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5252,7 +5258,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5333,7 +5339,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5458,7 +5464,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6900,7 +6906,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7106,7 +7112,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7312,7 +7318,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7518,7 +7524,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7724,7 +7730,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7805,7 +7811,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -7930,7 +7936,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8136,7 +8142,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8342,7 +8348,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8420,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8629,7 +8635,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -8960,7 +8966,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9166,7 +9172,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9372,7 +9378,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9784,7 +9790,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10402,7 +10408,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10814,7 +10820,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11098,10 +11104,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>1.75</v>
@@ -11226,7 +11232,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11513,7 +11519,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -11844,7 +11850,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12050,7 +12056,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12462,7 +12468,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12668,7 +12674,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12874,7 +12880,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13080,7 +13086,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13492,7 +13498,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13854,6 +13860,418 @@
         <v>4.2</v>
       </c>
       <c r="BP63">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7486506</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45548.5</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>128</v>
+      </c>
+      <c r="P64" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q64">
+        <v>2.2</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>5.5</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.67</v>
+      </c>
+      <c r="V64">
+        <v>3.04</v>
+      </c>
+      <c r="W64">
+        <v>1.35</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>1.83</v>
+      </c>
+      <c r="AA64">
+        <v>3.35</v>
+      </c>
+      <c r="AB64">
+        <v>4.2</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>1.3</v>
+      </c>
+      <c r="AF64">
+        <v>3.2</v>
+      </c>
+      <c r="AG64">
+        <v>1.98</v>
+      </c>
+      <c r="AH64">
+        <v>1.88</v>
+      </c>
+      <c r="AI64">
+        <v>2.1</v>
+      </c>
+      <c r="AJ64">
+        <v>1.73</v>
+      </c>
+      <c r="AK64">
+        <v>1.18</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.99</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0.75</v>
+      </c>
+      <c r="AP64">
+        <v>1.4</v>
+      </c>
+      <c r="AQ64">
+        <v>0.6</v>
+      </c>
+      <c r="AR64">
+        <v>1.61</v>
+      </c>
+      <c r="AS64">
+        <v>0.88</v>
+      </c>
+      <c r="AT64">
+        <v>2.49</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>8</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>14</v>
+      </c>
+      <c r="BA64">
+        <v>2</v>
+      </c>
+      <c r="BB64">
+        <v>3</v>
+      </c>
+      <c r="BC64">
+        <v>5</v>
+      </c>
+      <c r="BD64">
+        <v>1.51</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>3.16</v>
+      </c>
+      <c r="BG64">
+        <v>1.35</v>
+      </c>
+      <c r="BH64">
+        <v>2.85</v>
+      </c>
+      <c r="BI64">
+        <v>1.63</v>
+      </c>
+      <c r="BJ64">
+        <v>2.08</v>
+      </c>
+      <c r="BK64">
+        <v>2.07</v>
+      </c>
+      <c r="BL64">
+        <v>1.64</v>
+      </c>
+      <c r="BM64">
+        <v>2.75</v>
+      </c>
+      <c r="BN64">
+        <v>1.37</v>
+      </c>
+      <c r="BO64">
+        <v>3.8</v>
+      </c>
+      <c r="BP64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7486507</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>129</v>
+      </c>
+      <c r="P65" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q65">
+        <v>2.4</v>
+      </c>
+      <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
+        <v>4.75</v>
+      </c>
+      <c r="T65">
+        <v>1.45</v>
+      </c>
+      <c r="U65">
+        <v>2.6</v>
+      </c>
+      <c r="V65">
+        <v>2.99</v>
+      </c>
+      <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>7.7</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>1.73</v>
+      </c>
+      <c r="AA65">
+        <v>3.35</v>
+      </c>
+      <c r="AB65">
+        <v>4.9</v>
+      </c>
+      <c r="AC65">
+        <v>1.03</v>
+      </c>
+      <c r="AD65">
+        <v>8.4</v>
+      </c>
+      <c r="AE65">
+        <v>1.33</v>
+      </c>
+      <c r="AF65">
+        <v>3.1</v>
+      </c>
+      <c r="AG65">
+        <v>2.23</v>
+      </c>
+      <c r="AH65">
+        <v>1.58</v>
+      </c>
+      <c r="AI65">
+        <v>1.9</v>
+      </c>
+      <c r="AJ65">
+        <v>1.83</v>
+      </c>
+      <c r="AK65">
+        <v>1.16</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.95</v>
+      </c>
+      <c r="AN65">
+        <v>3</v>
+      </c>
+      <c r="AO65">
+        <v>1.75</v>
+      </c>
+      <c r="AP65">
+        <v>3</v>
+      </c>
+      <c r="AQ65">
+        <v>1.4</v>
+      </c>
+      <c r="AR65">
+        <v>1.18</v>
+      </c>
+      <c r="AS65">
+        <v>1.32</v>
+      </c>
+      <c r="AT65">
+        <v>2.5</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>7</v>
+      </c>
+      <c r="AY65">
+        <v>9</v>
+      </c>
+      <c r="AZ65">
+        <v>11</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>7</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>1.41</v>
+      </c>
+      <c r="BE65">
+        <v>8.5</v>
+      </c>
+      <c r="BF65">
+        <v>3.68</v>
+      </c>
+      <c r="BG65">
+        <v>1.4</v>
+      </c>
+      <c r="BH65">
+        <v>2.65</v>
+      </c>
+      <c r="BI65">
+        <v>1.71</v>
+      </c>
+      <c r="BJ65">
+        <v>1.97</v>
+      </c>
+      <c r="BK65">
+        <v>2.2</v>
+      </c>
+      <c r="BL65">
+        <v>1.57</v>
+      </c>
+      <c r="BM65">
+        <v>2.95</v>
+      </c>
+      <c r="BN65">
+        <v>1.32</v>
+      </c>
+      <c r="BO65">
+        <v>4.2</v>
+      </c>
+      <c r="BP65">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,9 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -518,6 +521,9 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1144,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1962,7 +1968,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2168,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2374,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2455,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2658,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
         <v>0.8</v>
@@ -2992,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3198,7 +3204,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3404,7 +3410,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3610,7 +3616,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3816,7 +3822,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4022,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4100,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4309,7 +4315,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4434,7 +4440,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4640,7 +4646,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4721,7 +4727,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4846,7 +4852,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5052,7 +5058,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5258,7 +5264,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5464,7 +5470,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5954,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>1.2</v>
@@ -6906,7 +6912,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7112,7 +7118,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7318,7 +7324,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7524,7 +7530,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7605,7 +7611,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -7730,7 +7736,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7936,7 +7942,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8017,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
         <v>1.51</v>
@@ -8142,7 +8148,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8220,7 +8226,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36">
         <v>1.2</v>
@@ -8348,7 +8354,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8838,7 +8844,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>1.8</v>
@@ -8966,7 +8972,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9172,7 +9178,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9378,7 +9384,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9790,7 +9796,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10408,7 +10414,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10692,10 +10698,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -10820,7 +10826,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11232,7 +11238,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11850,7 +11856,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -11928,7 +11934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
         <v>1.8</v>
@@ -12056,7 +12062,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12137,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.76</v>
@@ -12468,7 +12474,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12674,7 +12680,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12880,7 +12886,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13086,7 +13092,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13498,7 +13504,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14273,6 +14279,418 @@
       </c>
       <c r="BP65">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7486964</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45549.53125</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P66" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q66">
+        <v>4.5</v>
+      </c>
+      <c r="R66">
+        <v>1.91</v>
+      </c>
+      <c r="S66">
+        <v>2.75</v>
+      </c>
+      <c r="T66">
+        <v>1.49</v>
+      </c>
+      <c r="U66">
+        <v>2.45</v>
+      </c>
+      <c r="V66">
+        <v>3.7</v>
+      </c>
+      <c r="W66">
+        <v>1.23</v>
+      </c>
+      <c r="X66">
+        <v>11.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.03</v>
+      </c>
+      <c r="Z66">
+        <v>3.25</v>
+      </c>
+      <c r="AA66">
+        <v>3.1</v>
+      </c>
+      <c r="AB66">
+        <v>2.05</v>
+      </c>
+      <c r="AC66">
+        <v>1.09</v>
+      </c>
+      <c r="AD66">
+        <v>6.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.5</v>
+      </c>
+      <c r="AF66">
+        <v>2.4</v>
+      </c>
+      <c r="AG66">
+        <v>2.37</v>
+      </c>
+      <c r="AH66">
+        <v>1.48</v>
+      </c>
+      <c r="AI66">
+        <v>2.15</v>
+      </c>
+      <c r="AJ66">
+        <v>1.65</v>
+      </c>
+      <c r="AK66">
+        <v>1.75</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.25</v>
+      </c>
+      <c r="AN66">
+        <v>0.33</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>0.5</v>
+      </c>
+      <c r="AQ66">
+        <v>1.8</v>
+      </c>
+      <c r="AR66">
+        <v>1.39</v>
+      </c>
+      <c r="AS66">
+        <v>1.37</v>
+      </c>
+      <c r="AT66">
+        <v>2.76</v>
+      </c>
+      <c r="AU66">
+        <v>3</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>6</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>9</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
+        <v>5</v>
+      </c>
+      <c r="BB66">
+        <v>2</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66">
+        <v>2.4</v>
+      </c>
+      <c r="BE66">
+        <v>7.5</v>
+      </c>
+      <c r="BF66">
+        <v>1.82</v>
+      </c>
+      <c r="BG66">
+        <v>1.36</v>
+      </c>
+      <c r="BH66">
+        <v>2.8</v>
+      </c>
+      <c r="BI66">
+        <v>1.64</v>
+      </c>
+      <c r="BJ66">
+        <v>2.07</v>
+      </c>
+      <c r="BK66">
+        <v>2.08</v>
+      </c>
+      <c r="BL66">
+        <v>1.63</v>
+      </c>
+      <c r="BM66">
+        <v>2.8</v>
+      </c>
+      <c r="BN66">
+        <v>1.36</v>
+      </c>
+      <c r="BO66">
+        <v>3.85</v>
+      </c>
+      <c r="BP66">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7486965</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45549.64583333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>130</v>
+      </c>
+      <c r="P67" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q67">
+        <v>3.6</v>
+      </c>
+      <c r="R67">
+        <v>1.95</v>
+      </c>
+      <c r="S67">
+        <v>3.2</v>
+      </c>
+      <c r="T67">
+        <v>1.46</v>
+      </c>
+      <c r="U67">
+        <v>2.55</v>
+      </c>
+      <c r="V67">
+        <v>3.45</v>
+      </c>
+      <c r="W67">
+        <v>1.26</v>
+      </c>
+      <c r="X67">
+        <v>10</v>
+      </c>
+      <c r="Y67">
+        <v>1.04</v>
+      </c>
+      <c r="Z67">
+        <v>2.9</v>
+      </c>
+      <c r="AA67">
+        <v>2.8</v>
+      </c>
+      <c r="AB67">
+        <v>2.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>6.95</v>
+      </c>
+      <c r="AE67">
+        <v>1.42</v>
+      </c>
+      <c r="AF67">
+        <v>2.57</v>
+      </c>
+      <c r="AG67">
+        <v>2.38</v>
+      </c>
+      <c r="AH67">
+        <v>1.53</v>
+      </c>
+      <c r="AI67">
+        <v>1.98</v>
+      </c>
+      <c r="AJ67">
+        <v>1.74</v>
+      </c>
+      <c r="AK67">
+        <v>1.49</v>
+      </c>
+      <c r="AL67">
+        <v>1.34</v>
+      </c>
+      <c r="AM67">
+        <v>1.4</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>0.67</v>
+      </c>
+      <c r="AP67">
+        <v>1.4</v>
+      </c>
+      <c r="AQ67">
+        <v>0.75</v>
+      </c>
+      <c r="AR67">
+        <v>0.97</v>
+      </c>
+      <c r="AS67">
+        <v>1.5</v>
+      </c>
+      <c r="AT67">
+        <v>2.47</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>5</v>
+      </c>
+      <c r="AX67">
+        <v>1</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>6</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>2</v>
+      </c>
+      <c r="BE67">
+        <v>8</v>
+      </c>
+      <c r="BF67">
+        <v>2.1</v>
+      </c>
+      <c r="BG67">
+        <v>1.26</v>
+      </c>
+      <c r="BH67">
+        <v>3.35</v>
+      </c>
+      <c r="BI67">
+        <v>1.49</v>
+      </c>
+      <c r="BJ67">
+        <v>2.38</v>
+      </c>
+      <c r="BK67">
+        <v>1.95</v>
+      </c>
+      <c r="BL67">
+        <v>1.85</v>
+      </c>
+      <c r="BM67">
+        <v>2.35</v>
+      </c>
+      <c r="BN67">
+        <v>1.49</v>
+      </c>
+      <c r="BO67">
+        <v>3.2</v>
+      </c>
+      <c r="BP67">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,15 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['30', '90+10']</t>
+  </si>
+  <si>
+    <t>['36', '49']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -448,9 +457,6 @@
     <t>['45+12', '52']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -524,6 +530,15 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['59', '87']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['30', '60']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1159,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1431,7 +1446,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1968,7 +1983,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2049,7 +2064,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2174,7 +2189,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2252,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>0.6</v>
@@ -2380,7 +2395,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2870,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>0.6</v>
@@ -2998,7 +3013,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3079,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3204,7 +3219,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3410,7 +3425,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3488,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3616,7 +3631,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3697,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3822,7 +3837,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4028,7 +4043,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4440,7 +4455,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4646,7 +4661,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4852,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4930,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5058,7 +5073,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5264,7 +5279,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5470,7 +5485,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5548,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -5757,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.7</v>
@@ -6169,7 +6184,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6912,7 +6927,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -6990,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7118,7 +7133,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7324,7 +7339,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7402,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7530,7 +7545,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7736,7 +7751,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7942,7 +7957,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8148,7 +8163,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8354,7 +8369,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8435,7 +8450,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.45</v>
@@ -8638,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -8847,7 +8862,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -8972,7 +8987,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9050,7 +9065,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
         <v>0.6</v>
@@ -9178,7 +9193,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9384,7 +9399,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9796,7 +9811,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10080,7 +10095,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
         <v>0.6</v>
@@ -10414,7 +10429,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10495,7 +10510,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.7</v>
@@ -10826,7 +10841,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -10904,7 +10919,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
         <v>1.2</v>
@@ -11238,7 +11253,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11319,7 +11334,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11522,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -11731,7 +11746,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -11856,7 +11871,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -11937,7 +11952,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -12062,7 +12077,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12474,7 +12489,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12680,7 +12695,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12886,7 +12901,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13092,7 +13107,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13504,7 +13519,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14534,7 +14549,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14691,6 +14706,830 @@
       </c>
       <c r="BP67">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7486509</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45550.51041666666</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>131</v>
+      </c>
+      <c r="P68" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q68">
+        <v>4.5</v>
+      </c>
+      <c r="R68">
+        <v>2.17</v>
+      </c>
+      <c r="S68">
+        <v>2.38</v>
+      </c>
+      <c r="T68">
+        <v>1.33</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2.6</v>
+      </c>
+      <c r="W68">
+        <v>1.44</v>
+      </c>
+      <c r="X68">
+        <v>5.75</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>3.67</v>
+      </c>
+      <c r="AA68">
+        <v>3.55</v>
+      </c>
+      <c r="AB68">
+        <v>1.85</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>9.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.25</v>
+      </c>
+      <c r="AF68">
+        <v>3.42</v>
+      </c>
+      <c r="AG68">
+        <v>1.83</v>
+      </c>
+      <c r="AH68">
+        <v>1.87</v>
+      </c>
+      <c r="AI68">
+        <v>1.75</v>
+      </c>
+      <c r="AJ68">
+        <v>1.96</v>
+      </c>
+      <c r="AK68">
+        <v>1.91</v>
+      </c>
+      <c r="AL68">
+        <v>1.29</v>
+      </c>
+      <c r="AM68">
+        <v>1.25</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1.75</v>
+      </c>
+      <c r="AP68">
+        <v>1.4</v>
+      </c>
+      <c r="AQ68">
+        <v>1.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.66</v>
+      </c>
+      <c r="AS68">
+        <v>1.52</v>
+      </c>
+      <c r="AT68">
+        <v>3.18</v>
+      </c>
+      <c r="AU68">
+        <v>6</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>5</v>
+      </c>
+      <c r="AY68">
+        <v>13</v>
+      </c>
+      <c r="AZ68">
+        <v>11</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>12</v>
+      </c>
+      <c r="BC68">
+        <v>13</v>
+      </c>
+      <c r="BD68">
+        <v>2.8</v>
+      </c>
+      <c r="BE68">
+        <v>8</v>
+      </c>
+      <c r="BF68">
+        <v>1.59</v>
+      </c>
+      <c r="BG68">
+        <v>1.32</v>
+      </c>
+      <c r="BH68">
+        <v>3.05</v>
+      </c>
+      <c r="BI68">
+        <v>1.57</v>
+      </c>
+      <c r="BJ68">
+        <v>2.2</v>
+      </c>
+      <c r="BK68">
+        <v>1.97</v>
+      </c>
+      <c r="BL68">
+        <v>1.71</v>
+      </c>
+      <c r="BM68">
+        <v>2.6</v>
+      </c>
+      <c r="BN68">
+        <v>1.42</v>
+      </c>
+      <c r="BO68">
+        <v>3.5</v>
+      </c>
+      <c r="BP68">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7486966</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45550.625</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>132</v>
+      </c>
+      <c r="P69" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q69">
+        <v>2.91</v>
+      </c>
+      <c r="R69">
+        <v>2.12</v>
+      </c>
+      <c r="S69">
+        <v>3.44</v>
+      </c>
+      <c r="T69">
+        <v>1.38</v>
+      </c>
+      <c r="U69">
+        <v>2.9</v>
+      </c>
+      <c r="V69">
+        <v>2.78</v>
+      </c>
+      <c r="W69">
+        <v>1.41</v>
+      </c>
+      <c r="X69">
+        <v>6.95</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>2.25</v>
+      </c>
+      <c r="AA69">
+        <v>3.25</v>
+      </c>
+      <c r="AB69">
+        <v>2.76</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE69">
+        <v>1.26</v>
+      </c>
+      <c r="AF69">
+        <v>3.34</v>
+      </c>
+      <c r="AG69">
+        <v>1.96</v>
+      </c>
+      <c r="AH69">
+        <v>1.86</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
+        <v>2.03</v>
+      </c>
+      <c r="AK69">
+        <v>1.4</v>
+      </c>
+      <c r="AL69">
+        <v>1.33</v>
+      </c>
+      <c r="AM69">
+        <v>1.57</v>
+      </c>
+      <c r="AN69">
+        <v>1.8</v>
+      </c>
+      <c r="AO69">
+        <v>0.5</v>
+      </c>
+      <c r="AP69">
+        <v>1.67</v>
+      </c>
+      <c r="AQ69">
+        <v>0.67</v>
+      </c>
+      <c r="AR69">
+        <v>1.9</v>
+      </c>
+      <c r="AS69">
+        <v>1.42</v>
+      </c>
+      <c r="AT69">
+        <v>3.32</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>9</v>
+      </c>
+      <c r="AZ69">
+        <v>10</v>
+      </c>
+      <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>5</v>
+      </c>
+      <c r="BD69">
+        <v>1.85</v>
+      </c>
+      <c r="BE69">
+        <v>8</v>
+      </c>
+      <c r="BF69">
+        <v>2.28</v>
+      </c>
+      <c r="BG69">
+        <v>1.32</v>
+      </c>
+      <c r="BH69">
+        <v>3.05</v>
+      </c>
+      <c r="BI69">
+        <v>1.57</v>
+      </c>
+      <c r="BJ69">
+        <v>2.2</v>
+      </c>
+      <c r="BK69">
+        <v>1.97</v>
+      </c>
+      <c r="BL69">
+        <v>1.71</v>
+      </c>
+      <c r="BM69">
+        <v>2.6</v>
+      </c>
+      <c r="BN69">
+        <v>1.42</v>
+      </c>
+      <c r="BO69">
+        <v>3.5</v>
+      </c>
+      <c r="BP69">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7487068</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45551.5</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>133</v>
+      </c>
+      <c r="P70" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q70">
+        <v>2.99</v>
+      </c>
+      <c r="R70">
+        <v>1.94</v>
+      </c>
+      <c r="S70">
+        <v>3.86</v>
+      </c>
+      <c r="T70">
+        <v>1.52</v>
+      </c>
+      <c r="U70">
+        <v>2.43</v>
+      </c>
+      <c r="V70">
+        <v>3.44</v>
+      </c>
+      <c r="W70">
+        <v>1.28</v>
+      </c>
+      <c r="X70">
+        <v>9.4</v>
+      </c>
+      <c r="Y70">
+        <v>1.04</v>
+      </c>
+      <c r="Z70">
+        <v>2.55</v>
+      </c>
+      <c r="AA70">
+        <v>3.05</v>
+      </c>
+      <c r="AB70">
+        <v>2.95</v>
+      </c>
+      <c r="AC70">
+        <v>1.06</v>
+      </c>
+      <c r="AD70">
+        <v>6.8</v>
+      </c>
+      <c r="AE70">
+        <v>1.43</v>
+      </c>
+      <c r="AF70">
+        <v>2.54</v>
+      </c>
+      <c r="AG70">
+        <v>2.43</v>
+      </c>
+      <c r="AH70">
+        <v>1.54</v>
+      </c>
+      <c r="AI70">
+        <v>1.93</v>
+      </c>
+      <c r="AJ70">
+        <v>1.75</v>
+      </c>
+      <c r="AK70">
+        <v>1.27</v>
+      </c>
+      <c r="AL70">
+        <v>1.37</v>
+      </c>
+      <c r="AM70">
+        <v>1.5</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>0.25</v>
+      </c>
+      <c r="AR70">
+        <v>1.63</v>
+      </c>
+      <c r="AS70">
+        <v>1.07</v>
+      </c>
+      <c r="AT70">
+        <v>2.7</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>8</v>
+      </c>
+      <c r="AZ70">
+        <v>15</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>8</v>
+      </c>
+      <c r="BD70">
+        <v>2</v>
+      </c>
+      <c r="BE70">
+        <v>7.5</v>
+      </c>
+      <c r="BF70">
+        <v>2.1</v>
+      </c>
+      <c r="BG70">
+        <v>1.35</v>
+      </c>
+      <c r="BH70">
+        <v>2.85</v>
+      </c>
+      <c r="BI70">
+        <v>1.63</v>
+      </c>
+      <c r="BJ70">
+        <v>2.08</v>
+      </c>
+      <c r="BK70">
+        <v>2.07</v>
+      </c>
+      <c r="BL70">
+        <v>1.64</v>
+      </c>
+      <c r="BM70">
+        <v>2.75</v>
+      </c>
+      <c r="BN70">
+        <v>1.37</v>
+      </c>
+      <c r="BO70">
+        <v>3.8</v>
+      </c>
+      <c r="BP70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7486508</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45551.625</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q71">
+        <v>2.55</v>
+      </c>
+      <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>4.64</v>
+      </c>
+      <c r="T71">
+        <v>1.42</v>
+      </c>
+      <c r="U71">
+        <v>2.77</v>
+      </c>
+      <c r="V71">
+        <v>3.15</v>
+      </c>
+      <c r="W71">
+        <v>1.34</v>
+      </c>
+      <c r="X71">
+        <v>8.1</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>2.1</v>
+      </c>
+      <c r="AA71">
+        <v>3.2</v>
+      </c>
+      <c r="AB71">
+        <v>3.7</v>
+      </c>
+      <c r="AC71">
+        <v>1.05</v>
+      </c>
+      <c r="AD71">
+        <v>8</v>
+      </c>
+      <c r="AE71">
+        <v>1.36</v>
+      </c>
+      <c r="AF71">
+        <v>2.9</v>
+      </c>
+      <c r="AG71">
+        <v>2.1</v>
+      </c>
+      <c r="AH71">
+        <v>1.71</v>
+      </c>
+      <c r="AI71">
+        <v>1.89</v>
+      </c>
+      <c r="AJ71">
+        <v>1.87</v>
+      </c>
+      <c r="AK71">
+        <v>1.25</v>
+      </c>
+      <c r="AL71">
+        <v>1.35</v>
+      </c>
+      <c r="AM71">
+        <v>1.78</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1.8</v>
+      </c>
+      <c r="AP71">
+        <v>0.75</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.35</v>
+      </c>
+      <c r="AS71">
+        <v>1.13</v>
+      </c>
+      <c r="AT71">
+        <v>2.48</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>7</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>7</v>
+      </c>
+      <c r="BA71">
+        <v>7</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>1.82</v>
+      </c>
+      <c r="BE71">
+        <v>7.5</v>
+      </c>
+      <c r="BF71">
+        <v>2.34</v>
+      </c>
+      <c r="BG71">
+        <v>1.44</v>
+      </c>
+      <c r="BH71">
+        <v>2.5</v>
+      </c>
+      <c r="BI71">
+        <v>1.8</v>
+      </c>
+      <c r="BJ71">
+        <v>2</v>
+      </c>
+      <c r="BK71">
+        <v>2.32</v>
+      </c>
+      <c r="BL71">
+        <v>1.52</v>
+      </c>
+      <c r="BM71">
+        <v>3.15</v>
+      </c>
+      <c r="BN71">
+        <v>1.29</v>
+      </c>
+      <c r="BO71">
+        <v>4.5</v>
+      </c>
+      <c r="BP71">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['69', '74', '89']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -539,6 +542,9 @@
   </si>
   <si>
     <t>['30', '60']</t>
+  </si>
+  <si>
+    <t>['40', '80', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1165,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1983,7 +1989,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2189,7 +2195,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2270,7 +2276,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2395,7 +2401,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2682,7 +2688,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3013,7 +3019,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3219,7 +3225,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3425,7 +3431,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3631,7 +3637,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3837,7 +3843,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4043,7 +4049,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4327,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.75</v>
@@ -4455,7 +4461,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4661,7 +4667,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4867,7 +4873,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4948,7 +4954,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5154,7 +5160,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5279,7 +5285,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5485,7 +5491,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6181,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.25</v>
@@ -6390,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -6927,7 +6933,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7133,7 +7139,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7339,7 +7345,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7545,7 +7551,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7751,7 +7757,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7957,7 +7963,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8163,7 +8169,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8369,7 +8375,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8987,7 +8993,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9068,7 +9074,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ40">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9193,7 +9199,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9399,7 +9405,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9480,7 +9486,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -9811,7 +9817,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10098,7 +10104,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10429,7 +10435,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10841,7 +10847,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11253,7 +11259,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11871,7 +11877,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12077,7 +12083,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12361,7 +12367,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12489,7 +12495,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12695,7 +12701,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12901,7 +12907,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13107,7 +13113,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13519,7 +13525,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13600,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -13806,7 +13812,7 @@
         <v>3</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14549,7 +14555,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14961,7 +14967,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15167,7 +15173,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15373,7 +15379,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15530,6 +15536,418 @@
       </c>
       <c r="BP71">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7486511</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45555.5</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>6</v>
+      </c>
+      <c r="O72" t="s">
+        <v>134</v>
+      </c>
+      <c r="P72" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q72">
+        <v>2.6</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>4.33</v>
+      </c>
+      <c r="T72">
+        <v>1.45</v>
+      </c>
+      <c r="U72">
+        <v>2.6</v>
+      </c>
+      <c r="V72">
+        <v>3.48</v>
+      </c>
+      <c r="W72">
+        <v>1.28</v>
+      </c>
+      <c r="X72">
+        <v>9.4</v>
+      </c>
+      <c r="Y72">
+        <v>1.04</v>
+      </c>
+      <c r="Z72">
+        <v>2.1</v>
+      </c>
+      <c r="AA72">
+        <v>3.2</v>
+      </c>
+      <c r="AB72">
+        <v>3.5</v>
+      </c>
+      <c r="AC72">
+        <v>1.09</v>
+      </c>
+      <c r="AD72">
+        <v>6.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.36</v>
+      </c>
+      <c r="AF72">
+        <v>3</v>
+      </c>
+      <c r="AG72">
+        <v>2.4</v>
+      </c>
+      <c r="AH72">
+        <v>1.54</v>
+      </c>
+      <c r="AI72">
+        <v>1.9</v>
+      </c>
+      <c r="AJ72">
+        <v>1.83</v>
+      </c>
+      <c r="AK72">
+        <v>1.22</v>
+      </c>
+      <c r="AL72">
+        <v>1.28</v>
+      </c>
+      <c r="AM72">
+        <v>1.8</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0.8</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>0.83</v>
+      </c>
+      <c r="AR72">
+        <v>1.78</v>
+      </c>
+      <c r="AS72">
+        <v>1.13</v>
+      </c>
+      <c r="AT72">
+        <v>2.91</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>10</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>18</v>
+      </c>
+      <c r="AZ72">
+        <v>9</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>1.51</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.16</v>
+      </c>
+      <c r="BG72">
+        <v>1.35</v>
+      </c>
+      <c r="BH72">
+        <v>2.95</v>
+      </c>
+      <c r="BI72">
+        <v>1.71</v>
+      </c>
+      <c r="BJ72">
+        <v>2.11</v>
+      </c>
+      <c r="BK72">
+        <v>2.17</v>
+      </c>
+      <c r="BL72">
+        <v>1.67</v>
+      </c>
+      <c r="BM72">
+        <v>2.9</v>
+      </c>
+      <c r="BN72">
+        <v>1.36</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7486512</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>85</v>
+      </c>
+      <c r="H73" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q73">
+        <v>2.95</v>
+      </c>
+      <c r="R73">
+        <v>1.9</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1.53</v>
+      </c>
+      <c r="U73">
+        <v>2.45</v>
+      </c>
+      <c r="V73">
+        <v>3.6</v>
+      </c>
+      <c r="W73">
+        <v>1.25</v>
+      </c>
+      <c r="X73">
+        <v>9</v>
+      </c>
+      <c r="Y73">
+        <v>1.03</v>
+      </c>
+      <c r="Z73">
+        <v>2.5</v>
+      </c>
+      <c r="AA73">
+        <v>3.1</v>
+      </c>
+      <c r="AB73">
+        <v>3</v>
+      </c>
+      <c r="AC73">
+        <v>1.07</v>
+      </c>
+      <c r="AD73">
+        <v>7</v>
+      </c>
+      <c r="AE73">
+        <v>1.5</v>
+      </c>
+      <c r="AF73">
+        <v>2.45</v>
+      </c>
+      <c r="AG73">
+        <v>2.55</v>
+      </c>
+      <c r="AH73">
+        <v>1.49</v>
+      </c>
+      <c r="AI73">
+        <v>2.05</v>
+      </c>
+      <c r="AJ73">
+        <v>1.72</v>
+      </c>
+      <c r="AK73">
+        <v>1.3</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.62</v>
+      </c>
+      <c r="AN73">
+        <v>2.33</v>
+      </c>
+      <c r="AO73">
+        <v>0.6</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>0.67</v>
+      </c>
+      <c r="AR73">
+        <v>1.51</v>
+      </c>
+      <c r="AS73">
+        <v>1.11</v>
+      </c>
+      <c r="AT73">
+        <v>2.62</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>10</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>13</v>
+      </c>
+      <c r="AZ73">
+        <v>7</v>
+      </c>
+      <c r="BA73">
+        <v>7</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.67</v>
+      </c>
+      <c r="BE73">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF73">
+        <v>2.71</v>
+      </c>
+      <c r="BG73">
+        <v>1.38</v>
+      </c>
+      <c r="BH73">
+        <v>2.9</v>
+      </c>
+      <c r="BI73">
+        <v>1.68</v>
+      </c>
+      <c r="BJ73">
+        <v>2.16</v>
+      </c>
+      <c r="BK73">
+        <v>2.11</v>
+      </c>
+      <c r="BL73">
+        <v>1.71</v>
+      </c>
+      <c r="BM73">
+        <v>2.7</v>
+      </c>
+      <c r="BN73">
+        <v>1.43</v>
+      </c>
+      <c r="BO73">
+        <v>3.7</v>
+      </c>
+      <c r="BP73">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['69', '74', '89']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -545,6 +548,9 @@
   </si>
   <si>
     <t>['40', '80', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1171,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1449,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1989,7 +1995,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2195,7 +2201,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2401,7 +2407,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3019,7 +3025,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3225,7 +3231,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3431,7 +3437,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3512,7 +3518,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3637,7 +3643,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3843,7 +3849,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3924,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4049,7 +4055,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4461,7 +4467,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4539,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4667,7 +4673,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4745,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>1.8</v>
@@ -4873,7 +4879,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5285,7 +5291,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5491,7 +5497,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6808,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -6933,7 +6939,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7139,7 +7145,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7345,7 +7351,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7551,7 +7557,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7629,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -7757,7 +7763,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7835,7 +7841,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -7963,7 +7969,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8169,7 +8175,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8375,7 +8381,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8993,7 +8999,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9199,7 +9205,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9280,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9405,7 +9411,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9817,7 +9823,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9895,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10435,7 +10441,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10847,7 +10853,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11259,7 +11265,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11749,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0.67</v>
@@ -11877,7 +11883,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12083,7 +12089,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12495,7 +12501,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12573,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>0.75</v>
@@ -12701,7 +12707,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12907,7 +12913,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -12988,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13113,7 +13119,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13194,7 +13200,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.75</v>
@@ -13397,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -13525,7 +13531,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14555,7 +14561,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14967,7 +14973,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15173,7 +15179,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15379,7 +15385,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15585,7 +15591,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15791,7 +15797,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -15948,6 +15954,418 @@
       </c>
       <c r="BP73">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7486515</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45556.52083333334</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q74">
+        <v>4.2</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>2.55</v>
+      </c>
+      <c r="T74">
+        <v>1.43</v>
+      </c>
+      <c r="U74">
+        <v>2.65</v>
+      </c>
+      <c r="V74">
+        <v>3.04</v>
+      </c>
+      <c r="W74">
+        <v>1.35</v>
+      </c>
+      <c r="X74">
+        <v>7.9</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>3.8</v>
+      </c>
+      <c r="AA74">
+        <v>3.2</v>
+      </c>
+      <c r="AB74">
+        <v>1.97</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>7.6</v>
+      </c>
+      <c r="AE74">
+        <v>1.33</v>
+      </c>
+      <c r="AF74">
+        <v>3.1</v>
+      </c>
+      <c r="AG74">
+        <v>2.05</v>
+      </c>
+      <c r="AH74">
+        <v>1.7</v>
+      </c>
+      <c r="AI74">
+        <v>1.87</v>
+      </c>
+      <c r="AJ74">
+        <v>1.87</v>
+      </c>
+      <c r="AK74">
+        <v>1.8</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.25</v>
+      </c>
+      <c r="AN74">
+        <v>2.2</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>2</v>
+      </c>
+      <c r="AQ74">
+        <v>1.67</v>
+      </c>
+      <c r="AR74">
+        <v>1.37</v>
+      </c>
+      <c r="AS74">
+        <v>1.29</v>
+      </c>
+      <c r="AT74">
+        <v>2.66</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>7</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>10</v>
+      </c>
+      <c r="AY74">
+        <v>4</v>
+      </c>
+      <c r="AZ74">
+        <v>17</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>10</v>
+      </c>
+      <c r="BC74">
+        <v>13</v>
+      </c>
+      <c r="BD74">
+        <v>2.45</v>
+      </c>
+      <c r="BE74">
+        <v>6.35</v>
+      </c>
+      <c r="BF74">
+        <v>1.89</v>
+      </c>
+      <c r="BG74">
+        <v>1.27</v>
+      </c>
+      <c r="BH74">
+        <v>3.04</v>
+      </c>
+      <c r="BI74">
+        <v>1.59</v>
+      </c>
+      <c r="BJ74">
+        <v>2.29</v>
+      </c>
+      <c r="BK74">
+        <v>1.98</v>
+      </c>
+      <c r="BL74">
+        <v>1.82</v>
+      </c>
+      <c r="BM74">
+        <v>2.52</v>
+      </c>
+      <c r="BN74">
+        <v>1.5</v>
+      </c>
+      <c r="BO74">
+        <v>3.44</v>
+      </c>
+      <c r="BP74">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7486513</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45556.64583333334</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q75">
+        <v>2.05</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>5.5</v>
+      </c>
+      <c r="T75">
+        <v>1.39</v>
+      </c>
+      <c r="U75">
+        <v>2.8</v>
+      </c>
+      <c r="V75">
+        <v>2.8</v>
+      </c>
+      <c r="W75">
+        <v>1.39</v>
+      </c>
+      <c r="X75">
+        <v>6.65</v>
+      </c>
+      <c r="Y75">
+        <v>1.09</v>
+      </c>
+      <c r="Z75">
+        <v>1.5</v>
+      </c>
+      <c r="AA75">
+        <v>3.8</v>
+      </c>
+      <c r="AB75">
+        <v>5.75</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.3</v>
+      </c>
+      <c r="AG75">
+        <v>1.95</v>
+      </c>
+      <c r="AH75">
+        <v>1.75</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.75</v>
+      </c>
+      <c r="AK75">
+        <v>1.08</v>
+      </c>
+      <c r="AL75">
+        <v>1.18</v>
+      </c>
+      <c r="AM75">
+        <v>2.45</v>
+      </c>
+      <c r="AN75">
+        <v>1.4</v>
+      </c>
+      <c r="AO75">
+        <v>1.75</v>
+      </c>
+      <c r="AP75">
+        <v>1.33</v>
+      </c>
+      <c r="AQ75">
+        <v>1.6</v>
+      </c>
+      <c r="AR75">
+        <v>2.05</v>
+      </c>
+      <c r="AS75">
+        <v>1.38</v>
+      </c>
+      <c r="AT75">
+        <v>3.43</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>3</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>8</v>
+      </c>
+      <c r="AZ75">
+        <v>11</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>5</v>
+      </c>
+      <c r="BD75">
+        <v>1.2</v>
+      </c>
+      <c r="BE75">
+        <v>9.1</v>
+      </c>
+      <c r="BF75">
+        <v>6.2</v>
+      </c>
+      <c r="BG75">
+        <v>1.18</v>
+      </c>
+      <c r="BH75">
+        <v>3.74</v>
+      </c>
+      <c r="BI75">
+        <v>1.38</v>
+      </c>
+      <c r="BJ75">
+        <v>2.62</v>
+      </c>
+      <c r="BK75">
+        <v>1.75</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.19</v>
+      </c>
+      <c r="BN75">
+        <v>1.66</v>
+      </c>
+      <c r="BO75">
+        <v>2.73</v>
+      </c>
+      <c r="BP75">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['12', '52']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -551,6 +554,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1177,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1249,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -1664,7 +1670,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1995,7 +2001,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2201,7 +2207,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2407,7 +2413,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3025,7 +3031,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3231,7 +3237,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3437,7 +3443,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3643,7 +3649,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3849,7 +3855,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4055,7 +4061,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4136,7 +4142,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4467,7 +4473,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4673,7 +4679,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4879,7 +4885,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5291,7 +5297,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5369,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>0.6</v>
@@ -5497,7 +5503,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6605,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6939,7 +6945,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7145,7 +7151,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7351,7 +7357,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7432,7 +7438,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7557,7 +7563,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7763,7 +7769,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7969,7 +7975,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8175,7 +8181,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8381,7 +8387,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8999,7 +9005,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9205,7 +9211,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9411,7 +9417,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9823,7 +9829,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9904,7 +9910,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10316,7 +10322,7 @@
         <v>3</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10441,7 +10447,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10519,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -10853,7 +10859,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11265,7 +11271,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11883,7 +11889,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12089,7 +12095,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12376,7 +12382,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12501,7 +12507,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12582,7 +12588,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -12707,7 +12713,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12913,7 +12919,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13119,7 +13125,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13197,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13531,7 +13537,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14561,7 +14567,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14973,7 +14979,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15179,7 +15185,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15385,7 +15391,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15591,7 +15597,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15797,7 +15803,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -15961,7 +15967,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7486515</v>
+        <v>7486513</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -15970,196 +15976,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45556.52083333334</v>
+        <v>45555.875</v>
       </c>
       <c r="F74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="Q74">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S74">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="T74">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="U74">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="V74">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="W74">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X74">
-        <v>7.9</v>
+        <v>6.65</v>
       </c>
       <c r="Y74">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z74">
+        <v>1.5</v>
+      </c>
+      <c r="AA74">
         <v>3.8</v>
       </c>
-      <c r="AA74">
-        <v>3.2</v>
-      </c>
       <c r="AB74">
-        <v>1.97</v>
+        <v>5.75</v>
       </c>
       <c r="AC74">
         <v>1.01</v>
       </c>
       <c r="AD74">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.3</v>
+      </c>
+      <c r="AG74">
+        <v>1.95</v>
+      </c>
+      <c r="AH74">
+        <v>1.75</v>
+      </c>
+      <c r="AI74">
+        <v>2</v>
+      </c>
+      <c r="AJ74">
+        <v>1.75</v>
+      </c>
+      <c r="AK74">
+        <v>1.08</v>
+      </c>
+      <c r="AL74">
+        <v>1.18</v>
+      </c>
+      <c r="AM74">
+        <v>2.45</v>
+      </c>
+      <c r="AN74">
+        <v>1.4</v>
+      </c>
+      <c r="AO74">
+        <v>1.75</v>
+      </c>
+      <c r="AP74">
         <v>1.33</v>
       </c>
-      <c r="AF74">
-        <v>3.1</v>
-      </c>
-      <c r="AG74">
+      <c r="AQ74">
+        <v>1.6</v>
+      </c>
+      <c r="AR74">
         <v>2.05</v>
       </c>
-      <c r="AH74">
-        <v>1.7</v>
-      </c>
-      <c r="AI74">
-        <v>1.87</v>
-      </c>
-      <c r="AJ74">
-        <v>1.87</v>
-      </c>
-      <c r="AK74">
-        <v>1.8</v>
-      </c>
-      <c r="AL74">
-        <v>1.25</v>
-      </c>
-      <c r="AM74">
-        <v>1.25</v>
-      </c>
-      <c r="AN74">
-        <v>2.2</v>
-      </c>
-      <c r="AO74">
-        <v>2</v>
-      </c>
-      <c r="AP74">
-        <v>2</v>
-      </c>
-      <c r="AQ74">
-        <v>1.67</v>
-      </c>
-      <c r="AR74">
-        <v>1.37</v>
-      </c>
       <c r="AS74">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT74">
-        <v>2.66</v>
+        <v>3.43</v>
       </c>
       <c r="AU74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
         <v>7</v>
       </c>
-      <c r="AW74">
-        <v>2</v>
-      </c>
-      <c r="AX74">
-        <v>10</v>
-      </c>
       <c r="AY74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ74">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BA74">
+        <v>2</v>
+      </c>
+      <c r="BB74">
         <v>3</v>
       </c>
-      <c r="BB74">
-        <v>10</v>
-      </c>
       <c r="BC74">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BD74">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="BE74">
-        <v>6.35</v>
+        <v>9.1</v>
       </c>
       <c r="BF74">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="BG74">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH74">
-        <v>3.04</v>
+        <v>3.74</v>
       </c>
       <c r="BI74">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="BJ74">
-        <v>2.29</v>
+        <v>2.62</v>
       </c>
       <c r="BK74">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="BL74">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="BM74">
-        <v>2.52</v>
+        <v>2.19</v>
       </c>
       <c r="BN74">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="BO74">
-        <v>3.44</v>
+        <v>2.73</v>
       </c>
       <c r="BP74">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16167,7 +16173,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7486513</v>
+        <v>7486515</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16176,196 +16182,608 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45556.64583333334</v>
+        <v>45556.52083333334</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="Q75">
+        <v>4.2</v>
+      </c>
+      <c r="R75">
         <v>2.05</v>
       </c>
-      <c r="R75">
-        <v>2.2</v>
-      </c>
       <c r="S75">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="T75">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="U75">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="V75">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="W75">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X75">
-        <v>6.65</v>
+        <v>7.9</v>
       </c>
       <c r="Y75">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z75">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="AA75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AB75">
-        <v>5.75</v>
+        <v>1.97</v>
       </c>
       <c r="AC75">
         <v>1.01</v>
       </c>
       <c r="AD75">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AE75">
+        <v>1.33</v>
+      </c>
+      <c r="AF75">
+        <v>3.1</v>
+      </c>
+      <c r="AG75">
+        <v>2.05</v>
+      </c>
+      <c r="AH75">
+        <v>1.7</v>
+      </c>
+      <c r="AI75">
+        <v>1.87</v>
+      </c>
+      <c r="AJ75">
+        <v>1.87</v>
+      </c>
+      <c r="AK75">
+        <v>1.8</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.25</v>
+      </c>
+      <c r="AN75">
+        <v>2.2</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75">
+        <v>2</v>
+      </c>
+      <c r="AQ75">
+        <v>1.67</v>
+      </c>
+      <c r="AR75">
+        <v>1.37</v>
+      </c>
+      <c r="AS75">
+        <v>1.29</v>
+      </c>
+      <c r="AT75">
+        <v>2.66</v>
+      </c>
+      <c r="AU75">
+        <v>2</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>10</v>
+      </c>
+      <c r="AY75">
+        <v>4</v>
+      </c>
+      <c r="AZ75">
+        <v>17</v>
+      </c>
+      <c r="BA75">
+        <v>3</v>
+      </c>
+      <c r="BB75">
+        <v>10</v>
+      </c>
+      <c r="BC75">
+        <v>13</v>
+      </c>
+      <c r="BD75">
+        <v>2.45</v>
+      </c>
+      <c r="BE75">
+        <v>6.35</v>
+      </c>
+      <c r="BF75">
+        <v>1.89</v>
+      </c>
+      <c r="BG75">
+        <v>1.27</v>
+      </c>
+      <c r="BH75">
+        <v>3.04</v>
+      </c>
+      <c r="BI75">
+        <v>1.59</v>
+      </c>
+      <c r="BJ75">
+        <v>2.29</v>
+      </c>
+      <c r="BK75">
+        <v>1.98</v>
+      </c>
+      <c r="BL75">
+        <v>1.82</v>
+      </c>
+      <c r="BM75">
+        <v>2.52</v>
+      </c>
+      <c r="BN75">
+        <v>1.5</v>
+      </c>
+      <c r="BO75">
+        <v>3.44</v>
+      </c>
+      <c r="BP75">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7486510</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45557.41666666666</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>136</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76">
+        <v>2.75</v>
+      </c>
+      <c r="R76">
+        <v>2.3</v>
+      </c>
+      <c r="S76">
+        <v>3.3</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.6</v>
+      </c>
+      <c r="W76">
+        <v>1.45</v>
+      </c>
+      <c r="X76">
+        <v>6.25</v>
+      </c>
+      <c r="Y76">
+        <v>1.1</v>
+      </c>
+      <c r="Z76">
+        <v>2.25</v>
+      </c>
+      <c r="AA76">
+        <v>3.4</v>
+      </c>
+      <c r="AB76">
+        <v>2.75</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>10.25</v>
+      </c>
+      <c r="AE76">
+        <v>1.25</v>
+      </c>
+      <c r="AF76">
+        <v>3.75</v>
+      </c>
+      <c r="AG76">
+        <v>2.05</v>
+      </c>
+      <c r="AH76">
+        <v>1.67</v>
+      </c>
+      <c r="AI76">
+        <v>1.62</v>
+      </c>
+      <c r="AJ76">
+        <v>2.2</v>
+      </c>
+      <c r="AK76">
+        <v>1.42</v>
+      </c>
+      <c r="AL76">
+        <v>1.29</v>
+      </c>
+      <c r="AM76">
+        <v>1.62</v>
+      </c>
+      <c r="AN76">
+        <v>1.2</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>1.5</v>
+      </c>
+      <c r="AQ76">
+        <v>0.8</v>
+      </c>
+      <c r="AR76">
+        <v>1.69</v>
+      </c>
+      <c r="AS76">
+        <v>1.67</v>
+      </c>
+      <c r="AT76">
+        <v>3.36</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>8</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>10</v>
+      </c>
+      <c r="AZ76">
+        <v>13</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.88</v>
+      </c>
+      <c r="BE76">
+        <v>6.35</v>
+      </c>
+      <c r="BF76">
+        <v>2.4</v>
+      </c>
+      <c r="BG76">
+        <v>1.25</v>
+      </c>
+      <c r="BH76">
+        <v>3.14</v>
+      </c>
+      <c r="BI76">
+        <v>1.57</v>
+      </c>
+      <c r="BJ76">
+        <v>2.37</v>
+      </c>
+      <c r="BK76">
+        <v>1.94</v>
+      </c>
+      <c r="BL76">
+        <v>1.85</v>
+      </c>
+      <c r="BM76">
+        <v>2.49</v>
+      </c>
+      <c r="BN76">
+        <v>1.52</v>
+      </c>
+      <c r="BO76">
+        <v>3.22</v>
+      </c>
+      <c r="BP76">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7486517</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45558.5</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>86</v>
+      </c>
+      <c r="P77" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q77">
+        <v>2.7</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1.47</v>
+      </c>
+      <c r="U77">
+        <v>2.57</v>
+      </c>
+      <c r="V77">
+        <v>3.1</v>
+      </c>
+      <c r="W77">
+        <v>1.34</v>
+      </c>
+      <c r="X77">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.3</v>
+      </c>
+      <c r="AA77">
+        <v>3.05</v>
+      </c>
+      <c r="AB77">
+        <v>3.35</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
         <v>1.3</v>
       </c>
-      <c r="AF75">
-        <v>3.3</v>
-      </c>
-      <c r="AG75">
-        <v>1.95</v>
-      </c>
-      <c r="AH75">
-        <v>1.75</v>
-      </c>
-      <c r="AI75">
-        <v>2</v>
-      </c>
-      <c r="AJ75">
-        <v>1.75</v>
-      </c>
-      <c r="AK75">
-        <v>1.08</v>
-      </c>
-      <c r="AL75">
-        <v>1.18</v>
-      </c>
-      <c r="AM75">
-        <v>2.45</v>
-      </c>
-      <c r="AN75">
-        <v>1.4</v>
-      </c>
-      <c r="AO75">
-        <v>1.75</v>
-      </c>
-      <c r="AP75">
-        <v>1.33</v>
-      </c>
-      <c r="AQ75">
-        <v>1.6</v>
-      </c>
-      <c r="AR75">
-        <v>2.05</v>
-      </c>
-      <c r="AS75">
-        <v>1.38</v>
-      </c>
-      <c r="AT75">
-        <v>3.43</v>
-      </c>
-      <c r="AU75">
+      <c r="AF77">
+        <v>3.2</v>
+      </c>
+      <c r="AG77">
+        <v>2.28</v>
+      </c>
+      <c r="AH77">
+        <v>1.61</v>
+      </c>
+      <c r="AI77">
+        <v>1.87</v>
+      </c>
+      <c r="AJ77">
+        <v>1.9</v>
+      </c>
+      <c r="AK77">
+        <v>1.27</v>
+      </c>
+      <c r="AL77">
+        <v>1.32</v>
+      </c>
+      <c r="AM77">
+        <v>1.71</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>0.75</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>0.8</v>
+      </c>
+      <c r="AR77">
+        <v>1.56</v>
+      </c>
+      <c r="AS77">
+        <v>1.53</v>
+      </c>
+      <c r="AT77">
+        <v>3.09</v>
+      </c>
+      <c r="AU77">
+        <v>9</v>
+      </c>
+      <c r="AV77">
+        <v>8</v>
+      </c>
+      <c r="AW77">
+        <v>9</v>
+      </c>
+      <c r="AX77">
+        <v>7</v>
+      </c>
+      <c r="AY77">
+        <v>18</v>
+      </c>
+      <c r="AZ77">
+        <v>15</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
         <v>5</v>
       </c>
-      <c r="AV75">
-        <v>4</v>
-      </c>
-      <c r="AW75">
-        <v>3</v>
-      </c>
-      <c r="AX75">
-        <v>7</v>
-      </c>
-      <c r="AY75">
-        <v>8</v>
-      </c>
-      <c r="AZ75">
-        <v>11</v>
-      </c>
-      <c r="BA75">
-        <v>2</v>
-      </c>
-      <c r="BB75">
-        <v>3</v>
-      </c>
-      <c r="BC75">
-        <v>5</v>
-      </c>
-      <c r="BD75">
-        <v>1.2</v>
-      </c>
-      <c r="BE75">
-        <v>9.1</v>
-      </c>
-      <c r="BF75">
-        <v>6.2</v>
-      </c>
-      <c r="BG75">
-        <v>1.18</v>
-      </c>
-      <c r="BH75">
-        <v>3.74</v>
-      </c>
-      <c r="BI75">
-        <v>1.38</v>
-      </c>
-      <c r="BJ75">
-        <v>2.62</v>
-      </c>
-      <c r="BK75">
-        <v>1.75</v>
-      </c>
-      <c r="BL75">
-        <v>2.05</v>
-      </c>
-      <c r="BM75">
-        <v>2.19</v>
-      </c>
-      <c r="BN75">
-        <v>1.66</v>
-      </c>
-      <c r="BO75">
-        <v>2.73</v>
-      </c>
-      <c r="BP75">
-        <v>1.33</v>
+      <c r="BC77">
+        <v>13</v>
+      </c>
+      <c r="BD77">
+        <v>1.69</v>
+      </c>
+      <c r="BE77">
+        <v>6.55</v>
+      </c>
+      <c r="BF77">
+        <v>2.77</v>
+      </c>
+      <c r="BG77">
+        <v>1.22</v>
+      </c>
+      <c r="BH77">
+        <v>3.35</v>
+      </c>
+      <c r="BI77">
+        <v>1.52</v>
+      </c>
+      <c r="BJ77">
+        <v>2.5</v>
+      </c>
+      <c r="BK77">
+        <v>1.85</v>
+      </c>
+      <c r="BL77">
+        <v>1.94</v>
+      </c>
+      <c r="BM77">
+        <v>2.34</v>
+      </c>
+      <c r="BN77">
+        <v>1.58</v>
+      </c>
+      <c r="BO77">
+        <v>3.02</v>
+      </c>
+      <c r="BP77">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['12', '52']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -557,6 +560,12 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['24', '60']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1186,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1464,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1876,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2001,7 +2010,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2207,7 +2216,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2413,7 +2422,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3031,7 +3040,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3109,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3237,7 +3246,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3443,7 +3452,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3649,7 +3658,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3727,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -3855,7 +3864,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4061,7 +4070,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4473,7 +4482,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4679,7 +4688,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4885,7 +4894,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5297,7 +5306,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5503,7 +5512,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5584,7 +5593,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -5996,7 +6005,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6945,7 +6954,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7151,7 +7160,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7229,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7357,7 +7366,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7563,7 +7572,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7769,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7975,7 +7984,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8181,7 +8190,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8262,7 +8271,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8387,7 +8396,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8468,7 +8477,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.45</v>
@@ -9005,7 +9014,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9211,7 +9220,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9289,7 +9298,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41">
         <v>1.6</v>
@@ -9417,7 +9426,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9829,7 +9838,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10319,7 +10328,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
         <v>0.8</v>
@@ -10447,7 +10456,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10859,7 +10868,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -10940,7 +10949,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11271,7 +11280,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11352,7 +11361,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11889,7 +11898,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12095,7 +12104,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12507,7 +12516,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12713,7 +12722,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12794,7 +12803,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -12919,7 +12928,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13125,7 +13134,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13537,7 +13546,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13615,7 +13624,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -13821,7 +13830,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
         <v>0.67</v>
@@ -14567,7 +14576,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14854,7 +14863,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -14979,7 +14988,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15185,7 +15194,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15391,7 +15400,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15597,7 +15606,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15803,7 +15812,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16009,7 +16018,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>2.05</v>
@@ -16421,7 +16430,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16585,7 +16594,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7486517</v>
+        <v>7486968</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16594,196 +16603,608 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45558.5</v>
+        <v>45557.64583333334</v>
       </c>
       <c r="F77">
         <v>10</v>
       </c>
       <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>137</v>
+      </c>
+      <c r="P77" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>2.15</v>
+      </c>
+      <c r="S77">
+        <v>3.3</v>
+      </c>
+      <c r="T77">
+        <v>1.41</v>
+      </c>
+      <c r="U77">
+        <v>2.7</v>
+      </c>
+      <c r="V77">
+        <v>2.86</v>
+      </c>
+      <c r="W77">
+        <v>1.39</v>
+      </c>
+      <c r="X77">
+        <v>7.3</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>2.95</v>
+      </c>
+      <c r="AA77">
+        <v>3.1</v>
+      </c>
+      <c r="AB77">
+        <v>2.5</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>1.29</v>
+      </c>
+      <c r="AF77">
+        <v>3.3</v>
+      </c>
+      <c r="AG77">
+        <v>2.1</v>
+      </c>
+      <c r="AH77">
+        <v>1.7</v>
+      </c>
+      <c r="AI77">
+        <v>1.75</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>1.48</v>
+      </c>
+      <c r="AL77">
+        <v>1.3</v>
+      </c>
+      <c r="AM77">
+        <v>1.53</v>
+      </c>
+      <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>1.4</v>
+      </c>
+      <c r="AP77">
+        <v>2.5</v>
+      </c>
+      <c r="AQ77">
+        <v>1.33</v>
+      </c>
+      <c r="AR77">
+        <v>1.36</v>
+      </c>
+      <c r="AS77">
+        <v>1.58</v>
+      </c>
+      <c r="AT77">
+        <v>2.94</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>5</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>10</v>
+      </c>
+      <c r="AZ77">
+        <v>8</v>
+      </c>
+      <c r="BA77">
+        <v>6</v>
+      </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>8</v>
+      </c>
+      <c r="BD77">
+        <v>2.09</v>
+      </c>
+      <c r="BE77">
+        <v>6.25</v>
+      </c>
+      <c r="BF77">
+        <v>2.14</v>
+      </c>
+      <c r="BG77">
+        <v>1.27</v>
+      </c>
+      <c r="BH77">
+        <v>3.04</v>
+      </c>
+      <c r="BI77">
+        <v>1.62</v>
+      </c>
+      <c r="BJ77">
+        <v>2.27</v>
+      </c>
+      <c r="BK77">
+        <v>2.01</v>
+      </c>
+      <c r="BL77">
+        <v>1.78</v>
+      </c>
+      <c r="BM77">
+        <v>2.52</v>
+      </c>
+      <c r="BN77">
+        <v>1.41</v>
+      </c>
+      <c r="BO77">
+        <v>3.35</v>
+      </c>
+      <c r="BP77">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7486517</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45558.5</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
         <v>73</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>78</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
         <v>86</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P78" t="s">
         <v>86</v>
       </c>
-      <c r="Q77">
+      <c r="Q78">
         <v>2.7</v>
       </c>
-      <c r="R77">
-        <v>2</v>
-      </c>
-      <c r="S77">
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>4</v>
       </c>
-      <c r="T77">
+      <c r="T78">
         <v>1.47</v>
       </c>
-      <c r="U77">
+      <c r="U78">
         <v>2.57</v>
       </c>
-      <c r="V77">
+      <c r="V78">
         <v>3.1</v>
       </c>
-      <c r="W77">
+      <c r="W78">
         <v>1.34</v>
       </c>
-      <c r="X77">
+      <c r="X78">
         <v>8.199999999999999</v>
       </c>
-      <c r="Y77">
+      <c r="Y78">
         <v>1.06</v>
       </c>
-      <c r="Z77">
+      <c r="Z78">
         <v>2.3</v>
       </c>
-      <c r="AA77">
+      <c r="AA78">
         <v>3.05</v>
       </c>
-      <c r="AB77">
+      <c r="AB78">
         <v>3.35</v>
       </c>
-      <c r="AC77">
+      <c r="AC78">
         <v>1.05</v>
       </c>
-      <c r="AD77">
+      <c r="AD78">
         <v>8</v>
       </c>
-      <c r="AE77">
+      <c r="AE78">
         <v>1.3</v>
       </c>
-      <c r="AF77">
+      <c r="AF78">
         <v>3.2</v>
       </c>
-      <c r="AG77">
+      <c r="AG78">
         <v>2.28</v>
       </c>
-      <c r="AH77">
+      <c r="AH78">
         <v>1.61</v>
       </c>
-      <c r="AI77">
+      <c r="AI78">
         <v>1.87</v>
       </c>
-      <c r="AJ77">
+      <c r="AJ78">
         <v>1.9</v>
       </c>
-      <c r="AK77">
+      <c r="AK78">
         <v>1.27</v>
       </c>
-      <c r="AL77">
+      <c r="AL78">
         <v>1.32</v>
       </c>
-      <c r="AM77">
+      <c r="AM78">
         <v>1.71</v>
       </c>
-      <c r="AN77">
-        <v>1</v>
-      </c>
-      <c r="AO77">
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>0.75</v>
       </c>
-      <c r="AP77">
-        <v>1</v>
-      </c>
-      <c r="AQ77">
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
         <v>0.8</v>
       </c>
-      <c r="AR77">
+      <c r="AR78">
         <v>1.56</v>
       </c>
-      <c r="AS77">
+      <c r="AS78">
         <v>1.53</v>
       </c>
-      <c r="AT77">
+      <c r="AT78">
         <v>3.09</v>
       </c>
-      <c r="AU77">
+      <c r="AU78">
         <v>9</v>
       </c>
-      <c r="AV77">
+      <c r="AV78">
         <v>8</v>
       </c>
-      <c r="AW77">
+      <c r="AW78">
         <v>9</v>
       </c>
-      <c r="AX77">
+      <c r="AX78">
         <v>7</v>
       </c>
-      <c r="AY77">
+      <c r="AY78">
         <v>18</v>
       </c>
-      <c r="AZ77">
+      <c r="AZ78">
         <v>15</v>
       </c>
-      <c r="BA77">
+      <c r="BA78">
         <v>8</v>
       </c>
-      <c r="BB77">
+      <c r="BB78">
         <v>5</v>
       </c>
-      <c r="BC77">
+      <c r="BC78">
         <v>13</v>
       </c>
-      <c r="BD77">
+      <c r="BD78">
         <v>1.69</v>
       </c>
-      <c r="BE77">
+      <c r="BE78">
         <v>6.55</v>
       </c>
-      <c r="BF77">
+      <c r="BF78">
         <v>2.77</v>
       </c>
-      <c r="BG77">
+      <c r="BG78">
         <v>1.22</v>
       </c>
-      <c r="BH77">
+      <c r="BH78">
         <v>3.35</v>
       </c>
-      <c r="BI77">
+      <c r="BI78">
         <v>1.52</v>
       </c>
-      <c r="BJ77">
+      <c r="BJ78">
         <v>2.5</v>
       </c>
-      <c r="BK77">
+      <c r="BK78">
         <v>1.85</v>
       </c>
-      <c r="BL77">
+      <c r="BL78">
         <v>1.94</v>
       </c>
-      <c r="BM77">
+      <c r="BM78">
         <v>2.34</v>
       </c>
-      <c r="BN77">
+      <c r="BN78">
         <v>1.58</v>
       </c>
-      <c r="BO77">
+      <c r="BO78">
         <v>3.02</v>
       </c>
-      <c r="BP77">
+      <c r="BP78">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7486967</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45558.625</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P79" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q79">
+        <v>4.68</v>
+      </c>
+      <c r="R79">
+        <v>2.18</v>
+      </c>
+      <c r="S79">
+        <v>2.52</v>
+      </c>
+      <c r="T79">
+        <v>1.41</v>
+      </c>
+      <c r="U79">
+        <v>2.82</v>
+      </c>
+      <c r="V79">
+        <v>3.07</v>
+      </c>
+      <c r="W79">
+        <v>1.36</v>
+      </c>
+      <c r="X79">
+        <v>7.7</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>4</v>
+      </c>
+      <c r="AA79">
+        <v>3.4</v>
+      </c>
+      <c r="AB79">
+        <v>1.9</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>7.8</v>
+      </c>
+      <c r="AE79">
+        <v>1.27</v>
+      </c>
+      <c r="AF79">
+        <v>3.04</v>
+      </c>
+      <c r="AG79">
+        <v>1.88</v>
+      </c>
+      <c r="AH79">
+        <v>1.88</v>
+      </c>
+      <c r="AI79">
+        <v>1.86</v>
+      </c>
+      <c r="AJ79">
+        <v>1.84</v>
+      </c>
+      <c r="AK79">
+        <v>1.88</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.22</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1.2</v>
+      </c>
+      <c r="AP79">
+        <v>0.8</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.52</v>
+      </c>
+      <c r="AS79">
+        <v>1.4</v>
+      </c>
+      <c r="AT79">
+        <v>2.92</v>
+      </c>
+      <c r="AU79">
+        <v>3</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>2</v>
+      </c>
+      <c r="AX79">
+        <v>12</v>
+      </c>
+      <c r="AY79">
+        <v>5</v>
+      </c>
+      <c r="AZ79">
+        <v>16</v>
+      </c>
+      <c r="BA79">
+        <v>5</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>2.8</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>1.59</v>
+      </c>
+      <c r="BG79">
+        <v>1.28</v>
+      </c>
+      <c r="BH79">
+        <v>2.94</v>
+      </c>
+      <c r="BI79">
+        <v>1.56</v>
+      </c>
+      <c r="BJ79">
+        <v>2.16</v>
+      </c>
+      <c r="BK79">
+        <v>2</v>
+      </c>
+      <c r="BL79">
+        <v>1.72</v>
+      </c>
+      <c r="BM79">
+        <v>2.59</v>
+      </c>
+      <c r="BN79">
+        <v>1.39</v>
+      </c>
+      <c r="BO79">
+        <v>3.52</v>
+      </c>
+      <c r="BP79">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['6', '11', '26', '63']</t>
+  </si>
+  <si>
+    <t>['28', '70']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -566,6 +572,12 @@
   </si>
   <si>
     <t>['24', '60']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['76', '85']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1198,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2010,7 +2022,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2216,7 +2228,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2422,7 +2434,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2706,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -2915,7 +2927,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3040,7 +3052,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3246,7 +3258,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3452,7 +3464,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3658,7 +3670,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3739,7 +3751,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3864,7 +3876,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3942,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -4070,7 +4082,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4482,7 +4494,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4688,7 +4700,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4894,7 +4906,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5306,7 +5318,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5387,7 +5399,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5512,7 +5524,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6002,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -6211,7 +6223,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6414,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -6954,7 +6966,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7160,7 +7172,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7366,7 +7378,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7572,7 +7584,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7778,7 +7790,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7859,7 +7871,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -7984,7 +7996,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8190,7 +8202,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8396,7 +8408,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8886,7 +8898,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9014,7 +9026,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9220,7 +9232,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9426,7 +9438,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9838,7 +9850,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10456,7 +10468,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10537,7 +10549,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR47">
         <v>1.7</v>
@@ -10740,7 +10752,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
         <v>1.8</v>
@@ -10868,7 +10880,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11280,7 +11292,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11358,7 +11370,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11567,7 +11579,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -11898,7 +11910,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12104,7 +12116,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12516,7 +12528,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12722,7 +12734,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12928,7 +12940,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13134,7 +13146,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13546,7 +13558,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14039,7 +14051,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.61</v>
@@ -14242,7 +14254,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ65">
         <v>1.4</v>
@@ -14576,7 +14588,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14654,7 +14666,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>0.75</v>
@@ -14988,7 +15000,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15194,7 +15206,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15275,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR70">
         <v>1.63</v>
@@ -15400,7 +15412,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15606,7 +15618,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15812,7 +15824,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16018,7 +16030,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.05</v>
@@ -16430,7 +16442,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16636,7 +16648,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17048,7 +17060,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17205,6 +17217,418 @@
       </c>
       <c r="BP79">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7486527</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45562.5</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>138</v>
+      </c>
+      <c r="P80" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>1.87</v>
+      </c>
+      <c r="S80">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <v>1.58</v>
+      </c>
+      <c r="U80">
+        <v>2.26</v>
+      </c>
+      <c r="V80">
+        <v>3.62</v>
+      </c>
+      <c r="W80">
+        <v>1.26</v>
+      </c>
+      <c r="X80">
+        <v>10.25</v>
+      </c>
+      <c r="Y80">
+        <v>1.03</v>
+      </c>
+      <c r="Z80">
+        <v>2.32</v>
+      </c>
+      <c r="AA80">
+        <v>3.13</v>
+      </c>
+      <c r="AB80">
+        <v>3.19</v>
+      </c>
+      <c r="AC80">
+        <v>1.1</v>
+      </c>
+      <c r="AD80">
+        <v>6</v>
+      </c>
+      <c r="AE80">
+        <v>1.5</v>
+      </c>
+      <c r="AF80">
+        <v>2.45</v>
+      </c>
+      <c r="AG80">
+        <v>2.47</v>
+      </c>
+      <c r="AH80">
+        <v>1.48</v>
+      </c>
+      <c r="AI80">
+        <v>2.1</v>
+      </c>
+      <c r="AJ80">
+        <v>1.68</v>
+      </c>
+      <c r="AK80">
+        <v>1.3</v>
+      </c>
+      <c r="AL80">
+        <v>1.3</v>
+      </c>
+      <c r="AM80">
+        <v>1.57</v>
+      </c>
+      <c r="AN80">
+        <v>1.4</v>
+      </c>
+      <c r="AO80">
+        <v>0.25</v>
+      </c>
+      <c r="AP80">
+        <v>1.67</v>
+      </c>
+      <c r="AQ80">
+        <v>0.2</v>
+      </c>
+      <c r="AR80">
+        <v>1.06</v>
+      </c>
+      <c r="AS80">
+        <v>1.32</v>
+      </c>
+      <c r="AT80">
+        <v>2.38</v>
+      </c>
+      <c r="AU80">
+        <v>10</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
+        <v>8</v>
+      </c>
+      <c r="AY80">
+        <v>16</v>
+      </c>
+      <c r="AZ80">
+        <v>13</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>3</v>
+      </c>
+      <c r="BD80">
+        <v>1.95</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.1</v>
+      </c>
+      <c r="BG80">
+        <v>1.3</v>
+      </c>
+      <c r="BH80">
+        <v>3.2</v>
+      </c>
+      <c r="BI80">
+        <v>1.58</v>
+      </c>
+      <c r="BJ80">
+        <v>2.23</v>
+      </c>
+      <c r="BK80">
+        <v>2.03</v>
+      </c>
+      <c r="BL80">
+        <v>1.7</v>
+      </c>
+      <c r="BM80">
+        <v>2.7</v>
+      </c>
+      <c r="BN80">
+        <v>1.41</v>
+      </c>
+      <c r="BO80">
+        <v>3.82</v>
+      </c>
+      <c r="BP80">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7486970</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" t="s">
+        <v>76</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>139</v>
+      </c>
+      <c r="P81" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q81">
+        <v>2.5</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>4.5</v>
+      </c>
+      <c r="T81">
+        <v>1.48</v>
+      </c>
+      <c r="U81">
+        <v>2.5</v>
+      </c>
+      <c r="V81">
+        <v>3.2</v>
+      </c>
+      <c r="W81">
+        <v>1.32</v>
+      </c>
+      <c r="X81">
+        <v>8.6</v>
+      </c>
+      <c r="Y81">
+        <v>1.05</v>
+      </c>
+      <c r="Z81">
+        <v>1.8</v>
+      </c>
+      <c r="AA81">
+        <v>3.48</v>
+      </c>
+      <c r="AB81">
+        <v>4.51</v>
+      </c>
+      <c r="AC81">
+        <v>1.03</v>
+      </c>
+      <c r="AD81">
+        <v>6.95</v>
+      </c>
+      <c r="AE81">
+        <v>1.4</v>
+      </c>
+      <c r="AF81">
+        <v>2.8</v>
+      </c>
+      <c r="AG81">
+        <v>2.16</v>
+      </c>
+      <c r="AH81">
+        <v>1.62</v>
+      </c>
+      <c r="AI81">
+        <v>2.05</v>
+      </c>
+      <c r="AJ81">
+        <v>1.72</v>
+      </c>
+      <c r="AK81">
+        <v>1.16</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.9</v>
+      </c>
+      <c r="AN81">
+        <v>3</v>
+      </c>
+      <c r="AO81">
+        <v>0.6</v>
+      </c>
+      <c r="AP81">
+        <v>2.6</v>
+      </c>
+      <c r="AQ81">
+        <v>0.67</v>
+      </c>
+      <c r="AR81">
+        <v>1.21</v>
+      </c>
+      <c r="AS81">
+        <v>1.08</v>
+      </c>
+      <c r="AT81">
+        <v>2.29</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>10</v>
+      </c>
+      <c r="BA81">
+        <v>4</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>9</v>
+      </c>
+      <c r="BD81">
+        <v>1.64</v>
+      </c>
+      <c r="BE81">
+        <v>8</v>
+      </c>
+      <c r="BF81">
+        <v>2.77</v>
+      </c>
+      <c r="BG81">
+        <v>1.39</v>
+      </c>
+      <c r="BH81">
+        <v>2.59</v>
+      </c>
+      <c r="BI81">
+        <v>1.69</v>
+      </c>
+      <c r="BJ81">
+        <v>2.13</v>
+      </c>
+      <c r="BK81">
+        <v>2.13</v>
+      </c>
+      <c r="BL81">
+        <v>1.7</v>
+      </c>
+      <c r="BM81">
+        <v>2.94</v>
+      </c>
+      <c r="BN81">
+        <v>1.28</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,12 @@
     <t>['28', '70']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -574,10 +580,13 @@
     <t>['24', '60']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['76', '85']</t>
+  </si>
+  <si>
+    <t>['12', '64', '78']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1207,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1688,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
         <v>0.8</v>
@@ -2022,7 +2031,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2103,7 +2112,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,7 +2237,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2306,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2434,7 +2443,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2515,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2924,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -3052,7 +3061,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3133,7 +3142,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3258,7 +3267,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3339,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3464,7 +3473,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3542,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -3670,7 +3679,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3876,7 +3885,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4082,7 +4091,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4160,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0.8</v>
@@ -4369,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4494,7 +4503,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4700,7 +4709,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4781,7 +4790,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4906,7 +4915,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4984,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>0.83</v>
@@ -5190,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -5318,7 +5327,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5524,7 +5533,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5602,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -5811,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.7</v>
@@ -6966,7 +6975,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7044,10 +7053,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7172,7 +7181,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7253,7 +7262,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7378,7 +7387,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7456,7 +7465,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7584,7 +7593,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7665,7 +7674,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -7790,7 +7799,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7996,7 +8005,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8077,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.51</v>
@@ -8202,7 +8211,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8280,7 +8289,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8408,7 +8417,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8486,7 +8495,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8692,7 +8701,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -8901,7 +8910,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9026,7 +9035,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9104,7 +9113,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9232,7 +9241,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9438,7 +9447,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9725,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -9850,7 +9859,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10134,7 +10143,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10468,7 +10477,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10755,7 +10764,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -10880,7 +10889,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -10958,7 +10967,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11164,7 +11173,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
         <v>1.4</v>
@@ -11292,7 +11301,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11576,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -11785,7 +11794,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -11910,7 +11919,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -11988,10 +11997,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -12116,7 +12125,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12197,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR55">
         <v>1.76</v>
@@ -12528,7 +12537,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12734,7 +12743,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12940,7 +12949,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13146,7 +13155,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13433,7 +13442,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>2.06</v>
@@ -13558,7 +13567,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14048,7 +14057,7 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14460,10 +14469,10 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14588,7 +14597,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14669,7 +14678,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -14872,7 +14881,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15000,7 +15009,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15078,10 +15087,10 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15206,7 +15215,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15412,7 +15421,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15490,10 +15499,10 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -15618,7 +15627,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15824,7 +15833,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16030,7 +16039,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>2.05</v>
@@ -16442,7 +16451,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16648,7 +16657,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17060,7 +17069,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17266,7 +17275,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17472,7 +17481,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17629,6 +17638,1036 @@
       </c>
       <c r="BP81">
         <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7486971</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45563.44791666666</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q82">
+        <v>3.75</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
+        <v>2.95</v>
+      </c>
+      <c r="T82">
+        <v>1.53</v>
+      </c>
+      <c r="U82">
+        <v>2.37</v>
+      </c>
+      <c r="V82">
+        <v>3.4</v>
+      </c>
+      <c r="W82">
+        <v>1.29</v>
+      </c>
+      <c r="X82">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y82">
+        <v>1.04</v>
+      </c>
+      <c r="Z82">
+        <v>3.38</v>
+      </c>
+      <c r="AA82">
+        <v>3.2</v>
+      </c>
+      <c r="AB82">
+        <v>2.17</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>6.55</v>
+      </c>
+      <c r="AE82">
+        <v>1.44</v>
+      </c>
+      <c r="AF82">
+        <v>2.65</v>
+      </c>
+      <c r="AG82">
+        <v>2.15</v>
+      </c>
+      <c r="AH82">
+        <v>1.62</v>
+      </c>
+      <c r="AI82">
+        <v>2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.75</v>
+      </c>
+      <c r="AK82">
+        <v>1.6</v>
+      </c>
+      <c r="AL82">
+        <v>1.3</v>
+      </c>
+      <c r="AM82">
+        <v>1.3</v>
+      </c>
+      <c r="AN82">
+        <v>1.4</v>
+      </c>
+      <c r="AO82">
+        <v>2</v>
+      </c>
+      <c r="AP82">
+        <v>1.67</v>
+      </c>
+      <c r="AQ82">
+        <v>1.71</v>
+      </c>
+      <c r="AR82">
+        <v>1.61</v>
+      </c>
+      <c r="AS82">
+        <v>1.09</v>
+      </c>
+      <c r="AT82">
+        <v>2.7</v>
+      </c>
+      <c r="AU82">
+        <v>2</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>8</v>
+      </c>
+      <c r="AZ82">
+        <v>8</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>1</v>
+      </c>
+      <c r="BC82">
+        <v>4</v>
+      </c>
+      <c r="BD82">
+        <v>2.2</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>1.91</v>
+      </c>
+      <c r="BG82">
+        <v>1.32</v>
+      </c>
+      <c r="BH82">
+        <v>2.78</v>
+      </c>
+      <c r="BI82">
+        <v>1.7</v>
+      </c>
+      <c r="BJ82">
+        <v>2.13</v>
+      </c>
+      <c r="BK82">
+        <v>2.13</v>
+      </c>
+      <c r="BL82">
+        <v>1.7</v>
+      </c>
+      <c r="BM82">
+        <v>2.74</v>
+      </c>
+      <c r="BN82">
+        <v>1.35</v>
+      </c>
+      <c r="BO82">
+        <v>3.76</v>
+      </c>
+      <c r="BP82">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7486532</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45563.54166666666</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>141</v>
+      </c>
+      <c r="P83" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q83">
+        <v>1.95</v>
+      </c>
+      <c r="R83">
+        <v>2.25</v>
+      </c>
+      <c r="S83">
+        <v>6</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>2.98</v>
+      </c>
+      <c r="V83">
+        <v>2.75</v>
+      </c>
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>6.7</v>
+      </c>
+      <c r="Y83">
+        <v>1.09</v>
+      </c>
+      <c r="Z83">
+        <v>1.48</v>
+      </c>
+      <c r="AA83">
+        <v>4.05</v>
+      </c>
+      <c r="AB83">
+        <v>6</v>
+      </c>
+      <c r="AC83">
+        <v>1.02</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.5</v>
+      </c>
+      <c r="AG83">
+        <v>1.85</v>
+      </c>
+      <c r="AH83">
+        <v>1.85</v>
+      </c>
+      <c r="AI83">
+        <v>2.05</v>
+      </c>
+      <c r="AJ83">
+        <v>1.72</v>
+      </c>
+      <c r="AK83">
+        <v>1.08</v>
+      </c>
+      <c r="AL83">
+        <v>1.19</v>
+      </c>
+      <c r="AM83">
+        <v>2.71</v>
+      </c>
+      <c r="AN83">
+        <v>1.67</v>
+      </c>
+      <c r="AO83">
+        <v>0.75</v>
+      </c>
+      <c r="AP83">
+        <v>1.43</v>
+      </c>
+      <c r="AQ83">
+        <v>1.2</v>
+      </c>
+      <c r="AR83">
+        <v>1.79</v>
+      </c>
+      <c r="AS83">
+        <v>1.19</v>
+      </c>
+      <c r="AT83">
+        <v>2.98</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>10</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>17</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>13</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>14</v>
+      </c>
+      <c r="BD83">
+        <v>1.3</v>
+      </c>
+      <c r="BE83">
+        <v>9.5</v>
+      </c>
+      <c r="BF83">
+        <v>4.44</v>
+      </c>
+      <c r="BG83">
+        <v>1.18</v>
+      </c>
+      <c r="BH83">
+        <v>3.72</v>
+      </c>
+      <c r="BI83">
+        <v>1.38</v>
+      </c>
+      <c r="BJ83">
+        <v>2.62</v>
+      </c>
+      <c r="BK83">
+        <v>2</v>
+      </c>
+      <c r="BL83">
+        <v>1.8</v>
+      </c>
+      <c r="BM83">
+        <v>2.15</v>
+      </c>
+      <c r="BN83">
+        <v>1.68</v>
+      </c>
+      <c r="BO83">
+        <v>2.73</v>
+      </c>
+      <c r="BP83">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7486524</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45563.64583333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>86</v>
+      </c>
+      <c r="P84" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q84">
+        <v>2.4</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>4.5</v>
+      </c>
+      <c r="T84">
+        <v>1.43</v>
+      </c>
+      <c r="U84">
+        <v>2.65</v>
+      </c>
+      <c r="V84">
+        <v>3.2</v>
+      </c>
+      <c r="W84">
+        <v>1.32</v>
+      </c>
+      <c r="X84">
+        <v>8.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.05</v>
+      </c>
+      <c r="Z84">
+        <v>1.86</v>
+      </c>
+      <c r="AA84">
+        <v>3.3</v>
+      </c>
+      <c r="AB84">
+        <v>4.1</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>7.6</v>
+      </c>
+      <c r="AE84">
+        <v>1.33</v>
+      </c>
+      <c r="AF84">
+        <v>3.1</v>
+      </c>
+      <c r="AG84">
+        <v>2.2</v>
+      </c>
+      <c r="AH84">
+        <v>1.64</v>
+      </c>
+      <c r="AI84">
+        <v>1.9</v>
+      </c>
+      <c r="AJ84">
+        <v>1.83</v>
+      </c>
+      <c r="AK84">
+        <v>1.17</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>1.95</v>
+      </c>
+      <c r="AN84">
+        <v>0.75</v>
+      </c>
+      <c r="AO84">
+        <v>1.8</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>1.67</v>
+      </c>
+      <c r="AR84">
+        <v>1.43</v>
+      </c>
+      <c r="AS84">
+        <v>1.27</v>
+      </c>
+      <c r="AT84">
+        <v>2.7</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>11</v>
+      </c>
+      <c r="AY84">
+        <v>10</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>2</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BD84">
+        <v>1.59</v>
+      </c>
+      <c r="BE84">
+        <v>8</v>
+      </c>
+      <c r="BF84">
+        <v>2.9</v>
+      </c>
+      <c r="BG84">
+        <v>1.28</v>
+      </c>
+      <c r="BH84">
+        <v>2.97</v>
+      </c>
+      <c r="BI84">
+        <v>1.62</v>
+      </c>
+      <c r="BJ84">
+        <v>2.28</v>
+      </c>
+      <c r="BK84">
+        <v>2.01</v>
+      </c>
+      <c r="BL84">
+        <v>1.78</v>
+      </c>
+      <c r="BM84">
+        <v>2.56</v>
+      </c>
+      <c r="BN84">
+        <v>1.4</v>
+      </c>
+      <c r="BO84">
+        <v>3.44</v>
+      </c>
+      <c r="BP84">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7486520</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45564.41666666666</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>108</v>
+      </c>
+      <c r="P85" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>2.6</v>
+      </c>
+      <c r="T85">
+        <v>1.41</v>
+      </c>
+      <c r="U85">
+        <v>2.7</v>
+      </c>
+      <c r="V85">
+        <v>3.15</v>
+      </c>
+      <c r="W85">
+        <v>1.32</v>
+      </c>
+      <c r="X85">
+        <v>9.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.06</v>
+      </c>
+      <c r="Z85">
+        <v>3.4</v>
+      </c>
+      <c r="AA85">
+        <v>3.2</v>
+      </c>
+      <c r="AB85">
+        <v>1.95</v>
+      </c>
+      <c r="AC85">
+        <v>1.07</v>
+      </c>
+      <c r="AD85">
+        <v>8.75</v>
+      </c>
+      <c r="AE85">
+        <v>1.33</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>1.95</v>
+      </c>
+      <c r="AH85">
+        <v>1.7</v>
+      </c>
+      <c r="AI85">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85">
+        <v>1.9</v>
+      </c>
+      <c r="AK85">
+        <v>1.78</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.25</v>
+      </c>
+      <c r="AN85">
+        <v>0.5</v>
+      </c>
+      <c r="AO85">
+        <v>0.75</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>0.6</v>
+      </c>
+      <c r="AR85">
+        <v>1.36</v>
+      </c>
+      <c r="AS85">
+        <v>1.36</v>
+      </c>
+      <c r="AT85">
+        <v>2.72</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>6</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>12</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>3</v>
+      </c>
+      <c r="BC85">
+        <v>7</v>
+      </c>
+      <c r="BD85">
+        <v>2.39</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>1.82</v>
+      </c>
+      <c r="BG85">
+        <v>1.25</v>
+      </c>
+      <c r="BH85">
+        <v>3.14</v>
+      </c>
+      <c r="BI85">
+        <v>1.59</v>
+      </c>
+      <c r="BJ85">
+        <v>2.33</v>
+      </c>
+      <c r="BK85">
+        <v>1.96</v>
+      </c>
+      <c r="BL85">
+        <v>1.84</v>
+      </c>
+      <c r="BM85">
+        <v>2.5</v>
+      </c>
+      <c r="BN85">
+        <v>1.52</v>
+      </c>
+      <c r="BO85">
+        <v>3.28</v>
+      </c>
+      <c r="BP85">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7486969</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45564.64583333334</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s">
+        <v>74</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>86</v>
+      </c>
+      <c r="P86" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q86">
+        <v>3.25</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>2.6</v>
+      </c>
+      <c r="W86">
+        <v>1.46</v>
+      </c>
+      <c r="X86">
+        <v>6.35</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>2.8</v>
+      </c>
+      <c r="AA86">
+        <v>2.95</v>
+      </c>
+      <c r="AB86">
+        <v>2.55</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.2</v>
+      </c>
+      <c r="AF86">
+        <v>3.54</v>
+      </c>
+      <c r="AG86">
+        <v>2</v>
+      </c>
+      <c r="AH86">
+        <v>1.77</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>1.53</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.44</v>
+      </c>
+      <c r="AN86">
+        <v>1.4</v>
+      </c>
+      <c r="AO86">
+        <v>0.67</v>
+      </c>
+      <c r="AP86">
+        <v>1.17</v>
+      </c>
+      <c r="AQ86">
+        <v>1.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.59</v>
+      </c>
+      <c r="AS86">
+        <v>1.43</v>
+      </c>
+      <c r="AT86">
+        <v>3.02</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>11</v>
+      </c>
+      <c r="AZ86">
+        <v>10</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>1.95</v>
+      </c>
+      <c r="BE86">
+        <v>8</v>
+      </c>
+      <c r="BF86">
+        <v>2.1</v>
+      </c>
+      <c r="BG86">
+        <v>1.25</v>
+      </c>
+      <c r="BH86">
+        <v>3.14</v>
+      </c>
+      <c r="BI86">
+        <v>1.55</v>
+      </c>
+      <c r="BJ86">
+        <v>2.39</v>
+      </c>
+      <c r="BK86">
+        <v>1.91</v>
+      </c>
+      <c r="BL86">
+        <v>1.88</v>
+      </c>
+      <c r="BM86">
+        <v>2.42</v>
+      </c>
+      <c r="BN86">
+        <v>1.54</v>
+      </c>
+      <c r="BO86">
+        <v>3.22</v>
+      </c>
+      <c r="BP86">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,10 +436,13 @@
     <t>['28', '70']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
-    <t>['48']</t>
+    <t>['38', '42', '90+4']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -948,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1210,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1288,7 +1291,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2031,7 +2034,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2237,7 +2240,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2443,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3061,7 +3064,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3267,7 +3270,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3345,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
         <v>1.2</v>
@@ -3473,7 +3476,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3679,7 +3682,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3885,7 +3888,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4091,7 +4094,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4503,7 +4506,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4584,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4709,7 +4712,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4915,7 +4918,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5327,7 +5330,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5533,7 +5536,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6847,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -6975,7 +6978,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7181,7 +7184,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7387,7 +7390,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7593,7 +7596,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7799,7 +7802,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8005,7 +8008,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8211,7 +8214,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8417,7 +8420,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8704,7 +8707,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -9035,7 +9038,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9241,7 +9244,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9447,7 +9450,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9525,7 +9528,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ42">
         <v>0.83</v>
@@ -9859,7 +9862,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10477,7 +10480,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10889,7 +10892,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11176,7 +11179,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
         <v>1.75</v>
@@ -11301,7 +11304,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11919,7 +11922,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12125,7 +12128,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12537,7 +12540,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12743,7 +12746,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12821,7 +12824,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -12949,7 +12952,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13155,7 +13158,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13567,7 +13570,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14266,7 +14269,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14597,7 +14600,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15009,7 +15012,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15215,7 +15218,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15421,7 +15424,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15627,7 +15630,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15833,7 +15836,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16039,7 +16042,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.05</v>
@@ -16451,7 +16454,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16657,7 +16660,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16830,7 +16833,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45558.5</v>
+        <v>45557.875</v>
       </c>
       <c r="F78">
         <v>10</v>
@@ -16956,22 +16959,22 @@
         <v>3.09</v>
       </c>
       <c r="AU78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV78">
         <v>8</v>
       </c>
       <c r="AW78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ78">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA78">
         <v>8</v>
@@ -17069,7 +17072,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17242,7 +17245,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45562.5</v>
+        <v>45561.875</v>
       </c>
       <c r="F80">
         <v>11</v>
@@ -17275,7 +17278,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17368,22 +17371,22 @@
         <v>2.38</v>
       </c>
       <c r="AU80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV80">
         <v>5</v>
       </c>
       <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
         <v>6</v>
       </c>
-      <c r="AX80">
-        <v>8</v>
-      </c>
       <c r="AY80">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ80">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17481,7 +17484,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17645,7 +17648,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7486971</v>
+        <v>7486532</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17654,196 +17657,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45563.44791666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F82">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H82" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O82" t="s">
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="Q82">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="S82">
-        <v>2.95</v>
+        <v>6</v>
       </c>
       <c r="T82">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="U82">
-        <v>2.37</v>
+        <v>2.98</v>
       </c>
       <c r="V82">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W82">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X82">
-        <v>9.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="Y82">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="Z82">
-        <v>3.38</v>
+        <v>1.48</v>
       </c>
       <c r="AA82">
-        <v>3.2</v>
+        <v>4.05</v>
       </c>
       <c r="AB82">
-        <v>2.17</v>
+        <v>6</v>
       </c>
       <c r="AC82">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD82">
-        <v>6.55</v>
+        <v>10</v>
       </c>
       <c r="AE82">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AF82">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="AG82">
+        <v>1.85</v>
+      </c>
+      <c r="AH82">
+        <v>1.85</v>
+      </c>
+      <c r="AI82">
+        <v>2.05</v>
+      </c>
+      <c r="AJ82">
+        <v>1.72</v>
+      </c>
+      <c r="AK82">
+        <v>1.08</v>
+      </c>
+      <c r="AL82">
+        <v>1.19</v>
+      </c>
+      <c r="AM82">
+        <v>2.71</v>
+      </c>
+      <c r="AN82">
+        <v>1.67</v>
+      </c>
+      <c r="AO82">
+        <v>0.75</v>
+      </c>
+      <c r="AP82">
+        <v>1.43</v>
+      </c>
+      <c r="AQ82">
+        <v>1.2</v>
+      </c>
+      <c r="AR82">
+        <v>1.79</v>
+      </c>
+      <c r="AS82">
+        <v>1.19</v>
+      </c>
+      <c r="AT82">
+        <v>2.98</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>13</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>18</v>
+      </c>
+      <c r="AZ82">
+        <v>7</v>
+      </c>
+      <c r="BA82">
+        <v>13</v>
+      </c>
+      <c r="BB82">
+        <v>1</v>
+      </c>
+      <c r="BC82">
+        <v>14</v>
+      </c>
+      <c r="BD82">
+        <v>1.3</v>
+      </c>
+      <c r="BE82">
+        <v>9.5</v>
+      </c>
+      <c r="BF82">
+        <v>4.44</v>
+      </c>
+      <c r="BG82">
+        <v>1.18</v>
+      </c>
+      <c r="BH82">
+        <v>3.72</v>
+      </c>
+      <c r="BI82">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82">
+        <v>2.62</v>
+      </c>
+      <c r="BK82">
+        <v>2</v>
+      </c>
+      <c r="BL82">
+        <v>1.8</v>
+      </c>
+      <c r="BM82">
         <v>2.15</v>
       </c>
-      <c r="AH82">
-        <v>1.62</v>
-      </c>
-      <c r="AI82">
-        <v>2</v>
-      </c>
-      <c r="AJ82">
-        <v>1.75</v>
-      </c>
-      <c r="AK82">
-        <v>1.6</v>
-      </c>
-      <c r="AL82">
-        <v>1.3</v>
-      </c>
-      <c r="AM82">
-        <v>1.3</v>
-      </c>
-      <c r="AN82">
-        <v>1.4</v>
-      </c>
-      <c r="AO82">
-        <v>2</v>
-      </c>
-      <c r="AP82">
-        <v>1.67</v>
-      </c>
-      <c r="AQ82">
-        <v>1.71</v>
-      </c>
-      <c r="AR82">
-        <v>1.61</v>
-      </c>
-      <c r="AS82">
-        <v>1.09</v>
-      </c>
-      <c r="AT82">
-        <v>2.7</v>
-      </c>
-      <c r="AU82">
-        <v>2</v>
-      </c>
-      <c r="AV82">
-        <v>2</v>
-      </c>
-      <c r="AW82">
-        <v>6</v>
-      </c>
-      <c r="AX82">
-        <v>6</v>
-      </c>
-      <c r="AY82">
-        <v>8</v>
-      </c>
-      <c r="AZ82">
-        <v>8</v>
-      </c>
-      <c r="BA82">
-        <v>3</v>
-      </c>
-      <c r="BB82">
-        <v>1</v>
-      </c>
-      <c r="BC82">
-        <v>4</v>
-      </c>
-      <c r="BD82">
-        <v>2.2</v>
-      </c>
-      <c r="BE82">
-        <v>7.5</v>
-      </c>
-      <c r="BF82">
-        <v>1.91</v>
-      </c>
-      <c r="BG82">
-        <v>1.32</v>
-      </c>
-      <c r="BH82">
-        <v>2.78</v>
-      </c>
-      <c r="BI82">
-        <v>1.7</v>
-      </c>
-      <c r="BJ82">
-        <v>2.13</v>
-      </c>
-      <c r="BK82">
-        <v>2.13</v>
-      </c>
-      <c r="BL82">
-        <v>1.7</v>
-      </c>
-      <c r="BM82">
-        <v>2.74</v>
-      </c>
       <c r="BN82">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="BO82">
-        <v>3.76</v>
+        <v>2.73</v>
       </c>
       <c r="BP82">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17851,7 +17854,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7486532</v>
+        <v>7486524</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17860,196 +17863,196 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45563.54166666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F83">
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>86</v>
+      </c>
+      <c r="P83" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q83">
+        <v>2.4</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>4.5</v>
+      </c>
+      <c r="T83">
+        <v>1.43</v>
+      </c>
+      <c r="U83">
+        <v>2.65</v>
+      </c>
+      <c r="V83">
+        <v>3.2</v>
+      </c>
+      <c r="W83">
+        <v>1.32</v>
+      </c>
+      <c r="X83">
+        <v>8.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.05</v>
+      </c>
+      <c r="Z83">
+        <v>1.86</v>
+      </c>
+      <c r="AA83">
+        <v>3.3</v>
+      </c>
+      <c r="AB83">
+        <v>4.1</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>7.6</v>
+      </c>
+      <c r="AE83">
+        <v>1.33</v>
+      </c>
+      <c r="AF83">
+        <v>3.1</v>
+      </c>
+      <c r="AG83">
+        <v>2.2</v>
+      </c>
+      <c r="AH83">
+        <v>1.64</v>
+      </c>
+      <c r="AI83">
+        <v>1.9</v>
+      </c>
+      <c r="AJ83">
+        <v>1.83</v>
+      </c>
+      <c r="AK83">
+        <v>1.17</v>
+      </c>
+      <c r="AL83">
+        <v>1.22</v>
+      </c>
+      <c r="AM83">
+        <v>1.95</v>
+      </c>
+      <c r="AN83">
+        <v>0.75</v>
+      </c>
+      <c r="AO83">
+        <v>1.8</v>
+      </c>
+      <c r="AP83">
+        <v>0.8</v>
+      </c>
+      <c r="AQ83">
+        <v>1.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.43</v>
+      </c>
+      <c r="AS83">
+        <v>1.27</v>
+      </c>
+      <c r="AT83">
+        <v>2.7</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AV83">
         <v>4</v>
       </c>
-      <c r="O83" t="s">
-        <v>141</v>
-      </c>
-      <c r="P83" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q83">
-        <v>1.95</v>
-      </c>
-      <c r="R83">
-        <v>2.25</v>
-      </c>
-      <c r="S83">
+      <c r="AW83">
         <v>6</v>
       </c>
-      <c r="T83">
-        <v>1.36</v>
-      </c>
-      <c r="U83">
-        <v>2.98</v>
-      </c>
-      <c r="V83">
-        <v>2.75</v>
-      </c>
-      <c r="W83">
+      <c r="AX83">
+        <v>8</v>
+      </c>
+      <c r="AY83">
+        <v>8</v>
+      </c>
+      <c r="AZ83">
+        <v>12</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>7</v>
+      </c>
+      <c r="BD83">
+        <v>1.59</v>
+      </c>
+      <c r="BE83">
+        <v>8</v>
+      </c>
+      <c r="BF83">
+        <v>2.9</v>
+      </c>
+      <c r="BG83">
+        <v>1.28</v>
+      </c>
+      <c r="BH83">
+        <v>2.97</v>
+      </c>
+      <c r="BI83">
+        <v>1.62</v>
+      </c>
+      <c r="BJ83">
+        <v>2.28</v>
+      </c>
+      <c r="BK83">
+        <v>2.01</v>
+      </c>
+      <c r="BL83">
+        <v>1.78</v>
+      </c>
+      <c r="BM83">
+        <v>2.56</v>
+      </c>
+      <c r="BN83">
         <v>1.4</v>
       </c>
-      <c r="X83">
-        <v>6.7</v>
-      </c>
-      <c r="Y83">
-        <v>1.09</v>
-      </c>
-      <c r="Z83">
-        <v>1.48</v>
-      </c>
-      <c r="AA83">
-        <v>4.05</v>
-      </c>
-      <c r="AB83">
-        <v>6</v>
-      </c>
-      <c r="AC83">
-        <v>1.02</v>
-      </c>
-      <c r="AD83">
-        <v>10</v>
-      </c>
-      <c r="AE83">
-        <v>1.28</v>
-      </c>
-      <c r="AF83">
-        <v>3.5</v>
-      </c>
-      <c r="AG83">
-        <v>1.85</v>
-      </c>
-      <c r="AH83">
-        <v>1.85</v>
-      </c>
-      <c r="AI83">
-        <v>2.05</v>
-      </c>
-      <c r="AJ83">
-        <v>1.72</v>
-      </c>
-      <c r="AK83">
-        <v>1.08</v>
-      </c>
-      <c r="AL83">
-        <v>1.19</v>
-      </c>
-      <c r="AM83">
-        <v>2.71</v>
-      </c>
-      <c r="AN83">
-        <v>1.67</v>
-      </c>
-      <c r="AO83">
-        <v>0.75</v>
-      </c>
-      <c r="AP83">
-        <v>1.43</v>
-      </c>
-      <c r="AQ83">
-        <v>1.2</v>
-      </c>
-      <c r="AR83">
-        <v>1.79</v>
-      </c>
-      <c r="AS83">
-        <v>1.19</v>
-      </c>
-      <c r="AT83">
-        <v>2.98</v>
-      </c>
-      <c r="AU83">
-        <v>7</v>
-      </c>
-      <c r="AV83">
-        <v>7</v>
-      </c>
-      <c r="AW83">
-        <v>10</v>
-      </c>
-      <c r="AX83">
-        <v>4</v>
-      </c>
-      <c r="AY83">
-        <v>17</v>
-      </c>
-      <c r="AZ83">
-        <v>11</v>
-      </c>
-      <c r="BA83">
-        <v>13</v>
-      </c>
-      <c r="BB83">
-        <v>1</v>
-      </c>
-      <c r="BC83">
-        <v>14</v>
-      </c>
-      <c r="BD83">
-        <v>1.3</v>
-      </c>
-      <c r="BE83">
-        <v>9.5</v>
-      </c>
-      <c r="BF83">
-        <v>4.44</v>
-      </c>
-      <c r="BG83">
-        <v>1.18</v>
-      </c>
-      <c r="BH83">
-        <v>3.72</v>
-      </c>
-      <c r="BI83">
-        <v>1.38</v>
-      </c>
-      <c r="BJ83">
-        <v>2.62</v>
-      </c>
-      <c r="BK83">
-        <v>2</v>
-      </c>
-      <c r="BL83">
-        <v>1.8</v>
-      </c>
-      <c r="BM83">
-        <v>2.15</v>
-      </c>
-      <c r="BN83">
-        <v>1.68</v>
-      </c>
       <c r="BO83">
-        <v>2.73</v>
+        <v>3.44</v>
       </c>
       <c r="BP83">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18057,7 +18060,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7486524</v>
+        <v>7486971</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18066,16 +18069,16 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45563.64583333334</v>
+        <v>45563.44791666666</v>
       </c>
       <c r="F84">
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -18087,106 +18090,106 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="P84" t="s">
         <v>86</v>
       </c>
       <c r="Q84">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="R84">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>4.5</v>
+        <v>2.95</v>
       </c>
       <c r="T84">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="U84">
+        <v>2.37</v>
+      </c>
+      <c r="V84">
+        <v>3.4</v>
+      </c>
+      <c r="W84">
+        <v>1.29</v>
+      </c>
+      <c r="X84">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y84">
+        <v>1.04</v>
+      </c>
+      <c r="Z84">
+        <v>3.38</v>
+      </c>
+      <c r="AA84">
+        <v>3.2</v>
+      </c>
+      <c r="AB84">
+        <v>2.17</v>
+      </c>
+      <c r="AC84">
+        <v>1.04</v>
+      </c>
+      <c r="AD84">
+        <v>6.55</v>
+      </c>
+      <c r="AE84">
+        <v>1.44</v>
+      </c>
+      <c r="AF84">
         <v>2.65</v>
       </c>
-      <c r="V84">
-        <v>3.2</v>
-      </c>
-      <c r="W84">
-        <v>1.32</v>
-      </c>
-      <c r="X84">
-        <v>8.5</v>
-      </c>
-      <c r="Y84">
-        <v>1.05</v>
-      </c>
-      <c r="Z84">
-        <v>1.86</v>
-      </c>
-      <c r="AA84">
-        <v>3.3</v>
-      </c>
-      <c r="AB84">
-        <v>4.1</v>
-      </c>
-      <c r="AC84">
-        <v>1.01</v>
-      </c>
-      <c r="AD84">
-        <v>7.6</v>
-      </c>
-      <c r="AE84">
-        <v>1.33</v>
-      </c>
-      <c r="AF84">
-        <v>3.1</v>
-      </c>
       <c r="AG84">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AH84">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AI84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AJ84">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AK84">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="AL84">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM84">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="AN84">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="AO84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AS84">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AT84">
         <v>2.7</v>
@@ -18195,67 +18198,67 @@
         <v>2</v>
       </c>
       <c r="AV84">
+        <v>2</v>
+      </c>
+      <c r="AW84">
+        <v>6</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>8</v>
+      </c>
+      <c r="AZ84">
+        <v>8</v>
+      </c>
+      <c r="BA84">
         <v>3</v>
       </c>
-      <c r="AW84">
-        <v>8</v>
-      </c>
-      <c r="AX84">
-        <v>11</v>
-      </c>
-      <c r="AY84">
-        <v>10</v>
-      </c>
-      <c r="AZ84">
-        <v>14</v>
-      </c>
-      <c r="BA84">
-        <v>2</v>
-      </c>
       <c r="BB84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BD84">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="BE84">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF84">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="BG84">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH84">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="BI84">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BJ84">
-        <v>2.28</v>
+        <v>2.13</v>
       </c>
       <c r="BK84">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="BL84">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="BM84">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="BN84">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="BO84">
-        <v>3.44</v>
+        <v>3.76</v>
       </c>
       <c r="BP84">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18272,7 +18275,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F85">
         <v>11</v>
@@ -18398,22 +18401,22 @@
         <v>2.72</v>
       </c>
       <c r="AU85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW85">
+        <v>2</v>
+      </c>
+      <c r="AX85">
         <v>4</v>
       </c>
-      <c r="AX85">
-        <v>6</v>
-      </c>
       <c r="AY85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ85">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA85">
         <v>4</v>
@@ -18511,7 +18514,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18668,6 +18671,212 @@
       </c>
       <c r="BP86">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7486529</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45565.625</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s">
+        <v>79</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>142</v>
+      </c>
+      <c r="P87" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <v>1.91</v>
+      </c>
+      <c r="R87">
+        <v>2.4</v>
+      </c>
+      <c r="S87">
+        <v>7.5</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.25</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>1.38</v>
+      </c>
+      <c r="AA87">
+        <v>4.5</v>
+      </c>
+      <c r="AB87">
+        <v>7</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>14</v>
+      </c>
+      <c r="AE87">
+        <v>1.19</v>
+      </c>
+      <c r="AF87">
+        <v>3.56</v>
+      </c>
+      <c r="AG87">
+        <v>1.8</v>
+      </c>
+      <c r="AH87">
+        <v>1.96</v>
+      </c>
+      <c r="AI87">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>1.06</v>
+      </c>
+      <c r="AL87">
+        <v>1.18</v>
+      </c>
+      <c r="AM87">
+        <v>2.9</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1.4</v>
+      </c>
+      <c r="AP87">
+        <v>2.2</v>
+      </c>
+      <c r="AQ87">
+        <v>1.17</v>
+      </c>
+      <c r="AR87">
+        <v>1.94</v>
+      </c>
+      <c r="AS87">
+        <v>1.34</v>
+      </c>
+      <c r="AT87">
+        <v>3.28</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>13</v>
+      </c>
+      <c r="AZ87">
+        <v>9</v>
+      </c>
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>10</v>
+      </c>
+      <c r="BD87">
+        <v>1.14</v>
+      </c>
+      <c r="BE87">
+        <v>12</v>
+      </c>
+      <c r="BF87">
+        <v>7.01</v>
+      </c>
+      <c r="BG87">
+        <v>1.26</v>
+      </c>
+      <c r="BH87">
+        <v>3.35</v>
+      </c>
+      <c r="BI87">
+        <v>1.49</v>
+      </c>
+      <c r="BJ87">
+        <v>2.38</v>
+      </c>
+      <c r="BK87">
+        <v>1.95</v>
+      </c>
+      <c r="BL87">
+        <v>1.85</v>
+      </c>
+      <c r="BM87">
+        <v>2.35</v>
+      </c>
+      <c r="BN87">
+        <v>1.49</v>
+      </c>
+      <c r="BO87">
+        <v>3.2</v>
+      </c>
+      <c r="BP87">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,15 +430,9 @@
     <t>['38']</t>
   </si>
   <si>
-    <t>['6', '11', '26', '63']</t>
-  </si>
-  <si>
     <t>['28', '70']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -584,12 +578,6 @@
   </si>
   <si>
     <t>['76', '85']</t>
-  </si>
-  <si>
-    <t>['12', '64', '78']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1198,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1288,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1494,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1700,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1906,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2034,7 +2022,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2112,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2240,7 +2228,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2318,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2446,7 +2434,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2524,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2730,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2936,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3064,7 +3052,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3136,25 +3124,25 @@
         <v>1.13</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3270,7 +3258,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3342,25 +3330,25 @@
         <v>2.1</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="AU12">
         <v>9</v>
@@ -3476,7 +3464,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3548,25 +3536,25 @@
         <v>1.4</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AU13">
         <v>8</v>
@@ -3682,7 +3670,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3754,25 +3742,25 @@
         <v>1.72</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3888,7 +3876,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3963,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -4094,7 +4082,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4166,25 +4154,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4372,25 +4360,25 @@
         <v>1.55</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AU17">
         <v>3</v>
@@ -4506,7 +4494,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4578,25 +4566,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="AS18">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AT18">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4712,7 +4700,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4787,22 +4775,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>1.11</v>
+      </c>
+      <c r="AQ19">
+        <v>1.8</v>
+      </c>
+      <c r="AR19">
+        <v>1.51</v>
+      </c>
+      <c r="AS19">
+        <v>1.49</v>
+      </c>
+      <c r="AT19">
         <v>3</v>
-      </c>
-      <c r="AP19">
-        <v>1.33</v>
-      </c>
-      <c r="AQ19">
-        <v>1.67</v>
-      </c>
-      <c r="AR19">
-        <v>1.85</v>
-      </c>
-      <c r="AS19">
-        <v>1.69</v>
-      </c>
-      <c r="AT19">
-        <v>3.54</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -4918,7 +4906,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4990,25 +4978,25 @@
         <v>1.6</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR20">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>1.19</v>
       </c>
       <c r="AT20">
-        <v>2.16</v>
+        <v>2.83</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5199,22 +5187,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR21">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS21">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="AT21">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5330,7 +5318,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5402,25 +5390,25 @@
         <v>2.35</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="AS22">
-        <v>0.77</v>
+        <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>2.8</v>
+        <v>3.03</v>
       </c>
       <c r="AU22">
         <v>2</v>
@@ -5536,7 +5524,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5608,25 +5596,25 @@
         <v>1.95</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AR23">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="AS23">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AT23">
-        <v>4.23</v>
+        <v>3.77</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5814,25 +5802,25 @@
         <v>1.36</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AR24">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="AS24">
-        <v>0.54</v>
+        <v>1.06</v>
       </c>
       <c r="AT24">
-        <v>2.24</v>
+        <v>2.47</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6020,25 +6008,25 @@
         <v>1.26</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AR25">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AS25">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="AT25">
-        <v>2.81</v>
+        <v>2.57</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6226,25 +6214,25 @@
         <v>1.63</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR26">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS26">
-        <v>0.91</v>
+        <v>1.11</v>
       </c>
       <c r="AT26">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6432,25 +6420,25 @@
         <v>1.75</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AS27">
-        <v>0.99</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6638,25 +6626,25 @@
         <v>2.25</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AR28">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AS28">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AT28">
-        <v>3.63</v>
+        <v>3.36</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6844,25 +6832,25 @@
         <v>2.35</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="AS29">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="AT29">
-        <v>2.74</v>
+        <v>2.63</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6978,7 +6966,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7050,25 +7038,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AR30">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS30">
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7184,7 +7172,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7256,25 +7244,25 @@
         <v>1.45</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="AT31">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AU31">
         <v>3</v>
@@ -7390,7 +7378,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7462,25 +7450,25 @@
         <v>1.72</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AS32">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AT32">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7596,7 +7584,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7668,25 +7656,25 @@
         <v>2</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO33">
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
       <c r="AR33">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AS33">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AT33">
-        <v>3.79</v>
+        <v>3.5</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -7802,7 +7790,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7874,25 +7862,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AS34">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8008,7 +7996,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8080,25 +8068,25 @@
         <v>1.47</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AT35">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="AU35">
         <v>8</v>
@@ -8214,7 +8202,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8286,25 +8274,25 @@
         <v>1.25</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AR36">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="AS36">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT36">
-        <v>3.33</v>
+        <v>2.77</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8420,7 +8408,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8498,19 +8486,19 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AR37">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="AS37">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AT37">
-        <v>3.23</v>
+        <v>3.42</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8701,22 +8689,22 @@
         <v>1</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AS38">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AT38">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -8904,25 +8892,25 @@
         <v>1.34</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AS39">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT39">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9038,7 +9026,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9110,25 +9098,25 @@
         <v>1.44</v>
       </c>
       <c r="AN40">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO40">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR40">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS40">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AU40">
         <v>-1</v>
@@ -9244,7 +9232,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9316,25 +9304,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS41">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AT41">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -9450,7 +9438,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9522,25 +9510,25 @@
         <v>2.35</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR42">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AS42">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="AT42">
-        <v>2.71</v>
+        <v>2.82</v>
       </c>
       <c r="AU42">
         <v>12</v>
@@ -9728,25 +9716,25 @@
         <v>1.7</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="AT43">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9862,7 +9850,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9934,25 +9922,25 @@
         <v>2.6</v>
       </c>
       <c r="AN44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AR44">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="AS44">
         <v>1.49</v>
       </c>
       <c r="AT44">
-        <v>3.72</v>
+        <v>3.45</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10140,25 +10128,25 @@
         <v>2</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO45">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AS45">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AT45">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10346,25 +10334,25 @@
         <v>1.62</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR46">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AS46">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AT46">
-        <v>3.5</v>
+        <v>2.99</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10480,7 +10468,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10552,25 +10540,25 @@
         <v>2.02</v>
       </c>
       <c r="AN47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ47">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR47">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AS47">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT47">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10758,25 +10746,25 @@
         <v>1.45</v>
       </c>
       <c r="AN48">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR48">
-        <v>0.93</v>
+        <v>1.12</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT48">
-        <v>2.31</v>
+        <v>2.53</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -10892,7 +10880,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -10964,25 +10952,25 @@
         <v>1.36</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AS49">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AT49">
-        <v>3.11</v>
+        <v>2.93</v>
       </c>
       <c r="AU49">
         <v>9</v>
@@ -11173,22 +11161,22 @@
         <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AQ50">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR50">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AS50">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT50">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11304,7 +11292,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11376,25 +11364,25 @@
         <v>1.4</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AR51">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AS51">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="AT51">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11582,25 +11570,25 @@
         <v>2.49</v>
       </c>
       <c r="AN52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AS52">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -11788,25 +11776,25 @@
         <v>1.2</v>
       </c>
       <c r="AN53">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR53">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS53">
-        <v>1.17</v>
+        <v>1.88</v>
       </c>
       <c r="AT53">
-        <v>2.36</v>
+        <v>3.01</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -11922,7 +11910,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -11994,25 +11982,25 @@
         <v>1.24</v>
       </c>
       <c r="AN54">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AR54">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AS54">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AT54">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12128,7 +12116,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12203,22 +12191,22 @@
         <v>1</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ55">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
       <c r="AR55">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="AS55">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="AT55">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12409,22 +12397,22 @@
         <v>2</v>
       </c>
       <c r="AO56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR56">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT56">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12540,7 +12528,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12612,25 +12600,25 @@
         <v>1.68</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO57">
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AR57">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AS57">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AT57">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12746,7 +12734,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12818,25 +12806,25 @@
         <v>1.68</v>
       </c>
       <c r="AN58">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AR58">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="AS58">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="AT58">
-        <v>3.62</v>
+        <v>3.22</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -12952,7 +12940,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13024,25 +13012,25 @@
         <v>1.46</v>
       </c>
       <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1.43</v>
+      </c>
+      <c r="AP59">
+        <v>0.8</v>
+      </c>
+      <c r="AQ59">
         <v>1.5</v>
       </c>
-      <c r="AO59">
-        <v>1.33</v>
-      </c>
-      <c r="AP59">
-        <v>1</v>
-      </c>
-      <c r="AQ59">
-        <v>1.6</v>
-      </c>
       <c r="AR59">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="AS59">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AT59">
-        <v>3.1</v>
+        <v>2.29</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13158,7 +13146,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13230,25 +13218,25 @@
         <v>1.45</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
       </c>
       <c r="AR60">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AS60">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="AT60">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13436,25 +13424,25 @@
         <v>2.6</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="AR61">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="AS61">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AT61">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="AU61">
         <v>9</v>
@@ -13570,7 +13558,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13642,25 +13630,25 @@
         <v>1.71</v>
       </c>
       <c r="AN62">
-        <v>0.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AS62">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AT62">
-        <v>2.43</v>
+        <v>2.54</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13848,25 +13836,25 @@
         <v>1.94</v>
       </c>
       <c r="AN63">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR63">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AS63">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AT63">
-        <v>2.67</v>
+        <v>2.37</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14057,22 +14045,22 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AS64">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="AT64">
-        <v>2.49</v>
+        <v>2.9</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14260,25 +14248,25 @@
         <v>1.95</v>
       </c>
       <c r="AN65">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP65">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AS65">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AT65">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14466,25 +14454,25 @@
         <v>1.25</v>
       </c>
       <c r="AN66">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR66">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="AS66">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -14600,7 +14588,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14672,25 +14660,25 @@
         <v>1.4</v>
       </c>
       <c r="AN67">
+        <v>1.63</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
         <v>1.5</v>
       </c>
-      <c r="AO67">
-        <v>0.67</v>
-      </c>
-      <c r="AP67">
-        <v>1.67</v>
-      </c>
       <c r="AQ67">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
       <c r="AR67">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT67">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -14878,25 +14866,25 @@
         <v>1.25</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO68">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AR68">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AS68">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AT68">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15012,7 +15000,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15084,25 +15072,25 @@
         <v>1.57</v>
       </c>
       <c r="AN69">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="AS69">
-        <v>1.42</v>
+        <v>1.87</v>
       </c>
       <c r="AT69">
-        <v>3.32</v>
+        <v>3.59</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15218,7 +15206,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15290,25 +15278,25 @@
         <v>1.5</v>
       </c>
       <c r="AN70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ70">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AS70">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AT70">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15424,7 +15412,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15496,25 +15484,25 @@
         <v>1.78</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO71">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AR71">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS71">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AT71">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15630,7 +15618,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15702,25 +15690,25 @@
         <v>1.8</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO72">
+        <v>0.67</v>
+      </c>
+      <c r="AP72">
         <v>0.8</v>
       </c>
-      <c r="AP72">
-        <v>1</v>
-      </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR72">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="AS72">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT72">
-        <v>2.91</v>
+        <v>2.57</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -15836,7 +15824,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -15908,25 +15896,25 @@
         <v>1.62</v>
       </c>
       <c r="AN73">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO73">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR73">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS73">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT73">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16000,7 +15988,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7486513</v>
+        <v>7486515</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16009,196 +15997,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45555.875</v>
+        <v>45556.52083333334</v>
       </c>
       <c r="F74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="Q74">
+        <v>4.2</v>
+      </c>
+      <c r="R74">
         <v>2.05</v>
       </c>
-      <c r="R74">
-        <v>2.2</v>
-      </c>
       <c r="S74">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="T74">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="U74">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="V74">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="W74">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X74">
-        <v>6.65</v>
+        <v>7.9</v>
       </c>
       <c r="Y74">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z74">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="AA74">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AB74">
-        <v>5.75</v>
+        <v>1.97</v>
       </c>
       <c r="AC74">
         <v>1.01</v>
       </c>
       <c r="AD74">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AE74">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF74">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG74">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AH74">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AI74">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AJ74">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AK74">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="AL74">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM74">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="AN74">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO74">
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ74">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="AS74">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>3.43</v>
+        <v>3.02</v>
       </c>
       <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>7</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>10</v>
+      </c>
+      <c r="AY74">
         <v>4</v>
       </c>
-      <c r="AV74">
-        <v>2</v>
-      </c>
-      <c r="AW74">
-        <v>2</v>
-      </c>
-      <c r="AX74">
-        <v>7</v>
-      </c>
-      <c r="AY74">
-        <v>6</v>
-      </c>
       <c r="AZ74">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB74">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC74">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD74">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="BE74">
-        <v>9.1</v>
+        <v>6.35</v>
       </c>
       <c r="BF74">
-        <v>6.2</v>
+        <v>1.89</v>
       </c>
       <c r="BG74">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BH74">
-        <v>3.74</v>
+        <v>3.04</v>
       </c>
       <c r="BI74">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="BJ74">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="BK74">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="BL74">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="BM74">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
       <c r="BN74">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="BO74">
-        <v>2.73</v>
+        <v>3.44</v>
       </c>
       <c r="BP74">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16206,7 +16194,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7486515</v>
+        <v>7486513</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16215,196 +16203,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45556.52083333334</v>
+        <v>45556.64583333334</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="Q75">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S75">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="T75">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="U75">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="V75">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="W75">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X75">
-        <v>7.9</v>
+        <v>6.65</v>
       </c>
       <c r="Y75">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z75">
+        <v>1.5</v>
+      </c>
+      <c r="AA75">
         <v>3.8</v>
       </c>
-      <c r="AA75">
-        <v>3.2</v>
-      </c>
       <c r="AB75">
-        <v>1.97</v>
+        <v>5.75</v>
       </c>
       <c r="AC75">
         <v>1.01</v>
       </c>
       <c r="AD75">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.3</v>
+      </c>
+      <c r="AG75">
+        <v>1.95</v>
+      </c>
+      <c r="AH75">
+        <v>1.75</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.75</v>
+      </c>
+      <c r="AK75">
+        <v>1.08</v>
+      </c>
+      <c r="AL75">
+        <v>1.18</v>
+      </c>
+      <c r="AM75">
+        <v>2.45</v>
+      </c>
+      <c r="AN75">
+        <v>1.13</v>
+      </c>
+      <c r="AO75">
+        <v>1.56</v>
+      </c>
+      <c r="AP75">
+        <v>1.11</v>
+      </c>
+      <c r="AQ75">
+        <v>1.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.82</v>
+      </c>
+      <c r="AS75">
+        <v>1.21</v>
+      </c>
+      <c r="AT75">
+        <v>3.03</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>6</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>5</v>
+      </c>
+      <c r="BD75">
+        <v>1.2</v>
+      </c>
+      <c r="BE75">
+        <v>9.1</v>
+      </c>
+      <c r="BF75">
+        <v>6.2</v>
+      </c>
+      <c r="BG75">
+        <v>1.18</v>
+      </c>
+      <c r="BH75">
+        <v>3.74</v>
+      </c>
+      <c r="BI75">
+        <v>1.38</v>
+      </c>
+      <c r="BJ75">
+        <v>2.62</v>
+      </c>
+      <c r="BK75">
+        <v>1.75</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.19</v>
+      </c>
+      <c r="BN75">
+        <v>1.66</v>
+      </c>
+      <c r="BO75">
+        <v>2.73</v>
+      </c>
+      <c r="BP75">
         <v>1.33</v>
-      </c>
-      <c r="AF75">
-        <v>3.1</v>
-      </c>
-      <c r="AG75">
-        <v>2.05</v>
-      </c>
-      <c r="AH75">
-        <v>1.7</v>
-      </c>
-      <c r="AI75">
-        <v>1.87</v>
-      </c>
-      <c r="AJ75">
-        <v>1.87</v>
-      </c>
-      <c r="AK75">
-        <v>1.8</v>
-      </c>
-      <c r="AL75">
-        <v>1.25</v>
-      </c>
-      <c r="AM75">
-        <v>1.25</v>
-      </c>
-      <c r="AN75">
-        <v>2.2</v>
-      </c>
-      <c r="AO75">
-        <v>2</v>
-      </c>
-      <c r="AP75">
-        <v>2</v>
-      </c>
-      <c r="AQ75">
-        <v>1.67</v>
-      </c>
-      <c r="AR75">
-        <v>1.37</v>
-      </c>
-      <c r="AS75">
-        <v>1.29</v>
-      </c>
-      <c r="AT75">
-        <v>2.66</v>
-      </c>
-      <c r="AU75">
-        <v>2</v>
-      </c>
-      <c r="AV75">
-        <v>7</v>
-      </c>
-      <c r="AW75">
-        <v>2</v>
-      </c>
-      <c r="AX75">
-        <v>10</v>
-      </c>
-      <c r="AY75">
-        <v>4</v>
-      </c>
-      <c r="AZ75">
-        <v>17</v>
-      </c>
-      <c r="BA75">
-        <v>3</v>
-      </c>
-      <c r="BB75">
-        <v>10</v>
-      </c>
-      <c r="BC75">
-        <v>13</v>
-      </c>
-      <c r="BD75">
-        <v>2.45</v>
-      </c>
-      <c r="BE75">
-        <v>6.35</v>
-      </c>
-      <c r="BF75">
-        <v>1.89</v>
-      </c>
-      <c r="BG75">
-        <v>1.27</v>
-      </c>
-      <c r="BH75">
-        <v>3.04</v>
-      </c>
-      <c r="BI75">
-        <v>1.59</v>
-      </c>
-      <c r="BJ75">
-        <v>2.29</v>
-      </c>
-      <c r="BK75">
-        <v>1.98</v>
-      </c>
-      <c r="BL75">
-        <v>1.82</v>
-      </c>
-      <c r="BM75">
-        <v>2.52</v>
-      </c>
-      <c r="BN75">
-        <v>1.5</v>
-      </c>
-      <c r="BO75">
-        <v>3.44</v>
-      </c>
-      <c r="BP75">
-        <v>1.21</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16454,7 +16442,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16526,25 +16514,25 @@
         <v>1.62</v>
       </c>
       <c r="AN76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT76">
-        <v>3.36</v>
+        <v>3.17</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -16660,7 +16648,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16732,43 +16720,43 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
+        <v>2.33</v>
+      </c>
+      <c r="AO77">
+        <v>1.67</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.73</v>
+      </c>
+      <c r="AR77">
+        <v>1.18</v>
+      </c>
+      <c r="AS77">
+        <v>1.74</v>
+      </c>
+      <c r="AT77">
+        <v>2.92</v>
+      </c>
+      <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
         <v>3</v>
       </c>
-      <c r="AO77">
-        <v>1.4</v>
-      </c>
-      <c r="AP77">
-        <v>2.5</v>
-      </c>
-      <c r="AQ77">
-        <v>1.33</v>
-      </c>
-      <c r="AR77">
-        <v>1.36</v>
-      </c>
-      <c r="AS77">
-        <v>1.58</v>
-      </c>
-      <c r="AT77">
-        <v>2.94</v>
-      </c>
-      <c r="AU77">
-        <v>5</v>
-      </c>
-      <c r="AV77">
+      <c r="AW77">
         <v>4</v>
-      </c>
-      <c r="AW77">
-        <v>5</v>
       </c>
       <c r="AX77">
         <v>4</v>
       </c>
       <c r="AY77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA77">
         <v>6</v>
@@ -16824,7 +16812,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7486517</v>
+        <v>7486967</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16833,196 +16821,196 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45557.875</v>
+        <v>45558.625</v>
       </c>
       <c r="F78">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O78" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="P78" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="Q78">
-        <v>2.7</v>
+        <v>4.68</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="S78">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="T78">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="U78">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="V78">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="W78">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X78">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="Y78">
         <v>1.06</v>
       </c>
       <c r="Z78">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="AA78">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AB78">
-        <v>3.35</v>
+        <v>1.9</v>
       </c>
       <c r="AC78">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD78">
+        <v>7.8</v>
+      </c>
+      <c r="AE78">
+        <v>1.27</v>
+      </c>
+      <c r="AF78">
+        <v>3.04</v>
+      </c>
+      <c r="AG78">
+        <v>1.88</v>
+      </c>
+      <c r="AH78">
+        <v>1.88</v>
+      </c>
+      <c r="AI78">
+        <v>1.86</v>
+      </c>
+      <c r="AJ78">
+        <v>1.84</v>
+      </c>
+      <c r="AK78">
+        <v>1.88</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.22</v>
+      </c>
+      <c r="AN78">
+        <v>1.22</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>1.18</v>
+      </c>
+      <c r="AR78">
+        <v>1.42</v>
+      </c>
+      <c r="AS78">
+        <v>1.41</v>
+      </c>
+      <c r="AT78">
+        <v>2.83</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>3</v>
+      </c>
+      <c r="AX78">
+        <v>10</v>
+      </c>
+      <c r="AY78">
+        <v>5</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>2.8</v>
+      </c>
+      <c r="BE78">
         <v>8</v>
       </c>
-      <c r="AE78">
-        <v>1.3</v>
-      </c>
-      <c r="AF78">
-        <v>3.2</v>
-      </c>
-      <c r="AG78">
-        <v>2.28</v>
-      </c>
-      <c r="AH78">
-        <v>1.61</v>
-      </c>
-      <c r="AI78">
-        <v>1.87</v>
-      </c>
-      <c r="AJ78">
-        <v>1.9</v>
-      </c>
-      <c r="AK78">
-        <v>1.27</v>
-      </c>
-      <c r="AL78">
-        <v>1.32</v>
-      </c>
-      <c r="AM78">
-        <v>1.71</v>
-      </c>
-      <c r="AN78">
-        <v>1</v>
-      </c>
-      <c r="AO78">
-        <v>0.75</v>
-      </c>
-      <c r="AP78">
-        <v>1</v>
-      </c>
-      <c r="AQ78">
-        <v>0.8</v>
-      </c>
-      <c r="AR78">
+      <c r="BF78">
+        <v>1.59</v>
+      </c>
+      <c r="BG78">
+        <v>1.28</v>
+      </c>
+      <c r="BH78">
+        <v>2.94</v>
+      </c>
+      <c r="BI78">
         <v>1.56</v>
       </c>
-      <c r="AS78">
-        <v>1.53</v>
-      </c>
-      <c r="AT78">
-        <v>3.09</v>
-      </c>
-      <c r="AU78">
-        <v>10</v>
-      </c>
-      <c r="AV78">
-        <v>8</v>
-      </c>
-      <c r="AW78">
-        <v>7</v>
-      </c>
-      <c r="AX78">
-        <v>4</v>
-      </c>
-      <c r="AY78">
-        <v>17</v>
-      </c>
-      <c r="AZ78">
-        <v>12</v>
-      </c>
-      <c r="BA78">
-        <v>8</v>
-      </c>
-      <c r="BB78">
-        <v>5</v>
-      </c>
-      <c r="BC78">
-        <v>13</v>
-      </c>
-      <c r="BD78">
-        <v>1.69</v>
-      </c>
-      <c r="BE78">
-        <v>6.55</v>
-      </c>
-      <c r="BF78">
-        <v>2.77</v>
-      </c>
-      <c r="BG78">
-        <v>1.22</v>
-      </c>
-      <c r="BH78">
-        <v>3.35</v>
-      </c>
-      <c r="BI78">
-        <v>1.52</v>
-      </c>
       <c r="BJ78">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="BK78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BL78">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="BM78">
-        <v>2.34</v>
+        <v>2.59</v>
       </c>
       <c r="BN78">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="BO78">
-        <v>3.02</v>
+        <v>3.52</v>
       </c>
       <c r="BP78">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17030,7 +17018,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7486967</v>
+        <v>7486970</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17039,196 +17027,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45558.625</v>
+        <v>45562.625</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79">
         <v>2</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O79" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q79">
-        <v>4.68</v>
+        <v>2.5</v>
       </c>
       <c r="R79">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="T79">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="U79">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="V79">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="W79">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X79">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="Y79">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z79">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="AA79">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="AB79">
+        <v>4.51</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>6.95</v>
+      </c>
+      <c r="AE79">
+        <v>1.4</v>
+      </c>
+      <c r="AF79">
+        <v>2.8</v>
+      </c>
+      <c r="AG79">
+        <v>2.16</v>
+      </c>
+      <c r="AH79">
+        <v>1.62</v>
+      </c>
+      <c r="AI79">
+        <v>2.05</v>
+      </c>
+      <c r="AJ79">
+        <v>1.72</v>
+      </c>
+      <c r="AK79">
+        <v>1.16</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
         <v>1.9</v>
       </c>
-      <c r="AC79">
-        <v>1.01</v>
-      </c>
-      <c r="AD79">
-        <v>7.8</v>
-      </c>
-      <c r="AE79">
-        <v>1.27</v>
-      </c>
-      <c r="AF79">
-        <v>3.04</v>
-      </c>
-      <c r="AG79">
-        <v>1.88</v>
-      </c>
-      <c r="AH79">
-        <v>1.88</v>
-      </c>
-      <c r="AI79">
-        <v>1.86</v>
-      </c>
-      <c r="AJ79">
-        <v>1.84</v>
-      </c>
-      <c r="AK79">
-        <v>1.88</v>
-      </c>
-      <c r="AL79">
-        <v>1.28</v>
-      </c>
-      <c r="AM79">
-        <v>1.22</v>
-      </c>
       <c r="AN79">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO79">
-        <v>1.2</v>
+        <v>0.78</v>
       </c>
       <c r="AP79">
+        <v>1.55</v>
+      </c>
+      <c r="AQ79">
         <v>0.8</v>
       </c>
-      <c r="AQ79">
-        <v>1.5</v>
-      </c>
       <c r="AR79">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="AU79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV79">
         <v>4</v>
       </c>
       <c r="AW79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX79">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY79">
         <v>5</v>
       </c>
       <c r="AZ79">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
         <v>5</v>
       </c>
-      <c r="BB79">
-        <v>6</v>
-      </c>
       <c r="BC79">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD79">
-        <v>2.8</v>
+        <v>1.64</v>
       </c>
       <c r="BE79">
         <v>8</v>
       </c>
       <c r="BF79">
-        <v>1.59</v>
+        <v>2.77</v>
       </c>
       <c r="BG79">
+        <v>1.39</v>
+      </c>
+      <c r="BH79">
+        <v>2.59</v>
+      </c>
+      <c r="BI79">
+        <v>1.69</v>
+      </c>
+      <c r="BJ79">
+        <v>2.13</v>
+      </c>
+      <c r="BK79">
+        <v>2.13</v>
+      </c>
+      <c r="BL79">
+        <v>1.7</v>
+      </c>
+      <c r="BM79">
+        <v>2.94</v>
+      </c>
+      <c r="BN79">
         <v>1.28</v>
       </c>
-      <c r="BH79">
-        <v>2.94</v>
-      </c>
-      <c r="BI79">
-        <v>1.56</v>
-      </c>
-      <c r="BJ79">
-        <v>2.16</v>
-      </c>
-      <c r="BK79">
-        <v>2</v>
-      </c>
-      <c r="BL79">
-        <v>1.72</v>
-      </c>
-      <c r="BM79">
-        <v>2.59</v>
-      </c>
-      <c r="BN79">
-        <v>1.39</v>
-      </c>
       <c r="BO79">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="BP79">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17236,7 +17224,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7486527</v>
+        <v>7486971</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17245,193 +17233,193 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45561.875</v>
+        <v>45563.44791666666</v>
       </c>
       <c r="F80">
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R80">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>4</v>
+        <v>2.95</v>
       </c>
       <c r="T80">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="U80">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="V80">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="W80">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X80">
-        <v>10.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y80">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z80">
-        <v>2.32</v>
+        <v>3.38</v>
       </c>
       <c r="AA80">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="AB80">
-        <v>3.19</v>
+        <v>2.17</v>
       </c>
       <c r="AC80">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AD80">
-        <v>6</v>
+        <v>6.55</v>
       </c>
       <c r="AE80">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AF80">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AG80">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="AH80">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AI80">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ80">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AK80">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AL80">
         <v>1.3</v>
       </c>
       <c r="AM80">
+        <v>1.3</v>
+      </c>
+      <c r="AN80">
+        <v>1.11</v>
+      </c>
+      <c r="AO80">
+        <v>2.2</v>
+      </c>
+      <c r="AP80">
+        <v>1.3</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
         <v>1.57</v>
       </c>
-      <c r="AN80">
-        <v>1.4</v>
-      </c>
-      <c r="AO80">
-        <v>0.25</v>
-      </c>
-      <c r="AP80">
-        <v>1.67</v>
-      </c>
-      <c r="AQ80">
-        <v>0.2</v>
-      </c>
-      <c r="AR80">
-        <v>1.06</v>
-      </c>
       <c r="AS80">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AT80">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW80">
         <v>4</v>
       </c>
       <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>4</v>
+      </c>
+      <c r="AZ80">
         <v>6</v>
       </c>
-      <c r="AY80">
-        <v>9</v>
-      </c>
-      <c r="AZ80">
-        <v>11</v>
-      </c>
       <c r="BA80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB80">
         <v>1</v>
       </c>
       <c r="BC80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD80">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BE80">
         <v>7.5</v>
       </c>
       <c r="BF80">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BG80">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH80">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="BI80">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="BJ80">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="BK80">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="BL80">
         <v>1.7</v>
       </c>
       <c r="BM80">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="BN80">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BO80">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="BP80">
         <v>1.17</v>
@@ -17442,7 +17430,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7486970</v>
+        <v>7486524</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17451,55 +17439,55 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45562.625</v>
+        <v>45563.64583333334</v>
       </c>
       <c r="F81">
         <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="Q81">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
         <v>4.5</v>
       </c>
       <c r="T81">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="U81">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="V81">
         <v>3.2</v>
@@ -17508,139 +17496,139 @@
         <v>1.32</v>
       </c>
       <c r="X81">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y81">
         <v>1.05</v>
       </c>
       <c r="Z81">
+        <v>1.86</v>
+      </c>
+      <c r="AA81">
+        <v>3.3</v>
+      </c>
+      <c r="AB81">
+        <v>4.1</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>7.6</v>
+      </c>
+      <c r="AE81">
+        <v>1.33</v>
+      </c>
+      <c r="AF81">
+        <v>3.1</v>
+      </c>
+      <c r="AG81">
+        <v>2.2</v>
+      </c>
+      <c r="AH81">
+        <v>1.64</v>
+      </c>
+      <c r="AI81">
+        <v>1.9</v>
+      </c>
+      <c r="AJ81">
+        <v>1.83</v>
+      </c>
+      <c r="AK81">
+        <v>1.17</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.95</v>
+      </c>
+      <c r="AN81">
+        <v>1.2</v>
+      </c>
+      <c r="AO81">
+        <v>1.89</v>
+      </c>
+      <c r="AP81">
+        <v>1.18</v>
+      </c>
+      <c r="AQ81">
         <v>1.8</v>
       </c>
-      <c r="AA81">
-        <v>3.48</v>
-      </c>
-      <c r="AB81">
-        <v>4.51</v>
-      </c>
-      <c r="AC81">
-        <v>1.03</v>
-      </c>
-      <c r="AD81">
-        <v>6.95</v>
-      </c>
-      <c r="AE81">
-        <v>1.4</v>
-      </c>
-      <c r="AF81">
-        <v>2.8</v>
-      </c>
-      <c r="AG81">
-        <v>2.16</v>
-      </c>
-      <c r="AH81">
-        <v>1.62</v>
-      </c>
-      <c r="AI81">
-        <v>2.05</v>
-      </c>
-      <c r="AJ81">
-        <v>1.72</v>
-      </c>
-      <c r="AK81">
-        <v>1.16</v>
-      </c>
-      <c r="AL81">
-        <v>1.25</v>
-      </c>
-      <c r="AM81">
-        <v>1.9</v>
-      </c>
-      <c r="AN81">
-        <v>3</v>
-      </c>
-      <c r="AO81">
-        <v>0.6</v>
-      </c>
-      <c r="AP81">
-        <v>2.6</v>
-      </c>
-      <c r="AQ81">
-        <v>0.67</v>
-      </c>
       <c r="AR81">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AS81">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AT81">
-        <v>2.29</v>
+        <v>2.78</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ81">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB81">
         <v>5</v>
       </c>
       <c r="BC81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD81">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="BE81">
         <v>8</v>
       </c>
       <c r="BF81">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="BG81">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="BH81">
-        <v>2.59</v>
+        <v>2.97</v>
       </c>
       <c r="BI81">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="BJ81">
-        <v>2.13</v>
+        <v>2.28</v>
       </c>
       <c r="BK81">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
       <c r="BL81">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="BM81">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="BN81">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="BO81">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="BP81">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17648,7 +17636,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7486532</v>
+        <v>7486520</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17657,196 +17645,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45562.875</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F82">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>108</v>
+      </c>
+      <c r="P82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q82">
         <v>4</v>
       </c>
-      <c r="O82" t="s">
-        <v>140</v>
-      </c>
-      <c r="P82" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q82">
+      <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>2.6</v>
+      </c>
+      <c r="T82">
+        <v>1.41</v>
+      </c>
+      <c r="U82">
+        <v>2.7</v>
+      </c>
+      <c r="V82">
+        <v>3.15</v>
+      </c>
+      <c r="W82">
+        <v>1.32</v>
+      </c>
+      <c r="X82">
+        <v>9.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.06</v>
+      </c>
+      <c r="Z82">
+        <v>3.4</v>
+      </c>
+      <c r="AA82">
+        <v>3.2</v>
+      </c>
+      <c r="AB82">
         <v>1.95</v>
       </c>
-      <c r="R82">
-        <v>2.25</v>
-      </c>
-      <c r="S82">
+      <c r="AC82">
+        <v>1.07</v>
+      </c>
+      <c r="AD82">
+        <v>8.75</v>
+      </c>
+      <c r="AE82">
+        <v>1.33</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>1.95</v>
+      </c>
+      <c r="AH82">
+        <v>1.7</v>
+      </c>
+      <c r="AI82">
+        <v>1.83</v>
+      </c>
+      <c r="AJ82">
+        <v>1.9</v>
+      </c>
+      <c r="AK82">
+        <v>1.78</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.25</v>
+      </c>
+      <c r="AN82">
+        <v>0.7</v>
+      </c>
+      <c r="AO82">
+        <v>1.2</v>
+      </c>
+      <c r="AP82">
+        <v>0.91</v>
+      </c>
+      <c r="AQ82">
+        <v>1.09</v>
+      </c>
+      <c r="AR82">
+        <v>1.24</v>
+      </c>
+      <c r="AS82">
+        <v>1.52</v>
+      </c>
+      <c r="AT82">
+        <v>2.76</v>
+      </c>
+      <c r="AU82">
         <v>6</v>
       </c>
-      <c r="T82">
-        <v>1.36</v>
-      </c>
-      <c r="U82">
-        <v>2.98</v>
-      </c>
-      <c r="V82">
-        <v>2.75</v>
-      </c>
-      <c r="W82">
-        <v>1.4</v>
-      </c>
-      <c r="X82">
-        <v>6.7</v>
-      </c>
-      <c r="Y82">
-        <v>1.09</v>
-      </c>
-      <c r="Z82">
-        <v>1.48</v>
-      </c>
-      <c r="AA82">
-        <v>4.05</v>
-      </c>
-      <c r="AB82">
-        <v>6</v>
-      </c>
-      <c r="AC82">
-        <v>1.02</v>
-      </c>
-      <c r="AD82">
-        <v>10</v>
-      </c>
-      <c r="AE82">
-        <v>1.28</v>
-      </c>
-      <c r="AF82">
-        <v>3.5</v>
-      </c>
-      <c r="AG82">
-        <v>1.85</v>
-      </c>
-      <c r="AH82">
-        <v>1.85</v>
-      </c>
-      <c r="AI82">
-        <v>2.05</v>
-      </c>
-      <c r="AJ82">
-        <v>1.72</v>
-      </c>
-      <c r="AK82">
-        <v>1.08</v>
-      </c>
-      <c r="AL82">
-        <v>1.19</v>
-      </c>
-      <c r="AM82">
-        <v>2.71</v>
-      </c>
-      <c r="AN82">
-        <v>1.67</v>
-      </c>
-      <c r="AO82">
-        <v>0.75</v>
-      </c>
-      <c r="AP82">
-        <v>1.43</v>
-      </c>
-      <c r="AQ82">
-        <v>1.2</v>
-      </c>
-      <c r="AR82">
-        <v>1.79</v>
-      </c>
-      <c r="AS82">
-        <v>1.19</v>
-      </c>
-      <c r="AT82">
-        <v>2.98</v>
-      </c>
-      <c r="AU82">
-        <v>5</v>
-      </c>
       <c r="AV82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW82">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX82">
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AZ82">
+        <v>8</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
         <v>7</v>
       </c>
-      <c r="BA82">
-        <v>13</v>
-      </c>
-      <c r="BB82">
-        <v>1</v>
-      </c>
-      <c r="BC82">
-        <v>14</v>
-      </c>
       <c r="BD82">
-        <v>1.3</v>
+        <v>2.39</v>
       </c>
       <c r="BE82">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF82">
-        <v>4.44</v>
+        <v>1.82</v>
       </c>
       <c r="BG82">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH82">
-        <v>3.72</v>
+        <v>3.14</v>
       </c>
       <c r="BI82">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="BJ82">
-        <v>2.62</v>
+        <v>2.33</v>
       </c>
       <c r="BK82">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="BL82">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="BM82">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="BN82">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="BO82">
-        <v>2.73</v>
+        <v>3.28</v>
       </c>
       <c r="BP82">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17854,7 +17842,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7486524</v>
+        <v>7486529</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17863,1019 +17851,195 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45562.875</v>
+        <v>45564.875</v>
       </c>
       <c r="F83">
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O83" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="P83" t="s">
         <v>86</v>
       </c>
       <c r="Q83">
+        <v>1.91</v>
+      </c>
+      <c r="R83">
         <v>2.4</v>
       </c>
-      <c r="R83">
+      <c r="S83">
+        <v>7.5</v>
+      </c>
+      <c r="T83">
+        <v>1.33</v>
+      </c>
+      <c r="U83">
+        <v>3.25</v>
+      </c>
+      <c r="V83">
+        <v>2.63</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>6.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.11</v>
+      </c>
+      <c r="Z83">
+        <v>1.38</v>
+      </c>
+      <c r="AA83">
+        <v>4.5</v>
+      </c>
+      <c r="AB83">
+        <v>7</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>14</v>
+      </c>
+      <c r="AE83">
+        <v>1.19</v>
+      </c>
+      <c r="AF83">
+        <v>3.56</v>
+      </c>
+      <c r="AG83">
+        <v>1.8</v>
+      </c>
+      <c r="AH83">
+        <v>1.96</v>
+      </c>
+      <c r="AI83">
         <v>2.1</v>
       </c>
-      <c r="S83">
-        <v>4.5</v>
-      </c>
-      <c r="T83">
-        <v>1.43</v>
-      </c>
-      <c r="U83">
-        <v>2.65</v>
-      </c>
-      <c r="V83">
+      <c r="AJ83">
+        <v>1.67</v>
+      </c>
+      <c r="AK83">
+        <v>1.06</v>
+      </c>
+      <c r="AL83">
+        <v>1.18</v>
+      </c>
+      <c r="AM83">
+        <v>2.9</v>
+      </c>
+      <c r="AN83">
+        <v>1.6</v>
+      </c>
+      <c r="AO83">
+        <v>1.1</v>
+      </c>
+      <c r="AP83">
+        <v>1.73</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1.74</v>
+      </c>
+      <c r="AS83">
+        <v>1.42</v>
+      </c>
+      <c r="AT83">
+        <v>3.16</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>11</v>
+      </c>
+      <c r="AZ83">
+        <v>10</v>
+      </c>
+      <c r="BA83">
+        <v>8</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>1.14</v>
+      </c>
+      <c r="BE83">
+        <v>12</v>
+      </c>
+      <c r="BF83">
+        <v>7.01</v>
+      </c>
+      <c r="BG83">
+        <v>1.26</v>
+      </c>
+      <c r="BH83">
+        <v>3.35</v>
+      </c>
+      <c r="BI83">
+        <v>1.49</v>
+      </c>
+      <c r="BJ83">
+        <v>2.38</v>
+      </c>
+      <c r="BK83">
+        <v>1.95</v>
+      </c>
+      <c r="BL83">
+        <v>1.85</v>
+      </c>
+      <c r="BM83">
+        <v>2.35</v>
+      </c>
+      <c r="BN83">
+        <v>1.49</v>
+      </c>
+      <c r="BO83">
         <v>3.2</v>
       </c>
-      <c r="W83">
-        <v>1.32</v>
-      </c>
-      <c r="X83">
-        <v>8.5</v>
-      </c>
-      <c r="Y83">
-        <v>1.05</v>
-      </c>
-      <c r="Z83">
-        <v>1.86</v>
-      </c>
-      <c r="AA83">
-        <v>3.3</v>
-      </c>
-      <c r="AB83">
-        <v>4.1</v>
-      </c>
-      <c r="AC83">
-        <v>1.01</v>
-      </c>
-      <c r="AD83">
-        <v>7.6</v>
-      </c>
-      <c r="AE83">
-        <v>1.33</v>
-      </c>
-      <c r="AF83">
-        <v>3.1</v>
-      </c>
-      <c r="AG83">
-        <v>2.2</v>
-      </c>
-      <c r="AH83">
-        <v>1.64</v>
-      </c>
-      <c r="AI83">
-        <v>1.9</v>
-      </c>
-      <c r="AJ83">
-        <v>1.83</v>
-      </c>
-      <c r="AK83">
-        <v>1.17</v>
-      </c>
-      <c r="AL83">
-        <v>1.22</v>
-      </c>
-      <c r="AM83">
-        <v>1.95</v>
-      </c>
-      <c r="AN83">
-        <v>0.75</v>
-      </c>
-      <c r="AO83">
-        <v>1.8</v>
-      </c>
-      <c r="AP83">
-        <v>0.8</v>
-      </c>
-      <c r="AQ83">
-        <v>1.67</v>
-      </c>
-      <c r="AR83">
-        <v>1.43</v>
-      </c>
-      <c r="AS83">
-        <v>1.27</v>
-      </c>
-      <c r="AT83">
-        <v>2.7</v>
-      </c>
-      <c r="AU83">
-        <v>2</v>
-      </c>
-      <c r="AV83">
-        <v>4</v>
-      </c>
-      <c r="AW83">
-        <v>6</v>
-      </c>
-      <c r="AX83">
-        <v>8</v>
-      </c>
-      <c r="AY83">
-        <v>8</v>
-      </c>
-      <c r="AZ83">
-        <v>12</v>
-      </c>
-      <c r="BA83">
-        <v>2</v>
-      </c>
-      <c r="BB83">
-        <v>5</v>
-      </c>
-      <c r="BC83">
-        <v>7</v>
-      </c>
-      <c r="BD83">
-        <v>1.59</v>
-      </c>
-      <c r="BE83">
-        <v>8</v>
-      </c>
-      <c r="BF83">
-        <v>2.9</v>
-      </c>
-      <c r="BG83">
-        <v>1.28</v>
-      </c>
-      <c r="BH83">
-        <v>2.97</v>
-      </c>
-      <c r="BI83">
-        <v>1.62</v>
-      </c>
-      <c r="BJ83">
-        <v>2.28</v>
-      </c>
-      <c r="BK83">
-        <v>2.01</v>
-      </c>
-      <c r="BL83">
-        <v>1.78</v>
-      </c>
-      <c r="BM83">
-        <v>2.56</v>
-      </c>
-      <c r="BN83">
-        <v>1.4</v>
-      </c>
-      <c r="BO83">
-        <v>3.44</v>
-      </c>
       <c r="BP83">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:68">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>7486971</v>
-      </c>
-      <c r="C84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="2">
-        <v>45563.44791666666</v>
-      </c>
-      <c r="F84">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84" t="s">
-        <v>141</v>
-      </c>
-      <c r="P84" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q84">
-        <v>3.75</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>2.95</v>
-      </c>
-      <c r="T84">
-        <v>1.53</v>
-      </c>
-      <c r="U84">
-        <v>2.37</v>
-      </c>
-      <c r="V84">
-        <v>3.4</v>
-      </c>
-      <c r="W84">
-        <v>1.29</v>
-      </c>
-      <c r="X84">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Y84">
-        <v>1.04</v>
-      </c>
-      <c r="Z84">
-        <v>3.38</v>
-      </c>
-      <c r="AA84">
-        <v>3.2</v>
-      </c>
-      <c r="AB84">
-        <v>2.17</v>
-      </c>
-      <c r="AC84">
-        <v>1.04</v>
-      </c>
-      <c r="AD84">
-        <v>6.55</v>
-      </c>
-      <c r="AE84">
-        <v>1.44</v>
-      </c>
-      <c r="AF84">
-        <v>2.65</v>
-      </c>
-      <c r="AG84">
-        <v>2.15</v>
-      </c>
-      <c r="AH84">
-        <v>1.62</v>
-      </c>
-      <c r="AI84">
-        <v>2</v>
-      </c>
-      <c r="AJ84">
-        <v>1.75</v>
-      </c>
-      <c r="AK84">
-        <v>1.6</v>
-      </c>
-      <c r="AL84">
-        <v>1.3</v>
-      </c>
-      <c r="AM84">
-        <v>1.3</v>
-      </c>
-      <c r="AN84">
-        <v>1.4</v>
-      </c>
-      <c r="AO84">
-        <v>2</v>
-      </c>
-      <c r="AP84">
-        <v>1.67</v>
-      </c>
-      <c r="AQ84">
-        <v>1.71</v>
-      </c>
-      <c r="AR84">
-        <v>1.61</v>
-      </c>
-      <c r="AS84">
-        <v>1.09</v>
-      </c>
-      <c r="AT84">
-        <v>2.7</v>
-      </c>
-      <c r="AU84">
-        <v>2</v>
-      </c>
-      <c r="AV84">
-        <v>2</v>
-      </c>
-      <c r="AW84">
-        <v>6</v>
-      </c>
-      <c r="AX84">
-        <v>6</v>
-      </c>
-      <c r="AY84">
-        <v>8</v>
-      </c>
-      <c r="AZ84">
-        <v>8</v>
-      </c>
-      <c r="BA84">
-        <v>3</v>
-      </c>
-      <c r="BB84">
-        <v>1</v>
-      </c>
-      <c r="BC84">
-        <v>4</v>
-      </c>
-      <c r="BD84">
-        <v>2.2</v>
-      </c>
-      <c r="BE84">
-        <v>7.5</v>
-      </c>
-      <c r="BF84">
-        <v>1.91</v>
-      </c>
-      <c r="BG84">
-        <v>1.32</v>
-      </c>
-      <c r="BH84">
-        <v>2.78</v>
-      </c>
-      <c r="BI84">
-        <v>1.7</v>
-      </c>
-      <c r="BJ84">
-        <v>2.13</v>
-      </c>
-      <c r="BK84">
-        <v>2.13</v>
-      </c>
-      <c r="BL84">
-        <v>1.7</v>
-      </c>
-      <c r="BM84">
-        <v>2.74</v>
-      </c>
-      <c r="BN84">
-        <v>1.35</v>
-      </c>
-      <c r="BO84">
-        <v>3.76</v>
-      </c>
-      <c r="BP84">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:68">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>7486520</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="2">
-        <v>45563.875</v>
-      </c>
-      <c r="F85">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s">
-        <v>84</v>
-      </c>
-      <c r="H85" t="s">
-        <v>70</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85" t="s">
-        <v>108</v>
-      </c>
-      <c r="P85" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q85">
-        <v>4</v>
-      </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>2.6</v>
-      </c>
-      <c r="T85">
-        <v>1.41</v>
-      </c>
-      <c r="U85">
-        <v>2.7</v>
-      </c>
-      <c r="V85">
-        <v>3.15</v>
-      </c>
-      <c r="W85">
-        <v>1.32</v>
-      </c>
-      <c r="X85">
-        <v>9.5</v>
-      </c>
-      <c r="Y85">
-        <v>1.06</v>
-      </c>
-      <c r="Z85">
-        <v>3.4</v>
-      </c>
-      <c r="AA85">
-        <v>3.2</v>
-      </c>
-      <c r="AB85">
-        <v>1.95</v>
-      </c>
-      <c r="AC85">
-        <v>1.07</v>
-      </c>
-      <c r="AD85">
-        <v>8.75</v>
-      </c>
-      <c r="AE85">
-        <v>1.33</v>
-      </c>
-      <c r="AF85">
-        <v>3.1</v>
-      </c>
-      <c r="AG85">
-        <v>1.95</v>
-      </c>
-      <c r="AH85">
-        <v>1.7</v>
-      </c>
-      <c r="AI85">
-        <v>1.83</v>
-      </c>
-      <c r="AJ85">
-        <v>1.9</v>
-      </c>
-      <c r="AK85">
-        <v>1.78</v>
-      </c>
-      <c r="AL85">
-        <v>1.25</v>
-      </c>
-      <c r="AM85">
-        <v>1.25</v>
-      </c>
-      <c r="AN85">
-        <v>0.5</v>
-      </c>
-      <c r="AO85">
-        <v>0.75</v>
-      </c>
-      <c r="AP85">
-        <v>1</v>
-      </c>
-      <c r="AQ85">
-        <v>0.6</v>
-      </c>
-      <c r="AR85">
-        <v>1.36</v>
-      </c>
-      <c r="AS85">
-        <v>1.36</v>
-      </c>
-      <c r="AT85">
-        <v>2.72</v>
-      </c>
-      <c r="AU85">
-        <v>6</v>
-      </c>
-      <c r="AV85">
-        <v>4</v>
-      </c>
-      <c r="AW85">
-        <v>2</v>
-      </c>
-      <c r="AX85">
-        <v>4</v>
-      </c>
-      <c r="AY85">
-        <v>8</v>
-      </c>
-      <c r="AZ85">
-        <v>8</v>
-      </c>
-      <c r="BA85">
-        <v>4</v>
-      </c>
-      <c r="BB85">
-        <v>3</v>
-      </c>
-      <c r="BC85">
-        <v>7</v>
-      </c>
-      <c r="BD85">
-        <v>2.39</v>
-      </c>
-      <c r="BE85">
-        <v>8</v>
-      </c>
-      <c r="BF85">
-        <v>1.82</v>
-      </c>
-      <c r="BG85">
-        <v>1.25</v>
-      </c>
-      <c r="BH85">
-        <v>3.14</v>
-      </c>
-      <c r="BI85">
-        <v>1.59</v>
-      </c>
-      <c r="BJ85">
-        <v>2.33</v>
-      </c>
-      <c r="BK85">
-        <v>1.96</v>
-      </c>
-      <c r="BL85">
-        <v>1.84</v>
-      </c>
-      <c r="BM85">
-        <v>2.5</v>
-      </c>
-      <c r="BN85">
-        <v>1.52</v>
-      </c>
-      <c r="BO85">
-        <v>3.28</v>
-      </c>
-      <c r="BP85">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:68">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>7486969</v>
-      </c>
-      <c r="C86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="2">
-        <v>45564.64583333334</v>
-      </c>
-      <c r="F86">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>72</v>
-      </c>
-      <c r="H86" t="s">
-        <v>74</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86" t="s">
-        <v>86</v>
-      </c>
-      <c r="P86" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q86">
-        <v>3.25</v>
-      </c>
-      <c r="R86">
-        <v>2.1</v>
-      </c>
-      <c r="S86">
-        <v>3</v>
-      </c>
-      <c r="T86">
-        <v>1.4</v>
-      </c>
-      <c r="U86">
-        <v>2.75</v>
-      </c>
-      <c r="V86">
-        <v>2.6</v>
-      </c>
-      <c r="W86">
-        <v>1.46</v>
-      </c>
-      <c r="X86">
-        <v>6.35</v>
-      </c>
-      <c r="Y86">
-        <v>1.1</v>
-      </c>
-      <c r="Z86">
-        <v>2.8</v>
-      </c>
-      <c r="AA86">
-        <v>2.95</v>
-      </c>
-      <c r="AB86">
-        <v>2.55</v>
-      </c>
-      <c r="AC86">
-        <v>1.02</v>
-      </c>
-      <c r="AD86">
-        <v>10</v>
-      </c>
-      <c r="AE86">
-        <v>1.2</v>
-      </c>
-      <c r="AF86">
-        <v>3.54</v>
-      </c>
-      <c r="AG86">
-        <v>2</v>
-      </c>
-      <c r="AH86">
-        <v>1.77</v>
-      </c>
-      <c r="AI86">
-        <v>1.62</v>
-      </c>
-      <c r="AJ86">
-        <v>2.2</v>
-      </c>
-      <c r="AK86">
-        <v>1.53</v>
-      </c>
-      <c r="AL86">
-        <v>1.25</v>
-      </c>
-      <c r="AM86">
-        <v>1.44</v>
-      </c>
-      <c r="AN86">
-        <v>1.4</v>
-      </c>
-      <c r="AO86">
-        <v>0.67</v>
-      </c>
-      <c r="AP86">
-        <v>1.17</v>
-      </c>
-      <c r="AQ86">
-        <v>1.25</v>
-      </c>
-      <c r="AR86">
-        <v>1.59</v>
-      </c>
-      <c r="AS86">
-        <v>1.43</v>
-      </c>
-      <c r="AT86">
-        <v>3.02</v>
-      </c>
-      <c r="AU86">
-        <v>6</v>
-      </c>
-      <c r="AV86">
-        <v>4</v>
-      </c>
-      <c r="AW86">
-        <v>5</v>
-      </c>
-      <c r="AX86">
-        <v>6</v>
-      </c>
-      <c r="AY86">
-        <v>11</v>
-      </c>
-      <c r="AZ86">
-        <v>10</v>
-      </c>
-      <c r="BA86">
-        <v>6</v>
-      </c>
-      <c r="BB86">
-        <v>0</v>
-      </c>
-      <c r="BC86">
-        <v>6</v>
-      </c>
-      <c r="BD86">
-        <v>1.95</v>
-      </c>
-      <c r="BE86">
-        <v>8</v>
-      </c>
-      <c r="BF86">
-        <v>2.1</v>
-      </c>
-      <c r="BG86">
-        <v>1.25</v>
-      </c>
-      <c r="BH86">
-        <v>3.14</v>
-      </c>
-      <c r="BI86">
-        <v>1.55</v>
-      </c>
-      <c r="BJ86">
-        <v>2.39</v>
-      </c>
-      <c r="BK86">
-        <v>1.91</v>
-      </c>
-      <c r="BL86">
-        <v>1.88</v>
-      </c>
-      <c r="BM86">
-        <v>2.42</v>
-      </c>
-      <c r="BN86">
-        <v>1.54</v>
-      </c>
-      <c r="BO86">
-        <v>3.22</v>
-      </c>
-      <c r="BP86">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:68">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>7486529</v>
-      </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E87" s="2">
-        <v>45565.625</v>
-      </c>
-      <c r="F87">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s">
-        <v>80</v>
-      </c>
-      <c r="H87" t="s">
-        <v>79</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>3</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>3</v>
-      </c>
-      <c r="O87" t="s">
-        <v>142</v>
-      </c>
-      <c r="P87" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q87">
-        <v>1.91</v>
-      </c>
-      <c r="R87">
-        <v>2.4</v>
-      </c>
-      <c r="S87">
-        <v>7.5</v>
-      </c>
-      <c r="T87">
-        <v>1.33</v>
-      </c>
-      <c r="U87">
-        <v>3.25</v>
-      </c>
-      <c r="V87">
-        <v>2.63</v>
-      </c>
-      <c r="W87">
-        <v>1.44</v>
-      </c>
-      <c r="X87">
-        <v>6.5</v>
-      </c>
-      <c r="Y87">
-        <v>1.11</v>
-      </c>
-      <c r="Z87">
-        <v>1.38</v>
-      </c>
-      <c r="AA87">
-        <v>4.5</v>
-      </c>
-      <c r="AB87">
-        <v>7</v>
-      </c>
-      <c r="AC87">
-        <v>1.04</v>
-      </c>
-      <c r="AD87">
-        <v>14</v>
-      </c>
-      <c r="AE87">
-        <v>1.19</v>
-      </c>
-      <c r="AF87">
-        <v>3.56</v>
-      </c>
-      <c r="AG87">
-        <v>1.8</v>
-      </c>
-      <c r="AH87">
-        <v>1.96</v>
-      </c>
-      <c r="AI87">
-        <v>2.1</v>
-      </c>
-      <c r="AJ87">
-        <v>1.67</v>
-      </c>
-      <c r="AK87">
-        <v>1.06</v>
-      </c>
-      <c r="AL87">
-        <v>1.18</v>
-      </c>
-      <c r="AM87">
-        <v>2.9</v>
-      </c>
-      <c r="AN87">
-        <v>2</v>
-      </c>
-      <c r="AO87">
-        <v>1.4</v>
-      </c>
-      <c r="AP87">
-        <v>2.2</v>
-      </c>
-      <c r="AQ87">
-        <v>1.17</v>
-      </c>
-      <c r="AR87">
-        <v>1.94</v>
-      </c>
-      <c r="AS87">
-        <v>1.34</v>
-      </c>
-      <c r="AT87">
-        <v>3.28</v>
-      </c>
-      <c r="AU87">
-        <v>8</v>
-      </c>
-      <c r="AV87">
-        <v>4</v>
-      </c>
-      <c r="AW87">
-        <v>5</v>
-      </c>
-      <c r="AX87">
-        <v>5</v>
-      </c>
-      <c r="AY87">
-        <v>13</v>
-      </c>
-      <c r="AZ87">
-        <v>9</v>
-      </c>
-      <c r="BA87">
-        <v>8</v>
-      </c>
-      <c r="BB87">
-        <v>2</v>
-      </c>
-      <c r="BC87">
-        <v>10</v>
-      </c>
-      <c r="BD87">
-        <v>1.14</v>
-      </c>
-      <c r="BE87">
-        <v>12</v>
-      </c>
-      <c r="BF87">
-        <v>7.01</v>
-      </c>
-      <c r="BG87">
-        <v>1.26</v>
-      </c>
-      <c r="BH87">
-        <v>3.35</v>
-      </c>
-      <c r="BI87">
-        <v>1.49</v>
-      </c>
-      <c r="BJ87">
-        <v>2.38</v>
-      </c>
-      <c r="BK87">
-        <v>1.95</v>
-      </c>
-      <c r="BL87">
-        <v>1.85</v>
-      </c>
-      <c r="BM87">
-        <v>2.35</v>
-      </c>
-      <c r="BN87">
-        <v>1.49</v>
-      </c>
-      <c r="BO87">
-        <v>3.2</v>
-      </c>
-      <c r="BP87">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,12 +430,18 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['6', '11', '26', '63']</t>
+  </si>
+  <si>
     <t>['28', '70']</t>
   </si>
   <si>
     <t>['50']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['38', '42', '90+4']</t>
   </si>
   <si>
@@ -578,6 +584,12 @@
   </si>
   <si>
     <t>['76', '85']</t>
+  </si>
+  <si>
+    <t>['12', '64', '78']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1210,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1276,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1303,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2">
         <v>8</v>
@@ -1482,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1509,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -1688,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1715,10 +1727,10 @@
         <v>10</v>
       </c>
       <c r="AY4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA4">
         <v>4</v>
@@ -1894,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1921,10 +1933,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2022,7 +2034,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2100,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2127,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA6">
         <v>6</v>
@@ -2228,7 +2240,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2306,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2333,10 +2345,10 @@
         <v>4</v>
       </c>
       <c r="AY7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA7">
         <v>7</v>
@@ -2434,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2512,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2539,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA8">
         <v>7</v>
@@ -2718,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2745,10 +2757,10 @@
         <v>2</v>
       </c>
       <c r="AY9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AZ9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA9">
         <v>5</v>
@@ -2924,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -2951,10 +2963,10 @@
         <v>2</v>
       </c>
       <c r="AY10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3052,7 +3064,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3124,25 +3136,25 @@
         <v>1.13</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3157,10 +3169,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA11">
         <v>4</v>
@@ -3258,7 +3270,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3330,25 +3342,25 @@
         <v>2.1</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>9</v>
@@ -3363,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ12">
         <v>8</v>
@@ -3464,7 +3476,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3536,25 +3548,25 @@
         <v>1.4</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
       </c>
       <c r="AR13">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>8</v>
@@ -3569,10 +3581,10 @@
         <v>7</v>
       </c>
       <c r="AY13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -3670,7 +3682,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3742,25 +3754,25 @@
         <v>1.72</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR14">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3775,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="AY14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA14">
         <v>3</v>
@@ -3876,7 +3888,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3951,22 +3963,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -3981,10 +3993,10 @@
         <v>2</v>
       </c>
       <c r="AY15">
+        <v>7</v>
+      </c>
+      <c r="AZ15">
         <v>6</v>
-      </c>
-      <c r="AZ15">
-        <v>4</v>
       </c>
       <c r="BA15">
         <v>5</v>
@@ -4082,7 +4094,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4154,25 +4166,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4187,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4360,25 +4372,25 @@
         <v>1.55</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.09</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>3</v>
@@ -4393,10 +4405,10 @@
         <v>10</v>
       </c>
       <c r="AY17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA17">
         <v>8</v>
@@ -4494,7 +4506,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4566,25 +4578,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AS18">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="AT18">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4599,10 +4611,10 @@
         <v>11</v>
       </c>
       <c r="AY18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA18">
         <v>5</v>
@@ -4700,7 +4712,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4775,22 +4787,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AS19">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AT19">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -4805,10 +4817,10 @@
         <v>1</v>
       </c>
       <c r="AY19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA19">
         <v>9</v>
@@ -4906,7 +4918,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4978,25 +4990,25 @@
         <v>1.6</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AS20">
-        <v>1.19</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>2.83</v>
+        <v>2.16</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5011,10 +5023,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA20">
         <v>7</v>
@@ -5187,22 +5199,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.55</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS21">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="AT21">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5217,10 +5229,10 @@
         <v>4</v>
       </c>
       <c r="AY21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA21">
         <v>9</v>
@@ -5318,7 +5330,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5390,25 +5402,25 @@
         <v>2.35</v>
       </c>
       <c r="AN22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AS22">
-        <v>1.18</v>
+        <v>0.77</v>
       </c>
       <c r="AT22">
-        <v>3.03</v>
+        <v>2.8</v>
       </c>
       <c r="AU22">
         <v>2</v>
@@ -5423,10 +5435,10 @@
         <v>1</v>
       </c>
       <c r="AY22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA22">
         <v>7</v>
@@ -5524,7 +5536,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5596,25 +5608,25 @@
         <v>1.95</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="AS23">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="AT23">
-        <v>3.77</v>
+        <v>4.23</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5629,10 +5641,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ23">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA23">
         <v>5</v>
@@ -5802,25 +5814,25 @@
         <v>1.36</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="AS24">
-        <v>1.06</v>
+        <v>0.54</v>
       </c>
       <c r="AT24">
-        <v>2.47</v>
+        <v>2.24</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -5835,10 +5847,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6008,25 +6020,25 @@
         <v>1.26</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>1</v>
       </c>
       <c r="AP25">
+        <v>1.67</v>
+      </c>
+      <c r="AQ25">
         <v>1.5</v>
       </c>
-      <c r="AQ25">
-        <v>1.18</v>
-      </c>
       <c r="AR25">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AS25">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT25">
-        <v>2.57</v>
+        <v>2.81</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6041,10 +6053,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA25">
         <v>0</v>
@@ -6214,25 +6226,25 @@
         <v>1.63</v>
       </c>
       <c r="AN26">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR26">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS26">
-        <v>1.11</v>
+        <v>0.91</v>
       </c>
       <c r="AT26">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6247,10 +6259,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6420,25 +6432,25 @@
         <v>1.75</v>
       </c>
       <c r="AN27">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="AT27">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6453,10 +6465,10 @@
         <v>7</v>
       </c>
       <c r="AY27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -6626,25 +6638,25 @@
         <v>2.25</v>
       </c>
       <c r="AN28">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AS28">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AT28">
-        <v>3.36</v>
+        <v>3.63</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6659,10 +6671,10 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -6832,25 +6844,25 @@
         <v>2.35</v>
       </c>
       <c r="AN29">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="AS29">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="AT29">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6865,10 +6877,10 @@
         <v>4</v>
       </c>
       <c r="AY29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA29">
         <v>8</v>
@@ -6966,7 +6978,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7038,25 +7050,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>0.84</v>
       </c>
       <c r="AT30">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7071,10 +7083,10 @@
         <v>2</v>
       </c>
       <c r="AY30">
+        <v>15</v>
+      </c>
+      <c r="AZ30">
         <v>14</v>
-      </c>
-      <c r="AZ30">
-        <v>10</v>
       </c>
       <c r="BA30">
         <v>0</v>
@@ -7172,7 +7184,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7244,25 +7256,25 @@
         <v>1.45</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AU31">
         <v>3</v>
@@ -7277,10 +7289,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA31">
         <v>3</v>
@@ -7378,7 +7390,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7450,25 +7462,25 @@
         <v>1.72</v>
       </c>
       <c r="AN32">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AS32">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AT32">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7483,10 +7495,10 @@
         <v>8</v>
       </c>
       <c r="AY32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA32">
         <v>2</v>
@@ -7584,7 +7596,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7656,25 +7668,25 @@
         <v>2</v>
       </c>
       <c r="AN33">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.09</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="AS33">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AT33">
-        <v>3.5</v>
+        <v>3.79</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -7689,10 +7701,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -7790,7 +7802,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7862,25 +7874,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AS34">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AT34">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -7895,10 +7907,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA34">
         <v>8</v>
@@ -7996,7 +8008,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8068,25 +8080,25 @@
         <v>1.47</v>
       </c>
       <c r="AN35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AS35">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT35">
-        <v>2.75</v>
+        <v>2.89</v>
       </c>
       <c r="AU35">
         <v>8</v>
@@ -8101,10 +8113,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ35">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA35">
         <v>10</v>
@@ -8202,7 +8214,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8274,25 +8286,25 @@
         <v>1.25</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="AS36">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AT36">
-        <v>2.77</v>
+        <v>3.33</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8307,10 +8319,10 @@
         <v>6</v>
       </c>
       <c r="AY36">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA36">
         <v>2</v>
@@ -8408,7 +8420,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8486,19 +8498,19 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AS37">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AT37">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8513,7 +8525,7 @@
         <v>3</v>
       </c>
       <c r="AY37">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ37">
         <v>7</v>
@@ -8689,22 +8701,22 @@
         <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AS38">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AT38">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -8719,10 +8731,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA38">
         <v>3</v>
@@ -8892,25 +8904,25 @@
         <v>1.34</v>
       </c>
       <c r="AN39">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS39">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT39">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -8925,10 +8937,10 @@
         <v>4</v>
       </c>
       <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
         <v>8</v>
-      </c>
-      <c r="AZ39">
-        <v>7</v>
       </c>
       <c r="BA39">
         <v>6</v>
@@ -9026,7 +9038,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9098,25 +9110,25 @@
         <v>1.44</v>
       </c>
       <c r="AN40">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>1.55</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS40">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AT40">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AU40">
         <v>-1</v>
@@ -9131,10 +9143,10 @@
         <v>-1</v>
       </c>
       <c r="AY40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AZ40">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9232,7 +9244,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9304,25 +9316,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO41">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS41">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AT41">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -9337,10 +9349,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA41">
         <v>6</v>
@@ -9438,7 +9450,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9510,25 +9522,25 @@
         <v>2.35</v>
       </c>
       <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
         <v>2.2</v>
       </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>1.73</v>
-      </c>
       <c r="AQ42">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="AS42">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="AT42">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="AU42">
         <v>12</v>
@@ -9543,10 +9555,10 @@
         <v>4</v>
       </c>
       <c r="AY42">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA42">
         <v>9</v>
@@ -9716,25 +9728,25 @@
         <v>1.7</v>
       </c>
       <c r="AN43">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
         <v>1.2</v>
       </c>
-      <c r="AP43">
-        <v>0.8</v>
-      </c>
-      <c r="AQ43">
-        <v>0.89</v>
-      </c>
       <c r="AR43">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AS43">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
-        <v>2.67</v>
+        <v>2.74</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9749,10 +9761,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA43">
         <v>7</v>
@@ -9850,7 +9862,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9922,25 +9934,25 @@
         <v>2.6</v>
       </c>
       <c r="AN44">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
         <v>0.8</v>
       </c>
-      <c r="AP44">
-        <v>1.11</v>
-      </c>
-      <c r="AQ44">
-        <v>1.3</v>
-      </c>
       <c r="AR44">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="AS44">
         <v>1.49</v>
       </c>
       <c r="AT44">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -9955,10 +9967,10 @@
         <v>5</v>
       </c>
       <c r="AY44">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ44">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA44">
         <v>7</v>
@@ -10128,25 +10140,25 @@
         <v>2</v>
       </c>
       <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>0.67</v>
+      </c>
+      <c r="AP45">
         <v>0.8</v>
       </c>
-      <c r="AO45">
-        <v>1.6</v>
-      </c>
-      <c r="AP45">
-        <v>1.18</v>
-      </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>0.67</v>
       </c>
       <c r="AR45">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AS45">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AT45">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10161,10 +10173,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA45">
         <v>1</v>
@@ -10334,25 +10346,25 @@
         <v>1.62</v>
       </c>
       <c r="AN46">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AS46">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AT46">
-        <v>2.99</v>
+        <v>3.5</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10367,10 +10379,10 @@
         <v>6</v>
       </c>
       <c r="AY46">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA46">
         <v>1</v>
@@ -10468,7 +10480,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10540,25 +10552,25 @@
         <v>2.02</v>
       </c>
       <c r="AN47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR47">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AS47">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AT47">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10573,10 +10585,10 @@
         <v>1</v>
       </c>
       <c r="AY47">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ47">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA47">
         <v>4</v>
@@ -10746,25 +10758,25 @@
         <v>1.45</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO48">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="AS48">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.53</v>
+        <v>2.31</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -10779,10 +10791,10 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA48">
         <v>2</v>
@@ -10880,7 +10892,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -10952,25 +10964,25 @@
         <v>1.36</v>
       </c>
       <c r="AN49">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AS49">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AT49">
-        <v>2.93</v>
+        <v>3.11</v>
       </c>
       <c r="AU49">
         <v>9</v>
@@ -10985,10 +10997,10 @@
         <v>5</v>
       </c>
       <c r="AY49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ49">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA49">
         <v>5</v>
@@ -11161,22 +11173,22 @@
         <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AS50">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT50">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11191,10 +11203,10 @@
         <v>7</v>
       </c>
       <c r="AY50">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA50">
         <v>7</v>
@@ -11292,7 +11304,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11364,25 +11376,25 @@
         <v>1.4</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO51">
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="AQ51">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="AT51">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11397,10 +11409,10 @@
         <v>5</v>
       </c>
       <c r="AY51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA51">
         <v>2</v>
@@ -11570,25 +11582,25 @@
         <v>2.49</v>
       </c>
       <c r="AN52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS52">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="AT52">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -11603,10 +11615,10 @@
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA52">
         <v>9</v>
@@ -11776,25 +11788,25 @@
         <v>1.2</v>
       </c>
       <c r="AN53">
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS53">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="AT53">
-        <v>3.01</v>
+        <v>2.36</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -11809,10 +11821,10 @@
         <v>8</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ53">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA53">
         <v>5</v>
@@ -11910,7 +11922,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -11982,25 +11994,25 @@
         <v>1.24</v>
       </c>
       <c r="AN54">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AT54">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12015,10 +12027,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ54">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA54">
         <v>2</v>
@@ -12116,7 +12128,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12191,22 +12203,22 @@
         <v>1</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.09</v>
+        <v>0.6</v>
       </c>
       <c r="AR55">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="AS55">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AT55">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12221,10 +12233,10 @@
         <v>5</v>
       </c>
       <c r="AY55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ55">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA55">
         <v>5</v>
@@ -12397,22 +12409,22 @@
         <v>2</v>
       </c>
       <c r="AO56">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AS56">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AT56">
-        <v>3.07</v>
+        <v>3.22</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12430,7 +12442,7 @@
         <v>13</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -12528,7 +12540,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12600,25 +12612,25 @@
         <v>1.68</v>
       </c>
       <c r="AN57">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO57">
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS57">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AT57">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12633,10 +12645,10 @@
         <v>8</v>
       </c>
       <c r="AY57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -12734,7 +12746,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12806,25 +12818,25 @@
         <v>1.68</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO58">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
-        <v>1.74</v>
+        <v>2.03</v>
       </c>
       <c r="AS58">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AT58">
-        <v>3.22</v>
+        <v>3.62</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -12839,7 +12851,7 @@
         <v>2</v>
       </c>
       <c r="AY58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ58">
         <v>4</v>
@@ -12940,7 +12952,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13012,25 +13024,25 @@
         <v>1.46</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR59">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="AS59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>2.29</v>
+        <v>3.1</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13045,10 +13057,10 @@
         <v>7</v>
       </c>
       <c r="AY59">
+        <v>20</v>
+      </c>
+      <c r="AZ59">
         <v>14</v>
-      </c>
-      <c r="AZ59">
-        <v>13</v>
       </c>
       <c r="BA59">
         <v>9</v>
@@ -13146,7 +13158,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13218,25 +13230,25 @@
         <v>1.45</v>
       </c>
       <c r="AN60">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
       </c>
       <c r="AR60">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AS60">
-        <v>1.78</v>
+        <v>1.23</v>
       </c>
       <c r="AT60">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13251,10 +13263,10 @@
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ60">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -13424,25 +13436,25 @@
         <v>2.6</v>
       </c>
       <c r="AN61">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="AS61">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="AT61">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="AU61">
         <v>9</v>
@@ -13457,10 +13469,10 @@
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA61">
         <v>6</v>
@@ -13558,7 +13570,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13630,25 +13642,25 @@
         <v>1.71</v>
       </c>
       <c r="AN62">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="AO62">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AS62">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13663,10 +13675,10 @@
         <v>5</v>
       </c>
       <c r="AY62">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ62">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA62">
         <v>8</v>
@@ -13836,25 +13848,25 @@
         <v>1.94</v>
       </c>
       <c r="AN63">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO63">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.55</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AS63">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AT63">
-        <v>2.37</v>
+        <v>2.67</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -13869,10 +13881,10 @@
         <v>7</v>
       </c>
       <c r="AY63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA63">
         <v>5</v>
@@ -14045,22 +14057,22 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AS64">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AT64">
-        <v>2.9</v>
+        <v>2.49</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14075,10 +14087,10 @@
         <v>6</v>
       </c>
       <c r="AY64">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA64">
         <v>2</v>
@@ -14248,25 +14260,25 @@
         <v>1.95</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO65">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AS65">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AT65">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14281,10 +14293,10 @@
         <v>7</v>
       </c>
       <c r="AY65">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ65">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -14454,25 +14466,25 @@
         <v>1.25</v>
       </c>
       <c r="AN66">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AO66">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AT66">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -14487,10 +14499,10 @@
         <v>4</v>
       </c>
       <c r="AY66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA66">
         <v>5</v>
@@ -14588,7 +14600,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14660,25 +14672,25 @@
         <v>1.4</v>
       </c>
       <c r="AN67">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP67">
+        <v>1.67</v>
+      </c>
+      <c r="AQ67">
+        <v>0.6</v>
+      </c>
+      <c r="AR67">
+        <v>0.97</v>
+      </c>
+      <c r="AS67">
         <v>1.5</v>
       </c>
-      <c r="AQ67">
-        <v>1.09</v>
-      </c>
-      <c r="AR67">
-        <v>1.18</v>
-      </c>
-      <c r="AS67">
-        <v>1.62</v>
-      </c>
       <c r="AT67">
-        <v>2.8</v>
+        <v>2.47</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -14693,10 +14705,10 @@
         <v>1</v>
       </c>
       <c r="AY67">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -14866,25 +14878,25 @@
         <v>1.25</v>
       </c>
       <c r="AN68">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AS68">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AT68">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -14899,10 +14911,10 @@
         <v>5</v>
       </c>
       <c r="AY68">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ68">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="BA68">
         <v>1</v>
@@ -15000,7 +15012,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15072,25 +15084,25 @@
         <v>1.57</v>
       </c>
       <c r="AN69">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AS69">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="AT69">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15108,7 +15120,7 @@
         <v>9</v>
       </c>
       <c r="AZ69">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA69">
         <v>1</v>
@@ -15206,7 +15218,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15278,25 +15290,25 @@
         <v>1.5</v>
       </c>
       <c r="AN70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO70">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR70">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AS70">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15311,10 +15323,10 @@
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ70">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA70">
         <v>3</v>
@@ -15412,7 +15424,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15484,25 +15496,25 @@
         <v>1.78</v>
       </c>
       <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1.8</v>
+      </c>
+      <c r="AP71">
+        <v>0.8</v>
+      </c>
+      <c r="AQ71">
+        <v>1.71</v>
+      </c>
+      <c r="AR71">
+        <v>1.35</v>
+      </c>
+      <c r="AS71">
         <v>1.13</v>
       </c>
-      <c r="AO71">
-        <v>2.25</v>
-      </c>
-      <c r="AP71">
-        <v>1.18</v>
-      </c>
-      <c r="AQ71">
-        <v>2</v>
-      </c>
-      <c r="AR71">
-        <v>1.38</v>
-      </c>
-      <c r="AS71">
-        <v>1.22</v>
-      </c>
       <c r="AT71">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15517,10 +15529,10 @@
         <v>4</v>
       </c>
       <c r="AY71">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA71">
         <v>7</v>
@@ -15618,7 +15630,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15690,25 +15702,25 @@
         <v>1.8</v>
       </c>
       <c r="AN72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR72">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="AS72">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>2.57</v>
+        <v>2.91</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -15723,10 +15735,10 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -15824,7 +15836,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -15896,25 +15908,25 @@
         <v>1.62</v>
       </c>
       <c r="AN73">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO73">
-        <v>1.67</v>
+        <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.55</v>
+        <v>0.67</v>
       </c>
       <c r="AR73">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS73">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AT73">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -15929,10 +15941,10 @@
         <v>3</v>
       </c>
       <c r="AY73">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>7</v>
@@ -16102,25 +16114,25 @@
         <v>1.25</v>
       </c>
       <c r="AN74">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.67</v>
       </c>
       <c r="AR74">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AT74">
-        <v>3.02</v>
+        <v>2.66</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16138,7 +16150,7 @@
         <v>4</v>
       </c>
       <c r="AZ74">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16236,7 +16248,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16308,43 +16320,43 @@
         <v>2.45</v>
       </c>
       <c r="AN75">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AO75">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR75">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="AS75">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AT75">
-        <v>3.03</v>
+        <v>3.43</v>
       </c>
       <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
         <v>4</v>
       </c>
-      <c r="AV75">
-        <v>2</v>
-      </c>
       <c r="AW75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX75">
         <v>7</v>
       </c>
       <c r="AY75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA75">
         <v>2</v>
@@ -16442,7 +16454,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16514,25 +16526,25 @@
         <v>1.62</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO76">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AS76">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
-        <v>3.17</v>
+        <v>3.36</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -16550,7 +16562,7 @@
         <v>10</v>
       </c>
       <c r="AZ76">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA76">
         <v>4</v>
@@ -16648,7 +16660,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16720,43 +16732,43 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AS77">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="AT77">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
         <v>4</v>
       </c>
-      <c r="AV77">
-        <v>3</v>
-      </c>
       <c r="AW77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX77">
         <v>4</v>
       </c>
       <c r="AY77">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ77">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA77">
         <v>6</v>
@@ -16812,7 +16824,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7486967</v>
+        <v>7486517</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16821,196 +16833,196 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45558.625</v>
+        <v>45558.5</v>
       </c>
       <c r="F78">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="Q78">
-        <v>4.68</v>
+        <v>2.7</v>
       </c>
       <c r="R78">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="T78">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="U78">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="V78">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="W78">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X78">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y78">
         <v>1.06</v>
       </c>
       <c r="Z78">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AA78">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="AB78">
+        <v>3.35</v>
+      </c>
+      <c r="AC78">
+        <v>1.05</v>
+      </c>
+      <c r="AD78">
+        <v>8</v>
+      </c>
+      <c r="AE78">
+        <v>1.3</v>
+      </c>
+      <c r="AF78">
+        <v>3.2</v>
+      </c>
+      <c r="AG78">
+        <v>2.28</v>
+      </c>
+      <c r="AH78">
+        <v>1.61</v>
+      </c>
+      <c r="AI78">
+        <v>1.87</v>
+      </c>
+      <c r="AJ78">
         <v>1.9</v>
       </c>
-      <c r="AC78">
-        <v>1.01</v>
-      </c>
-      <c r="AD78">
-        <v>7.8</v>
-      </c>
-      <c r="AE78">
+      <c r="AK78">
         <v>1.27</v>
       </c>
-      <c r="AF78">
-        <v>3.04</v>
-      </c>
-      <c r="AG78">
-        <v>1.88</v>
-      </c>
-      <c r="AH78">
-        <v>1.88</v>
-      </c>
-      <c r="AI78">
-        <v>1.86</v>
-      </c>
-      <c r="AJ78">
-        <v>1.84</v>
-      </c>
-      <c r="AK78">
-        <v>1.88</v>
-      </c>
       <c r="AL78">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM78">
+        <v>1.71</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>0.75</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>0.8</v>
+      </c>
+      <c r="AR78">
+        <v>1.56</v>
+      </c>
+      <c r="AS78">
+        <v>1.53</v>
+      </c>
+      <c r="AT78">
+        <v>3.09</v>
+      </c>
+      <c r="AU78">
+        <v>9</v>
+      </c>
+      <c r="AV78">
+        <v>8</v>
+      </c>
+      <c r="AW78">
+        <v>9</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>20</v>
+      </c>
+      <c r="AZ78">
+        <v>17</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>13</v>
+      </c>
+      <c r="BD78">
+        <v>1.69</v>
+      </c>
+      <c r="BE78">
+        <v>6.55</v>
+      </c>
+      <c r="BF78">
+        <v>2.77</v>
+      </c>
+      <c r="BG78">
         <v>1.22</v>
       </c>
-      <c r="AN78">
-        <v>1.22</v>
-      </c>
-      <c r="AO78">
-        <v>1</v>
-      </c>
-      <c r="AP78">
-        <v>1</v>
-      </c>
-      <c r="AQ78">
-        <v>1.18</v>
-      </c>
-      <c r="AR78">
-        <v>1.42</v>
-      </c>
-      <c r="AS78">
-        <v>1.41</v>
-      </c>
-      <c r="AT78">
-        <v>2.83</v>
-      </c>
-      <c r="AU78">
-        <v>2</v>
-      </c>
-      <c r="AV78">
-        <v>3</v>
-      </c>
-      <c r="AW78">
-        <v>3</v>
-      </c>
-      <c r="AX78">
-        <v>10</v>
-      </c>
-      <c r="AY78">
-        <v>5</v>
-      </c>
-      <c r="AZ78">
-        <v>13</v>
-      </c>
-      <c r="BA78">
-        <v>5</v>
-      </c>
-      <c r="BB78">
-        <v>6</v>
-      </c>
-      <c r="BC78">
-        <v>11</v>
-      </c>
-      <c r="BD78">
-        <v>2.8</v>
-      </c>
-      <c r="BE78">
-        <v>8</v>
-      </c>
-      <c r="BF78">
-        <v>1.59</v>
-      </c>
-      <c r="BG78">
-        <v>1.28</v>
-      </c>
       <c r="BH78">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="BI78">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="BJ78">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="BK78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BL78">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="BM78">
-        <v>2.59</v>
+        <v>2.34</v>
       </c>
       <c r="BN78">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="BO78">
-        <v>3.52</v>
+        <v>3.02</v>
       </c>
       <c r="BP78">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17018,7 +17030,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7486970</v>
+        <v>7486967</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17027,196 +17039,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45562.625</v>
+        <v>45558.625</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>2</v>
       </c>
       <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P79" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q79">
+        <v>4.68</v>
+      </c>
+      <c r="R79">
+        <v>2.18</v>
+      </c>
+      <c r="S79">
+        <v>2.52</v>
+      </c>
+      <c r="T79">
+        <v>1.41</v>
+      </c>
+      <c r="U79">
+        <v>2.82</v>
+      </c>
+      <c r="V79">
+        <v>3.07</v>
+      </c>
+      <c r="W79">
+        <v>1.36</v>
+      </c>
+      <c r="X79">
+        <v>7.7</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
         <v>4</v>
       </c>
-      <c r="O79" t="s">
-        <v>138</v>
-      </c>
-      <c r="P79" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q79">
-        <v>2.5</v>
-      </c>
-      <c r="R79">
-        <v>2</v>
-      </c>
-      <c r="S79">
-        <v>4.5</v>
-      </c>
-      <c r="T79">
-        <v>1.48</v>
-      </c>
-      <c r="U79">
-        <v>2.5</v>
-      </c>
-      <c r="V79">
-        <v>3.2</v>
-      </c>
-      <c r="W79">
-        <v>1.32</v>
-      </c>
-      <c r="X79">
-        <v>8.6</v>
-      </c>
-      <c r="Y79">
-        <v>1.05</v>
-      </c>
-      <c r="Z79">
-        <v>1.8</v>
-      </c>
       <c r="AA79">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="AB79">
-        <v>4.51</v>
+        <v>1.9</v>
       </c>
       <c r="AC79">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD79">
-        <v>6.95</v>
+        <v>7.8</v>
       </c>
       <c r="AE79">
+        <v>1.27</v>
+      </c>
+      <c r="AF79">
+        <v>3.04</v>
+      </c>
+      <c r="AG79">
+        <v>1.88</v>
+      </c>
+      <c r="AH79">
+        <v>1.88</v>
+      </c>
+      <c r="AI79">
+        <v>1.86</v>
+      </c>
+      <c r="AJ79">
+        <v>1.84</v>
+      </c>
+      <c r="AK79">
+        <v>1.88</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.22</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1.2</v>
+      </c>
+      <c r="AP79">
+        <v>0.8</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.52</v>
+      </c>
+      <c r="AS79">
         <v>1.4</v>
       </c>
-      <c r="AF79">
-        <v>2.8</v>
-      </c>
-      <c r="AG79">
-        <v>2.16</v>
-      </c>
-      <c r="AH79">
-        <v>1.62</v>
-      </c>
-      <c r="AI79">
-        <v>2.05</v>
-      </c>
-      <c r="AJ79">
-        <v>1.72</v>
-      </c>
-      <c r="AK79">
-        <v>1.16</v>
-      </c>
-      <c r="AL79">
-        <v>1.25</v>
-      </c>
-      <c r="AM79">
-        <v>1.9</v>
-      </c>
-      <c r="AN79">
-        <v>1.6</v>
-      </c>
-      <c r="AO79">
-        <v>0.78</v>
-      </c>
-      <c r="AP79">
-        <v>1.55</v>
-      </c>
-      <c r="AQ79">
-        <v>0.8</v>
-      </c>
-      <c r="AR79">
-        <v>1.14</v>
-      </c>
-      <c r="AS79">
-        <v>1.44</v>
-      </c>
       <c r="AT79">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="AU79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV79">
         <v>4</v>
       </c>
       <c r="AW79">
+        <v>2</v>
+      </c>
+      <c r="AX79">
+        <v>12</v>
+      </c>
+      <c r="AY79">
+        <v>7</v>
+      </c>
+      <c r="AZ79">
+        <v>21</v>
+      </c>
+      <c r="BA79">
         <v>5</v>
       </c>
-      <c r="AX79">
-        <v>5</v>
-      </c>
-      <c r="AY79">
-        <v>5</v>
-      </c>
-      <c r="AZ79">
-        <v>9</v>
-      </c>
-      <c r="BA79">
-        <v>4</v>
-      </c>
       <c r="BB79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD79">
-        <v>1.64</v>
+        <v>2.8</v>
       </c>
       <c r="BE79">
         <v>8</v>
       </c>
       <c r="BF79">
-        <v>2.77</v>
+        <v>1.59</v>
       </c>
       <c r="BG79">
+        <v>1.28</v>
+      </c>
+      <c r="BH79">
+        <v>2.94</v>
+      </c>
+      <c r="BI79">
+        <v>1.56</v>
+      </c>
+      <c r="BJ79">
+        <v>2.16</v>
+      </c>
+      <c r="BK79">
+        <v>2</v>
+      </c>
+      <c r="BL79">
+        <v>1.72</v>
+      </c>
+      <c r="BM79">
+        <v>2.59</v>
+      </c>
+      <c r="BN79">
         <v>1.39</v>
       </c>
-      <c r="BH79">
-        <v>2.59</v>
-      </c>
-      <c r="BI79">
-        <v>1.69</v>
-      </c>
-      <c r="BJ79">
-        <v>2.13</v>
-      </c>
-      <c r="BK79">
-        <v>2.13</v>
-      </c>
-      <c r="BL79">
-        <v>1.7</v>
-      </c>
-      <c r="BM79">
-        <v>2.94</v>
-      </c>
-      <c r="BN79">
-        <v>1.28</v>
-      </c>
       <c r="BO79">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="BP79">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17224,7 +17236,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7486971</v>
+        <v>7486527</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17233,193 +17245,193 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45563.44791666666</v>
+        <v>45562.5</v>
       </c>
       <c r="F80">
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="Q80">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S80">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="T80">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U80">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="V80">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="W80">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X80">
-        <v>9.300000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="Y80">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z80">
-        <v>3.38</v>
+        <v>2.32</v>
       </c>
       <c r="AA80">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="AB80">
-        <v>2.17</v>
+        <v>3.19</v>
       </c>
       <c r="AC80">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD80">
-        <v>6.55</v>
+        <v>6</v>
       </c>
       <c r="AE80">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AF80">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="AG80">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="AH80">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AI80">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ80">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AK80">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AL80">
         <v>1.3</v>
       </c>
       <c r="AM80">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AO80">
-        <v>2.2</v>
+        <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AR80">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="AS80">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AT80">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY80">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AZ80">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
         <v>3</v>
       </c>
-      <c r="BB80">
-        <v>1</v>
-      </c>
-      <c r="BC80">
-        <v>4</v>
-      </c>
       <c r="BD80">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BE80">
         <v>7.5</v>
       </c>
       <c r="BF80">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BG80">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH80">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="BI80">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BJ80">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="BK80">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="BL80">
         <v>1.7</v>
       </c>
       <c r="BM80">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="BN80">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="BO80">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="BP80">
         <v>1.17</v>
@@ -17430,7 +17442,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7486524</v>
+        <v>7486970</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17439,55 +17451,55 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45563.64583333334</v>
+        <v>45562.625</v>
       </c>
       <c r="F81">
         <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O81" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="Q81">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S81">
         <v>4.5</v>
       </c>
       <c r="T81">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="U81">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="V81">
         <v>3.2</v>
@@ -17496,139 +17508,139 @@
         <v>1.32</v>
       </c>
       <c r="X81">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y81">
         <v>1.05</v>
       </c>
       <c r="Z81">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AA81">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="AB81">
-        <v>4.1</v>
+        <v>4.51</v>
       </c>
       <c r="AC81">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD81">
-        <v>7.6</v>
+        <v>6.95</v>
       </c>
       <c r="AE81">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AF81">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AG81">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AH81">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AI81">
+        <v>2.05</v>
+      </c>
+      <c r="AJ81">
+        <v>1.72</v>
+      </c>
+      <c r="AK81">
+        <v>1.16</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
         <v>1.9</v>
       </c>
-      <c r="AJ81">
-        <v>1.83</v>
-      </c>
-      <c r="AK81">
-        <v>1.17</v>
-      </c>
-      <c r="AL81">
-        <v>1.22</v>
-      </c>
-      <c r="AM81">
-        <v>1.95</v>
-      </c>
       <c r="AN81">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AO81">
-        <v>1.89</v>
+        <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.18</v>
+        <v>2.6</v>
       </c>
       <c r="AQ81">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AS81">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AT81">
-        <v>2.78</v>
+        <v>2.29</v>
       </c>
       <c r="AU81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>13</v>
+      </c>
+      <c r="AZ81">
+        <v>13</v>
+      </c>
+      <c r="BA81">
         <v>4</v>
-      </c>
-      <c r="AW81">
-        <v>6</v>
-      </c>
-      <c r="AX81">
-        <v>8</v>
-      </c>
-      <c r="AY81">
-        <v>8</v>
-      </c>
-      <c r="AZ81">
-        <v>12</v>
-      </c>
-      <c r="BA81">
-        <v>2</v>
       </c>
       <c r="BB81">
         <v>5</v>
       </c>
       <c r="BC81">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD81">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="BE81">
         <v>8</v>
       </c>
       <c r="BF81">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="BG81">
+        <v>1.39</v>
+      </c>
+      <c r="BH81">
+        <v>2.59</v>
+      </c>
+      <c r="BI81">
+        <v>1.69</v>
+      </c>
+      <c r="BJ81">
+        <v>2.13</v>
+      </c>
+      <c r="BK81">
+        <v>2.13</v>
+      </c>
+      <c r="BL81">
+        <v>1.7</v>
+      </c>
+      <c r="BM81">
+        <v>2.94</v>
+      </c>
+      <c r="BN81">
         <v>1.28</v>
       </c>
-      <c r="BH81">
-        <v>2.97</v>
-      </c>
-      <c r="BI81">
-        <v>1.62</v>
-      </c>
-      <c r="BJ81">
-        <v>2.28</v>
-      </c>
-      <c r="BK81">
-        <v>2.01</v>
-      </c>
-      <c r="BL81">
-        <v>1.78</v>
-      </c>
-      <c r="BM81">
-        <v>2.56</v>
-      </c>
-      <c r="BN81">
-        <v>1.4</v>
-      </c>
       <c r="BO81">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="BP81">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17636,7 +17648,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7486520</v>
+        <v>7486971</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17645,16 +17657,16 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.44791666666</v>
       </c>
       <c r="F82">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17675,166 +17687,166 @@
         <v>1</v>
       </c>
       <c r="O82" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="P82" t="s">
         <v>86</v>
       </c>
       <c r="Q82">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="T82">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="U82">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="V82">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="W82">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X82">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y82">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z82">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AA82">
         <v>3.2</v>
       </c>
       <c r="AB82">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="AC82">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD82">
-        <v>8.75</v>
+        <v>6.55</v>
       </c>
       <c r="AE82">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AF82">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="AG82">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AH82">
+        <v>1.62</v>
+      </c>
+      <c r="AI82">
+        <v>2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.75</v>
+      </c>
+      <c r="AK82">
+        <v>1.6</v>
+      </c>
+      <c r="AL82">
+        <v>1.3</v>
+      </c>
+      <c r="AM82">
+        <v>1.3</v>
+      </c>
+      <c r="AN82">
+        <v>1.4</v>
+      </c>
+      <c r="AO82">
+        <v>2</v>
+      </c>
+      <c r="AP82">
+        <v>1.67</v>
+      </c>
+      <c r="AQ82">
+        <v>1.71</v>
+      </c>
+      <c r="AR82">
+        <v>1.61</v>
+      </c>
+      <c r="AS82">
+        <v>1.09</v>
+      </c>
+      <c r="AT82">
+        <v>2.7</v>
+      </c>
+      <c r="AU82">
+        <v>2</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>1</v>
+      </c>
+      <c r="BC82">
+        <v>4</v>
+      </c>
+      <c r="BD82">
+        <v>2.2</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>1.91</v>
+      </c>
+      <c r="BG82">
+        <v>1.32</v>
+      </c>
+      <c r="BH82">
+        <v>2.78</v>
+      </c>
+      <c r="BI82">
         <v>1.7</v>
       </c>
-      <c r="AI82">
-        <v>1.83</v>
-      </c>
-      <c r="AJ82">
-        <v>1.9</v>
-      </c>
-      <c r="AK82">
-        <v>1.78</v>
-      </c>
-      <c r="AL82">
-        <v>1.25</v>
-      </c>
-      <c r="AM82">
-        <v>1.25</v>
-      </c>
-      <c r="AN82">
-        <v>0.7</v>
-      </c>
-      <c r="AO82">
-        <v>1.2</v>
-      </c>
-      <c r="AP82">
-        <v>0.91</v>
-      </c>
-      <c r="AQ82">
-        <v>1.09</v>
-      </c>
-      <c r="AR82">
-        <v>1.24</v>
-      </c>
-      <c r="AS82">
-        <v>1.52</v>
-      </c>
-      <c r="AT82">
-        <v>2.76</v>
-      </c>
-      <c r="AU82">
-        <v>6</v>
-      </c>
-      <c r="AV82">
-        <v>4</v>
-      </c>
-      <c r="AW82">
-        <v>2</v>
-      </c>
-      <c r="AX82">
-        <v>4</v>
-      </c>
-      <c r="AY82">
-        <v>8</v>
-      </c>
-      <c r="AZ82">
-        <v>8</v>
-      </c>
-      <c r="BA82">
-        <v>4</v>
-      </c>
-      <c r="BB82">
-        <v>3</v>
-      </c>
-      <c r="BC82">
-        <v>7</v>
-      </c>
-      <c r="BD82">
-        <v>2.39</v>
-      </c>
-      <c r="BE82">
-        <v>8</v>
-      </c>
-      <c r="BF82">
-        <v>1.82</v>
-      </c>
-      <c r="BG82">
-        <v>1.25</v>
-      </c>
-      <c r="BH82">
-        <v>3.14</v>
-      </c>
-      <c r="BI82">
-        <v>1.59</v>
-      </c>
       <c r="BJ82">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="BK82">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="BL82">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="BM82">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="BN82">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="BO82">
-        <v>3.28</v>
+        <v>3.76</v>
       </c>
       <c r="BP82">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17842,7 +17854,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7486529</v>
+        <v>7486532</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17851,195 +17863,1019 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45564.875</v>
+        <v>45563.54166666666</v>
       </c>
       <c r="F83">
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
         <v>3</v>
       </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
       <c r="N83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="Q83">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R83">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S83">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="T83">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U83">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="V83">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W83">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X83">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y83">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z83">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AA83">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="AB83">
+        <v>6</v>
+      </c>
+      <c r="AC83">
+        <v>1.02</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.5</v>
+      </c>
+      <c r="AG83">
+        <v>1.85</v>
+      </c>
+      <c r="AH83">
+        <v>1.85</v>
+      </c>
+      <c r="AI83">
+        <v>2.05</v>
+      </c>
+      <c r="AJ83">
+        <v>1.72</v>
+      </c>
+      <c r="AK83">
+        <v>1.08</v>
+      </c>
+      <c r="AL83">
+        <v>1.19</v>
+      </c>
+      <c r="AM83">
+        <v>2.71</v>
+      </c>
+      <c r="AN83">
+        <v>1.67</v>
+      </c>
+      <c r="AO83">
+        <v>0.75</v>
+      </c>
+      <c r="AP83">
+        <v>1.43</v>
+      </c>
+      <c r="AQ83">
+        <v>1.2</v>
+      </c>
+      <c r="AR83">
+        <v>1.79</v>
+      </c>
+      <c r="AS83">
+        <v>1.19</v>
+      </c>
+      <c r="AT83">
+        <v>2.98</v>
+      </c>
+      <c r="AU83">
         <v>7</v>
       </c>
-      <c r="AC83">
-        <v>1.04</v>
-      </c>
-      <c r="AD83">
-        <v>14</v>
-      </c>
-      <c r="AE83">
-        <v>1.19</v>
-      </c>
-      <c r="AF83">
-        <v>3.56</v>
-      </c>
-      <c r="AG83">
-        <v>1.8</v>
-      </c>
-      <c r="AH83">
-        <v>1.96</v>
-      </c>
-      <c r="AI83">
-        <v>2.1</v>
-      </c>
-      <c r="AJ83">
-        <v>1.67</v>
-      </c>
-      <c r="AK83">
-        <v>1.06</v>
-      </c>
-      <c r="AL83">
-        <v>1.18</v>
-      </c>
-      <c r="AM83">
-        <v>2.9</v>
-      </c>
-      <c r="AN83">
-        <v>1.6</v>
-      </c>
-      <c r="AO83">
-        <v>1.1</v>
-      </c>
-      <c r="AP83">
-        <v>1.73</v>
-      </c>
-      <c r="AQ83">
-        <v>1</v>
-      </c>
-      <c r="AR83">
-        <v>1.74</v>
-      </c>
-      <c r="AS83">
-        <v>1.42</v>
-      </c>
-      <c r="AT83">
-        <v>3.16</v>
-      </c>
-      <c r="AU83">
-        <v>6</v>
-      </c>
       <c r="AV83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX83">
         <v>4</v>
       </c>
       <c r="AY83">
+        <v>24</v>
+      </c>
+      <c r="AZ83">
+        <v>12</v>
+      </c>
+      <c r="BA83">
+        <v>13</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>14</v>
+      </c>
+      <c r="BD83">
+        <v>1.3</v>
+      </c>
+      <c r="BE83">
+        <v>9.5</v>
+      </c>
+      <c r="BF83">
+        <v>4.44</v>
+      </c>
+      <c r="BG83">
+        <v>1.18</v>
+      </c>
+      <c r="BH83">
+        <v>3.72</v>
+      </c>
+      <c r="BI83">
+        <v>1.38</v>
+      </c>
+      <c r="BJ83">
+        <v>2.62</v>
+      </c>
+      <c r="BK83">
+        <v>2</v>
+      </c>
+      <c r="BL83">
+        <v>1.8</v>
+      </c>
+      <c r="BM83">
+        <v>2.15</v>
+      </c>
+      <c r="BN83">
+        <v>1.68</v>
+      </c>
+      <c r="BO83">
+        <v>2.73</v>
+      </c>
+      <c r="BP83">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7486524</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45563.64583333334</v>
+      </c>
+      <c r="F84">
         <v>11</v>
       </c>
-      <c r="AZ83">
+      <c r="G84" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>86</v>
+      </c>
+      <c r="P84" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q84">
+        <v>2.4</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>4.5</v>
+      </c>
+      <c r="T84">
+        <v>1.43</v>
+      </c>
+      <c r="U84">
+        <v>2.65</v>
+      </c>
+      <c r="V84">
+        <v>3.2</v>
+      </c>
+      <c r="W84">
+        <v>1.32</v>
+      </c>
+      <c r="X84">
+        <v>8.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.05</v>
+      </c>
+      <c r="Z84">
+        <v>1.86</v>
+      </c>
+      <c r="AA84">
+        <v>3.3</v>
+      </c>
+      <c r="AB84">
+        <v>4.1</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>7.6</v>
+      </c>
+      <c r="AE84">
+        <v>1.33</v>
+      </c>
+      <c r="AF84">
+        <v>3.1</v>
+      </c>
+      <c r="AG84">
+        <v>2.2</v>
+      </c>
+      <c r="AH84">
+        <v>1.64</v>
+      </c>
+      <c r="AI84">
+        <v>1.9</v>
+      </c>
+      <c r="AJ84">
+        <v>1.83</v>
+      </c>
+      <c r="AK84">
+        <v>1.17</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>1.95</v>
+      </c>
+      <c r="AN84">
+        <v>0.75</v>
+      </c>
+      <c r="AO84">
+        <v>1.8</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>1.67</v>
+      </c>
+      <c r="AR84">
+        <v>1.43</v>
+      </c>
+      <c r="AS84">
+        <v>1.27</v>
+      </c>
+      <c r="AT84">
+        <v>2.7</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>11</v>
+      </c>
+      <c r="AY84">
+        <v>12</v>
+      </c>
+      <c r="AZ84">
+        <v>20</v>
+      </c>
+      <c r="BA84">
+        <v>2</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BD84">
+        <v>1.59</v>
+      </c>
+      <c r="BE84">
+        <v>8</v>
+      </c>
+      <c r="BF84">
+        <v>2.9</v>
+      </c>
+      <c r="BG84">
+        <v>1.28</v>
+      </c>
+      <c r="BH84">
+        <v>2.97</v>
+      </c>
+      <c r="BI84">
+        <v>1.62</v>
+      </c>
+      <c r="BJ84">
+        <v>2.28</v>
+      </c>
+      <c r="BK84">
+        <v>2.01</v>
+      </c>
+      <c r="BL84">
+        <v>1.78</v>
+      </c>
+      <c r="BM84">
+        <v>2.56</v>
+      </c>
+      <c r="BN84">
+        <v>1.4</v>
+      </c>
+      <c r="BO84">
+        <v>3.44</v>
+      </c>
+      <c r="BP84">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7486520</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45564.41666666666</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>108</v>
+      </c>
+      <c r="P85" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>2.6</v>
+      </c>
+      <c r="T85">
+        <v>1.41</v>
+      </c>
+      <c r="U85">
+        <v>2.7</v>
+      </c>
+      <c r="V85">
+        <v>3.15</v>
+      </c>
+      <c r="W85">
+        <v>1.32</v>
+      </c>
+      <c r="X85">
+        <v>9.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.06</v>
+      </c>
+      <c r="Z85">
+        <v>3.4</v>
+      </c>
+      <c r="AA85">
+        <v>3.2</v>
+      </c>
+      <c r="AB85">
+        <v>1.95</v>
+      </c>
+      <c r="AC85">
+        <v>1.07</v>
+      </c>
+      <c r="AD85">
+        <v>8.75</v>
+      </c>
+      <c r="AE85">
+        <v>1.33</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>1.95</v>
+      </c>
+      <c r="AH85">
+        <v>1.7</v>
+      </c>
+      <c r="AI85">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85">
+        <v>1.9</v>
+      </c>
+      <c r="AK85">
+        <v>1.78</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.25</v>
+      </c>
+      <c r="AN85">
+        <v>0.5</v>
+      </c>
+      <c r="AO85">
+        <v>0.75</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>0.6</v>
+      </c>
+      <c r="AR85">
+        <v>1.36</v>
+      </c>
+      <c r="AS85">
+        <v>1.36</v>
+      </c>
+      <c r="AT85">
+        <v>2.72</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>6</v>
+      </c>
+      <c r="AY85">
+        <v>13</v>
+      </c>
+      <c r="AZ85">
+        <v>13</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>3</v>
+      </c>
+      <c r="BC85">
+        <v>7</v>
+      </c>
+      <c r="BD85">
+        <v>2.39</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>1.82</v>
+      </c>
+      <c r="BG85">
+        <v>1.25</v>
+      </c>
+      <c r="BH85">
+        <v>3.14</v>
+      </c>
+      <c r="BI85">
+        <v>1.59</v>
+      </c>
+      <c r="BJ85">
+        <v>2.33</v>
+      </c>
+      <c r="BK85">
+        <v>1.96</v>
+      </c>
+      <c r="BL85">
+        <v>1.84</v>
+      </c>
+      <c r="BM85">
+        <v>2.5</v>
+      </c>
+      <c r="BN85">
+        <v>1.52</v>
+      </c>
+      <c r="BO85">
+        <v>3.28</v>
+      </c>
+      <c r="BP85">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7486969</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45564.64583333334</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s">
+        <v>74</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>86</v>
+      </c>
+      <c r="P86" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q86">
+        <v>3.25</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>2.6</v>
+      </c>
+      <c r="W86">
+        <v>1.46</v>
+      </c>
+      <c r="X86">
+        <v>6.35</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>2.8</v>
+      </c>
+      <c r="AA86">
+        <v>2.95</v>
+      </c>
+      <c r="AB86">
+        <v>2.55</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
         <v>10</v>
       </c>
-      <c r="BA83">
+      <c r="AE86">
+        <v>1.2</v>
+      </c>
+      <c r="AF86">
+        <v>3.54</v>
+      </c>
+      <c r="AG86">
+        <v>2</v>
+      </c>
+      <c r="AH86">
+        <v>1.77</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>1.53</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.44</v>
+      </c>
+      <c r="AN86">
+        <v>1.4</v>
+      </c>
+      <c r="AO86">
+        <v>0.67</v>
+      </c>
+      <c r="AP86">
+        <v>1.17</v>
+      </c>
+      <c r="AQ86">
+        <v>1.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.59</v>
+      </c>
+      <c r="AS86">
+        <v>1.43</v>
+      </c>
+      <c r="AT86">
+        <v>3.02</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>17</v>
+      </c>
+      <c r="AZ86">
+        <v>12</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>1.95</v>
+      </c>
+      <c r="BE86">
         <v>8</v>
       </c>
-      <c r="BB83">
-        <v>2</v>
-      </c>
-      <c r="BC83">
+      <c r="BF86">
+        <v>2.1</v>
+      </c>
+      <c r="BG86">
+        <v>1.25</v>
+      </c>
+      <c r="BH86">
+        <v>3.14</v>
+      </c>
+      <c r="BI86">
+        <v>1.55</v>
+      </c>
+      <c r="BJ86">
+        <v>2.39</v>
+      </c>
+      <c r="BK86">
+        <v>1.91</v>
+      </c>
+      <c r="BL86">
+        <v>1.88</v>
+      </c>
+      <c r="BM86">
+        <v>2.42</v>
+      </c>
+      <c r="BN86">
+        <v>1.54</v>
+      </c>
+      <c r="BO86">
+        <v>3.22</v>
+      </c>
+      <c r="BP86">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7486529</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45565.625</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s">
+        <v>79</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>142</v>
+      </c>
+      <c r="P87" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <v>1.91</v>
+      </c>
+      <c r="R87">
+        <v>2.4</v>
+      </c>
+      <c r="S87">
+        <v>7.5</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.25</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>1.38</v>
+      </c>
+      <c r="AA87">
+        <v>4.5</v>
+      </c>
+      <c r="AB87">
+        <v>7</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>14</v>
+      </c>
+      <c r="AE87">
+        <v>1.19</v>
+      </c>
+      <c r="AF87">
+        <v>3.56</v>
+      </c>
+      <c r="AG87">
+        <v>1.8</v>
+      </c>
+      <c r="AH87">
+        <v>1.96</v>
+      </c>
+      <c r="AI87">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>1.06</v>
+      </c>
+      <c r="AL87">
+        <v>1.18</v>
+      </c>
+      <c r="AM87">
+        <v>2.9</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1.4</v>
+      </c>
+      <c r="AP87">
+        <v>2.2</v>
+      </c>
+      <c r="AQ87">
+        <v>1.17</v>
+      </c>
+      <c r="AR87">
+        <v>1.94</v>
+      </c>
+      <c r="AS87">
+        <v>1.34</v>
+      </c>
+      <c r="AT87">
+        <v>3.28</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>19</v>
+      </c>
+      <c r="AZ87">
         <v>10</v>
       </c>
-      <c r="BD83">
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>10</v>
+      </c>
+      <c r="BD87">
         <v>1.14</v>
       </c>
-      <c r="BE83">
+      <c r="BE87">
         <v>12</v>
       </c>
-      <c r="BF83">
+      <c r="BF87">
         <v>7.01</v>
       </c>
-      <c r="BG83">
+      <c r="BG87">
         <v>1.26</v>
       </c>
-      <c r="BH83">
+      <c r="BH87">
         <v>3.35</v>
       </c>
-      <c r="BI83">
+      <c r="BI87">
         <v>1.49</v>
       </c>
-      <c r="BJ83">
+      <c r="BJ87">
         <v>2.38</v>
       </c>
-      <c r="BK83">
+      <c r="BK87">
         <v>1.95</v>
       </c>
-      <c r="BL83">
+      <c r="BL87">
         <v>1.85</v>
       </c>
-      <c r="BM83">
+      <c r="BM87">
         <v>2.35</v>
       </c>
-      <c r="BN83">
+      <c r="BN87">
         <v>1.49</v>
       </c>
-      <c r="BO83">
+      <c r="BO87">
         <v>3.2</v>
       </c>
-      <c r="BP83">
+      <c r="BP87">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,12 @@
     <t>['38', '42', '90+4']</t>
   </si>
   <si>
+    <t>['32', '38', '57']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -590,6 +596,9 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1219,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1288,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1906,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2034,7 +2043,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2240,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2321,7 +2330,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2446,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3064,7 +3073,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3270,7 +3279,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3476,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3682,7 +3691,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3888,7 +3897,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3969,7 +3978,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4094,7 +4103,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4506,7 +4515,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4712,7 +4721,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4918,7 +4927,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5205,7 +5214,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5330,7 +5339,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5408,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -5536,7 +5545,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5820,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>1.71</v>
@@ -6644,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -6853,7 +6862,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -6978,7 +6987,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7184,7 +7193,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7390,7 +7399,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7596,7 +7605,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7802,7 +7811,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8008,7 +8017,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8086,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8214,7 +8223,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8420,7 +8429,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9038,7 +9047,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9119,7 +9128,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9244,7 +9253,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9325,7 +9334,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9450,7 +9459,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9862,7 +9871,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10149,7 +10158,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10480,7 +10489,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10558,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
         <v>0.2</v>
@@ -10892,7 +10901,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11304,7 +11313,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11922,7 +11931,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12128,7 +12137,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12206,7 +12215,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>0.6</v>
@@ -12540,7 +12549,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12746,7 +12755,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12952,7 +12961,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13033,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13158,7 +13167,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13236,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13570,7 +13579,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13857,7 +13866,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14600,7 +14609,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15012,7 +15021,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15218,7 +15227,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15296,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
         <v>0.2</v>
@@ -15424,7 +15433,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15630,7 +15639,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15836,7 +15845,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -15917,7 +15926,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16248,7 +16257,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16329,7 +16338,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -16454,7 +16463,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16532,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
         <v>0.8</v>
@@ -16660,7 +16669,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16944,7 +16953,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
         <v>0.8</v>
@@ -17072,7 +17081,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17484,7 +17493,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17896,7 +17905,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18514,7 +18523,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18877,6 +18886,418 @@
       </c>
       <c r="BP87">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7486553</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45569.5</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>143</v>
+      </c>
+      <c r="P88" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q88">
+        <v>3.2</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>3.55</v>
+      </c>
+      <c r="T88">
+        <v>1.44</v>
+      </c>
+      <c r="U88">
+        <v>2.6</v>
+      </c>
+      <c r="V88">
+        <v>3.4</v>
+      </c>
+      <c r="W88">
+        <v>1.27</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.04</v>
+      </c>
+      <c r="Z88">
+        <v>2.35</v>
+      </c>
+      <c r="AA88">
+        <v>3.1</v>
+      </c>
+      <c r="AB88">
+        <v>2.8</v>
+      </c>
+      <c r="AC88">
+        <v>1.03</v>
+      </c>
+      <c r="AD88">
+        <v>6.65</v>
+      </c>
+      <c r="AE88">
+        <v>1.38</v>
+      </c>
+      <c r="AF88">
+        <v>2.54</v>
+      </c>
+      <c r="AG88">
+        <v>2.2</v>
+      </c>
+      <c r="AH88">
+        <v>1.6</v>
+      </c>
+      <c r="AI88">
+        <v>1.96</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.38</v>
+      </c>
+      <c r="AL88">
+        <v>1.34</v>
+      </c>
+      <c r="AM88">
+        <v>1.52</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1.6</v>
+      </c>
+      <c r="AP88">
+        <v>1.29</v>
+      </c>
+      <c r="AQ88">
+        <v>1.33</v>
+      </c>
+      <c r="AR88">
+        <v>1.69</v>
+      </c>
+      <c r="AS88">
+        <v>1.39</v>
+      </c>
+      <c r="AT88">
+        <v>3.08</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>2</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
+        <v>16</v>
+      </c>
+      <c r="BA88">
+        <v>3</v>
+      </c>
+      <c r="BB88">
+        <v>6</v>
+      </c>
+      <c r="BC88">
+        <v>9</v>
+      </c>
+      <c r="BD88">
+        <v>1.82</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>2.33</v>
+      </c>
+      <c r="BG88">
+        <v>1.23</v>
+      </c>
+      <c r="BH88">
+        <v>3.28</v>
+      </c>
+      <c r="BI88">
+        <v>1.46</v>
+      </c>
+      <c r="BJ88">
+        <v>2.38</v>
+      </c>
+      <c r="BK88">
+        <v>1.95</v>
+      </c>
+      <c r="BL88">
+        <v>1.85</v>
+      </c>
+      <c r="BM88">
+        <v>2.33</v>
+      </c>
+      <c r="BN88">
+        <v>1.48</v>
+      </c>
+      <c r="BO88">
+        <v>3.08</v>
+      </c>
+      <c r="BP88">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7486541</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>144</v>
+      </c>
+      <c r="P89" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q89">
+        <v>2.5</v>
+      </c>
+      <c r="R89">
+        <v>2.18</v>
+      </c>
+      <c r="S89">
+        <v>4.2</v>
+      </c>
+      <c r="T89">
+        <v>1.34</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>2.85</v>
+      </c>
+      <c r="W89">
+        <v>1.37</v>
+      </c>
+      <c r="X89">
+        <v>7.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.07</v>
+      </c>
+      <c r="Z89">
+        <v>1.95</v>
+      </c>
+      <c r="AA89">
+        <v>3.5</v>
+      </c>
+      <c r="AB89">
+        <v>3.4</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE89">
+        <v>1.22</v>
+      </c>
+      <c r="AF89">
+        <v>3.35</v>
+      </c>
+      <c r="AG89">
+        <v>1.86</v>
+      </c>
+      <c r="AH89">
+        <v>1.96</v>
+      </c>
+      <c r="AI89">
+        <v>1.78</v>
+      </c>
+      <c r="AJ89">
+        <v>1.98</v>
+      </c>
+      <c r="AK89">
+        <v>1.23</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.86</v>
+      </c>
+      <c r="AN89">
+        <v>1.5</v>
+      </c>
+      <c r="AO89">
+        <v>0.67</v>
+      </c>
+      <c r="AP89">
+        <v>1.43</v>
+      </c>
+      <c r="AQ89">
+        <v>0.71</v>
+      </c>
+      <c r="AR89">
+        <v>1.63</v>
+      </c>
+      <c r="AS89">
+        <v>1.09</v>
+      </c>
+      <c r="AT89">
+        <v>2.72</v>
+      </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>10</v>
+      </c>
+      <c r="AX89">
+        <v>1</v>
+      </c>
+      <c r="AY89">
+        <v>22</v>
+      </c>
+      <c r="AZ89">
+        <v>7</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>5</v>
+      </c>
+      <c r="BD89">
+        <v>1.64</v>
+      </c>
+      <c r="BE89">
+        <v>8</v>
+      </c>
+      <c r="BF89">
+        <v>2.77</v>
+      </c>
+      <c r="BG89">
+        <v>1.34</v>
+      </c>
+      <c r="BH89">
+        <v>2.78</v>
+      </c>
+      <c r="BI89">
+        <v>1.67</v>
+      </c>
+      <c r="BJ89">
+        <v>2.08</v>
+      </c>
+      <c r="BK89">
+        <v>2.08</v>
+      </c>
+      <c r="BL89">
+        <v>1.6</v>
+      </c>
+      <c r="BM89">
+        <v>2.73</v>
+      </c>
+      <c r="BN89">
+        <v>1.33</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,15 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['16', '22']</t>
+  </si>
+  <si>
+    <t>['10', '16']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -599,6 +608,18 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['52', '63']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['14', '42', '71', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1240,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1503,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1712,7 +1733,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2043,7 +2064,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2124,7 +2145,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2270,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2327,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
         <v>0.71</v>
@@ -2455,7 +2476,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3073,7 +3094,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3151,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11">
         <v>1.25</v>
@@ -3279,7 +3300,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3485,7 +3506,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3691,7 +3712,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3897,7 +3918,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4103,7 +4124,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4184,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4387,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>0.6</v>
@@ -4515,7 +4536,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4593,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -4721,7 +4742,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4927,7 +4948,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5339,7 +5360,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5545,7 +5566,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5623,10 +5644,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -5832,7 +5853,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>1.7</v>
@@ -6241,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>0.2</v>
@@ -6656,7 +6677,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6987,7 +7008,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7065,10 +7086,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7193,7 +7214,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7271,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31">
         <v>1.2</v>
@@ -7399,7 +7420,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7480,7 +7501,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7605,7 +7626,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7811,7 +7832,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7889,7 +7910,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8017,7 +8038,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8223,7 +8244,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8429,7 +8450,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8510,7 +8531,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR37">
         <v>1.45</v>
@@ -8713,7 +8734,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -8922,7 +8943,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9047,7 +9068,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9253,7 +9274,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9331,7 +9352,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9459,7 +9480,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9871,7 +9892,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9952,7 +9973,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10364,7 +10385,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10489,7 +10510,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10901,7 +10922,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11313,7 +11334,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11394,7 +11415,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11597,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -11803,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -11931,7 +11952,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12012,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -12137,7 +12158,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12421,10 +12442,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12549,7 +12570,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12627,10 +12648,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -12755,7 +12776,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12961,7 +12982,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13167,7 +13188,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13579,7 +13600,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13657,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -14609,7 +14630,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14896,7 +14917,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -15021,7 +15042,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15099,7 +15120,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -15227,7 +15248,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15433,7 +15454,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15514,7 +15535,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ71">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -15639,7 +15660,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15845,7 +15866,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -15923,7 +15944,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
         <v>0.71</v>
@@ -16129,7 +16150,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>1.67</v>
@@ -16257,7 +16278,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16463,7 +16484,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16544,7 +16565,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.69</v>
@@ -16669,7 +16690,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16750,7 +16771,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -16956,7 +16977,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.56</v>
@@ -17081,7 +17102,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17159,7 +17180,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17493,7 +17514,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17780,7 +17801,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ82">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -17905,7 +17926,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -17983,7 +18004,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18523,7 +18544,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19141,7 +19162,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19298,6 +19319,830 @@
       </c>
       <c r="BP89">
         <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7486556</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45570.44791666666</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s">
+        <v>82</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>145</v>
+      </c>
+      <c r="P90" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q90">
+        <v>4.5</v>
+      </c>
+      <c r="R90">
+        <v>2.02</v>
+      </c>
+      <c r="S90">
+        <v>2.65</v>
+      </c>
+      <c r="T90">
+        <v>1.43</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>3.3</v>
+      </c>
+      <c r="W90">
+        <v>1.29</v>
+      </c>
+      <c r="X90">
+        <v>9.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.05</v>
+      </c>
+      <c r="Z90">
+        <v>3.7</v>
+      </c>
+      <c r="AA90">
+        <v>3.2</v>
+      </c>
+      <c r="AB90">
+        <v>1.95</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>6.4</v>
+      </c>
+      <c r="AE90">
+        <v>1.41</v>
+      </c>
+      <c r="AF90">
+        <v>2.45</v>
+      </c>
+      <c r="AG90">
+        <v>2.2</v>
+      </c>
+      <c r="AH90">
+        <v>1.6</v>
+      </c>
+      <c r="AI90">
+        <v>1.95</v>
+      </c>
+      <c r="AJ90">
+        <v>1.81</v>
+      </c>
+      <c r="AK90">
+        <v>1.76</v>
+      </c>
+      <c r="AL90">
+        <v>1.33</v>
+      </c>
+      <c r="AM90">
+        <v>1.24</v>
+      </c>
+      <c r="AN90">
+        <v>0.8</v>
+      </c>
+      <c r="AO90">
+        <v>1.71</v>
+      </c>
+      <c r="AP90">
+        <v>0.83</v>
+      </c>
+      <c r="AQ90">
+        <v>1.63</v>
+      </c>
+      <c r="AR90">
+        <v>1.38</v>
+      </c>
+      <c r="AS90">
+        <v>1.1</v>
+      </c>
+      <c r="AT90">
+        <v>2.48</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>9</v>
+      </c>
+      <c r="AY90">
+        <v>12</v>
+      </c>
+      <c r="AZ90">
+        <v>17</v>
+      </c>
+      <c r="BA90">
+        <v>2</v>
+      </c>
+      <c r="BB90">
+        <v>9</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>2.77</v>
+      </c>
+      <c r="BE90">
+        <v>8</v>
+      </c>
+      <c r="BF90">
+        <v>1.64</v>
+      </c>
+      <c r="BG90">
+        <v>1.28</v>
+      </c>
+      <c r="BH90">
+        <v>2.94</v>
+      </c>
+      <c r="BI90">
+        <v>1.64</v>
+      </c>
+      <c r="BJ90">
+        <v>2.23</v>
+      </c>
+      <c r="BK90">
+        <v>2.04</v>
+      </c>
+      <c r="BL90">
+        <v>1.76</v>
+      </c>
+      <c r="BM90">
+        <v>2.59</v>
+      </c>
+      <c r="BN90">
+        <v>1.39</v>
+      </c>
+      <c r="BO90">
+        <v>3.6</v>
+      </c>
+      <c r="BP90">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7486972</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45570.54166666666</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>146</v>
+      </c>
+      <c r="P91" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q91">
+        <v>1.95</v>
+      </c>
+      <c r="R91">
+        <v>2.33</v>
+      </c>
+      <c r="S91">
+        <v>6.4</v>
+      </c>
+      <c r="T91">
+        <v>1.29</v>
+      </c>
+      <c r="U91">
+        <v>3.25</v>
+      </c>
+      <c r="V91">
+        <v>2.5</v>
+      </c>
+      <c r="W91">
+        <v>1.46</v>
+      </c>
+      <c r="X91">
+        <v>6.4</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>1.35</v>
+      </c>
+      <c r="AA91">
+        <v>4.5</v>
+      </c>
+      <c r="AB91">
+        <v>7.5</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.18</v>
+      </c>
+      <c r="AF91">
+        <v>3.74</v>
+      </c>
+      <c r="AG91">
+        <v>1.92</v>
+      </c>
+      <c r="AH91">
+        <v>1.82</v>
+      </c>
+      <c r="AI91">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91">
+        <v>1.96</v>
+      </c>
+      <c r="AK91">
+        <v>1.07</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>2.7</v>
+      </c>
+      <c r="AN91">
+        <v>1.43</v>
+      </c>
+      <c r="AO91">
+        <v>0.8</v>
+      </c>
+      <c r="AP91">
+        <v>1.63</v>
+      </c>
+      <c r="AQ91">
+        <v>0.67</v>
+      </c>
+      <c r="AR91">
+        <v>1.87</v>
+      </c>
+      <c r="AS91">
+        <v>1.6</v>
+      </c>
+      <c r="AT91">
+        <v>3.47</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>7</v>
+      </c>
+      <c r="AW91">
+        <v>3</v>
+      </c>
+      <c r="AX91">
+        <v>6</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>19</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>3</v>
+      </c>
+      <c r="BC91">
+        <v>9</v>
+      </c>
+      <c r="BD91">
+        <v>1.34</v>
+      </c>
+      <c r="BE91">
+        <v>9</v>
+      </c>
+      <c r="BF91">
+        <v>4.09</v>
+      </c>
+      <c r="BG91">
+        <v>1.28</v>
+      </c>
+      <c r="BH91">
+        <v>2.94</v>
+      </c>
+      <c r="BI91">
+        <v>1.57</v>
+      </c>
+      <c r="BJ91">
+        <v>2.33</v>
+      </c>
+      <c r="BK91">
+        <v>1.98</v>
+      </c>
+      <c r="BL91">
+        <v>1.82</v>
+      </c>
+      <c r="BM91">
+        <v>2.5</v>
+      </c>
+      <c r="BN91">
+        <v>1.51</v>
+      </c>
+      <c r="BO91">
+        <v>3.44</v>
+      </c>
+      <c r="BP91">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7486549</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45570.64583333334</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>147</v>
+      </c>
+      <c r="P92" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q92">
+        <v>3.6</v>
+      </c>
+      <c r="R92">
+        <v>2.07</v>
+      </c>
+      <c r="S92">
+        <v>3.05</v>
+      </c>
+      <c r="T92">
+        <v>1.38</v>
+      </c>
+      <c r="U92">
+        <v>2.8</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.33</v>
+      </c>
+      <c r="X92">
+        <v>8.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.06</v>
+      </c>
+      <c r="Z92">
+        <v>2.91</v>
+      </c>
+      <c r="AA92">
+        <v>3.05</v>
+      </c>
+      <c r="AB92">
+        <v>2.38</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>7.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.31</v>
+      </c>
+      <c r="AF92">
+        <v>2.82</v>
+      </c>
+      <c r="AG92">
+        <v>2.4</v>
+      </c>
+      <c r="AH92">
+        <v>1.5</v>
+      </c>
+      <c r="AI92">
+        <v>1.76</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>1.53</v>
+      </c>
+      <c r="AL92">
+        <v>1.34</v>
+      </c>
+      <c r="AM92">
+        <v>1.37</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
+        <v>1.8</v>
+      </c>
+      <c r="AQ92">
+        <v>1.29</v>
+      </c>
+      <c r="AR92">
+        <v>1.5</v>
+      </c>
+      <c r="AS92">
+        <v>1.5</v>
+      </c>
+      <c r="AT92">
+        <v>3</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>2.52</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>1.75</v>
+      </c>
+      <c r="BG92">
+        <v>1.27</v>
+      </c>
+      <c r="BH92">
+        <v>3.04</v>
+      </c>
+      <c r="BI92">
+        <v>1.59</v>
+      </c>
+      <c r="BJ92">
+        <v>2.29</v>
+      </c>
+      <c r="BK92">
+        <v>1.97</v>
+      </c>
+      <c r="BL92">
+        <v>1.83</v>
+      </c>
+      <c r="BM92">
+        <v>2.5</v>
+      </c>
+      <c r="BN92">
+        <v>1.51</v>
+      </c>
+      <c r="BO92">
+        <v>3.44</v>
+      </c>
+      <c r="BP92">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7486536</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45571.3125</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>86</v>
+      </c>
+      <c r="P93" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q93">
+        <v>3.34</v>
+      </c>
+      <c r="R93">
+        <v>2.03</v>
+      </c>
+      <c r="S93">
+        <v>3.2</v>
+      </c>
+      <c r="T93">
+        <v>1.44</v>
+      </c>
+      <c r="U93">
+        <v>2.65</v>
+      </c>
+      <c r="V93">
+        <v>3.04</v>
+      </c>
+      <c r="W93">
+        <v>1.35</v>
+      </c>
+      <c r="X93">
+        <v>8.1</v>
+      </c>
+      <c r="Y93">
+        <v>1.06</v>
+      </c>
+      <c r="Z93">
+        <v>2.8</v>
+      </c>
+      <c r="AA93">
+        <v>3</v>
+      </c>
+      <c r="AB93">
+        <v>2.63</v>
+      </c>
+      <c r="AC93">
+        <v>1.02</v>
+      </c>
+      <c r="AD93">
+        <v>7.4</v>
+      </c>
+      <c r="AE93">
+        <v>1.31</v>
+      </c>
+      <c r="AF93">
+        <v>2.82</v>
+      </c>
+      <c r="AG93">
+        <v>2.1</v>
+      </c>
+      <c r="AH93">
+        <v>1.65</v>
+      </c>
+      <c r="AI93">
+        <v>1.83</v>
+      </c>
+      <c r="AJ93">
+        <v>1.87</v>
+      </c>
+      <c r="AK93">
+        <v>1.47</v>
+      </c>
+      <c r="AL93">
+        <v>1.32</v>
+      </c>
+      <c r="AM93">
+        <v>1.44</v>
+      </c>
+      <c r="AN93">
+        <v>2</v>
+      </c>
+      <c r="AO93">
+        <v>0.8</v>
+      </c>
+      <c r="AP93">
+        <v>1.71</v>
+      </c>
+      <c r="AQ93">
+        <v>1.17</v>
+      </c>
+      <c r="AR93">
+        <v>1.25</v>
+      </c>
+      <c r="AS93">
+        <v>1.75</v>
+      </c>
+      <c r="AT93">
+        <v>3</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>9</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>9</v>
+      </c>
+      <c r="AZ93">
+        <v>14</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>3</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>1.85</v>
+      </c>
+      <c r="BE93">
+        <v>7.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.33</v>
+      </c>
+      <c r="BG93">
+        <v>1.3</v>
+      </c>
+      <c r="BH93">
+        <v>2.88</v>
+      </c>
+      <c r="BI93">
+        <v>1.65</v>
+      </c>
+      <c r="BJ93">
+        <v>2.2</v>
+      </c>
+      <c r="BK93">
+        <v>2.07</v>
+      </c>
+      <c r="BL93">
+        <v>1.73</v>
+      </c>
+      <c r="BM93">
+        <v>2.66</v>
+      </c>
+      <c r="BN93">
+        <v>1.37</v>
+      </c>
+      <c r="BO93">
+        <v>3.68</v>
+      </c>
+      <c r="BP93">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,13 +451,19 @@
     <t>['71']</t>
   </si>
   <si>
-    <t>['16', '22']</t>
-  </si>
-  <si>
     <t>['10', '16']</t>
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['16', '22']</t>
+  </si>
+  <si>
+    <t>['52', '90']</t>
+  </si>
+  <si>
+    <t>['39', '67', '74']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -610,16 +616,19 @@
     <t>['4']</t>
   </si>
   <si>
-    <t>['52', '63']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
     <t>['14']</t>
   </si>
   <si>
+    <t>['52', '63']</t>
+  </si>
+  <si>
     <t>['14', '42', '71', '90+8']</t>
+  </si>
+  <si>
+    <t>['5', '87']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1249,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1939,7 +1948,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2064,7 +2073,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2142,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2270,7 +2279,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2476,7 +2485,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2554,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -2763,7 +2772,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3094,7 +3103,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3300,7 +3309,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3506,7 +3515,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3712,7 +3721,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3918,7 +3927,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4124,7 +4133,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4536,7 +4545,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4742,7 +4751,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4820,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -4948,7 +4957,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5029,7 +5038,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5360,7 +5369,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5566,7 +5575,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6059,7 +6068,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6471,7 +6480,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -7008,7 +7017,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7214,7 +7223,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7420,7 +7429,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7626,7 +7635,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7704,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>0.6</v>
@@ -7832,7 +7841,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8038,7 +8047,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8244,7 +8253,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8325,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8450,7 +8459,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9068,7 +9077,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9274,7 +9283,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9480,7 +9489,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9561,7 +9570,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -9764,7 +9773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1.2</v>
@@ -9892,7 +9901,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9970,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10510,7 +10519,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10922,7 +10931,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11003,7 +11012,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11334,7 +11343,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11952,7 +11961,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12158,7 +12167,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12570,7 +12579,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12776,7 +12785,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12857,7 +12866,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -12982,7 +12991,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13060,7 +13069,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13188,7 +13197,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13472,7 +13481,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ61">
         <v>1.2</v>
@@ -13600,7 +13609,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13681,7 +13690,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14630,7 +14639,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15042,7 +15051,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15248,7 +15257,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15454,7 +15463,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15660,7 +15669,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15738,10 +15747,10 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.78</v>
@@ -15866,7 +15875,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16278,7 +16287,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16356,7 +16365,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
         <v>1.33</v>
@@ -16484,7 +16493,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16690,7 +16699,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17102,7 +17111,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17183,7 +17192,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -17514,7 +17523,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17926,7 +17935,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18544,7 +18553,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19162,7 +19171,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19326,7 +19335,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7486556</v>
+        <v>7486972</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19335,16 +19344,16 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45570.44791666666</v>
+        <v>45569.875</v>
       </c>
       <c r="F90">
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H90" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -19359,142 +19368,142 @@
         <v>2</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O90" t="s">
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q90">
+        <v>1.95</v>
+      </c>
+      <c r="R90">
+        <v>2.33</v>
+      </c>
+      <c r="S90">
+        <v>6.4</v>
+      </c>
+      <c r="T90">
+        <v>1.29</v>
+      </c>
+      <c r="U90">
+        <v>3.25</v>
+      </c>
+      <c r="V90">
+        <v>2.5</v>
+      </c>
+      <c r="W90">
+        <v>1.46</v>
+      </c>
+      <c r="X90">
+        <v>6.4</v>
+      </c>
+      <c r="Y90">
+        <v>1.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.35</v>
+      </c>
+      <c r="AA90">
         <v>4.5</v>
       </c>
-      <c r="R90">
-        <v>2.02</v>
-      </c>
-      <c r="S90">
-        <v>2.65</v>
-      </c>
-      <c r="T90">
+      <c r="AB90">
+        <v>7.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>1.18</v>
+      </c>
+      <c r="AF90">
+        <v>3.74</v>
+      </c>
+      <c r="AG90">
+        <v>1.92</v>
+      </c>
+      <c r="AH90">
+        <v>1.82</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.96</v>
+      </c>
+      <c r="AK90">
+        <v>1.07</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>2.7</v>
+      </c>
+      <c r="AN90">
         <v>1.43</v>
       </c>
-      <c r="U90">
-        <v>2.63</v>
-      </c>
-      <c r="V90">
-        <v>3.3</v>
-      </c>
-      <c r="W90">
-        <v>1.29</v>
-      </c>
-      <c r="X90">
-        <v>9.5</v>
-      </c>
-      <c r="Y90">
-        <v>1.05</v>
-      </c>
-      <c r="Z90">
-        <v>3.7</v>
-      </c>
-      <c r="AA90">
-        <v>3.2</v>
-      </c>
-      <c r="AB90">
-        <v>1.95</v>
-      </c>
-      <c r="AC90">
-        <v>1.04</v>
-      </c>
-      <c r="AD90">
-        <v>6.4</v>
-      </c>
-      <c r="AE90">
-        <v>1.41</v>
-      </c>
-      <c r="AF90">
-        <v>2.45</v>
-      </c>
-      <c r="AG90">
-        <v>2.2</v>
-      </c>
-      <c r="AH90">
+      <c r="AO90">
+        <v>0.8</v>
+      </c>
+      <c r="AP90">
+        <v>1.63</v>
+      </c>
+      <c r="AQ90">
+        <v>0.67</v>
+      </c>
+      <c r="AR90">
+        <v>1.87</v>
+      </c>
+      <c r="AS90">
         <v>1.6</v>
       </c>
-      <c r="AI90">
-        <v>1.95</v>
-      </c>
-      <c r="AJ90">
-        <v>1.81</v>
-      </c>
-      <c r="AK90">
-        <v>1.76</v>
-      </c>
-      <c r="AL90">
-        <v>1.33</v>
-      </c>
-      <c r="AM90">
-        <v>1.24</v>
-      </c>
-      <c r="AN90">
-        <v>0.8</v>
-      </c>
-      <c r="AO90">
-        <v>1.71</v>
-      </c>
-      <c r="AP90">
-        <v>0.83</v>
-      </c>
-      <c r="AQ90">
-        <v>1.63</v>
-      </c>
-      <c r="AR90">
-        <v>1.38</v>
-      </c>
-      <c r="AS90">
-        <v>1.1</v>
-      </c>
       <c r="AT90">
-        <v>2.48</v>
+        <v>3.47</v>
       </c>
       <c r="AU90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>3</v>
+      </c>
+      <c r="AX90">
+        <v>7</v>
+      </c>
+      <c r="AY90">
         <v>5</v>
       </c>
-      <c r="AW90">
+      <c r="AZ90">
+        <v>13</v>
+      </c>
+      <c r="BA90">
         <v>6</v>
       </c>
-      <c r="AX90">
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
         <v>9</v>
       </c>
-      <c r="AY90">
-        <v>12</v>
-      </c>
-      <c r="AZ90">
-        <v>17</v>
-      </c>
-      <c r="BA90">
-        <v>2</v>
-      </c>
-      <c r="BB90">
+      <c r="BD90">
+        <v>1.34</v>
+      </c>
+      <c r="BE90">
         <v>9</v>
       </c>
-      <c r="BC90">
-        <v>11</v>
-      </c>
-      <c r="BD90">
-        <v>2.77</v>
-      </c>
-      <c r="BE90">
-        <v>8</v>
-      </c>
       <c r="BF90">
-        <v>1.64</v>
+        <v>4.09</v>
       </c>
       <c r="BG90">
         <v>1.28</v>
@@ -19503,28 +19512,28 @@
         <v>2.94</v>
       </c>
       <c r="BI90">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="BJ90">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="BK90">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="BL90">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="BM90">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="BN90">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="BO90">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="BP90">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19532,7 +19541,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7486972</v>
+        <v>7486549</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19541,148 +19550,148 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45570.54166666666</v>
+        <v>45569.875</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O91" t="s">
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q91">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="R91">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="S91">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
       <c r="T91">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="U91">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="V91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W91">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="X91">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="Y91">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z91">
-        <v>1.35</v>
+        <v>2.91</v>
       </c>
       <c r="AA91">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="AB91">
-        <v>7.5</v>
+        <v>2.38</v>
       </c>
       <c r="AC91">
         <v>1.01</v>
       </c>
       <c r="AD91">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AE91">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AF91">
-        <v>3.74</v>
+        <v>2.82</v>
       </c>
       <c r="AG91">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AH91">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AI91">
+        <v>1.76</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>1.53</v>
+      </c>
+      <c r="AL91">
+        <v>1.34</v>
+      </c>
+      <c r="AM91">
+        <v>1.37</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+      <c r="AO91">
+        <v>1.33</v>
+      </c>
+      <c r="AP91">
         <v>1.8</v>
       </c>
-      <c r="AJ91">
-        <v>1.96</v>
-      </c>
-      <c r="AK91">
-        <v>1.07</v>
-      </c>
-      <c r="AL91">
-        <v>1.22</v>
-      </c>
-      <c r="AM91">
-        <v>2.7</v>
-      </c>
-      <c r="AN91">
-        <v>1.43</v>
-      </c>
-      <c r="AO91">
-        <v>0.8</v>
-      </c>
-      <c r="AP91">
-        <v>1.63</v>
-      </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>3.47</v>
+        <v>3</v>
       </c>
       <c r="AU91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW91">
+        <v>8</v>
+      </c>
+      <c r="AX91">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
         <v>3</v>
-      </c>
-      <c r="AX91">
-        <v>6</v>
-      </c>
-      <c r="AY91">
-        <v>10</v>
-      </c>
-      <c r="AZ91">
-        <v>19</v>
       </c>
       <c r="BA91">
         <v>6</v>
@@ -19694,31 +19703,31 @@
         <v>9</v>
       </c>
       <c r="BD91">
-        <v>1.34</v>
+        <v>2.52</v>
       </c>
       <c r="BE91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF91">
-        <v>4.09</v>
+        <v>1.75</v>
       </c>
       <c r="BG91">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BH91">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="BI91">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="BJ91">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="BK91">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="BL91">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="BM91">
         <v>2.5</v>
@@ -19738,7 +19747,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7486549</v>
+        <v>7486556</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19747,196 +19756,196 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45570.64583333334</v>
+        <v>45569.875</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>2</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O92" t="s">
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q92">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="R92">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S92">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="T92">
+        <v>1.43</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>3.3</v>
+      </c>
+      <c r="W92">
+        <v>1.29</v>
+      </c>
+      <c r="X92">
+        <v>9.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>3.7</v>
+      </c>
+      <c r="AA92">
+        <v>3.2</v>
+      </c>
+      <c r="AB92">
+        <v>1.95</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>6.4</v>
+      </c>
+      <c r="AE92">
+        <v>1.41</v>
+      </c>
+      <c r="AF92">
+        <v>2.45</v>
+      </c>
+      <c r="AG92">
+        <v>2.2</v>
+      </c>
+      <c r="AH92">
+        <v>1.6</v>
+      </c>
+      <c r="AI92">
+        <v>1.95</v>
+      </c>
+      <c r="AJ92">
+        <v>1.81</v>
+      </c>
+      <c r="AK92">
+        <v>1.76</v>
+      </c>
+      <c r="AL92">
+        <v>1.33</v>
+      </c>
+      <c r="AM92">
+        <v>1.24</v>
+      </c>
+      <c r="AN92">
+        <v>0.8</v>
+      </c>
+      <c r="AO92">
+        <v>1.71</v>
+      </c>
+      <c r="AP92">
+        <v>0.83</v>
+      </c>
+      <c r="AQ92">
+        <v>1.63</v>
+      </c>
+      <c r="AR92">
         <v>1.38</v>
       </c>
-      <c r="U92">
-        <v>2.8</v>
-      </c>
-      <c r="V92">
-        <v>3</v>
-      </c>
-      <c r="W92">
-        <v>1.33</v>
-      </c>
-      <c r="X92">
-        <v>8.5</v>
-      </c>
-      <c r="Y92">
-        <v>1.06</v>
-      </c>
-      <c r="Z92">
-        <v>2.91</v>
-      </c>
-      <c r="AA92">
-        <v>3.05</v>
-      </c>
-      <c r="AB92">
-        <v>2.38</v>
-      </c>
-      <c r="AC92">
-        <v>1.01</v>
-      </c>
-      <c r="AD92">
-        <v>7.5</v>
-      </c>
-      <c r="AE92">
-        <v>1.31</v>
-      </c>
-      <c r="AF92">
-        <v>2.82</v>
-      </c>
-      <c r="AG92">
-        <v>2.4</v>
-      </c>
-      <c r="AH92">
-        <v>1.5</v>
-      </c>
-      <c r="AI92">
-        <v>1.76</v>
-      </c>
-      <c r="AJ92">
-        <v>2</v>
-      </c>
-      <c r="AK92">
-        <v>1.53</v>
-      </c>
-      <c r="AL92">
-        <v>1.34</v>
-      </c>
-      <c r="AM92">
-        <v>1.37</v>
-      </c>
-      <c r="AN92">
-        <v>2</v>
-      </c>
-      <c r="AO92">
-        <v>1.33</v>
-      </c>
-      <c r="AP92">
-        <v>1.8</v>
-      </c>
-      <c r="AQ92">
-        <v>1.29</v>
-      </c>
-      <c r="AR92">
-        <v>1.5</v>
-      </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AT92">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="AU92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW92">
+        <v>4</v>
+      </c>
+      <c r="AX92">
+        <v>8</v>
+      </c>
+      <c r="AY92">
         <v>6</v>
       </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
-      <c r="AY92">
+      <c r="AZ92">
         <v>12</v>
       </c>
-      <c r="AZ92">
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
         <v>9</v>
       </c>
-      <c r="BA92">
-        <v>6</v>
-      </c>
-      <c r="BB92">
-        <v>3</v>
-      </c>
       <c r="BC92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD92">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="BE92">
         <v>8</v>
       </c>
       <c r="BF92">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BG92">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BH92">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="BI92">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="BJ92">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="BK92">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="BL92">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="BM92">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="BN92">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="BO92">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="BP92">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19953,7 +19962,7 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45571.3125</v>
+        <v>45570.875</v>
       </c>
       <c r="F93">
         <v>12</v>
@@ -19986,7 +19995,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20079,22 +20088,22 @@
         <v>3</v>
       </c>
       <c r="AU93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV93">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW93">
         <v>3</v>
       </c>
       <c r="AX93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ93">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA93">
         <v>7</v>
@@ -20143,6 +20152,418 @@
       </c>
       <c r="BP93">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7486545</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45571.51041666666</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>148</v>
+      </c>
+      <c r="P94" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q94">
+        <v>3.75</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>2.7</v>
+      </c>
+      <c r="T94">
+        <v>1.42</v>
+      </c>
+      <c r="U94">
+        <v>2.74</v>
+      </c>
+      <c r="V94">
+        <v>2.94</v>
+      </c>
+      <c r="W94">
+        <v>1.37</v>
+      </c>
+      <c r="X94">
+        <v>7.6</v>
+      </c>
+      <c r="Y94">
+        <v>1.07</v>
+      </c>
+      <c r="Z94">
+        <v>3.5</v>
+      </c>
+      <c r="AA94">
+        <v>3.3</v>
+      </c>
+      <c r="AB94">
+        <v>2</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.29</v>
+      </c>
+      <c r="AF94">
+        <v>3.3</v>
+      </c>
+      <c r="AG94">
+        <v>2.05</v>
+      </c>
+      <c r="AH94">
+        <v>1.74</v>
+      </c>
+      <c r="AI94">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.71</v>
+      </c>
+      <c r="AL94">
+        <v>1.29</v>
+      </c>
+      <c r="AM94">
+        <v>1.29</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>1.5</v>
+      </c>
+      <c r="AP94">
+        <v>1.4</v>
+      </c>
+      <c r="AQ94">
+        <v>1.29</v>
+      </c>
+      <c r="AR94">
+        <v>1.89</v>
+      </c>
+      <c r="AS94">
+        <v>1.46</v>
+      </c>
+      <c r="AT94">
+        <v>3.35</v>
+      </c>
+      <c r="AU94">
+        <v>8</v>
+      </c>
+      <c r="AV94">
+        <v>7</v>
+      </c>
+      <c r="AW94">
+        <v>8</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>19</v>
+      </c>
+      <c r="AZ94">
+        <v>15</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>2.05</v>
+      </c>
+      <c r="BE94">
+        <v>7.5</v>
+      </c>
+      <c r="BF94">
+        <v>2</v>
+      </c>
+      <c r="BG94">
+        <v>1.26</v>
+      </c>
+      <c r="BH94">
+        <v>3.08</v>
+      </c>
+      <c r="BI94">
+        <v>1.59</v>
+      </c>
+      <c r="BJ94">
+        <v>2.31</v>
+      </c>
+      <c r="BK94">
+        <v>1.98</v>
+      </c>
+      <c r="BL94">
+        <v>1.82</v>
+      </c>
+      <c r="BM94">
+        <v>2.52</v>
+      </c>
+      <c r="BN94">
+        <v>1.5</v>
+      </c>
+      <c r="BO94">
+        <v>3.35</v>
+      </c>
+      <c r="BP94">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7486539</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45571.625</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95" t="s">
+        <v>149</v>
+      </c>
+      <c r="P95" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q95">
+        <v>1.73</v>
+      </c>
+      <c r="R95">
+        <v>2.4</v>
+      </c>
+      <c r="S95">
+        <v>7.5</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3.15</v>
+      </c>
+      <c r="V95">
+        <v>2.54</v>
+      </c>
+      <c r="W95">
+        <v>1.48</v>
+      </c>
+      <c r="X95">
+        <v>6.05</v>
+      </c>
+      <c r="Y95">
+        <v>1.11</v>
+      </c>
+      <c r="Z95">
+        <v>1.36</v>
+      </c>
+      <c r="AA95">
+        <v>4.6</v>
+      </c>
+      <c r="AB95">
+        <v>7.5</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>11</v>
+      </c>
+      <c r="AE95">
+        <v>1.2</v>
+      </c>
+      <c r="AF95">
+        <v>4</v>
+      </c>
+      <c r="AG95">
+        <v>1.79</v>
+      </c>
+      <c r="AH95">
+        <v>1.98</v>
+      </c>
+      <c r="AI95">
+        <v>2.1</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.05</v>
+      </c>
+      <c r="AL95">
+        <v>1.15</v>
+      </c>
+      <c r="AM95">
+        <v>3.15</v>
+      </c>
+      <c r="AN95">
+        <v>1.33</v>
+      </c>
+      <c r="AO95">
+        <v>0.83</v>
+      </c>
+      <c r="AP95">
+        <v>1.57</v>
+      </c>
+      <c r="AQ95">
+        <v>0.71</v>
+      </c>
+      <c r="AR95">
+        <v>1.89</v>
+      </c>
+      <c r="AS95">
+        <v>1.16</v>
+      </c>
+      <c r="AT95">
+        <v>3.05</v>
+      </c>
+      <c r="AU95">
+        <v>9</v>
+      </c>
+      <c r="AV95">
+        <v>3</v>
+      </c>
+      <c r="AW95">
+        <v>14</v>
+      </c>
+      <c r="AX95">
+        <v>2</v>
+      </c>
+      <c r="AY95">
+        <v>27</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
+        <v>1.26</v>
+      </c>
+      <c r="BE95">
+        <v>10</v>
+      </c>
+      <c r="BF95">
+        <v>4.86</v>
+      </c>
+      <c r="BG95">
+        <v>1.27</v>
+      </c>
+      <c r="BH95">
+        <v>3.04</v>
+      </c>
+      <c r="BI95">
+        <v>1.54</v>
+      </c>
+      <c r="BJ95">
+        <v>2.42</v>
+      </c>
+      <c r="BK95">
+        <v>1.92</v>
+      </c>
+      <c r="BL95">
+        <v>1.88</v>
+      </c>
+      <c r="BM95">
+        <v>2.42</v>
+      </c>
+      <c r="BN95">
+        <v>1.54</v>
+      </c>
+      <c r="BO95">
+        <v>3.28</v>
+      </c>
+      <c r="BP95">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -460,10 +460,10 @@
     <t>['16', '22']</t>
   </si>
   <si>
-    <t>['52', '90']</t>
+    <t>['39', '67', '74']</t>
   </si>
   <si>
-    <t>['39', '67', '74']</t>
+    <t>['52', '90']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -625,10 +625,10 @@
     <t>['52', '63']</t>
   </si>
   <si>
-    <t>['14', '42', '71', '90+8']</t>
+    <t>['5', '87']</t>
   </si>
   <si>
-    <t>['5', '87']</t>
+    <t>['14', '42', '71', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -19953,7 +19953,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7486536</v>
+        <v>7486539</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19968,190 +19968,190 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>2</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O93" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="P93" t="s">
         <v>203</v>
       </c>
       <c r="Q93">
-        <v>3.34</v>
+        <v>1.73</v>
       </c>
       <c r="R93">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="S93">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="T93">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U93">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="V93">
-        <v>3.04</v>
+        <v>2.54</v>
       </c>
       <c r="W93">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="X93">
-        <v>8.1</v>
+        <v>6.05</v>
       </c>
       <c r="Y93">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z93">
-        <v>2.8</v>
+        <v>1.36</v>
       </c>
       <c r="AA93">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="AB93">
-        <v>2.63</v>
+        <v>7.5</v>
       </c>
       <c r="AC93">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD93">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AE93">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AF93">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="AG93">
+        <v>1.79</v>
+      </c>
+      <c r="AH93">
+        <v>1.98</v>
+      </c>
+      <c r="AI93">
         <v>2.1</v>
       </c>
-      <c r="AH93">
-        <v>1.65</v>
-      </c>
-      <c r="AI93">
-        <v>1.83</v>
-      </c>
       <c r="AJ93">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AK93">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="AL93">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AM93">
-        <v>1.44</v>
+        <v>3.15</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO93">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="AS93">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="AT93">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW93">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AX93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY93">
+        <v>20</v>
+      </c>
+      <c r="AZ93">
+        <v>4</v>
+      </c>
+      <c r="BA93">
         <v>8</v>
       </c>
-      <c r="AZ93">
-        <v>8</v>
-      </c>
-      <c r="BA93">
-        <v>7</v>
-      </c>
       <c r="BB93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC93">
         <v>10</v>
       </c>
       <c r="BD93">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="BE93">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="BF93">
-        <v>2.33</v>
+        <v>4.86</v>
       </c>
       <c r="BG93">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH93">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="BI93">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="BJ93">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="BK93">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="BL93">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BM93">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="BN93">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="BO93">
-        <v>3.68</v>
+        <v>3.28</v>
       </c>
       <c r="BP93">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20168,7 +20168,7 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45571.51041666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F94">
         <v>12</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P94" t="s">
         <v>86</v>
@@ -20294,22 +20294,22 @@
         <v>3.35</v>
       </c>
       <c r="AU94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
         <v>7</v>
       </c>
-      <c r="AW94">
-        <v>8</v>
-      </c>
       <c r="AX94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY94">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ94">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA94">
         <v>4</v>
@@ -20365,7 +20365,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7486539</v>
+        <v>7486536</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20374,196 +20374,196 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45571.625</v>
+        <v>45570.875</v>
       </c>
       <c r="F95">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H95" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95">
         <v>2</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O95" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="P95" t="s">
         <v>204</v>
       </c>
       <c r="Q95">
-        <v>1.73</v>
+        <v>3.34</v>
       </c>
       <c r="R95">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="S95">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="T95">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U95">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="V95">
-        <v>2.54</v>
+        <v>3.04</v>
       </c>
       <c r="W95">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="X95">
-        <v>6.05</v>
+        <v>8.1</v>
       </c>
       <c r="Y95">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z95">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
       <c r="AA95">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="AB95">
-        <v>7.5</v>
+        <v>2.63</v>
       </c>
       <c r="AC95">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD95">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AE95">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AF95">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="AG95">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="AH95">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="AI95">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AJ95">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AK95">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="AL95">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AM95">
-        <v>3.15</v>
+        <v>1.44</v>
       </c>
       <c r="AN95">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO95">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>1.16</v>
+        <v>1.75</v>
       </c>
       <c r="AT95">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
         <v>3</v>
       </c>
-      <c r="AW95">
-        <v>14</v>
-      </c>
       <c r="AX95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY95">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AZ95">
         <v>8</v>
       </c>
       <c r="BA95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC95">
         <v>10</v>
       </c>
       <c r="BD95">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="BE95">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF95">
-        <v>4.86</v>
+        <v>2.33</v>
       </c>
       <c r="BG95">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH95">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="BI95">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="BJ95">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="BK95">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="BL95">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BM95">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="BN95">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="BO95">
-        <v>3.28</v>
+        <v>3.68</v>
       </c>
       <c r="BP95">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -451,19 +451,19 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['16', '22']</t>
+  </si>
+  <si>
     <t>['10', '16']</t>
   </si>
   <si>
     <t>['5']</t>
   </si>
   <si>
-    <t>['16', '22']</t>
+    <t>['52', '90']</t>
   </si>
   <si>
     <t>['39', '67', '74']</t>
-  </si>
-  <si>
-    <t>['52', '90']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -616,19 +616,19 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['52', '63']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
     <t>['14']</t>
   </si>
   <si>
-    <t>['52', '63']</t>
+    <t>['14', '42', '71', '90+8']</t>
   </si>
   <si>
     <t>['5', '87']</t>
-  </si>
-  <si>
-    <t>['14', '42', '71', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -19335,7 +19335,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7486972</v>
+        <v>7486556</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19344,16 +19344,16 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45569.875</v>
+        <v>45570.44791666666</v>
       </c>
       <c r="F90">
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -19368,10 +19368,10 @@
         <v>2</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O90" t="s">
         <v>145</v>
@@ -19380,130 +19380,130 @@
         <v>200</v>
       </c>
       <c r="Q90">
+        <v>4.5</v>
+      </c>
+      <c r="R90">
+        <v>2.02</v>
+      </c>
+      <c r="S90">
+        <v>2.65</v>
+      </c>
+      <c r="T90">
+        <v>1.43</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>3.3</v>
+      </c>
+      <c r="W90">
+        <v>1.29</v>
+      </c>
+      <c r="X90">
+        <v>9.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.05</v>
+      </c>
+      <c r="Z90">
+        <v>3.7</v>
+      </c>
+      <c r="AA90">
+        <v>3.2</v>
+      </c>
+      <c r="AB90">
         <v>1.95</v>
       </c>
-      <c r="R90">
-        <v>2.33</v>
-      </c>
-      <c r="S90">
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
         <v>6.4</v>
       </c>
-      <c r="T90">
-        <v>1.29</v>
-      </c>
-      <c r="U90">
-        <v>3.25</v>
-      </c>
-      <c r="V90">
-        <v>2.5</v>
-      </c>
-      <c r="W90">
-        <v>1.46</v>
-      </c>
-      <c r="X90">
-        <v>6.4</v>
-      </c>
-      <c r="Y90">
+      <c r="AE90">
+        <v>1.41</v>
+      </c>
+      <c r="AF90">
+        <v>2.45</v>
+      </c>
+      <c r="AG90">
+        <v>2.2</v>
+      </c>
+      <c r="AH90">
+        <v>1.6</v>
+      </c>
+      <c r="AI90">
+        <v>1.95</v>
+      </c>
+      <c r="AJ90">
+        <v>1.81</v>
+      </c>
+      <c r="AK90">
+        <v>1.76</v>
+      </c>
+      <c r="AL90">
+        <v>1.33</v>
+      </c>
+      <c r="AM90">
+        <v>1.24</v>
+      </c>
+      <c r="AN90">
+        <v>0.8</v>
+      </c>
+      <c r="AO90">
+        <v>1.71</v>
+      </c>
+      <c r="AP90">
+        <v>0.83</v>
+      </c>
+      <c r="AQ90">
+        <v>1.63</v>
+      </c>
+      <c r="AR90">
+        <v>1.38</v>
+      </c>
+      <c r="AS90">
         <v>1.1</v>
       </c>
-      <c r="Z90">
-        <v>1.35</v>
-      </c>
-      <c r="AA90">
-        <v>4.5</v>
-      </c>
-      <c r="AB90">
-        <v>7.5</v>
-      </c>
-      <c r="AC90">
-        <v>1.01</v>
-      </c>
-      <c r="AD90">
+      <c r="AT90">
+        <v>2.48</v>
+      </c>
+      <c r="AU90">
+        <v>2</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>8</v>
+      </c>
+      <c r="AY90">
+        <v>6</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>2</v>
+      </c>
+      <c r="BB90">
+        <v>9</v>
+      </c>
+      <c r="BC90">
         <v>11</v>
       </c>
-      <c r="AE90">
-        <v>1.18</v>
-      </c>
-      <c r="AF90">
-        <v>3.74</v>
-      </c>
-      <c r="AG90">
-        <v>1.92</v>
-      </c>
-      <c r="AH90">
-        <v>1.82</v>
-      </c>
-      <c r="AI90">
-        <v>1.8</v>
-      </c>
-      <c r="AJ90">
-        <v>1.96</v>
-      </c>
-      <c r="AK90">
-        <v>1.07</v>
-      </c>
-      <c r="AL90">
-        <v>1.22</v>
-      </c>
-      <c r="AM90">
-        <v>2.7</v>
-      </c>
-      <c r="AN90">
-        <v>1.43</v>
-      </c>
-      <c r="AO90">
-        <v>0.8</v>
-      </c>
-      <c r="AP90">
-        <v>1.63</v>
-      </c>
-      <c r="AQ90">
-        <v>0.67</v>
-      </c>
-      <c r="AR90">
-        <v>1.87</v>
-      </c>
-      <c r="AS90">
-        <v>1.6</v>
-      </c>
-      <c r="AT90">
-        <v>3.47</v>
-      </c>
-      <c r="AU90">
-        <v>2</v>
-      </c>
-      <c r="AV90">
-        <v>6</v>
-      </c>
-      <c r="AW90">
-        <v>3</v>
-      </c>
-      <c r="AX90">
-        <v>7</v>
-      </c>
-      <c r="AY90">
-        <v>5</v>
-      </c>
-      <c r="AZ90">
-        <v>13</v>
-      </c>
-      <c r="BA90">
-        <v>6</v>
-      </c>
-      <c r="BB90">
-        <v>3</v>
-      </c>
-      <c r="BC90">
-        <v>9</v>
-      </c>
       <c r="BD90">
-        <v>1.34</v>
+        <v>2.77</v>
       </c>
       <c r="BE90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF90">
-        <v>4.09</v>
+        <v>1.64</v>
       </c>
       <c r="BG90">
         <v>1.28</v>
@@ -19512,28 +19512,28 @@
         <v>2.94</v>
       </c>
       <c r="BI90">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="BJ90">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="BK90">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="BL90">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="BM90">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="BN90">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="BO90">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="BP90">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19541,7 +19541,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7486549</v>
+        <v>7486972</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19550,34 +19550,34 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45569.875</v>
+        <v>45570.54166666666</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H91" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O91" t="s">
         <v>146</v>
@@ -19586,112 +19586,112 @@
         <v>201</v>
       </c>
       <c r="Q91">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="R91">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="S91">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="T91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="U91">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="V91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W91">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X91">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y91">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z91">
-        <v>2.91</v>
+        <v>1.35</v>
       </c>
       <c r="AA91">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="AB91">
-        <v>2.38</v>
+        <v>7.5</v>
       </c>
       <c r="AC91">
         <v>1.01</v>
       </c>
       <c r="AD91">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AE91">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AF91">
-        <v>2.82</v>
+        <v>3.74</v>
       </c>
       <c r="AG91">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AH91">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AI91">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AJ91">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AK91">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="AL91">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AM91">
-        <v>1.37</v>
+        <v>2.7</v>
       </c>
       <c r="AN91">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO91">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="AS91">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
+        <v>3.47</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
         <v>3</v>
       </c>
-      <c r="AU91">
-        <v>0</v>
-      </c>
-      <c r="AV91">
-        <v>2</v>
-      </c>
-      <c r="AW91">
-        <v>8</v>
-      </c>
       <c r="AX91">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY91">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ91">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BA91">
         <v>6</v>
@@ -19703,31 +19703,31 @@
         <v>9</v>
       </c>
       <c r="BD91">
-        <v>2.52</v>
+        <v>1.34</v>
       </c>
       <c r="BE91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF91">
-        <v>1.75</v>
+        <v>4.09</v>
       </c>
       <c r="BG91">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BH91">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="BI91">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BJ91">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="BK91">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="BL91">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="BM91">
         <v>2.5</v>
@@ -19747,7 +19747,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7486556</v>
+        <v>7486549</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19756,34 +19756,34 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45569.875</v>
+        <v>45570.64583333334</v>
       </c>
       <c r="F92">
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>2</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O92" t="s">
         <v>147</v>
@@ -19792,160 +19792,160 @@
         <v>202</v>
       </c>
       <c r="Q92">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="R92">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S92">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="T92">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="U92">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="V92">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="W92">
+        <v>1.33</v>
+      </c>
+      <c r="X92">
+        <v>8.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.06</v>
+      </c>
+      <c r="Z92">
+        <v>2.91</v>
+      </c>
+      <c r="AA92">
+        <v>3.05</v>
+      </c>
+      <c r="AB92">
+        <v>2.38</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>7.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.31</v>
+      </c>
+      <c r="AF92">
+        <v>2.82</v>
+      </c>
+      <c r="AG92">
+        <v>2.4</v>
+      </c>
+      <c r="AH92">
+        <v>1.5</v>
+      </c>
+      <c r="AI92">
+        <v>1.76</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>1.53</v>
+      </c>
+      <c r="AL92">
+        <v>1.34</v>
+      </c>
+      <c r="AM92">
+        <v>1.37</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
+        <v>1.8</v>
+      </c>
+      <c r="AQ92">
         <v>1.29</v>
       </c>
-      <c r="X92">
-        <v>9.5</v>
-      </c>
-      <c r="Y92">
-        <v>1.05</v>
-      </c>
-      <c r="Z92">
-        <v>3.7</v>
-      </c>
-      <c r="AA92">
-        <v>3.2</v>
-      </c>
-      <c r="AB92">
-        <v>1.95</v>
-      </c>
-      <c r="AC92">
-        <v>1.04</v>
-      </c>
-      <c r="AD92">
-        <v>6.4</v>
-      </c>
-      <c r="AE92">
-        <v>1.41</v>
-      </c>
-      <c r="AF92">
-        <v>2.45</v>
-      </c>
-      <c r="AG92">
-        <v>2.2</v>
-      </c>
-      <c r="AH92">
-        <v>1.6</v>
-      </c>
-      <c r="AI92">
-        <v>1.95</v>
-      </c>
-      <c r="AJ92">
-        <v>1.81</v>
-      </c>
-      <c r="AK92">
-        <v>1.76</v>
-      </c>
-      <c r="AL92">
-        <v>1.33</v>
-      </c>
-      <c r="AM92">
-        <v>1.24</v>
-      </c>
-      <c r="AN92">
-        <v>0.8</v>
-      </c>
-      <c r="AO92">
-        <v>1.71</v>
-      </c>
-      <c r="AP92">
-        <v>0.83</v>
-      </c>
-      <c r="AQ92">
-        <v>1.63</v>
-      </c>
       <c r="AR92">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="AU92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
         <v>8</v>
       </c>
-      <c r="AY92">
+      <c r="AZ92">
+        <v>3</v>
+      </c>
+      <c r="BA92">
         <v>6</v>
       </c>
-      <c r="AZ92">
-        <v>12</v>
-      </c>
-      <c r="BA92">
-        <v>2</v>
-      </c>
       <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
         <v>9</v>
       </c>
-      <c r="BC92">
-        <v>11</v>
-      </c>
       <c r="BD92">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="BE92">
         <v>8</v>
       </c>
       <c r="BF92">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="BG92">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BH92">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="BI92">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="BJ92">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="BK92">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="BL92">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="BM92">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="BN92">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="BO92">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="BP92">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19953,7 +19953,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7486539</v>
+        <v>7486536</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19962,196 +19962,196 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45570.875</v>
+        <v>45571.3125</v>
       </c>
       <c r="F93">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H93" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93">
         <v>2</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O93" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="P93" t="s">
         <v>203</v>
       </c>
       <c r="Q93">
-        <v>1.73</v>
+        <v>3.34</v>
       </c>
       <c r="R93">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="S93">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="T93">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U93">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="V93">
-        <v>2.54</v>
+        <v>3.04</v>
       </c>
       <c r="W93">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="X93">
-        <v>6.05</v>
+        <v>8.1</v>
       </c>
       <c r="Y93">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z93">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
       <c r="AA93">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="AB93">
-        <v>7.5</v>
+        <v>2.63</v>
       </c>
       <c r="AC93">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD93">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AE93">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AF93">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="AG93">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="AH93">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="AI93">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AJ93">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AK93">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="AL93">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AM93">
-        <v>3.15</v>
+        <v>1.44</v>
       </c>
       <c r="AN93">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.16</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
         <v>7</v>
       </c>
-      <c r="AV93">
-        <v>0</v>
-      </c>
-      <c r="AW93">
-        <v>13</v>
-      </c>
-      <c r="AX93">
-        <v>4</v>
-      </c>
-      <c r="AY93">
-        <v>20</v>
-      </c>
-      <c r="AZ93">
-        <v>4</v>
-      </c>
-      <c r="BA93">
-        <v>8</v>
-      </c>
       <c r="BB93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC93">
         <v>10</v>
       </c>
       <c r="BD93">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="BE93">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF93">
-        <v>4.86</v>
+        <v>2.33</v>
       </c>
       <c r="BG93">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH93">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="BI93">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="BJ93">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="BK93">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="BL93">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BM93">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="BN93">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="BO93">
-        <v>3.28</v>
+        <v>3.68</v>
       </c>
       <c r="BP93">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20168,7 +20168,7 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45570.875</v>
+        <v>45571.51041666666</v>
       </c>
       <c r="F94">
         <v>12</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P94" t="s">
         <v>86</v>
@@ -20365,7 +20365,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7486536</v>
+        <v>7486539</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20374,196 +20374,196 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45570.875</v>
+        <v>45571.625</v>
       </c>
       <c r="F95">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H95" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>2</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O95" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="P95" t="s">
         <v>204</v>
       </c>
       <c r="Q95">
-        <v>3.34</v>
+        <v>1.73</v>
       </c>
       <c r="R95">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="S95">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="T95">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U95">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="V95">
-        <v>3.04</v>
+        <v>2.54</v>
       </c>
       <c r="W95">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="X95">
-        <v>8.1</v>
+        <v>6.05</v>
       </c>
       <c r="Y95">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z95">
-        <v>2.8</v>
+        <v>1.36</v>
       </c>
       <c r="AA95">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="AB95">
-        <v>2.63</v>
+        <v>7.5</v>
       </c>
       <c r="AC95">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD95">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AE95">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AF95">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="AG95">
+        <v>1.79</v>
+      </c>
+      <c r="AH95">
+        <v>1.98</v>
+      </c>
+      <c r="AI95">
         <v>2.1</v>
       </c>
-      <c r="AH95">
-        <v>1.65</v>
-      </c>
-      <c r="AI95">
-        <v>1.83</v>
-      </c>
       <c r="AJ95">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AK95">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="AL95">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AM95">
-        <v>1.44</v>
+        <v>3.15</v>
       </c>
       <c r="AN95">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO95">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="AS95">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="AT95">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW95">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AX95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY95">
+        <v>20</v>
+      </c>
+      <c r="AZ95">
+        <v>4</v>
+      </c>
+      <c r="BA95">
         <v>8</v>
       </c>
-      <c r="AZ95">
-        <v>8</v>
-      </c>
-      <c r="BA95">
-        <v>7</v>
-      </c>
       <c r="BB95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC95">
         <v>10</v>
       </c>
       <c r="BD95">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="BE95">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="BF95">
-        <v>2.33</v>
+        <v>4.86</v>
       </c>
       <c r="BG95">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH95">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="BI95">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="BJ95">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="BK95">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="BL95">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BM95">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="BN95">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="BO95">
-        <v>3.68</v>
+        <v>3.28</v>
       </c>
       <c r="BP95">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV2">
         <v>3</v>
@@ -1354,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ2">
         <v>8</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV4">
         <v>6</v>
@@ -1766,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="AY4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ4">
         <v>19</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV5">
         <v>7</v>
@@ -1969,13 +1969,13 @@
         <v>5</v>
       </c>
       <c r="AX5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -5071,10 +5071,10 @@
         <v>7</v>
       </c>
       <c r="BB20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD20">
         <v>1.75</v>
@@ -5247,13 +5247,13 @@
         <v>0.71</v>
       </c>
       <c r="AR21">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="AS21">
         <v>0.85</v>
       </c>
       <c r="AT21">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5453,13 +5453,13 @@
         <v>0.67</v>
       </c>
       <c r="AR22">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="AS22">
         <v>0.77</v>
       </c>
       <c r="AT22">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU22">
         <v>2</v>
@@ -5865,13 +5865,13 @@
         <v>1.63</v>
       </c>
       <c r="AR24">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AS24">
         <v>0.54</v>
       </c>
       <c r="AT24">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6074,10 +6074,10 @@
         <v>0.95</v>
       </c>
       <c r="AS25">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6689,13 +6689,13 @@
         <v>0.67</v>
       </c>
       <c r="AR28">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="AS28">
         <v>1.82</v>
       </c>
       <c r="AT28">
-        <v>3.63</v>
+        <v>3.56</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -8131,13 +8131,13 @@
         <v>1.67</v>
       </c>
       <c r="AR35">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AS35">
         <v>1.38</v>
       </c>
       <c r="AT35">
-        <v>2.89</v>
+        <v>2.83</v>
       </c>
       <c r="AU35">
         <v>8</v>
@@ -8340,10 +8340,10 @@
         <v>1.67</v>
       </c>
       <c r="AS36">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8543,13 +8543,13 @@
         <v>1.29</v>
       </c>
       <c r="AR37">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AS37">
         <v>1.78</v>
       </c>
       <c r="AT37">
-        <v>3.23</v>
+        <v>3.17</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9170,22 +9170,22 @@
         <v>2.37</v>
       </c>
       <c r="AU40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY40">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AZ40">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -10603,13 +10603,13 @@
         <v>0.2</v>
       </c>
       <c r="AR47">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AS47">
         <v>0.92</v>
       </c>
       <c r="AT47">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -11018,10 +11018,10 @@
         <v>1.48</v>
       </c>
       <c r="AS49">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AT49">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="AU49">
         <v>9</v>
@@ -11221,13 +11221,13 @@
         <v>1.17</v>
       </c>
       <c r="AR50">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AS50">
         <v>1.28</v>
       </c>
       <c r="AT50">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -12251,13 +12251,13 @@
         <v>0.6</v>
       </c>
       <c r="AR55">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AS55">
         <v>1.34</v>
       </c>
       <c r="AT55">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12872,10 +12872,10 @@
         <v>2.03</v>
       </c>
       <c r="AS58">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13281,13 +13281,13 @@
         <v>1.67</v>
       </c>
       <c r="AR60">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AS60">
         <v>1.23</v>
       </c>
       <c r="AT60">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -14105,13 +14105,13 @@
         <v>0.67</v>
       </c>
       <c r="AR64">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AS64">
         <v>0.88</v>
       </c>
       <c r="AT64">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -15341,13 +15341,13 @@
         <v>0.2</v>
       </c>
       <c r="AR70">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AS70">
         <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -16577,13 +16577,13 @@
         <v>1.17</v>
       </c>
       <c r="AR76">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AS76">
         <v>1.67</v>
       </c>
       <c r="AT76">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -16989,13 +16989,13 @@
         <v>0.67</v>
       </c>
       <c r="AR78">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS78">
         <v>1.53</v>
       </c>
       <c r="AT78">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="AU78">
         <v>9</v>
@@ -17198,10 +17198,10 @@
         <v>1.52</v>
       </c>
       <c r="AS79">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT79">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -18637,13 +18637,13 @@
         <v>1.25</v>
       </c>
       <c r="AR86">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS86">
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19049,13 +19049,13 @@
         <v>1.33</v>
       </c>
       <c r="AR88">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="AS88">
         <v>1.39</v>
       </c>
       <c r="AT88">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19255,13 +19255,13 @@
         <v>0.71</v>
       </c>
       <c r="AR89">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AS89">
         <v>1.09</v>
       </c>
       <c r="AT89">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19470,22 +19470,22 @@
         <v>2.48</v>
       </c>
       <c r="AU90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY90">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ90">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA90">
         <v>2</v>
@@ -19676,22 +19676,22 @@
         <v>3.47</v>
       </c>
       <c r="AU91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW91">
         <v>3</v>
       </c>
       <c r="AX91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ91">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA91">
         <v>6</v>
@@ -19882,22 +19882,22 @@
         <v>3</v>
       </c>
       <c r="AU92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY92">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ92">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA92">
         <v>6</v>
@@ -20088,22 +20088,22 @@
         <v>3</v>
       </c>
       <c r="AU93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW93">
         <v>3</v>
       </c>
       <c r="AX93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ93">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA93">
         <v>7</v>
@@ -20288,28 +20288,28 @@
         <v>1.89</v>
       </c>
       <c r="AS94">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="AU94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY94">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ94">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA94">
         <v>4</v>
@@ -20500,22 +20500,22 @@
         <v>3.05</v>
       </c>
       <c r="AU95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW95">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY95">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AZ95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA95">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2975,19 +2975,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3175,25 +3175,25 @@
         <v>1.13</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3381,25 +3381,25 @@
         <v>2.1</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AU12">
         <v>9</v>
@@ -3587,25 +3587,25 @@
         <v>1.4</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AU13">
         <v>8</v>
@@ -3793,25 +3793,25 @@
         <v>1.72</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="AQ14">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -4002,22 +4002,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -4205,25 +4205,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4411,25 +4411,25 @@
         <v>1.55</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>1.08</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AU17">
         <v>3</v>
@@ -4617,25 +4617,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="AS18">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AT18">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4826,22 +4826,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>1.45</v>
+      </c>
+      <c r="AQ19">
+        <v>1.73</v>
+      </c>
+      <c r="AR19">
+        <v>1.51</v>
+      </c>
+      <c r="AS19">
+        <v>1.49</v>
+      </c>
+      <c r="AT19">
         <v>3</v>
-      </c>
-      <c r="AP19">
-        <v>1.57</v>
-      </c>
-      <c r="AQ19">
-        <v>1.67</v>
-      </c>
-      <c r="AR19">
-        <v>1.85</v>
-      </c>
-      <c r="AS19">
-        <v>1.69</v>
-      </c>
-      <c r="AT19">
-        <v>3.54</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5029,25 +5029,25 @@
         <v>1.6</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>1.19</v>
       </c>
       <c r="AT20">
-        <v>2.16</v>
+        <v>2.83</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5238,22 +5238,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP21">
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AS21">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="AT21">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5441,25 +5441,25 @@
         <v>2.35</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AS22">
-        <v>0.77</v>
+        <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>2.66</v>
+        <v>2.97</v>
       </c>
       <c r="AU22">
         <v>2</v>
@@ -5647,25 +5647,25 @@
         <v>1.95</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="AS23">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AT23">
-        <v>4.23</v>
+        <v>3.77</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5853,25 +5853,25 @@
         <v>1.36</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR24">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AS24">
-        <v>0.54</v>
+        <v>1.06</v>
       </c>
       <c r="AT24">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6059,25 +6059,25 @@
         <v>1.26</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AR25">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AS25">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AT25">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6265,25 +6265,25 @@
         <v>1.63</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ26">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="AR26">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS26">
-        <v>0.91</v>
+        <v>1.11</v>
       </c>
       <c r="AT26">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6471,25 +6471,25 @@
         <v>1.75</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AS27">
-        <v>0.99</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6677,25 +6677,25 @@
         <v>2.25</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AS28">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AT28">
-        <v>3.56</v>
+        <v>3.31</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6883,25 +6883,25 @@
         <v>2.35</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="AS29">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="AT29">
-        <v>2.74</v>
+        <v>2.63</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7089,25 +7089,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR30">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS30">
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7295,25 +7295,25 @@
         <v>1.45</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP31">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AT31">
-        <v>2.13</v>
+        <v>2.7</v>
       </c>
       <c r="AU31">
         <v>3</v>
@@ -7501,25 +7501,25 @@
         <v>1.72</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AQ32">
         <v>1.17</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AS32">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="AT32">
-        <v>3.44</v>
+        <v>3.16</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>2</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO33">
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>1.08</v>
       </c>
       <c r="AR33">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AS33">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AT33">
-        <v>3.79</v>
+        <v>3.46</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -7913,25 +7913,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR34">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AS34">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8119,25 +8119,25 @@
         <v>1.47</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AR35">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AT35">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AU35">
         <v>8</v>
@@ -8325,25 +8325,25 @@
         <v>1.25</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AR36">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="AS36">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT36">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8540,16 +8540,16 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="AS37">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AT37">
-        <v>3.17</v>
+        <v>3.39</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8740,22 +8740,22 @@
         <v>1</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AS38">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AT38">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -8943,25 +8943,25 @@
         <v>1.34</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR39">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AS39">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT39">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9149,25 +9149,25 @@
         <v>1.44</v>
       </c>
       <c r="AN40">
+        <v>0.75</v>
+      </c>
+      <c r="AO40">
+        <v>1.75</v>
+      </c>
+      <c r="AP40">
+        <v>1.17</v>
+      </c>
+      <c r="AQ40">
         <v>1.5</v>
       </c>
-      <c r="AO40">
-        <v>0.5</v>
-      </c>
-      <c r="AP40">
-        <v>1.67</v>
-      </c>
-      <c r="AQ40">
-        <v>0.71</v>
-      </c>
       <c r="AR40">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS40">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9355,25 +9355,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS41">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AT41">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -9561,25 +9561,25 @@
         <v>2.35</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AS42">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="AT42">
-        <v>2.71</v>
+        <v>2.82</v>
       </c>
       <c r="AU42">
         <v>12</v>
@@ -9767,25 +9767,25 @@
         <v>1.7</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.49</v>
       </c>
       <c r="AT43">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9973,25 +9973,25 @@
         <v>2.6</v>
       </c>
       <c r="AN44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP44">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="AS44">
         <v>1.49</v>
       </c>
       <c r="AT44">
-        <v>3.72</v>
+        <v>3.45</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10179,25 +10179,25 @@
         <v>2</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO45">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AS45">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AT45">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10385,25 +10385,25 @@
         <v>1.62</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
       </c>
       <c r="AR46">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AS46">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT46">
-        <v>3.5</v>
+        <v>2.97</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10591,25 +10591,25 @@
         <v>2.02</v>
       </c>
       <c r="AN47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="AR47">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AS47">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT47">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10797,25 +10797,25 @@
         <v>1.45</v>
       </c>
       <c r="AN48">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AR48">
-        <v>0.93</v>
+        <v>1.12</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT48">
-        <v>2.31</v>
+        <v>2.53</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11003,25 +11003,25 @@
         <v>1.36</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AR49">
+        <v>1.44</v>
+      </c>
+      <c r="AS49">
         <v>1.48</v>
       </c>
-      <c r="AS49">
-        <v>1.61</v>
-      </c>
       <c r="AT49">
-        <v>3.09</v>
+        <v>2.92</v>
       </c>
       <c r="AU49">
         <v>9</v>
@@ -11212,22 +11212,22 @@
         <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP50">
         <v>1.17</v>
       </c>
       <c r="AQ50">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR50">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AS50">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT50">
-        <v>2.99</v>
+        <v>3.08</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11415,25 +11415,25 @@
         <v>1.4</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AS51">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="AT51">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11621,25 +11621,25 @@
         <v>2.49</v>
       </c>
       <c r="AN52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AS52">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -11827,25 +11827,25 @@
         <v>1.2</v>
       </c>
       <c r="AN53">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AR53">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS53">
-        <v>1.17</v>
+        <v>1.88</v>
       </c>
       <c r="AT53">
-        <v>2.36</v>
+        <v>3.01</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12033,25 +12033,25 @@
         <v>1.24</v>
       </c>
       <c r="AN54">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR54">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AS54">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AT54">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12242,19 +12242,19 @@
         <v>1</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>0.6</v>
+        <v>1.08</v>
       </c>
       <c r="AR55">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AS55">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="AT55">
         <v>3.05</v>
@@ -12448,22 +12448,22 @@
         <v>2</v>
       </c>
       <c r="AO56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
       </c>
       <c r="AR56">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AT56">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12651,25 +12651,25 @@
         <v>1.68</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO57">
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AQ57">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AS57">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AT57">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12857,25 +12857,25 @@
         <v>1.68</v>
       </c>
       <c r="AN58">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AR58">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="AS58">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AT58">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13063,25 +13063,25 @@
         <v>1.46</v>
       </c>
       <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1.43</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
         <v>1.5</v>
       </c>
-      <c r="AO59">
-        <v>1.33</v>
-      </c>
-      <c r="AP59">
-        <v>1.4</v>
-      </c>
-      <c r="AQ59">
-        <v>1.33</v>
-      </c>
       <c r="AR59">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="AS59">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AT59">
-        <v>3.1</v>
+        <v>2.29</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13269,25 +13269,25 @@
         <v>1.45</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AR60">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AS60">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="AT60">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13475,22 +13475,22 @@
         <v>2.6</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="AS61">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AT61">
         <v>3.27</v>
@@ -13681,25 +13681,25 @@
         <v>1.71</v>
       </c>
       <c r="AN62">
-        <v>0.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
         <v>0.83</v>
       </c>
-      <c r="AQ62">
-        <v>0.71</v>
-      </c>
       <c r="AR62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AS62">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AT62">
-        <v>2.43</v>
+        <v>2.54</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13887,25 +13887,25 @@
         <v>1.94</v>
       </c>
       <c r="AN63">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="AQ63">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AS63">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AT63">
-        <v>2.67</v>
+        <v>2.37</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14096,22 +14096,22 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AP64">
         <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AS64">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="AT64">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14299,25 +14299,25 @@
         <v>1.95</v>
       </c>
       <c r="AN65">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP65">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AS65">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AT65">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14505,25 +14505,25 @@
         <v>1.25</v>
       </c>
       <c r="AN66">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AR66">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="AS66">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -14711,25 +14711,25 @@
         <v>1.4</v>
       </c>
       <c r="AN67">
+        <v>1.63</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
         <v>1.5</v>
       </c>
-      <c r="AO67">
-        <v>0.67</v>
-      </c>
-      <c r="AP67">
-        <v>1.67</v>
-      </c>
       <c r="AQ67">
-        <v>0.6</v>
+        <v>1.08</v>
       </c>
       <c r="AR67">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT67">
-        <v>2.47</v>
+        <v>2.78</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -14917,25 +14917,25 @@
         <v>1.25</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO68">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP68">
+        <v>1.17</v>
+      </c>
+      <c r="AQ68">
         <v>1.67</v>
       </c>
-      <c r="AQ68">
-        <v>1.29</v>
-      </c>
       <c r="AR68">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AS68">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AT68">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15123,25 +15123,25 @@
         <v>1.57</v>
       </c>
       <c r="AN69">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AR69">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="AS69">
-        <v>1.42</v>
+        <v>1.87</v>
       </c>
       <c r="AT69">
-        <v>3.32</v>
+        <v>3.59</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15329,25 +15329,25 @@
         <v>1.5</v>
       </c>
       <c r="AN70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP70">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="AR70">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AS70">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AT70">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15535,25 +15535,25 @@
         <v>1.78</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO71">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR71">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS71">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AT71">
-        <v>2.48</v>
+        <v>2.59</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15741,25 +15741,25 @@
         <v>1.8</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO72">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR72">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="AS72">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT72">
-        <v>2.91</v>
+        <v>2.57</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -15947,25 +15947,25 @@
         <v>1.62</v>
       </c>
       <c r="AN73">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO73">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS73">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT73">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16153,25 +16153,25 @@
         <v>1.25</v>
       </c>
       <c r="AN74">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO74">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AQ74">
+        <v>1.64</v>
+      </c>
+      <c r="AR74">
+        <v>1.35</v>
+      </c>
+      <c r="AS74">
         <v>1.67</v>
       </c>
-      <c r="AR74">
-        <v>1.37</v>
-      </c>
-      <c r="AS74">
-        <v>1.29</v>
-      </c>
       <c r="AT74">
-        <v>2.66</v>
+        <v>3.02</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16359,25 +16359,25 @@
         <v>2.45</v>
       </c>
       <c r="AN75">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AO75">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="AS75">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AT75">
-        <v>3.43</v>
+        <v>3.03</v>
       </c>
       <c r="AU75">
         <v>5</v>
@@ -16565,25 +16565,25 @@
         <v>1.62</v>
       </c>
       <c r="AN76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
       </c>
       <c r="AR76">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT76">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -16771,25 +16771,25 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO77">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AS77">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="AT77">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -16977,25 +16977,25 @@
         <v>1.71</v>
       </c>
       <c r="AN78">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO78">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AS78">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AT78">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="AU78">
         <v>9</v>
@@ -17183,25 +17183,25 @@
         <v>1.22</v>
       </c>
       <c r="AN79">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO79">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AR79">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AS79">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AT79">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17389,25 +17389,25 @@
         <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO80">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="AR80">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AS80">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AT80">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="AU80">
         <v>10</v>
@@ -17595,25 +17595,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO81">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AP81">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR81">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AS81">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AT81">
-        <v>2.29</v>
+        <v>2.58</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -17801,25 +17801,25 @@
         <v>1.3</v>
       </c>
       <c r="AN82">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AO82">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR82">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AS82">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AT82">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AU82">
         <v>2</v>
@@ -18010,22 +18010,22 @@
         <v>1.67</v>
       </c>
       <c r="AO83">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AP83">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="AS83">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="AT83">
-        <v>2.98</v>
+        <v>3.21</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18213,25 +18213,25 @@
         <v>1.95</v>
       </c>
       <c r="AN84">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AR84">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AS84">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AT84">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18419,25 +18419,25 @@
         <v>1.25</v>
       </c>
       <c r="AN85">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AO85">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>1.08</v>
       </c>
       <c r="AR85">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AS85">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AT85">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU85">
         <v>5</v>
@@ -18625,25 +18625,25 @@
         <v>1.44</v>
       </c>
       <c r="AN86">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AO86">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="AP86">
         <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AR86">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AS86">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="AT86">
-        <v>2.99</v>
+        <v>3.39</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -18831,25 +18831,25 @@
         <v>2.9</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO87">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AP87">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR87">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="AS87">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>3.28</v>
+        <v>3.04</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19037,25 +19037,25 @@
         <v>1.52</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AO88">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AS88">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT88">
-        <v>3.05</v>
+        <v>2.79</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19243,22 +19243,22 @@
         <v>1.86</v>
       </c>
       <c r="AN89">
+        <v>1.09</v>
+      </c>
+      <c r="AO89">
+        <v>1.55</v>
+      </c>
+      <c r="AP89">
+        <v>1.08</v>
+      </c>
+      <c r="AQ89">
         <v>1.5</v>
       </c>
-      <c r="AO89">
-        <v>0.67</v>
-      </c>
-      <c r="AP89">
-        <v>1.43</v>
-      </c>
-      <c r="AQ89">
-        <v>0.71</v>
-      </c>
       <c r="AR89">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AS89">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="AT89">
         <v>2.69</v>
@@ -19449,25 +19449,25 @@
         <v>1.24</v>
       </c>
       <c r="AN90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO90">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR90">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT90">
-        <v>2.48</v>
+        <v>2.53</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19655,25 +19655,25 @@
         <v>2.7</v>
       </c>
       <c r="AN91">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AO91">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AP91">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AS91">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT91">
-        <v>3.47</v>
+        <v>3.35</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -19861,25 +19861,25 @@
         <v>1.37</v>
       </c>
       <c r="AN92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO92">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ92">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT92">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20067,25 +20067,25 @@
         <v>1.44</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="AO93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AQ93">
         <v>1.17</v>
       </c>
       <c r="AR93">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AS93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT93">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20273,25 +20273,25 @@
         <v>1.29</v>
       </c>
       <c r="AN94">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO94">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AR94">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="AS94">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AT94">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
       <c r="AU94">
         <v>8</v>
@@ -20479,25 +20479,25 @@
         <v>3.15</v>
       </c>
       <c r="AN95">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AO95">
+        <v>0.91</v>
+      </c>
+      <c r="AP95">
+        <v>1.45</v>
+      </c>
+      <c r="AQ95">
         <v>0.83</v>
       </c>
-      <c r="AP95">
-        <v>1.57</v>
-      </c>
-      <c r="AQ95">
-        <v>0.71</v>
-      </c>
       <c r="AR95">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="AS95">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="AU95">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ6">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2975,19 +2975,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3175,25 +3175,25 @@
         <v>1.13</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3381,25 +3381,25 @@
         <v>2.1</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>9</v>
@@ -3587,25 +3587,25 @@
         <v>1.4</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>8</v>
@@ -3793,25 +3793,25 @@
         <v>1.72</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>1.08</v>
+        <v>0.2</v>
       </c>
       <c r="AR14">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -4002,22 +4002,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -4205,25 +4205,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
       </c>
       <c r="AR16">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4411,25 +4411,25 @@
         <v>1.55</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>3</v>
@@ -4617,25 +4617,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AS18">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="AT18">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4826,22 +4826,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AS19">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AT19">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5029,25 +5029,25 @@
         <v>1.6</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AS20">
-        <v>1.19</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>2.83</v>
+        <v>2.16</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5238,22 +5238,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR21">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AS21">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="AT21">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5441,25 +5441,25 @@
         <v>2.35</v>
       </c>
       <c r="AN22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AS22">
-        <v>1.18</v>
+        <v>0.77</v>
       </c>
       <c r="AT22">
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
       <c r="AU22">
         <v>2</v>
@@ -5647,25 +5647,25 @@
         <v>1.95</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="AS23">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="AT23">
-        <v>3.77</v>
+        <v>4.23</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5853,25 +5853,25 @@
         <v>1.36</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AS24">
-        <v>1.06</v>
+        <v>0.54</v>
       </c>
       <c r="AT24">
-        <v>2.41</v>
+        <v>2.1</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6059,25 +6059,25 @@
         <v>1.26</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AS25">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>2.54</v>
+        <v>2.75</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6265,25 +6265,25 @@
         <v>1.63</v>
       </c>
       <c r="AN26">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1.08</v>
+        <v>0.2</v>
       </c>
       <c r="AR26">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS26">
-        <v>1.11</v>
+        <v>0.91</v>
       </c>
       <c r="AT26">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6471,25 +6471,25 @@
         <v>1.75</v>
       </c>
       <c r="AN27">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="AT27">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6677,25 +6677,25 @@
         <v>2.25</v>
       </c>
       <c r="AN28">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="AS28">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AT28">
-        <v>3.31</v>
+        <v>3.56</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6883,25 +6883,25 @@
         <v>2.35</v>
       </c>
       <c r="AN29">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2.2</v>
+      </c>
+      <c r="AQ29">
         <v>1.33</v>
       </c>
-      <c r="AP29">
-        <v>1.67</v>
-      </c>
-      <c r="AQ29">
-        <v>1.5</v>
-      </c>
       <c r="AR29">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="AS29">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="AT29">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7089,25 +7089,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR30">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>0.84</v>
       </c>
       <c r="AT30">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7295,25 +7295,25 @@
         <v>1.45</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.13</v>
       </c>
       <c r="AU31">
         <v>3</v>
@@ -7501,25 +7501,25 @@
         <v>1.72</v>
       </c>
       <c r="AN32">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
         <v>1.17</v>
       </c>
       <c r="AR32">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="AS32">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="AT32">
-        <v>3.16</v>
+        <v>3.44</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>2</v>
       </c>
       <c r="AN33">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="AS33">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AT33">
-        <v>3.46</v>
+        <v>3.79</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -7913,25 +7913,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AS34">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AT34">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8119,25 +8119,25 @@
         <v>1.47</v>
       </c>
       <c r="AN35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AS35">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT35">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="AU35">
         <v>8</v>
@@ -8325,25 +8325,25 @@
         <v>1.25</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="AS36">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8540,16 +8540,16 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR37">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="AS37">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AT37">
-        <v>3.39</v>
+        <v>3.17</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8740,22 +8740,22 @@
         <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AS38">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AT38">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -8943,25 +8943,25 @@
         <v>1.34</v>
       </c>
       <c r="AN39">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS39">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT39">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9149,25 +9149,25 @@
         <v>1.44</v>
       </c>
       <c r="AN40">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS40">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AT40">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9355,25 +9355,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO41">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS41">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AT41">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -9561,25 +9561,25 @@
         <v>2.35</v>
       </c>
       <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
         <v>2.2</v>
       </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>1.67</v>
-      </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR42">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="AS42">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="AT42">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="AU42">
         <v>12</v>
@@ -9767,25 +9767,25 @@
         <v>1.7</v>
       </c>
       <c r="AN43">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>1.4</v>
+      </c>
+      <c r="AQ43">
         <v>1.2</v>
       </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>1.25</v>
-      </c>
       <c r="AR43">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AS43">
-        <v>1.49</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
-        <v>2.65</v>
+        <v>2.74</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9973,25 +9973,25 @@
         <v>2.6</v>
       </c>
       <c r="AN44">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="AS44">
         <v>1.49</v>
       </c>
       <c r="AT44">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10179,25 +10179,25 @@
         <v>2</v>
       </c>
       <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>0.67</v>
+      </c>
+      <c r="AP45">
         <v>0.8</v>
       </c>
-      <c r="AO45">
-        <v>1.6</v>
-      </c>
-      <c r="AP45">
-        <v>1.08</v>
-      </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AS45">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AT45">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10385,25 +10385,25 @@
         <v>1.62</v>
       </c>
       <c r="AN46">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
       </c>
       <c r="AR46">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AS46">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AT46">
-        <v>2.97</v>
+        <v>3.5</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10591,25 +10591,25 @@
         <v>2.02</v>
       </c>
       <c r="AN47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>1.08</v>
+        <v>0.2</v>
       </c>
       <c r="AR47">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="AS47">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AT47">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10797,25 +10797,25 @@
         <v>1.45</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO48">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="AS48">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.53</v>
+        <v>2.31</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11003,25 +11003,25 @@
         <v>1.36</v>
       </c>
       <c r="AN49">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AS49">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AT49">
-        <v>2.92</v>
+        <v>3.09</v>
       </c>
       <c r="AU49">
         <v>9</v>
@@ -11212,22 +11212,22 @@
         <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP50">
         <v>1.17</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AS50">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT50">
-        <v>3.08</v>
+        <v>2.99</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11415,25 +11415,25 @@
         <v>1.4</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO51">
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="AT51">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11621,25 +11621,25 @@
         <v>2.49</v>
       </c>
       <c r="AN52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS52">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="AT52">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -11827,25 +11827,25 @@
         <v>1.2</v>
       </c>
       <c r="AN53">
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS53">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="AT53">
-        <v>3.01</v>
+        <v>2.36</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12033,25 +12033,25 @@
         <v>1.24</v>
       </c>
       <c r="AN54">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AT54">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12242,19 +12242,19 @@
         <v>1</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="AR55">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AS55">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="AT55">
         <v>3.05</v>
@@ -12448,22 +12448,22 @@
         <v>2</v>
       </c>
       <c r="AO56">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AS56">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AT56">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12651,25 +12651,25 @@
         <v>1.68</v>
       </c>
       <c r="AN57">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO57">
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS57">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AT57">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12857,25 +12857,25 @@
         <v>1.68</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO58">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
-        <v>1.74</v>
+        <v>2.03</v>
       </c>
       <c r="AS58">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13063,25 +13063,25 @@
         <v>1.46</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="AS59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>2.29</v>
+        <v>3.1</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13269,25 +13269,25 @@
         <v>1.45</v>
       </c>
       <c r="AN60">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1.43</v>
+      </c>
+      <c r="AQ60">
         <v>1.67</v>
       </c>
-      <c r="AP60">
-        <v>1.08</v>
-      </c>
-      <c r="AQ60">
-        <v>1.64</v>
-      </c>
       <c r="AR60">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AS60">
-        <v>1.78</v>
+        <v>1.23</v>
       </c>
       <c r="AT60">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13475,22 +13475,22 @@
         <v>2.6</v>
       </c>
       <c r="AN61">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AT61">
         <v>3.27</v>
@@ -13681,25 +13681,25 @@
         <v>1.71</v>
       </c>
       <c r="AN62">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>0.83</v>
+      </c>
+      <c r="AQ62">
         <v>0.71</v>
       </c>
-      <c r="AP62">
-        <v>1</v>
-      </c>
-      <c r="AQ62">
-        <v>0.83</v>
-      </c>
       <c r="AR62">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AS62">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13887,25 +13887,25 @@
         <v>1.94</v>
       </c>
       <c r="AN63">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO63">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR63">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AS63">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AT63">
-        <v>2.37</v>
+        <v>2.67</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14096,22 +14096,22 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP64">
         <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AS64">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AT64">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14299,25 +14299,25 @@
         <v>1.95</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO65">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AS65">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AT65">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14505,25 +14505,25 @@
         <v>1.25</v>
       </c>
       <c r="AN66">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AO66">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AT66">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -14711,25 +14711,25 @@
         <v>1.4</v>
       </c>
       <c r="AN67">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP67">
+        <v>1.67</v>
+      </c>
+      <c r="AQ67">
+        <v>0.6</v>
+      </c>
+      <c r="AR67">
+        <v>0.97</v>
+      </c>
+      <c r="AS67">
         <v>1.5</v>
       </c>
-      <c r="AQ67">
-        <v>1.08</v>
-      </c>
-      <c r="AR67">
-        <v>1.18</v>
-      </c>
-      <c r="AS67">
-        <v>1.6</v>
-      </c>
       <c r="AT67">
-        <v>2.78</v>
+        <v>2.47</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -14917,25 +14917,25 @@
         <v>1.25</v>
       </c>
       <c r="AN68">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AS68">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AT68">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15123,25 +15123,25 @@
         <v>1.57</v>
       </c>
       <c r="AN69">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AS69">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="AT69">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15329,25 +15329,25 @@
         <v>1.5</v>
       </c>
       <c r="AN70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO70">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
-        <v>1.08</v>
+        <v>0.2</v>
       </c>
       <c r="AR70">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AS70">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15535,25 +15535,25 @@
         <v>1.78</v>
       </c>
       <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1.8</v>
+      </c>
+      <c r="AP71">
+        <v>0.8</v>
+      </c>
+      <c r="AQ71">
+        <v>1.63</v>
+      </c>
+      <c r="AR71">
+        <v>1.35</v>
+      </c>
+      <c r="AS71">
         <v>1.13</v>
       </c>
-      <c r="AO71">
-        <v>2.25</v>
-      </c>
-      <c r="AP71">
-        <v>1.08</v>
-      </c>
-      <c r="AQ71">
-        <v>1.92</v>
-      </c>
-      <c r="AR71">
-        <v>1.37</v>
-      </c>
-      <c r="AS71">
-        <v>1.22</v>
-      </c>
       <c r="AT71">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15741,25 +15741,25 @@
         <v>1.8</v>
       </c>
       <c r="AN72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="AS72">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>2.57</v>
+        <v>2.91</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -15947,25 +15947,25 @@
         <v>1.62</v>
       </c>
       <c r="AN73">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO73">
-        <v>1.67</v>
+        <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS73">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AT73">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16153,25 +16153,25 @@
         <v>1.25</v>
       </c>
       <c r="AN74">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AT74">
-        <v>3.02</v>
+        <v>2.66</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16359,25 +16359,25 @@
         <v>2.45</v>
       </c>
       <c r="AN75">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AO75">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="AS75">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AT75">
-        <v>3.03</v>
+        <v>3.43</v>
       </c>
       <c r="AU75">
         <v>5</v>
@@ -16565,25 +16565,25 @@
         <v>1.62</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO76">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
       </c>
       <c r="AR76">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -16771,25 +16771,25 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AS77">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="AT77">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -16977,25 +16977,25 @@
         <v>1.71</v>
       </c>
       <c r="AN78">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO78">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS78">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT78">
-        <v>2.95</v>
+        <v>3.07</v>
       </c>
       <c r="AU78">
         <v>9</v>
@@ -17183,25 +17183,25 @@
         <v>1.22</v>
       </c>
       <c r="AN79">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO79">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ79">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AS79">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT79">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17389,25 +17389,25 @@
         <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO80">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>1.08</v>
+        <v>0.2</v>
       </c>
       <c r="AR80">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AS80">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AT80">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="AU80">
         <v>10</v>
@@ -17595,25 +17595,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO81">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AS81">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AT81">
-        <v>2.58</v>
+        <v>2.29</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -17801,25 +17801,25 @@
         <v>1.3</v>
       </c>
       <c r="AN82">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO82">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR82">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT82">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AU82">
         <v>2</v>
@@ -18010,22 +18010,22 @@
         <v>1.67</v>
       </c>
       <c r="AO83">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AS83">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="AT83">
-        <v>3.21</v>
+        <v>2.98</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18213,25 +18213,25 @@
         <v>1.95</v>
       </c>
       <c r="AN84">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AO84">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AQ84">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS84">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AT84">
-        <v>2.81</v>
+        <v>2.7</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18419,25 +18419,25 @@
         <v>1.25</v>
       </c>
       <c r="AN85">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AO85">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="AR85">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AS85">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AT85">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU85">
         <v>5</v>
@@ -18625,25 +18625,25 @@
         <v>1.44</v>
       </c>
       <c r="AN86">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO86">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="AP86">
         <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS86">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>3.39</v>
+        <v>2.99</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -18831,25 +18831,25 @@
         <v>2.9</v>
       </c>
       <c r="AN87">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO87">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR87">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="AS87">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT87">
-        <v>3.04</v>
+        <v>3.28</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19037,25 +19037,25 @@
         <v>1.52</v>
       </c>
       <c r="AN88">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AS88">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT88">
-        <v>2.79</v>
+        <v>3.05</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19243,22 +19243,22 @@
         <v>1.86</v>
       </c>
       <c r="AN89">
+        <v>1.5</v>
+      </c>
+      <c r="AO89">
+        <v>0.67</v>
+      </c>
+      <c r="AP89">
+        <v>1.43</v>
+      </c>
+      <c r="AQ89">
+        <v>0.71</v>
+      </c>
+      <c r="AR89">
+        <v>1.6</v>
+      </c>
+      <c r="AS89">
         <v>1.09</v>
-      </c>
-      <c r="AO89">
-        <v>1.55</v>
-      </c>
-      <c r="AP89">
-        <v>1.08</v>
-      </c>
-      <c r="AQ89">
-        <v>1.5</v>
-      </c>
-      <c r="AR89">
-        <v>1.53</v>
-      </c>
-      <c r="AS89">
-        <v>1.16</v>
       </c>
       <c r="AT89">
         <v>2.69</v>
@@ -19449,25 +19449,25 @@
         <v>1.24</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO90">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ90">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR90">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS90">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT90">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19655,25 +19655,25 @@
         <v>2.7</v>
       </c>
       <c r="AN91">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO91">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AS91">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
-        <v>3.35</v>
+        <v>3.47</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -19861,25 +19861,25 @@
         <v>1.37</v>
       </c>
       <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
         <v>1.8</v>
       </c>
-      <c r="AO92">
-        <v>1.73</v>
-      </c>
-      <c r="AP92">
-        <v>1.73</v>
-      </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR92">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20067,25 +20067,25 @@
         <v>1.44</v>
       </c>
       <c r="AN93">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
         <v>1.17</v>
       </c>
       <c r="AR93">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20273,25 +20273,25 @@
         <v>1.29</v>
       </c>
       <c r="AN94">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO94">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ94">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="AS94">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
-        <v>2.85</v>
+        <v>3.34</v>
       </c>
       <c r="AU94">
         <v>8</v>
@@ -20479,25 +20479,25 @@
         <v>3.15</v>
       </c>
       <c r="AN95">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AO95">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AT95">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="AU95">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>['39', '67', '74']</t>
+  </si>
+  <si>
+    <t>['61', '69']</t>
+  </si>
+  <si>
+    <t>['45+2', '71', '90+4']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -990,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1255,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2073,7 +2079,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2279,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2485,7 +2491,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2566,7 +2572,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3103,7 +3109,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3309,7 +3315,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3515,7 +3521,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3721,7 +3727,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3799,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3927,7 +3933,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4133,7 +4139,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4211,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
@@ -4545,7 +4551,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4751,7 +4757,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4832,7 +4838,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4957,7 +4963,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5369,7 +5375,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5575,7 +5581,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6274,7 +6280,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -7017,7 +7023,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7223,7 +7229,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7429,7 +7435,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7635,7 +7641,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7841,7 +7847,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8047,7 +8053,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8128,7 +8134,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8253,7 +8259,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8331,7 +8337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8459,7 +8465,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9077,7 +9083,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9283,7 +9289,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9489,7 +9495,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9901,7 +9907,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10391,7 +10397,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10519,7 +10525,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10600,7 +10606,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -10806,7 +10812,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -10931,7 +10937,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11343,7 +11349,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11961,7 +11967,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12039,7 +12045,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1.63</v>
@@ -12167,7 +12173,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12579,7 +12585,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12785,7 +12791,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12991,7 +12997,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13197,7 +13203,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13609,7 +13615,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13893,7 +13899,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ63">
         <v>0.71</v>
@@ -14511,10 +14517,10 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14639,7 +14645,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15051,7 +15057,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15257,7 +15263,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15338,7 +15344,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ70">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15463,7 +15469,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15669,7 +15675,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15875,7 +15881,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16287,7 +16293,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16493,7 +16499,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16699,7 +16705,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16777,7 +16783,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17111,7 +17117,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17398,7 +17404,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17523,7 +17529,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17935,7 +17941,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18222,7 +18228,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18425,7 +18431,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>0.6</v>
@@ -18553,7 +18559,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19171,7 +19177,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19377,7 +19383,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19583,7 +19589,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19789,7 +19795,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19995,7 +20001,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20407,7 +20413,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20564,6 +20570,418 @@
       </c>
       <c r="BP95">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7486975</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45582.875</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>82</v>
+      </c>
+      <c r="H96" t="s">
+        <v>85</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>150</v>
+      </c>
+      <c r="P96" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q96">
+        <v>2.65</v>
+      </c>
+      <c r="R96">
+        <v>1.9</v>
+      </c>
+      <c r="S96">
+        <v>4.5</v>
+      </c>
+      <c r="T96">
+        <v>1.54</v>
+      </c>
+      <c r="U96">
+        <v>2.36</v>
+      </c>
+      <c r="V96">
+        <v>3.48</v>
+      </c>
+      <c r="W96">
+        <v>1.28</v>
+      </c>
+      <c r="X96">
+        <v>9.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.04</v>
+      </c>
+      <c r="Z96">
+        <v>1.95</v>
+      </c>
+      <c r="AA96">
+        <v>3.2</v>
+      </c>
+      <c r="AB96">
+        <v>4.2</v>
+      </c>
+      <c r="AC96">
+        <v>1.09</v>
+      </c>
+      <c r="AD96">
+        <v>6.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.5</v>
+      </c>
+      <c r="AF96">
+        <v>2.4</v>
+      </c>
+      <c r="AG96">
+        <v>2.2</v>
+      </c>
+      <c r="AH96">
+        <v>1.63</v>
+      </c>
+      <c r="AI96">
+        <v>2.1</v>
+      </c>
+      <c r="AJ96">
+        <v>1.68</v>
+      </c>
+      <c r="AK96">
+        <v>1.22</v>
+      </c>
+      <c r="AL96">
+        <v>1.28</v>
+      </c>
+      <c r="AM96">
+        <v>1.78</v>
+      </c>
+      <c r="AN96">
+        <v>2.5</v>
+      </c>
+      <c r="AO96">
+        <v>1.67</v>
+      </c>
+      <c r="AP96">
+        <v>2.6</v>
+      </c>
+      <c r="AQ96">
+        <v>1.43</v>
+      </c>
+      <c r="AR96">
+        <v>1.37</v>
+      </c>
+      <c r="AS96">
+        <v>1.31</v>
+      </c>
+      <c r="AT96">
+        <v>2.68</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>3</v>
+      </c>
+      <c r="AW96">
+        <v>3</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>8</v>
+      </c>
+      <c r="AZ96">
+        <v>9</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>7</v>
+      </c>
+      <c r="BC96">
+        <v>10</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7486561</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45583.52083333334</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" t="s">
+        <v>71</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>151</v>
+      </c>
+      <c r="P97" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q97">
+        <v>3.4</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>3.3</v>
+      </c>
+      <c r="T97">
+        <v>1.51</v>
+      </c>
+      <c r="U97">
+        <v>2.4</v>
+      </c>
+      <c r="V97">
+        <v>3.28</v>
+      </c>
+      <c r="W97">
+        <v>1.31</v>
+      </c>
+      <c r="X97">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y97">
+        <v>1.05</v>
+      </c>
+      <c r="Z97">
+        <v>2.75</v>
+      </c>
+      <c r="AA97">
+        <v>3</v>
+      </c>
+      <c r="AB97">
+        <v>2.75</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>6.9</v>
+      </c>
+      <c r="AE97">
+        <v>1.4</v>
+      </c>
+      <c r="AF97">
+        <v>2.8</v>
+      </c>
+      <c r="AG97">
+        <v>2.25</v>
+      </c>
+      <c r="AH97">
+        <v>1.6</v>
+      </c>
+      <c r="AI97">
+        <v>1.9</v>
+      </c>
+      <c r="AJ97">
+        <v>1.85</v>
+      </c>
+      <c r="AK97">
+        <v>1.45</v>
+      </c>
+      <c r="AL97">
+        <v>1.3</v>
+      </c>
+      <c r="AM97">
+        <v>1.42</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>0.2</v>
+      </c>
+      <c r="AP97">
+        <v>1.33</v>
+      </c>
+      <c r="AQ97">
+        <v>0.17</v>
+      </c>
+      <c r="AR97">
+        <v>1.35</v>
+      </c>
+      <c r="AS97">
+        <v>1.37</v>
+      </c>
+      <c r="AT97">
+        <v>2.72</v>
+      </c>
+      <c r="AU97">
+        <v>12</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>4</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>20</v>
+      </c>
+      <c r="AZ97">
+        <v>14</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>0</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>['39', '67', '74']</t>
-  </si>
-  <si>
-    <t>['61', '69']</t>
   </si>
   <si>
     <t>['45+2', '71', '90+4']</t>
@@ -996,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1252,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2079,7 +2076,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2285,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2491,7 +2488,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2572,7 +2569,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3109,7 +3106,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3315,7 +3312,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3521,7 +3518,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3727,7 +3724,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3805,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0.17</v>
@@ -3933,7 +3930,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4139,7 +4136,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4551,7 +4548,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4757,7 +4754,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4838,7 +4835,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4963,7 +4960,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5375,7 +5372,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5581,7 +5578,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7023,7 +7020,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7229,7 +7226,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7435,7 +7432,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7641,7 +7638,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7847,7 +7844,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8053,7 +8050,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8134,7 +8131,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8259,7 +8256,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8465,7 +8462,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9083,7 +9080,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9289,7 +9286,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9495,7 +9492,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9907,7 +9904,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10397,7 +10394,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10525,7 +10522,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10812,7 +10809,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -10937,7 +10934,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11349,7 +11346,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11967,7 +11964,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12173,7 +12170,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12585,7 +12582,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12791,7 +12788,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12997,7 +12994,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13203,7 +13200,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13615,7 +13612,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13899,7 +13896,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
         <v>0.71</v>
@@ -14520,7 +14517,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14645,7 +14642,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15057,7 +15054,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15263,7 +15260,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15469,7 +15466,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15675,7 +15672,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15881,7 +15878,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16293,7 +16290,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16499,7 +16496,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16705,7 +16702,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16783,7 +16780,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17117,7 +17114,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17529,7 +17526,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17941,7 +17938,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18228,7 +18225,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18559,7 +18556,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19177,7 +19174,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19383,7 +19380,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19589,7 +19586,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19795,7 +19792,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20001,7 +19998,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20413,7 +20410,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20577,7 +20574,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7486975</v>
+        <v>7486561</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20586,34 +20583,34 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45582.875</v>
+        <v>45583.52083333334</v>
       </c>
       <c r="F96">
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O96" t="s">
         <v>150</v>
@@ -20622,122 +20619,122 @@
         <v>86</v>
       </c>
       <c r="Q96">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="R96">
         <v>1.9</v>
       </c>
       <c r="S96">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="T96">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="U96">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V96">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="W96">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X96">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y96">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z96">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="AA96">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB96">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC96">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AD96">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE96">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AF96">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AG96">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AH96">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AI96">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AJ96">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AK96">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AL96">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM96">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="AN96">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>1.67</v>
+        <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>2.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>0.17</v>
       </c>
       <c r="AR96">
+        <v>1.35</v>
+      </c>
+      <c r="AS96">
         <v>1.37</v>
       </c>
-      <c r="AS96">
-        <v>1.31</v>
-      </c>
       <c r="AT96">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="AU96">
+        <v>12</v>
+      </c>
+      <c r="AV96">
         <v>5</v>
       </c>
-      <c r="AV96">
-        <v>3</v>
-      </c>
       <c r="AW96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX96">
+        <v>5</v>
+      </c>
+      <c r="AY96">
+        <v>20</v>
+      </c>
+      <c r="AZ96">
+        <v>14</v>
+      </c>
+      <c r="BA96">
         <v>4</v>
       </c>
-      <c r="AY96">
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
         <v>8</v>
       </c>
-      <c r="AZ96">
-        <v>9</v>
-      </c>
-      <c r="BA96">
-        <v>3</v>
-      </c>
-      <c r="BB96">
-        <v>7</v>
-      </c>
-      <c r="BC96">
-        <v>10</v>
-      </c>
       <c r="BD96">
         <v>0</v>
       </c>
@@ -20775,212 +20772,6 @@
         <v>0</v>
       </c>
       <c r="BP96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:68">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>7486561</v>
-      </c>
-      <c r="C97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" s="2">
-        <v>45583.52083333334</v>
-      </c>
-      <c r="F97">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
-        <v>84</v>
-      </c>
-      <c r="H97" t="s">
-        <v>71</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>3</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>3</v>
-      </c>
-      <c r="O97" t="s">
-        <v>151</v>
-      </c>
-      <c r="P97" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q97">
-        <v>3.4</v>
-      </c>
-      <c r="R97">
-        <v>1.9</v>
-      </c>
-      <c r="S97">
-        <v>3.3</v>
-      </c>
-      <c r="T97">
-        <v>1.51</v>
-      </c>
-      <c r="U97">
-        <v>2.4</v>
-      </c>
-      <c r="V97">
-        <v>3.28</v>
-      </c>
-      <c r="W97">
-        <v>1.31</v>
-      </c>
-      <c r="X97">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y97">
-        <v>1.05</v>
-      </c>
-      <c r="Z97">
-        <v>2.75</v>
-      </c>
-      <c r="AA97">
-        <v>3</v>
-      </c>
-      <c r="AB97">
-        <v>2.75</v>
-      </c>
-      <c r="AC97">
-        <v>1.03</v>
-      </c>
-      <c r="AD97">
-        <v>6.9</v>
-      </c>
-      <c r="AE97">
-        <v>1.4</v>
-      </c>
-      <c r="AF97">
-        <v>2.8</v>
-      </c>
-      <c r="AG97">
-        <v>2.25</v>
-      </c>
-      <c r="AH97">
-        <v>1.6</v>
-      </c>
-      <c r="AI97">
-        <v>1.9</v>
-      </c>
-      <c r="AJ97">
-        <v>1.85</v>
-      </c>
-      <c r="AK97">
-        <v>1.45</v>
-      </c>
-      <c r="AL97">
-        <v>1.3</v>
-      </c>
-      <c r="AM97">
-        <v>1.42</v>
-      </c>
-      <c r="AN97">
-        <v>1</v>
-      </c>
-      <c r="AO97">
-        <v>0.2</v>
-      </c>
-      <c r="AP97">
-        <v>1.33</v>
-      </c>
-      <c r="AQ97">
-        <v>0.17</v>
-      </c>
-      <c r="AR97">
-        <v>1.35</v>
-      </c>
-      <c r="AS97">
-        <v>1.37</v>
-      </c>
-      <c r="AT97">
-        <v>2.72</v>
-      </c>
-      <c r="AU97">
-        <v>12</v>
-      </c>
-      <c r="AV97">
-        <v>5</v>
-      </c>
-      <c r="AW97">
-        <v>4</v>
-      </c>
-      <c r="AX97">
-        <v>5</v>
-      </c>
-      <c r="AY97">
-        <v>20</v>
-      </c>
-      <c r="AZ97">
-        <v>14</v>
-      </c>
-      <c r="BA97">
-        <v>4</v>
-      </c>
-      <c r="BB97">
-        <v>4</v>
-      </c>
-      <c r="BC97">
-        <v>8</v>
-      </c>
-      <c r="BD97">
-        <v>0</v>
-      </c>
-      <c r="BE97">
-        <v>0</v>
-      </c>
-      <c r="BF97">
-        <v>0</v>
-      </c>
-      <c r="BG97">
-        <v>0</v>
-      </c>
-      <c r="BH97">
-        <v>0</v>
-      </c>
-      <c r="BI97">
-        <v>0</v>
-      </c>
-      <c r="BJ97">
-        <v>0</v>
-      </c>
-      <c r="BK97">
-        <v>0</v>
-      </c>
-      <c r="BL97">
-        <v>0</v>
-      </c>
-      <c r="BM97">
-        <v>0</v>
-      </c>
-      <c r="BN97">
-        <v>0</v>
-      </c>
-      <c r="BO97">
-        <v>0</v>
-      </c>
-      <c r="BP97">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,12 @@
     <t>['45+2', '71', '90+4']</t>
   </si>
   <si>
+    <t>['61', '69']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -556,9 +562,6 @@
     <t>['44', '53']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['27', '43']</t>
   </si>
   <si>
@@ -632,6 +635,9 @@
   </si>
   <si>
     <t>['5', '87']</t>
+  </si>
+  <si>
+    <t>['26', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1258,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -2076,7 +2082,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2282,7 +2288,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2488,7 +2494,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2569,7 +2575,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
         <v>0.71</v>
@@ -2981,7 +2987,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3106,7 +3112,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3187,7 +3193,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3312,7 +3318,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3390,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3518,7 +3524,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3599,7 +3605,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3724,7 +3730,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
         <v>0.17</v>
@@ -3930,7 +3936,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4008,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4136,7 +4142,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4548,7 +4554,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4754,7 +4760,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4835,7 +4841,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4960,7 +4966,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5244,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
         <v>0.71</v>
@@ -5372,7 +5378,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5453,7 +5459,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -5578,7 +5584,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6068,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>1.29</v>
@@ -6480,7 +6486,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ27">
         <v>0.71</v>
@@ -6892,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7020,7 +7026,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7226,7 +7232,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7307,7 +7313,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7432,7 +7438,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7638,7 +7644,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7844,7 +7850,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7925,7 +7931,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8050,7 +8056,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8131,7 +8137,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8256,7 +8262,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8462,7 +8468,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8540,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37">
         <v>1.29</v>
@@ -8952,7 +8958,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ39">
         <v>1.63</v>
@@ -9080,7 +9086,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9286,7 +9292,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9492,7 +9498,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9570,7 +9576,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.71</v>
@@ -9779,7 +9785,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -9904,7 +9910,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10394,7 +10400,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10522,7 +10528,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10806,10 +10812,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -10934,7 +10940,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11218,7 +11224,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>1.17</v>
@@ -11346,7 +11352,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>3.45</v>
@@ -11424,7 +11430,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11633,7 +11639,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -11839,7 +11845,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -11964,7 +11970,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12170,7 +12176,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12582,7 +12588,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12788,7 +12794,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12866,7 +12872,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.29</v>
@@ -12994,7 +13000,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13200,7 +13206,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13281,7 +13287,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -13487,7 +13493,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>2.06</v>
@@ -13612,7 +13618,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13896,7 +13902,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ63">
         <v>0.71</v>
@@ -14102,10 +14108,10 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14308,7 +14314,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ65">
         <v>1.17</v>
@@ -14517,7 +14523,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14642,7 +14648,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14720,7 +14726,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67">
         <v>0.6</v>
@@ -15054,7 +15060,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15135,7 +15141,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15260,7 +15266,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15466,7 +15472,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15672,7 +15678,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15878,7 +15884,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16165,7 +16171,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16290,7 +16296,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16496,7 +16502,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16702,7 +16708,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16780,7 +16786,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17114,7 +17120,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17398,7 +17404,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
         <v>0.17</v>
@@ -17526,7 +17532,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17604,10 +17610,10 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -17938,7 +17944,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18019,7 +18025,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18225,7 +18231,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18556,7 +18562,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18634,10 +18640,10 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -18840,7 +18846,7 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>1.17</v>
@@ -19174,7 +19180,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19380,7 +19386,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19586,7 +19592,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19792,7 +19798,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19998,7 +20004,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20410,7 +20416,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20586,7 +20592,7 @@
         <v>45583.52083333334</v>
       </c>
       <c r="F96">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
         <v>84</v>
@@ -20709,22 +20715,22 @@
         <v>2.72</v>
       </c>
       <c r="AU96">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW96">
         <v>4</v>
       </c>
       <c r="AX96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY96">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ96">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA96">
         <v>4</v>
@@ -20773,6 +20779,1036 @@
       </c>
       <c r="BP96">
         <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7486975</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45583.625</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>151</v>
+      </c>
+      <c r="P97" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q97">
+        <v>2.65</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>4.5</v>
+      </c>
+      <c r="T97">
+        <v>1.54</v>
+      </c>
+      <c r="U97">
+        <v>2.36</v>
+      </c>
+      <c r="V97">
+        <v>3.48</v>
+      </c>
+      <c r="W97">
+        <v>1.28</v>
+      </c>
+      <c r="X97">
+        <v>9.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.04</v>
+      </c>
+      <c r="Z97">
+        <v>1.95</v>
+      </c>
+      <c r="AA97">
+        <v>3.2</v>
+      </c>
+      <c r="AB97">
+        <v>4.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.09</v>
+      </c>
+      <c r="AD97">
+        <v>6.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.5</v>
+      </c>
+      <c r="AF97">
+        <v>2.4</v>
+      </c>
+      <c r="AG97">
+        <v>2.2</v>
+      </c>
+      <c r="AH97">
+        <v>1.63</v>
+      </c>
+      <c r="AI97">
+        <v>2.1</v>
+      </c>
+      <c r="AJ97">
+        <v>1.68</v>
+      </c>
+      <c r="AK97">
+        <v>1.22</v>
+      </c>
+      <c r="AL97">
+        <v>1.28</v>
+      </c>
+      <c r="AM97">
+        <v>1.78</v>
+      </c>
+      <c r="AN97">
+        <v>2.5</v>
+      </c>
+      <c r="AO97">
+        <v>1.67</v>
+      </c>
+      <c r="AP97">
+        <v>2.6</v>
+      </c>
+      <c r="AQ97">
+        <v>1.43</v>
+      </c>
+      <c r="AR97">
+        <v>1.37</v>
+      </c>
+      <c r="AS97">
+        <v>1.31</v>
+      </c>
+      <c r="AT97">
+        <v>2.68</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>8</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
+        <v>7</v>
+      </c>
+      <c r="BC97">
+        <v>10</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>0</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7487069</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45584.51041666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" t="s">
+        <v>73</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>152</v>
+      </c>
+      <c r="P98" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q98">
+        <v>2.25</v>
+      </c>
+      <c r="R98">
+        <v>2.15</v>
+      </c>
+      <c r="S98">
+        <v>4.75</v>
+      </c>
+      <c r="T98">
+        <v>1.39</v>
+      </c>
+      <c r="U98">
+        <v>2.8</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>7.2</v>
+      </c>
+      <c r="Y98">
+        <v>1.08</v>
+      </c>
+      <c r="Z98">
+        <v>1.7</v>
+      </c>
+      <c r="AA98">
+        <v>3.75</v>
+      </c>
+      <c r="AB98">
+        <v>4.5</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE98">
+        <v>1.3</v>
+      </c>
+      <c r="AF98">
+        <v>3.3</v>
+      </c>
+      <c r="AG98">
+        <v>1.9</v>
+      </c>
+      <c r="AH98">
+        <v>1.83</v>
+      </c>
+      <c r="AI98">
+        <v>1.87</v>
+      </c>
+      <c r="AJ98">
+        <v>1.87</v>
+      </c>
+      <c r="AK98">
+        <v>1.15</v>
+      </c>
+      <c r="AL98">
+        <v>1.2</v>
+      </c>
+      <c r="AM98">
+        <v>2.1</v>
+      </c>
+      <c r="AN98">
+        <v>1.17</v>
+      </c>
+      <c r="AO98">
+        <v>1.2</v>
+      </c>
+      <c r="AP98">
+        <v>1.43</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.57</v>
+      </c>
+      <c r="AS98">
+        <v>1.26</v>
+      </c>
+      <c r="AT98">
+        <v>2.83</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>15</v>
+      </c>
+      <c r="AZ98">
+        <v>14</v>
+      </c>
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>6</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>0</v>
+      </c>
+      <c r="BL98">
+        <v>0</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7486976</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45584.625</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>86</v>
+      </c>
+      <c r="P99" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q99">
+        <v>4.75</v>
+      </c>
+      <c r="R99">
+        <v>2.1</v>
+      </c>
+      <c r="S99">
+        <v>2.5</v>
+      </c>
+      <c r="T99">
+        <v>1.44</v>
+      </c>
+      <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3.25</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>9</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>4.22</v>
+      </c>
+      <c r="AA99">
+        <v>3.35</v>
+      </c>
+      <c r="AB99">
+        <v>1.82</v>
+      </c>
+      <c r="AC99">
+        <v>4.41</v>
+      </c>
+      <c r="AD99">
+        <v>1.2</v>
+      </c>
+      <c r="AE99">
+        <v>1.42</v>
+      </c>
+      <c r="AF99">
+        <v>2.75</v>
+      </c>
+      <c r="AG99">
+        <v>2.06</v>
+      </c>
+      <c r="AH99">
+        <v>1.68</v>
+      </c>
+      <c r="AI99">
+        <v>1.91</v>
+      </c>
+      <c r="AJ99">
+        <v>1.8</v>
+      </c>
+      <c r="AK99">
+        <v>1.95</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.15</v>
+      </c>
+      <c r="AN99">
+        <v>1.67</v>
+      </c>
+      <c r="AO99">
+        <v>1.67</v>
+      </c>
+      <c r="AP99">
+        <v>1.57</v>
+      </c>
+      <c r="AQ99">
+        <v>1.5</v>
+      </c>
+      <c r="AR99">
+        <v>1.24</v>
+      </c>
+      <c r="AS99">
+        <v>1.62</v>
+      </c>
+      <c r="AT99">
+        <v>2.86</v>
+      </c>
+      <c r="AU99">
+        <v>0</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>7</v>
+      </c>
+      <c r="AZ99">
+        <v>8</v>
+      </c>
+      <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>6</v>
+      </c>
+      <c r="BC99">
+        <v>12</v>
+      </c>
+      <c r="BD99">
+        <v>3.02</v>
+      </c>
+      <c r="BE99">
+        <v>6.7</v>
+      </c>
+      <c r="BF99">
+        <v>1.6</v>
+      </c>
+      <c r="BG99">
+        <v>1.25</v>
+      </c>
+      <c r="BH99">
+        <v>3.14</v>
+      </c>
+      <c r="BI99">
+        <v>1.49</v>
+      </c>
+      <c r="BJ99">
+        <v>2.3</v>
+      </c>
+      <c r="BK99">
+        <v>2</v>
+      </c>
+      <c r="BL99">
+        <v>1.73</v>
+      </c>
+      <c r="BM99">
+        <v>2.42</v>
+      </c>
+      <c r="BN99">
+        <v>1.44</v>
+      </c>
+      <c r="BO99">
+        <v>3.22</v>
+      </c>
+      <c r="BP99">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7486974</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45585.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>86</v>
+      </c>
+      <c r="P100" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q100">
+        <v>1.91</v>
+      </c>
+      <c r="R100">
+        <v>2.4</v>
+      </c>
+      <c r="S100">
+        <v>7</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.5</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>6.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>1.42</v>
+      </c>
+      <c r="AA100">
+        <v>4</v>
+      </c>
+      <c r="AB100">
+        <v>8.25</v>
+      </c>
+      <c r="AC100">
+        <v>1.03</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.22</v>
+      </c>
+      <c r="AF100">
+        <v>4</v>
+      </c>
+      <c r="AG100">
+        <v>1.76</v>
+      </c>
+      <c r="AH100">
+        <v>1.95</v>
+      </c>
+      <c r="AI100">
+        <v>1.91</v>
+      </c>
+      <c r="AJ100">
+        <v>1.8</v>
+      </c>
+      <c r="AK100">
+        <v>1.06</v>
+      </c>
+      <c r="AL100">
+        <v>1.15</v>
+      </c>
+      <c r="AM100">
+        <v>2.85</v>
+      </c>
+      <c r="AN100">
+        <v>2.2</v>
+      </c>
+      <c r="AO100">
+        <v>0.67</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.71</v>
+      </c>
+      <c r="AR100">
+        <v>1.91</v>
+      </c>
+      <c r="AS100">
+        <v>1.13</v>
+      </c>
+      <c r="AT100">
+        <v>3.04</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>9</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>18</v>
+      </c>
+      <c r="AZ100">
+        <v>10</v>
+      </c>
+      <c r="BA100">
+        <v>7</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>9</v>
+      </c>
+      <c r="BD100">
+        <v>1.19</v>
+      </c>
+      <c r="BE100">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF100">
+        <v>6.5</v>
+      </c>
+      <c r="BG100">
+        <v>1.22</v>
+      </c>
+      <c r="BH100">
+        <v>3.35</v>
+      </c>
+      <c r="BI100">
+        <v>1.45</v>
+      </c>
+      <c r="BJ100">
+        <v>2.41</v>
+      </c>
+      <c r="BK100">
+        <v>1.91</v>
+      </c>
+      <c r="BL100">
+        <v>1.8</v>
+      </c>
+      <c r="BM100">
+        <v>2.3</v>
+      </c>
+      <c r="BN100">
+        <v>1.49</v>
+      </c>
+      <c r="BO100">
+        <v>3.02</v>
+      </c>
+      <c r="BP100">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7486565</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45585.625</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" t="s">
+        <v>74</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>86</v>
+      </c>
+      <c r="P101" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q101">
+        <v>4.5</v>
+      </c>
+      <c r="R101">
+        <v>2.1</v>
+      </c>
+      <c r="S101">
+        <v>2.63</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3.25</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>9</v>
+      </c>
+      <c r="Y101">
+        <v>1.07</v>
+      </c>
+      <c r="Z101">
+        <v>3.3</v>
+      </c>
+      <c r="AA101">
+        <v>3.25</v>
+      </c>
+      <c r="AB101">
+        <v>1.95</v>
+      </c>
+      <c r="AC101">
+        <v>1.06</v>
+      </c>
+      <c r="AD101">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>1.33</v>
+      </c>
+      <c r="AF101">
+        <v>3.1</v>
+      </c>
+      <c r="AG101">
+        <v>2.05</v>
+      </c>
+      <c r="AH101">
+        <v>1.7</v>
+      </c>
+      <c r="AI101">
+        <v>1.83</v>
+      </c>
+      <c r="AJ101">
+        <v>1.83</v>
+      </c>
+      <c r="AK101">
+        <v>1.83</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.2</v>
+      </c>
+      <c r="AN101">
+        <v>2.6</v>
+      </c>
+      <c r="AO101">
+        <v>1.25</v>
+      </c>
+      <c r="AP101">
+        <v>2.17</v>
+      </c>
+      <c r="AQ101">
+        <v>1.6</v>
+      </c>
+      <c r="AR101">
+        <v>1.23</v>
+      </c>
+      <c r="AS101">
+        <v>1.35</v>
+      </c>
+      <c r="AT101">
+        <v>2.58</v>
+      </c>
+      <c r="AU101">
+        <v>2</v>
+      </c>
+      <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
+        <v>16</v>
+      </c>
+      <c r="BA101">
+        <v>1</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>5</v>
+      </c>
+      <c r="BD101">
+        <v>2.82</v>
+      </c>
+      <c r="BE101">
+        <v>6.4</v>
+      </c>
+      <c r="BF101">
+        <v>1.68</v>
+      </c>
+      <c r="BG101">
+        <v>1.32</v>
+      </c>
+      <c r="BH101">
+        <v>2.78</v>
+      </c>
+      <c r="BI101">
+        <v>1.73</v>
+      </c>
+      <c r="BJ101">
+        <v>2</v>
+      </c>
+      <c r="BK101">
+        <v>2.09</v>
+      </c>
+      <c r="BL101">
+        <v>1.66</v>
+      </c>
+      <c r="BM101">
+        <v>2.74</v>
+      </c>
+      <c r="BN101">
+        <v>1.35</v>
+      </c>
+      <c r="BO101">
+        <v>3.75</v>
+      </c>
+      <c r="BP101">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['13', '30', '40', '72', '90+5']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1339,7 +1345,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2082,7 +2088,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2288,7 +2294,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2494,7 +2500,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2984,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ10">
         <v>0.71</v>
@@ -3112,7 +3118,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3318,7 +3324,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3524,7 +3530,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3602,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3730,7 +3736,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3936,7 +3942,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4142,7 +4148,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4429,7 +4435,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4554,7 +4560,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4635,7 +4641,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4760,7 +4766,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4966,7 +4972,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5044,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5378,7 +5384,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5584,7 +5590,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7026,7 +7032,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7232,7 +7238,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7438,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7516,7 +7522,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32">
         <v>1.17</v>
@@ -7644,7 +7650,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7725,7 +7731,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -7850,7 +7856,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8056,7 +8062,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8262,7 +8268,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8468,7 +8474,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8755,7 +8761,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -9086,7 +9092,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9164,7 +9170,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
         <v>0.71</v>
@@ -9292,7 +9298,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9498,7 +9504,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9910,7 +9916,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10194,7 +10200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
         <v>0.71</v>
@@ -10528,7 +10534,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10940,7 +10946,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11018,7 +11024,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49">
         <v>1.29</v>
@@ -11227,7 +11233,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.71</v>
@@ -11970,7 +11976,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12176,7 +12182,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12257,7 +12263,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12588,7 +12594,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12794,7 +12800,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -13000,7 +13006,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13206,7 +13212,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13618,7 +13624,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14317,7 +14323,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14648,7 +14654,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14729,7 +14735,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -14932,7 +14938,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
         <v>1.29</v>
@@ -15060,7 +15066,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15266,7 +15272,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15472,7 +15478,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15550,7 +15556,7 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -15678,7 +15684,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15884,7 +15890,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16296,7 +16302,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16502,7 +16508,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16708,7 +16714,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17120,7 +17126,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17532,7 +17538,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17816,7 +17822,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82">
         <v>1.63</v>
@@ -17944,7 +17950,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18228,7 +18234,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
         <v>1.43</v>
@@ -18437,7 +18443,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18562,7 +18568,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18849,7 +18855,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -19180,7 +19186,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19386,7 +19392,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19592,7 +19598,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19798,7 +19804,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20004,7 +20010,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20416,7 +20422,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21413,7 +21419,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45585.41666666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F100">
         <v>13</v>
@@ -21619,7 +21625,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45585.625</v>
+        <v>45584.875</v>
       </c>
       <c r="F101">
         <v>13</v>
@@ -21652,7 +21658,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21809,6 +21815,418 @@
       </c>
       <c r="BP101">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7486570</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45586.52083333334</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>153</v>
+      </c>
+      <c r="P102" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q102">
+        <v>2.6</v>
+      </c>
+      <c r="R102">
+        <v>2.05</v>
+      </c>
+      <c r="S102">
+        <v>4.75</v>
+      </c>
+      <c r="T102">
+        <v>1.44</v>
+      </c>
+      <c r="U102">
+        <v>2.63</v>
+      </c>
+      <c r="V102">
+        <v>3.4</v>
+      </c>
+      <c r="W102">
+        <v>1.3</v>
+      </c>
+      <c r="X102">
+        <v>10</v>
+      </c>
+      <c r="Y102">
+        <v>1.06</v>
+      </c>
+      <c r="Z102">
+        <v>1.91</v>
+      </c>
+      <c r="AA102">
+        <v>3.3</v>
+      </c>
+      <c r="AB102">
+        <v>3.4</v>
+      </c>
+      <c r="AC102">
+        <v>1.07</v>
+      </c>
+      <c r="AD102">
+        <v>7.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.38</v>
+      </c>
+      <c r="AF102">
+        <v>2.9</v>
+      </c>
+      <c r="AG102">
+        <v>2.1</v>
+      </c>
+      <c r="AH102">
+        <v>1.65</v>
+      </c>
+      <c r="AI102">
+        <v>2</v>
+      </c>
+      <c r="AJ102">
+        <v>1.73</v>
+      </c>
+      <c r="AK102">
+        <v>1.18</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.87</v>
+      </c>
+      <c r="AN102">
+        <v>1.67</v>
+      </c>
+      <c r="AO102">
+        <v>1.17</v>
+      </c>
+      <c r="AP102">
+        <v>1.86</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.5</v>
+      </c>
+      <c r="AS102">
+        <v>1.29</v>
+      </c>
+      <c r="AT102">
+        <v>2.79</v>
+      </c>
+      <c r="AU102">
+        <v>4</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>13</v>
+      </c>
+      <c r="AZ102">
+        <v>10</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>2</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>1.57</v>
+      </c>
+      <c r="BE102">
+        <v>6.65</v>
+      </c>
+      <c r="BF102">
+        <v>3.14</v>
+      </c>
+      <c r="BG102">
+        <v>1.26</v>
+      </c>
+      <c r="BH102">
+        <v>3.08</v>
+      </c>
+      <c r="BI102">
+        <v>1.51</v>
+      </c>
+      <c r="BJ102">
+        <v>2.26</v>
+      </c>
+      <c r="BK102">
+        <v>1.92</v>
+      </c>
+      <c r="BL102">
+        <v>1.79</v>
+      </c>
+      <c r="BM102">
+        <v>2.43</v>
+      </c>
+      <c r="BN102">
+        <v>1.44</v>
+      </c>
+      <c r="BO102">
+        <v>3.28</v>
+      </c>
+      <c r="BP102">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7486973</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45586.625</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103" t="s">
+        <v>154</v>
+      </c>
+      <c r="P103" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q103">
+        <v>2.75</v>
+      </c>
+      <c r="R103">
+        <v>2.2</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>1.4</v>
+      </c>
+      <c r="U103">
+        <v>2.75</v>
+      </c>
+      <c r="V103">
+        <v>2.75</v>
+      </c>
+      <c r="W103">
+        <v>1.4</v>
+      </c>
+      <c r="X103">
+        <v>8</v>
+      </c>
+      <c r="Y103">
+        <v>1.08</v>
+      </c>
+      <c r="Z103">
+        <v>1.89</v>
+      </c>
+      <c r="AA103">
+        <v>3.3</v>
+      </c>
+      <c r="AB103">
+        <v>3.45</v>
+      </c>
+      <c r="AC103">
+        <v>1.05</v>
+      </c>
+      <c r="AD103">
+        <v>8.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.28</v>
+      </c>
+      <c r="AF103">
+        <v>3.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.92</v>
+      </c>
+      <c r="AH103">
+        <v>1.9</v>
+      </c>
+      <c r="AI103">
+        <v>1.73</v>
+      </c>
+      <c r="AJ103">
+        <v>2</v>
+      </c>
+      <c r="AK103">
+        <v>1.28</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.72</v>
+      </c>
+      <c r="AN103">
+        <v>0.8</v>
+      </c>
+      <c r="AO103">
+        <v>0.6</v>
+      </c>
+      <c r="AP103">
+        <v>1.17</v>
+      </c>
+      <c r="AQ103">
+        <v>0.5</v>
+      </c>
+      <c r="AR103">
+        <v>1.37</v>
+      </c>
+      <c r="AS103">
+        <v>1.44</v>
+      </c>
+      <c r="AT103">
+        <v>2.81</v>
+      </c>
+      <c r="AU103">
+        <v>8</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>4</v>
+      </c>
+      <c r="AX103">
+        <v>4</v>
+      </c>
+      <c r="AY103">
+        <v>17</v>
+      </c>
+      <c r="AZ103">
+        <v>10</v>
+      </c>
+      <c r="BA103">
+        <v>6</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>7</v>
+      </c>
+      <c r="BD103">
+        <v>1.66</v>
+      </c>
+      <c r="BE103">
+        <v>8.4</v>
+      </c>
+      <c r="BF103">
+        <v>2.6</v>
+      </c>
+      <c r="BG103">
+        <v>1.23</v>
+      </c>
+      <c r="BH103">
+        <v>3.28</v>
+      </c>
+      <c r="BI103">
+        <v>1.46</v>
+      </c>
+      <c r="BJ103">
+        <v>2.38</v>
+      </c>
+      <c r="BK103">
+        <v>2.38</v>
+      </c>
+      <c r="BL103">
+        <v>1.86</v>
+      </c>
+      <c r="BM103">
+        <v>2.33</v>
+      </c>
+      <c r="BN103">
+        <v>1.48</v>
+      </c>
+      <c r="BO103">
+        <v>3.08</v>
+      </c>
+      <c r="BP103">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -475,10 +475,10 @@
     <t>['44']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['13', '30', '40', '72', '90+5']</t>
   </si>
   <si>
-    <t>['13', '30', '40', '72', '90+5']</t>
+    <t>['24']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -21822,7 +21822,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7486570</v>
+        <v>7486973</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21831,34 +21831,34 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45586.52083333334</v>
+        <v>45585.875</v>
       </c>
       <c r="F102">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O102" t="s">
         <v>153</v>
@@ -21867,160 +21867,160 @@
         <v>86</v>
       </c>
       <c r="Q102">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S102">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T102">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U102">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V102">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W102">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y102">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z102">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="AA102">
         <v>3.3</v>
       </c>
       <c r="AB102">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AC102">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD102">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE102">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AF102">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AG102">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AH102">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AI102">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AJ102">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AK102">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AL102">
         <v>1.25</v>
       </c>
       <c r="AM102">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="AN102">
-        <v>1.67</v>
+        <v>0.8</v>
       </c>
       <c r="AO102">
+        <v>0.6</v>
+      </c>
+      <c r="AP102">
         <v>1.17</v>
       </c>
-      <c r="AP102">
-        <v>1.86</v>
-      </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS102">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT102">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AU102">
+        <v>8</v>
+      </c>
+      <c r="AV102">
+        <v>0</v>
+      </c>
+      <c r="AW102">
         <v>4</v>
-      </c>
-      <c r="AV102">
-        <v>3</v>
-      </c>
-      <c r="AW102">
-        <v>5</v>
       </c>
       <c r="AX102">
         <v>4</v>
       </c>
       <c r="AY102">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ102">
         <v>10</v>
       </c>
       <c r="BA102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC102">
         <v>7</v>
       </c>
       <c r="BD102">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="BE102">
-        <v>6.65</v>
+        <v>8.4</v>
       </c>
       <c r="BF102">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="BG102">
+        <v>1.23</v>
+      </c>
+      <c r="BH102">
+        <v>3.28</v>
+      </c>
+      <c r="BI102">
+        <v>1.46</v>
+      </c>
+      <c r="BJ102">
+        <v>2.38</v>
+      </c>
+      <c r="BK102">
+        <v>2.38</v>
+      </c>
+      <c r="BL102">
+        <v>1.86</v>
+      </c>
+      <c r="BM102">
+        <v>2.33</v>
+      </c>
+      <c r="BN102">
+        <v>1.48</v>
+      </c>
+      <c r="BO102">
+        <v>3.08</v>
+      </c>
+      <c r="BP102">
         <v>1.26</v>
-      </c>
-      <c r="BH102">
-        <v>3.08</v>
-      </c>
-      <c r="BI102">
-        <v>1.51</v>
-      </c>
-      <c r="BJ102">
-        <v>2.26</v>
-      </c>
-      <c r="BK102">
-        <v>1.92</v>
-      </c>
-      <c r="BL102">
-        <v>1.79</v>
-      </c>
-      <c r="BM102">
-        <v>2.43</v>
-      </c>
-      <c r="BN102">
-        <v>1.44</v>
-      </c>
-      <c r="BO102">
-        <v>3.28</v>
-      </c>
-      <c r="BP102">
-        <v>1.23</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22028,7 +22028,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7486973</v>
+        <v>7486570</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22037,34 +22037,34 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45586.625</v>
+        <v>45585.875</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O103" t="s">
         <v>154</v>
@@ -22073,160 +22073,160 @@
         <v>86</v>
       </c>
       <c r="Q103">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R103">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T103">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U103">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V103">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W103">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z103">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AA103">
         <v>3.3</v>
       </c>
       <c r="AB103">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD103">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE103">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AF103">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AG103">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AH103">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AI103">
+        <v>2</v>
+      </c>
+      <c r="AJ103">
         <v>1.73</v>
       </c>
-      <c r="AJ103">
-        <v>2</v>
-      </c>
       <c r="AK103">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AL103">
         <v>1.25</v>
       </c>
       <c r="AM103">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AN103">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AO103">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR103">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS103">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT103">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="AU103">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX103">
         <v>4</v>
       </c>
       <c r="AY103">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ103">
         <v>10</v>
       </c>
       <c r="BA103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC103">
         <v>7</v>
       </c>
       <c r="BD103">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="BE103">
-        <v>8.4</v>
+        <v>6.65</v>
       </c>
       <c r="BF103">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="BG103">
+        <v>1.26</v>
+      </c>
+      <c r="BH103">
+        <v>3.08</v>
+      </c>
+      <c r="BI103">
+        <v>1.51</v>
+      </c>
+      <c r="BJ103">
+        <v>2.26</v>
+      </c>
+      <c r="BK103">
+        <v>1.92</v>
+      </c>
+      <c r="BL103">
+        <v>1.79</v>
+      </c>
+      <c r="BM103">
+        <v>2.43</v>
+      </c>
+      <c r="BN103">
+        <v>1.44</v>
+      </c>
+      <c r="BO103">
+        <v>3.28</v>
+      </c>
+      <c r="BP103">
         <v>1.23</v>
-      </c>
-      <c r="BH103">
-        <v>3.28</v>
-      </c>
-      <c r="BI103">
-        <v>1.46</v>
-      </c>
-      <c r="BJ103">
-        <v>2.38</v>
-      </c>
-      <c r="BK103">
-        <v>2.38</v>
-      </c>
-      <c r="BL103">
-        <v>1.86</v>
-      </c>
-      <c r="BM103">
-        <v>2.33</v>
-      </c>
-      <c r="BN103">
-        <v>1.48</v>
-      </c>
-      <c r="BO103">
-        <v>3.08</v>
-      </c>
-      <c r="BP103">
-        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -475,10 +475,10 @@
     <t>['44']</t>
   </si>
   <si>
-    <t>['13', '30', '40', '72', '90+5']</t>
+    <t>['24']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['13', '30', '40', '72', '90+5']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -21419,7 +21419,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45584.875</v>
+        <v>45585.41666666666</v>
       </c>
       <c r="F100">
         <v>13</v>
@@ -21554,13 +21554,13 @@
         <v>9</v>
       </c>
       <c r="AX100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY100">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA100">
         <v>7</v>
@@ -21625,7 +21625,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45584.875</v>
+        <v>45585.625</v>
       </c>
       <c r="F101">
         <v>13</v>
@@ -21754,19 +21754,19 @@
         <v>2</v>
       </c>
       <c r="AV101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW101">
         <v>3</v>
       </c>
       <c r="AX101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY101">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AZ101">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA101">
         <v>1</v>
@@ -21822,7 +21822,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7486973</v>
+        <v>7486570</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21831,34 +21831,34 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45585.875</v>
+        <v>45586.52083333334</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O102" t="s">
         <v>153</v>
@@ -21867,160 +21867,160 @@
         <v>86</v>
       </c>
       <c r="Q102">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R102">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T102">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U102">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V102">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W102">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y102">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z102">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AA102">
         <v>3.3</v>
       </c>
       <c r="AB102">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AC102">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD102">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE102">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AF102">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AG102">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AH102">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AI102">
+        <v>2</v>
+      </c>
+      <c r="AJ102">
         <v>1.73</v>
       </c>
-      <c r="AJ102">
-        <v>2</v>
-      </c>
       <c r="AK102">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AL102">
         <v>1.25</v>
       </c>
       <c r="AM102">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AN102">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AO102">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR102">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS102">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT102">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="AU102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX102">
         <v>4</v>
       </c>
       <c r="AY102">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ102">
         <v>10</v>
       </c>
       <c r="BA102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC102">
         <v>7</v>
       </c>
       <c r="BD102">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="BE102">
-        <v>8.4</v>
+        <v>6.65</v>
       </c>
       <c r="BF102">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="BG102">
+        <v>1.26</v>
+      </c>
+      <c r="BH102">
+        <v>3.08</v>
+      </c>
+      <c r="BI102">
+        <v>1.51</v>
+      </c>
+      <c r="BJ102">
+        <v>2.26</v>
+      </c>
+      <c r="BK102">
+        <v>1.92</v>
+      </c>
+      <c r="BL102">
+        <v>1.79</v>
+      </c>
+      <c r="BM102">
+        <v>2.43</v>
+      </c>
+      <c r="BN102">
+        <v>1.44</v>
+      </c>
+      <c r="BO102">
+        <v>3.28</v>
+      </c>
+      <c r="BP102">
         <v>1.23</v>
-      </c>
-      <c r="BH102">
-        <v>3.28</v>
-      </c>
-      <c r="BI102">
-        <v>1.46</v>
-      </c>
-      <c r="BJ102">
-        <v>2.38</v>
-      </c>
-      <c r="BK102">
-        <v>2.38</v>
-      </c>
-      <c r="BL102">
-        <v>1.86</v>
-      </c>
-      <c r="BM102">
-        <v>2.33</v>
-      </c>
-      <c r="BN102">
-        <v>1.48</v>
-      </c>
-      <c r="BO102">
-        <v>3.08</v>
-      </c>
-      <c r="BP102">
-        <v>1.26</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22028,7 +22028,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7486570</v>
+        <v>7486973</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22037,34 +22037,34 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45585.875</v>
+        <v>45586.625</v>
       </c>
       <c r="F103">
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O103" t="s">
         <v>154</v>
@@ -22073,160 +22073,160 @@
         <v>86</v>
       </c>
       <c r="Q103">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S103">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T103">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U103">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V103">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W103">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X103">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y103">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z103">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="AA103">
         <v>3.3</v>
       </c>
       <c r="AB103">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AC103">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD103">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE103">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AF103">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AG103">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AH103">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AI103">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AJ103">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AK103">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AL103">
         <v>1.25</v>
       </c>
       <c r="AM103">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="AN103">
-        <v>1.67</v>
+        <v>0.8</v>
       </c>
       <c r="AO103">
+        <v>0.6</v>
+      </c>
+      <c r="AP103">
         <v>1.17</v>
       </c>
-      <c r="AP103">
-        <v>1.86</v>
-      </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT103">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AU103">
+        <v>8</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
         <v>4</v>
-      </c>
-      <c r="AV103">
-        <v>3</v>
-      </c>
-      <c r="AW103">
-        <v>5</v>
       </c>
       <c r="AX103">
         <v>4</v>
       </c>
       <c r="AY103">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ103">
         <v>10</v>
       </c>
       <c r="BA103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC103">
         <v>7</v>
       </c>
       <c r="BD103">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="BE103">
-        <v>6.65</v>
+        <v>8.4</v>
       </c>
       <c r="BF103">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="BG103">
+        <v>1.23</v>
+      </c>
+      <c r="BH103">
+        <v>3.28</v>
+      </c>
+      <c r="BI103">
+        <v>1.46</v>
+      </c>
+      <c r="BJ103">
+        <v>2.38</v>
+      </c>
+      <c r="BK103">
+        <v>2.38</v>
+      </c>
+      <c r="BL103">
+        <v>1.86</v>
+      </c>
+      <c r="BM103">
+        <v>2.33</v>
+      </c>
+      <c r="BN103">
+        <v>1.48</v>
+      </c>
+      <c r="BO103">
+        <v>3.08</v>
+      </c>
+      <c r="BP103">
         <v>1.26</v>
-      </c>
-      <c r="BH103">
-        <v>3.08</v>
-      </c>
-      <c r="BI103">
-        <v>1.51</v>
-      </c>
-      <c r="BJ103">
-        <v>2.26</v>
-      </c>
-      <c r="BK103">
-        <v>1.92</v>
-      </c>
-      <c r="BL103">
-        <v>1.79</v>
-      </c>
-      <c r="BM103">
-        <v>2.43</v>
-      </c>
-      <c r="BN103">
-        <v>1.44</v>
-      </c>
-      <c r="BO103">
-        <v>3.28</v>
-      </c>
-      <c r="BP103">
-        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,9 @@
     <t>['13', '30', '40', '72', '90+5']</t>
   </si>
   <si>
+    <t>['52', '86', '90+3']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
   </si>
   <si>
     <t>['26', '90+3']</t>
+  </si>
+  <si>
+    <t>['37', '55', '83']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1270,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2088,7 +2094,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2294,7 +2300,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2372,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>0.71</v>
@@ -2500,7 +2506,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3118,7 +3124,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3324,7 +3330,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3530,7 +3536,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3736,7 +3742,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3942,7 +3948,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4148,7 +4154,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4229,7 +4235,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4560,7 +4566,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4766,7 +4772,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4972,7 +4978,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5384,7 +5390,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5590,7 +5596,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5668,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -7032,7 +7038,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7110,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
         <v>1.63</v>
@@ -7238,7 +7244,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7444,7 +7450,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7525,7 +7531,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7650,7 +7656,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7856,7 +7862,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8062,7 +8068,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8268,7 +8274,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8474,7 +8480,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8758,7 +8764,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9092,7 +9098,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9298,7 +9304,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9504,7 +9510,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9916,7 +9922,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10409,7 +10415,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10534,7 +10540,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10946,7 +10952,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11642,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -11976,7 +11982,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12182,7 +12188,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12469,7 +12475,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12594,7 +12600,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12800,7 +12806,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -13006,7 +13012,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13212,7 +13218,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13624,7 +13630,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14654,7 +14660,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15066,7 +15072,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15144,7 +15150,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>1.6</v>
@@ -15272,7 +15278,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15478,7 +15484,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15684,7 +15690,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15890,7 +15896,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16302,7 +16308,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16508,7 +16514,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16589,7 +16595,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -16714,7 +16720,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17126,7 +17132,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17538,7 +17544,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17950,7 +17956,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18028,7 +18034,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18568,7 +18574,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19186,7 +19192,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19392,7 +19398,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19598,7 +19604,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19676,7 +19682,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -19804,7 +19810,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20010,7 +20016,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20091,7 +20097,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20422,7 +20428,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21658,7 +21664,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22227,6 +22233,212 @@
       </c>
       <c r="BP103">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7486575</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>6</v>
+      </c>
+      <c r="O104" t="s">
+        <v>155</v>
+      </c>
+      <c r="P104" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q104">
+        <v>2.4</v>
+      </c>
+      <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>4.75</v>
+      </c>
+      <c r="T104">
+        <v>1.46</v>
+      </c>
+      <c r="U104">
+        <v>2.55</v>
+      </c>
+      <c r="V104">
+        <v>3.15</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y104">
+        <v>1.05</v>
+      </c>
+      <c r="Z104">
+        <v>1.78</v>
+      </c>
+      <c r="AA104">
+        <v>3.6</v>
+      </c>
+      <c r="AB104">
+        <v>4.2</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>7.3</v>
+      </c>
+      <c r="AE104">
+        <v>1.36</v>
+      </c>
+      <c r="AF104">
+        <v>2.95</v>
+      </c>
+      <c r="AG104">
+        <v>1.83</v>
+      </c>
+      <c r="AH104">
+        <v>1.9</v>
+      </c>
+      <c r="AI104">
+        <v>2</v>
+      </c>
+      <c r="AJ104">
+        <v>1.75</v>
+      </c>
+      <c r="AK104">
+        <v>1.15</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.95</v>
+      </c>
+      <c r="AN104">
+        <v>1.63</v>
+      </c>
+      <c r="AO104">
+        <v>1.17</v>
+      </c>
+      <c r="AP104">
+        <v>1.56</v>
+      </c>
+      <c r="AQ104">
+        <v>1.14</v>
+      </c>
+      <c r="AR104">
+        <v>1.78</v>
+      </c>
+      <c r="AS104">
+        <v>1.74</v>
+      </c>
+      <c r="AT104">
+        <v>3.52</v>
+      </c>
+      <c r="AU104">
+        <v>9</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>10</v>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+      <c r="AY104">
+        <v>24</v>
+      </c>
+      <c r="AZ104">
+        <v>6</v>
+      </c>
+      <c r="BA104">
+        <v>10</v>
+      </c>
+      <c r="BB104">
+        <v>4</v>
+      </c>
+      <c r="BC104">
+        <v>14</v>
+      </c>
+      <c r="BD104">
+        <v>1.36</v>
+      </c>
+      <c r="BE104">
+        <v>7.6</v>
+      </c>
+      <c r="BF104">
+        <v>4.2</v>
+      </c>
+      <c r="BG104">
+        <v>1.22</v>
+      </c>
+      <c r="BH104">
+        <v>3.35</v>
+      </c>
+      <c r="BI104">
+        <v>1.52</v>
+      </c>
+      <c r="BJ104">
+        <v>2.5</v>
+      </c>
+      <c r="BK104">
+        <v>1.86</v>
+      </c>
+      <c r="BL104">
+        <v>1.93</v>
+      </c>
+      <c r="BM104">
+        <v>2.37</v>
+      </c>
+      <c r="BN104">
+        <v>1.57</v>
+      </c>
+      <c r="BO104">
+        <v>3.02</v>
+      </c>
+      <c r="BP104">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,12 @@
     <t>['52', '86', '90+3']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['25', '53', '88']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -650,6 +656,12 @@
   </si>
   <si>
     <t>['37', '55', '83']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['33', '88']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1282,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1554,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>1.29</v>
@@ -1763,7 +1775,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1966,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1.29</v>
@@ -2094,7 +2106,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2300,7 +2312,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2381,7 +2393,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2506,7 +2518,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2790,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3124,7 +3136,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3330,7 +3342,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3536,7 +3548,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3742,7 +3754,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3948,7 +3960,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4154,7 +4166,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4566,7 +4578,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4644,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4772,7 +4784,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4978,7 +4990,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5059,7 +5071,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5265,7 +5277,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5390,7 +5402,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5596,7 +5608,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5880,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.63</v>
@@ -6086,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>1.29</v>
@@ -6501,7 +6513,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -6707,7 +6719,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7038,7 +7050,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7244,7 +7256,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7450,7 +7462,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7656,7 +7668,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7862,7 +7874,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7940,7 +7952,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>0.71</v>
@@ -8068,7 +8080,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8146,7 +8158,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.43</v>
@@ -8274,7 +8286,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8480,7 +8492,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8970,7 +8982,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>1.63</v>
@@ -9098,7 +9110,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9179,7 +9191,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9304,7 +9316,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9510,7 +9522,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9591,7 +9603,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -9922,7 +9934,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10003,7 +10015,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10209,7 +10221,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10540,7 +10552,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10824,7 +10836,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>1.43</v>
@@ -10952,7 +10964,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11854,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -11982,7 +11994,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12188,7 +12200,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12266,7 +12278,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12600,7 +12612,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12678,10 +12690,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -12806,7 +12818,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -13012,7 +13024,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13218,7 +13230,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13630,7 +13642,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13711,7 +13723,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ62">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -13917,7 +13929,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ63">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14660,7 +14672,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14738,7 +14750,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -15072,7 +15084,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15278,7 +15290,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15356,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>0.17</v>
@@ -15484,7 +15496,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15690,7 +15702,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15771,7 +15783,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
         <v>1.78</v>
@@ -15896,7 +15908,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -15977,7 +15989,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16180,7 +16192,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16308,7 +16320,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16514,7 +16526,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16720,7 +16732,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17004,10 +17016,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17132,7 +17144,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17416,7 +17428,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>0.17</v>
@@ -17544,7 +17556,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17956,7 +17968,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18574,7 +18586,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19064,7 +19076,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>1.33</v>
@@ -19192,7 +19204,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19273,7 +19285,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.6</v>
@@ -19398,7 +19410,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19604,7 +19616,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19685,7 +19697,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -19810,7 +19822,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20016,7 +20028,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20094,7 +20106,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1.14</v>
@@ -20428,7 +20440,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20509,7 +20521,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -21330,7 +21342,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -21664,7 +21676,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22249,7 +22261,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F104">
         <v>14</v>
@@ -22282,7 +22294,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22375,22 +22387,22 @@
         <v>3.52</v>
       </c>
       <c r="AU104">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY104">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AZ104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BA104">
         <v>10</v>
@@ -22439,6 +22451,624 @@
       </c>
       <c r="BP104">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7486579</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45591.3125</v>
+      </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>84</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>156</v>
+      </c>
+      <c r="P105" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q105">
+        <v>2.45</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>4.75</v>
+      </c>
+      <c r="T105">
+        <v>1.5</v>
+      </c>
+      <c r="U105">
+        <v>2.4</v>
+      </c>
+      <c r="V105">
+        <v>3.28</v>
+      </c>
+      <c r="W105">
+        <v>1.31</v>
+      </c>
+      <c r="X105">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y105">
+        <v>1.05</v>
+      </c>
+      <c r="Z105">
+        <v>1.8</v>
+      </c>
+      <c r="AA105">
+        <v>3.3</v>
+      </c>
+      <c r="AB105">
+        <v>4.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>6.85</v>
+      </c>
+      <c r="AE105">
+        <v>1.42</v>
+      </c>
+      <c r="AF105">
+        <v>2.75</v>
+      </c>
+      <c r="AG105">
+        <v>2.2</v>
+      </c>
+      <c r="AH105">
+        <v>1.58</v>
+      </c>
+      <c r="AI105">
+        <v>2.1</v>
+      </c>
+      <c r="AJ105">
+        <v>1.7</v>
+      </c>
+      <c r="AK105">
+        <v>1.15</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.95</v>
+      </c>
+      <c r="AN105">
+        <v>1.29</v>
+      </c>
+      <c r="AO105">
+        <v>0.71</v>
+      </c>
+      <c r="AP105">
+        <v>1.5</v>
+      </c>
+      <c r="AQ105">
+        <v>0.63</v>
+      </c>
+      <c r="AR105">
+        <v>1.58</v>
+      </c>
+      <c r="AS105">
+        <v>1.1</v>
+      </c>
+      <c r="AT105">
+        <v>2.68</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>13</v>
+      </c>
+      <c r="AZ105">
+        <v>10</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>1.53</v>
+      </c>
+      <c r="BE105">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF105">
+        <v>2.97</v>
+      </c>
+      <c r="BG105">
+        <v>1.24</v>
+      </c>
+      <c r="BH105">
+        <v>3.22</v>
+      </c>
+      <c r="BI105">
+        <v>1.49</v>
+      </c>
+      <c r="BJ105">
+        <v>2.3</v>
+      </c>
+      <c r="BK105">
+        <v>1.88</v>
+      </c>
+      <c r="BL105">
+        <v>1.82</v>
+      </c>
+      <c r="BM105">
+        <v>2.38</v>
+      </c>
+      <c r="BN105">
+        <v>1.46</v>
+      </c>
+      <c r="BO105">
+        <v>3.22</v>
+      </c>
+      <c r="BP105">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7486601</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45591.41666666666</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>157</v>
+      </c>
+      <c r="P106" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q106">
+        <v>2.85</v>
+      </c>
+      <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>1.51</v>
+      </c>
+      <c r="U106">
+        <v>2.4</v>
+      </c>
+      <c r="V106">
+        <v>3.28</v>
+      </c>
+      <c r="W106">
+        <v>1.31</v>
+      </c>
+      <c r="X106">
+        <v>8.9</v>
+      </c>
+      <c r="Y106">
+        <v>1.04</v>
+      </c>
+      <c r="Z106">
+        <v>1.98</v>
+      </c>
+      <c r="AA106">
+        <v>3.1</v>
+      </c>
+      <c r="AB106">
+        <v>3.6</v>
+      </c>
+      <c r="AC106">
+        <v>1.09</v>
+      </c>
+      <c r="AD106">
+        <v>6.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.45</v>
+      </c>
+      <c r="AF106">
+        <v>2.65</v>
+      </c>
+      <c r="AG106">
+        <v>2.35</v>
+      </c>
+      <c r="AH106">
+        <v>1.52</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.75</v>
+      </c>
+      <c r="AK106">
+        <v>1.3</v>
+      </c>
+      <c r="AL106">
+        <v>1.28</v>
+      </c>
+      <c r="AM106">
+        <v>1.66</v>
+      </c>
+      <c r="AN106">
+        <v>1.57</v>
+      </c>
+      <c r="AO106">
+        <v>0.67</v>
+      </c>
+      <c r="AP106">
+        <v>1.75</v>
+      </c>
+      <c r="AQ106">
+        <v>0.57</v>
+      </c>
+      <c r="AR106">
+        <v>1.16</v>
+      </c>
+      <c r="AS106">
+        <v>1.6</v>
+      </c>
+      <c r="AT106">
+        <v>2.76</v>
+      </c>
+      <c r="AU106">
+        <v>11</v>
+      </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
+      <c r="AW106">
+        <v>9</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>22</v>
+      </c>
+      <c r="AZ106">
+        <v>6</v>
+      </c>
+      <c r="BA106">
+        <v>14</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>14</v>
+      </c>
+      <c r="BD106">
+        <v>1.61</v>
+      </c>
+      <c r="BE106">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF106">
+        <v>2.75</v>
+      </c>
+      <c r="BG106">
+        <v>1.27</v>
+      </c>
+      <c r="BH106">
+        <v>3.04</v>
+      </c>
+      <c r="BI106">
+        <v>1.53</v>
+      </c>
+      <c r="BJ106">
+        <v>2.21</v>
+      </c>
+      <c r="BK106">
+        <v>1.95</v>
+      </c>
+      <c r="BL106">
+        <v>1.76</v>
+      </c>
+      <c r="BM106">
+        <v>2.49</v>
+      </c>
+      <c r="BN106">
+        <v>1.42</v>
+      </c>
+      <c r="BO106">
+        <v>3.35</v>
+      </c>
+      <c r="BP106">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7486583</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45591.54166666666</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>86</v>
+      </c>
+      <c r="P107" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>3.6</v>
+      </c>
+      <c r="T107">
+        <v>1.51</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>3.28</v>
+      </c>
+      <c r="W107">
+        <v>1.31</v>
+      </c>
+      <c r="X107">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>2.35</v>
+      </c>
+      <c r="AA107">
+        <v>3</v>
+      </c>
+      <c r="AB107">
+        <v>2.9</v>
+      </c>
+      <c r="AC107">
+        <v>1.03</v>
+      </c>
+      <c r="AD107">
+        <v>6.85</v>
+      </c>
+      <c r="AE107">
+        <v>1.42</v>
+      </c>
+      <c r="AF107">
+        <v>2.75</v>
+      </c>
+      <c r="AG107">
+        <v>2.2</v>
+      </c>
+      <c r="AH107">
+        <v>1.58</v>
+      </c>
+      <c r="AI107">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107">
+        <v>1.8</v>
+      </c>
+      <c r="AK107">
+        <v>1.36</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.55</v>
+      </c>
+      <c r="AN107">
+        <v>1.71</v>
+      </c>
+      <c r="AO107">
+        <v>0.71</v>
+      </c>
+      <c r="AP107">
+        <v>1.5</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.21</v>
+      </c>
+      <c r="AS107">
+        <v>1.04</v>
+      </c>
+      <c r="AT107">
+        <v>2.25</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>7</v>
+      </c>
+      <c r="AX107">
+        <v>8</v>
+      </c>
+      <c r="AY107">
+        <v>12</v>
+      </c>
+      <c r="AZ107">
+        <v>10</v>
+      </c>
+      <c r="BA107">
+        <v>10</v>
+      </c>
+      <c r="BB107">
+        <v>1</v>
+      </c>
+      <c r="BC107">
+        <v>11</v>
+      </c>
+      <c r="BD107">
+        <v>1.71</v>
+      </c>
+      <c r="BE107">
+        <v>8.1</v>
+      </c>
+      <c r="BF107">
+        <v>2.52</v>
+      </c>
+      <c r="BG107">
+        <v>1.36</v>
+      </c>
+      <c r="BH107">
+        <v>2.7</v>
+      </c>
+      <c r="BI107">
+        <v>1.7</v>
+      </c>
+      <c r="BJ107">
+        <v>2.03</v>
+      </c>
+      <c r="BK107">
+        <v>2.14</v>
+      </c>
+      <c r="BL107">
+        <v>1.57</v>
+      </c>
+      <c r="BM107">
+        <v>2.82</v>
+      </c>
+      <c r="BN107">
+        <v>1.31</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -22387,22 +22387,22 @@
         <v>3.52</v>
       </c>
       <c r="AU104">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY104">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AZ104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA104">
         <v>10</v>
@@ -22467,7 +22467,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45591.3125</v>
+        <v>45590.875</v>
       </c>
       <c r="F105">
         <v>14</v>
@@ -23005,22 +23005,22 @@
         <v>2.25</v>
       </c>
       <c r="AU107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY107">
         <v>12</v>
       </c>
       <c r="AZ107">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA107">
         <v>10</v>
@@ -23065,10 +23065,10 @@
         <v>1.31</v>
       </c>
       <c r="BO107">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BP107">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -663,6 +663,9 @@
   <si>
     <t>['33', '88']</t>
   </si>
+  <si>
+    <t>['47', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1023,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1366,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1981,7 +1984,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -4450,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4659,7 +4662,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4862,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.43</v>
@@ -6101,7 +6104,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6304,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>0.17</v>
@@ -7746,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8367,7 +8370,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8779,7 +8782,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -10012,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -11045,7 +11048,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11251,7 +11254,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.71</v>
@@ -12484,7 +12487,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.14</v>
@@ -12899,7 +12902,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -13514,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -14341,7 +14344,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -15986,7 +15989,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16398,7 +16401,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>1.33</v>
@@ -17225,7 +17228,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -18873,7 +18876,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -19900,7 +19903,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>1.29</v>
@@ -20315,7 +20318,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -20518,7 +20521,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
         <v>0.63</v>
@@ -21963,7 +21966,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22261,7 +22264,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F104">
         <v>14</v>
@@ -22467,7 +22470,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45590.875</v>
+        <v>45591.3125</v>
       </c>
       <c r="F105">
         <v>14</v>
@@ -22676,7 +22679,7 @@
         <v>45591.41666666666</v>
       </c>
       <c r="F106">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>77</v>
@@ -22882,7 +22885,7 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
         <v>71</v>
@@ -23069,6 +23072,418 @@
       </c>
       <c r="BP107">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7486977</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45592.45833333334</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>85</v>
+      </c>
+      <c r="H108" t="s">
+        <v>79</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>86</v>
+      </c>
+      <c r="P108" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q108">
+        <v>2.63</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>5</v>
+      </c>
+      <c r="T108">
+        <v>1.57</v>
+      </c>
+      <c r="U108">
+        <v>2.25</v>
+      </c>
+      <c r="V108">
+        <v>3.75</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>13</v>
+      </c>
+      <c r="Y108">
+        <v>1.04</v>
+      </c>
+      <c r="Z108">
+        <v>1.75</v>
+      </c>
+      <c r="AA108">
+        <v>3.25</v>
+      </c>
+      <c r="AB108">
+        <v>5.03</v>
+      </c>
+      <c r="AC108">
+        <v>1.1</v>
+      </c>
+      <c r="AD108">
+        <v>6</v>
+      </c>
+      <c r="AE108">
+        <v>1.5</v>
+      </c>
+      <c r="AF108">
+        <v>2.4</v>
+      </c>
+      <c r="AG108">
+        <v>2.43</v>
+      </c>
+      <c r="AH108">
+        <v>1.54</v>
+      </c>
+      <c r="AI108">
+        <v>2.25</v>
+      </c>
+      <c r="AJ108">
+        <v>1.57</v>
+      </c>
+      <c r="AK108">
+        <v>1.17</v>
+      </c>
+      <c r="AL108">
+        <v>1.39</v>
+      </c>
+      <c r="AM108">
+        <v>1.97</v>
+      </c>
+      <c r="AN108">
+        <v>1.8</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>1.5</v>
+      </c>
+      <c r="AQ108">
+        <v>1.25</v>
+      </c>
+      <c r="AR108">
+        <v>1.42</v>
+      </c>
+      <c r="AS108">
+        <v>1.26</v>
+      </c>
+      <c r="AT108">
+        <v>2.68</v>
+      </c>
+      <c r="AU108">
+        <v>0</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>10</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>12</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>4</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>1.41</v>
+      </c>
+      <c r="BE108">
+        <v>8.9</v>
+      </c>
+      <c r="BF108">
+        <v>3.52</v>
+      </c>
+      <c r="BG108">
+        <v>1.3</v>
+      </c>
+      <c r="BH108">
+        <v>2.88</v>
+      </c>
+      <c r="BI108">
+        <v>1.63</v>
+      </c>
+      <c r="BJ108">
+        <v>2.25</v>
+      </c>
+      <c r="BK108">
+        <v>2.04</v>
+      </c>
+      <c r="BL108">
+        <v>1.76</v>
+      </c>
+      <c r="BM108">
+        <v>2.62</v>
+      </c>
+      <c r="BN108">
+        <v>1.38</v>
+      </c>
+      <c r="BO108">
+        <v>3.58</v>
+      </c>
+      <c r="BP108">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7486587</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45592.66666666666</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>81</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>86</v>
+      </c>
+      <c r="P109" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q109">
+        <v>2.4</v>
+      </c>
+      <c r="R109">
+        <v>2.25</v>
+      </c>
+      <c r="S109">
+        <v>4.5</v>
+      </c>
+      <c r="T109">
+        <v>1.36</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>7</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>1.55</v>
+      </c>
+      <c r="AA109">
+        <v>5.17</v>
+      </c>
+      <c r="AB109">
+        <v>3.67</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>9</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.75</v>
+      </c>
+      <c r="AG109">
+        <v>1.86</v>
+      </c>
+      <c r="AH109">
+        <v>1.69</v>
+      </c>
+      <c r="AI109">
+        <v>1.8</v>
+      </c>
+      <c r="AJ109">
+        <v>1.91</v>
+      </c>
+      <c r="AK109">
+        <v>1.24</v>
+      </c>
+      <c r="AL109">
+        <v>1.29</v>
+      </c>
+      <c r="AM109">
+        <v>2</v>
+      </c>
+      <c r="AN109">
+        <v>1.57</v>
+      </c>
+      <c r="AO109">
+        <v>1.29</v>
+      </c>
+      <c r="AP109">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109">
+        <v>1.25</v>
+      </c>
+      <c r="AR109">
+        <v>2.02</v>
+      </c>
+      <c r="AS109">
+        <v>1.49</v>
+      </c>
+      <c r="AT109">
+        <v>3.51</v>
+      </c>
+      <c r="AU109">
+        <v>7</v>
+      </c>
+      <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
+        <v>14</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>24</v>
+      </c>
+      <c r="AZ109">
+        <v>12</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>1.5</v>
+      </c>
+      <c r="BE109">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF109">
+        <v>3.08</v>
+      </c>
+      <c r="BG109">
+        <v>1.24</v>
+      </c>
+      <c r="BH109">
+        <v>3.22</v>
+      </c>
+      <c r="BI109">
+        <v>1.52</v>
+      </c>
+      <c r="BJ109">
+        <v>2.47</v>
+      </c>
+      <c r="BK109">
+        <v>1.88</v>
+      </c>
+      <c r="BL109">
+        <v>1.92</v>
+      </c>
+      <c r="BM109">
+        <v>2.39</v>
+      </c>
+      <c r="BN109">
+        <v>1.55</v>
+      </c>
+      <c r="BO109">
+        <v>3.14</v>
+      </c>
+      <c r="BP109">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,12 @@
     <t>['25', '53', '88']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['6', '12', '59']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -634,9 +640,6 @@
     <t>['15']</t>
   </si>
   <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>['52', '63']</t>
   </si>
   <si>
@@ -665,6 +668,12 @@
   </si>
   <si>
     <t>['47', '84']</t>
+  </si>
+  <si>
+    <t>['45', '88']</t>
+  </si>
+  <si>
+    <t>['52', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1294,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1363,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1572,7 +1581,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2109,7 +2118,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2190,7 +2199,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2315,7 +2324,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2521,7 +2530,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2599,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ8">
         <v>1.43</v>
@@ -3139,7 +3148,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3345,7 +3354,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3551,7 +3560,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3757,7 +3766,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3963,7 +3972,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4169,7 +4178,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4581,7 +4590,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4787,7 +4796,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4993,7 +5002,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5405,7 +5414,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5483,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ22">
         <v>0.71</v>
@@ -5611,7 +5620,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5692,7 +5701,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -5898,7 +5907,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR24">
         <v>1.56</v>
@@ -6719,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28">
         <v>0.57</v>
@@ -7053,7 +7062,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7134,7 +7143,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7259,7 +7268,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7465,7 +7474,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7671,7 +7680,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7877,7 +7886,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8083,7 +8092,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8289,7 +8298,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8495,7 +8504,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8576,7 +8585,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8988,7 +8997,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9113,7 +9122,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9319,7 +9328,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9525,7 +9534,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9809,7 +9818,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9937,7 +9946,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10555,7 +10564,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10633,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
         <v>0.17</v>
@@ -10967,7 +10976,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11460,7 +11469,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11997,7 +12006,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12078,7 +12087,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -12203,7 +12212,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12615,7 +12624,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12821,7 +12830,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -13027,7 +13036,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13105,7 +13114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13233,7 +13242,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13311,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13645,7 +13654,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14675,7 +14684,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14962,7 +14971,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -15087,7 +15096,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15293,7 +15302,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15499,7 +15508,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15580,7 +15589,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -15705,7 +15714,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15783,7 +15792,7 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -15911,7 +15920,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16323,7 +16332,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16529,7 +16538,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16607,7 +16616,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
         <v>1.14</v>
@@ -16735,7 +16744,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16816,7 +16825,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -17147,7 +17156,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17559,7 +17568,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17846,7 +17855,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -17971,7 +17980,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18589,7 +18598,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19207,7 +19216,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19285,7 +19294,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19413,7 +19422,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19494,7 +19503,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ90">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -19619,7 +19628,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19825,7 +19834,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19906,7 +19915,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20031,7 +20040,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20315,7 +20324,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20443,7 +20452,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21679,7 +21688,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22297,7 +22306,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22709,7 +22718,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22915,7 +22924,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23091,7 +23100,7 @@
         <v>45592.45833333334</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
         <v>85</v>
@@ -23121,7 +23130,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23484,6 +23493,418 @@
       </c>
       <c r="BP109">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7486595</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45593.54166666666</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>82</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>158</v>
+      </c>
+      <c r="P110" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>2.95</v>
+      </c>
+      <c r="T110">
+        <v>1.45</v>
+      </c>
+      <c r="U110">
+        <v>2.55</v>
+      </c>
+      <c r="V110">
+        <v>3.45</v>
+      </c>
+      <c r="W110">
+        <v>1.26</v>
+      </c>
+      <c r="X110">
+        <v>10</v>
+      </c>
+      <c r="Y110">
+        <v>1.04</v>
+      </c>
+      <c r="Z110">
+        <v>3.25</v>
+      </c>
+      <c r="AA110">
+        <v>3</v>
+      </c>
+      <c r="AB110">
+        <v>2.25</v>
+      </c>
+      <c r="AC110">
+        <v>1.09</v>
+      </c>
+      <c r="AD110">
+        <v>6.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.48</v>
+      </c>
+      <c r="AF110">
+        <v>2.55</v>
+      </c>
+      <c r="AG110">
+        <v>2.33</v>
+      </c>
+      <c r="AH110">
+        <v>1.58</v>
+      </c>
+      <c r="AI110">
+        <v>2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.76</v>
+      </c>
+      <c r="AK110">
+        <v>1.61</v>
+      </c>
+      <c r="AL110">
+        <v>1.34</v>
+      </c>
+      <c r="AM110">
+        <v>1.32</v>
+      </c>
+      <c r="AN110">
+        <v>1.4</v>
+      </c>
+      <c r="AO110">
+        <v>1.63</v>
+      </c>
+      <c r="AP110">
+        <v>1.17</v>
+      </c>
+      <c r="AQ110">
+        <v>1.78</v>
+      </c>
+      <c r="AR110">
+        <v>1.9</v>
+      </c>
+      <c r="AS110">
+        <v>1.19</v>
+      </c>
+      <c r="AT110">
+        <v>3.09</v>
+      </c>
+      <c r="AU110">
+        <v>3</v>
+      </c>
+      <c r="AV110">
+        <v>7</v>
+      </c>
+      <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>9</v>
+      </c>
+      <c r="AZ110">
+        <v>18</v>
+      </c>
+      <c r="BA110">
+        <v>6</v>
+      </c>
+      <c r="BB110">
+        <v>10</v>
+      </c>
+      <c r="BC110">
+        <v>16</v>
+      </c>
+      <c r="BD110">
+        <v>2.16</v>
+      </c>
+      <c r="BE110">
+        <v>6.2</v>
+      </c>
+      <c r="BF110">
+        <v>2.08</v>
+      </c>
+      <c r="BG110">
+        <v>1.32</v>
+      </c>
+      <c r="BH110">
+        <v>2.78</v>
+      </c>
+      <c r="BI110">
+        <v>1.61</v>
+      </c>
+      <c r="BJ110">
+        <v>2.07</v>
+      </c>
+      <c r="BK110">
+        <v>2.09</v>
+      </c>
+      <c r="BL110">
+        <v>1.66</v>
+      </c>
+      <c r="BM110">
+        <v>2.74</v>
+      </c>
+      <c r="BN110">
+        <v>1.35</v>
+      </c>
+      <c r="BO110">
+        <v>3.74</v>
+      </c>
+      <c r="BP110">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7486591</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45593.66666666666</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>70</v>
+      </c>
+      <c r="H111" t="s">
+        <v>80</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>159</v>
+      </c>
+      <c r="P111" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q111">
+        <v>3.65</v>
+      </c>
+      <c r="R111">
+        <v>2.23</v>
+      </c>
+      <c r="S111">
+        <v>2.75</v>
+      </c>
+      <c r="T111">
+        <v>1.3</v>
+      </c>
+      <c r="U111">
+        <v>3.15</v>
+      </c>
+      <c r="V111">
+        <v>2.7</v>
+      </c>
+      <c r="W111">
+        <v>1.41</v>
+      </c>
+      <c r="X111">
+        <v>7</v>
+      </c>
+      <c r="Y111">
+        <v>1.08</v>
+      </c>
+      <c r="Z111">
+        <v>3</v>
+      </c>
+      <c r="AA111">
+        <v>3.5</v>
+      </c>
+      <c r="AB111">
+        <v>2.15</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>7.7</v>
+      </c>
+      <c r="AE111">
+        <v>1.19</v>
+      </c>
+      <c r="AF111">
+        <v>3.62</v>
+      </c>
+      <c r="AG111">
+        <v>2.05</v>
+      </c>
+      <c r="AH111">
+        <v>1.74</v>
+      </c>
+      <c r="AI111">
+        <v>1.64</v>
+      </c>
+      <c r="AJ111">
+        <v>2.18</v>
+      </c>
+      <c r="AK111">
+        <v>1.65</v>
+      </c>
+      <c r="AL111">
+        <v>1.29</v>
+      </c>
+      <c r="AM111">
+        <v>1.34</v>
+      </c>
+      <c r="AN111">
+        <v>1.43</v>
+      </c>
+      <c r="AO111">
+        <v>1.29</v>
+      </c>
+      <c r="AP111">
+        <v>1.63</v>
+      </c>
+      <c r="AQ111">
+        <v>1.13</v>
+      </c>
+      <c r="AR111">
+        <v>1.65</v>
+      </c>
+      <c r="AS111">
+        <v>1.42</v>
+      </c>
+      <c r="AT111">
+        <v>3.07</v>
+      </c>
+      <c r="AU111">
+        <v>5</v>
+      </c>
+      <c r="AV111">
+        <v>8</v>
+      </c>
+      <c r="AW111">
+        <v>2</v>
+      </c>
+      <c r="AX111">
+        <v>8</v>
+      </c>
+      <c r="AY111">
+        <v>9</v>
+      </c>
+      <c r="AZ111">
+        <v>29</v>
+      </c>
+      <c r="BA111">
+        <v>2</v>
+      </c>
+      <c r="BB111">
+        <v>11</v>
+      </c>
+      <c r="BC111">
+        <v>13</v>
+      </c>
+      <c r="BD111">
+        <v>2.41</v>
+      </c>
+      <c r="BE111">
+        <v>6.4</v>
+      </c>
+      <c r="BF111">
+        <v>1.87</v>
+      </c>
+      <c r="BG111">
+        <v>1.22</v>
+      </c>
+      <c r="BH111">
+        <v>3.35</v>
+      </c>
+      <c r="BI111">
+        <v>1.48</v>
+      </c>
+      <c r="BJ111">
+        <v>2.56</v>
+      </c>
+      <c r="BK111">
+        <v>1.81</v>
+      </c>
+      <c r="BL111">
+        <v>1.98</v>
+      </c>
+      <c r="BM111">
+        <v>2.27</v>
+      </c>
+      <c r="BN111">
+        <v>1.61</v>
+      </c>
+      <c r="BO111">
+        <v>3.02</v>
+      </c>
+      <c r="BP111">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -23512,7 +23512,7 @@
         <v>45593.54166666666</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>76</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -23718,7 +23718,7 @@
         <v>45593.66666666666</v>
       </c>
       <c r="F111">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>70</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1035,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3641,7 +3641,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
         <v>1.14</v>
@@ -8376,7 +8376,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -12084,7 +12084,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>1.78</v>
@@ -13323,7 +13323,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -14556,7 +14556,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -16207,7 +16207,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -18470,7 +18470,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -20736,7 +20736,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ96">
         <v>0.17</v>
@@ -21357,7 +21357,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -23905,6 +23905,212 @@
       </c>
       <c r="BP111">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7486606</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45596.875</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>84</v>
+      </c>
+      <c r="H112" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>86</v>
+      </c>
+      <c r="P112" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q112">
+        <v>5.5</v>
+      </c>
+      <c r="R112">
+        <v>2.25</v>
+      </c>
+      <c r="S112">
+        <v>2.2</v>
+      </c>
+      <c r="T112">
+        <v>1.36</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112">
+        <v>2.75</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>7</v>
+      </c>
+      <c r="Y112">
+        <v>1.1</v>
+      </c>
+      <c r="Z112">
+        <v>5.25</v>
+      </c>
+      <c r="AA112">
+        <v>3.7</v>
+      </c>
+      <c r="AB112">
+        <v>1.53</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>8.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.28</v>
+      </c>
+      <c r="AF112">
+        <v>3.4</v>
+      </c>
+      <c r="AG112">
+        <v>1.8</v>
+      </c>
+      <c r="AH112">
+        <v>1.85</v>
+      </c>
+      <c r="AI112">
+        <v>1.83</v>
+      </c>
+      <c r="AJ112">
+        <v>1.83</v>
+      </c>
+      <c r="AK112">
+        <v>2.45</v>
+      </c>
+      <c r="AL112">
+        <v>1.18</v>
+      </c>
+      <c r="AM112">
+        <v>1.08</v>
+      </c>
+      <c r="AN112">
+        <v>1.33</v>
+      </c>
+      <c r="AO112">
+        <v>1.5</v>
+      </c>
+      <c r="AP112">
+        <v>1.14</v>
+      </c>
+      <c r="AQ112">
+        <v>1.8</v>
+      </c>
+      <c r="AR112">
+        <v>1.44</v>
+      </c>
+      <c r="AS112">
+        <v>1.49</v>
+      </c>
+      <c r="AT112">
+        <v>2.93</v>
+      </c>
+      <c r="AU112">
+        <v>3</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>6</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>10</v>
+      </c>
+      <c r="AZ112">
+        <v>8</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>2</v>
+      </c>
+      <c r="BC112">
+        <v>7</v>
+      </c>
+      <c r="BD112">
+        <v>3.78</v>
+      </c>
+      <c r="BE112">
+        <v>9</v>
+      </c>
+      <c r="BF112">
+        <v>1.37</v>
+      </c>
+      <c r="BG112">
+        <v>1.21</v>
+      </c>
+      <c r="BH112">
+        <v>3.44</v>
+      </c>
+      <c r="BI112">
+        <v>1.42</v>
+      </c>
+      <c r="BJ112">
+        <v>2.49</v>
+      </c>
+      <c r="BK112">
+        <v>1.77</v>
+      </c>
+      <c r="BL112">
+        <v>1.94</v>
+      </c>
+      <c r="BM112">
+        <v>2.21</v>
+      </c>
+      <c r="BN112">
+        <v>1.53</v>
+      </c>
+      <c r="BO112">
+        <v>2.88</v>
+      </c>
+      <c r="BP112">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,21 @@
     <t>['6', '12', '59']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['71', '74']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -572,9 +587,6 @@
   </si>
   <si>
     <t>['67']</t>
-  </si>
-  <si>
-    <t>['27']</t>
   </si>
   <si>
     <t>['48', '83']</t>
@@ -674,6 +686,15 @@
   </si>
   <si>
     <t>['52', '90+5']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1315,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1784,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.57</v>
@@ -2118,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2324,7 +2345,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2530,7 +2551,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2611,7 +2632,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ8">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3020,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3148,7 +3169,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3226,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3354,7 +3375,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3432,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3560,7 +3581,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3638,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
         <v>1.8</v>
@@ -3766,7 +3787,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3844,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3972,7 +3993,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4050,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4178,7 +4199,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4465,7 +4486,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4590,7 +4611,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4796,7 +4817,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4877,7 +4898,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5002,7 +5023,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5080,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5286,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5414,7 +5435,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5495,7 +5516,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -5620,7 +5641,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6319,7 +6340,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6522,7 +6543,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
         <v>0.63</v>
@@ -6934,10 +6955,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -7062,7 +7083,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7268,7 +7289,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7346,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7474,7 +7495,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7552,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>1.14</v>
@@ -7680,7 +7701,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7761,7 +7782,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -7886,7 +7907,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -7967,7 +7988,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8092,7 +8113,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8173,7 +8194,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8298,7 +8319,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8504,7 +8525,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8582,7 +8603,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -9122,7 +9143,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9200,7 +9221,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9328,7 +9349,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9406,10 +9427,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9534,7 +9555,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9612,7 +9633,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -9821,7 +9842,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -9946,7 +9967,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10230,7 +10251,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10436,7 +10457,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ46">
         <v>1.14</v>
@@ -10564,7 +10585,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10645,7 +10666,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -10851,7 +10872,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -10976,7 +10997,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11054,7 +11075,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11260,7 +11281,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11466,7 +11487,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
         <v>1.13</v>
@@ -11675,7 +11696,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -11881,7 +11902,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12006,7 +12027,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12212,7 +12233,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12293,7 +12314,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12624,7 +12645,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12830,7 +12851,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12908,7 +12929,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58">
         <v>1.25</v>
@@ -13036,7 +13057,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13117,7 +13138,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13242,7 +13263,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13529,7 +13550,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR61">
         <v>2.06</v>
@@ -13654,7 +13675,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13732,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62">
         <v>0.63</v>
@@ -13938,7 +13959,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14144,10 +14165,10 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14350,7 +14371,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -14559,7 +14580,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14684,7 +14705,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14765,7 +14786,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -14968,7 +14989,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15096,7 +15117,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15177,7 +15198,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15302,7 +15323,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15383,7 +15404,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15508,7 +15529,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15586,7 +15607,7 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
         <v>1.78</v>
@@ -15714,7 +15735,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15920,7 +15941,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16332,7 +16353,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16413,7 +16434,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -16538,7 +16559,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16744,7 +16765,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16822,7 +16843,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -17156,7 +17177,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17234,7 +17255,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79">
         <v>1.25</v>
@@ -17443,7 +17464,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17568,7 +17589,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17646,10 +17667,10 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -17852,7 +17873,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1.78</v>
@@ -17980,7 +18001,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18061,7 +18082,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18264,10 +18285,10 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18473,7 +18494,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18598,7 +18619,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18676,10 +18697,10 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -18882,7 +18903,7 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ87">
         <v>1.25</v>
@@ -19091,7 +19112,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19422,7 +19443,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19500,7 +19521,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90">
         <v>1.78</v>
@@ -19628,7 +19649,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19834,7 +19855,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20040,7 +20061,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20452,7 +20473,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20739,7 +20760,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -20942,10 +20963,10 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ97">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR97">
         <v>1.37</v>
@@ -21148,10 +21169,10 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21560,10 +21581,10 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -21688,7 +21709,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21766,10 +21787,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ101">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -21972,7 +21993,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22178,10 +22199,10 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22306,7 +22327,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22718,7 +22739,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22924,7 +22945,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23130,7 +23151,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23542,7 +23563,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23748,7 +23769,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -23921,7 +23942,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45596.875</v>
+        <v>45597.66666666666</v>
       </c>
       <c r="F112">
         <v>15</v>
@@ -23954,7 +23975,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24111,6 +24132,1448 @@
       </c>
       <c r="BP112">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7486978</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45598.5625</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>77</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>160</v>
+      </c>
+      <c r="P113" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q113">
+        <v>2.75</v>
+      </c>
+      <c r="R113">
+        <v>2.05</v>
+      </c>
+      <c r="S113">
+        <v>4.5</v>
+      </c>
+      <c r="T113">
+        <v>1.5</v>
+      </c>
+      <c r="U113">
+        <v>2.5</v>
+      </c>
+      <c r="V113">
+        <v>3.4</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>10</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>1.75</v>
+      </c>
+      <c r="AA113">
+        <v>3.4</v>
+      </c>
+      <c r="AB113">
+        <v>4.43</v>
+      </c>
+      <c r="AC113">
+        <v>1.07</v>
+      </c>
+      <c r="AD113">
+        <v>7.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.36</v>
+      </c>
+      <c r="AF113">
+        <v>2.95</v>
+      </c>
+      <c r="AG113">
+        <v>2.05</v>
+      </c>
+      <c r="AH113">
+        <v>1.68</v>
+      </c>
+      <c r="AI113">
+        <v>2</v>
+      </c>
+      <c r="AJ113">
+        <v>1.73</v>
+      </c>
+      <c r="AK113">
+        <v>1.22</v>
+      </c>
+      <c r="AL113">
+        <v>1.25</v>
+      </c>
+      <c r="AM113">
+        <v>1.8</v>
+      </c>
+      <c r="AN113">
+        <v>1.43</v>
+      </c>
+      <c r="AO113">
+        <v>1.33</v>
+      </c>
+      <c r="AP113">
+        <v>1.38</v>
+      </c>
+      <c r="AQ113">
+        <v>1.29</v>
+      </c>
+      <c r="AR113">
+        <v>1.54</v>
+      </c>
+      <c r="AS113">
+        <v>1.41</v>
+      </c>
+      <c r="AT113">
+        <v>2.95</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>2</v>
+      </c>
+      <c r="AX113">
+        <v>8</v>
+      </c>
+      <c r="AY113">
+        <v>10</v>
+      </c>
+      <c r="AZ113">
+        <v>17</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>4</v>
+      </c>
+      <c r="BC113">
+        <v>4</v>
+      </c>
+      <c r="BD113">
+        <v>1.47</v>
+      </c>
+      <c r="BE113">
+        <v>6.85</v>
+      </c>
+      <c r="BF113">
+        <v>3.58</v>
+      </c>
+      <c r="BG113">
+        <v>1.3</v>
+      </c>
+      <c r="BH113">
+        <v>2.88</v>
+      </c>
+      <c r="BI113">
+        <v>1.58</v>
+      </c>
+      <c r="BJ113">
+        <v>2.12</v>
+      </c>
+      <c r="BK113">
+        <v>2.04</v>
+      </c>
+      <c r="BL113">
+        <v>1.69</v>
+      </c>
+      <c r="BM113">
+        <v>2.62</v>
+      </c>
+      <c r="BN113">
+        <v>1.38</v>
+      </c>
+      <c r="BO113">
+        <v>3.62</v>
+      </c>
+      <c r="BP113">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7486610</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45598.66666666666</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>83</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>161</v>
+      </c>
+      <c r="P114" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q114">
+        <v>2.6</v>
+      </c>
+      <c r="R114">
+        <v>2.1</v>
+      </c>
+      <c r="S114">
+        <v>4.75</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>2.63</v>
+      </c>
+      <c r="V114">
+        <v>3.25</v>
+      </c>
+      <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>9</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>1.83</v>
+      </c>
+      <c r="AA114">
+        <v>3.4</v>
+      </c>
+      <c r="AB114">
+        <v>4</v>
+      </c>
+      <c r="AC114">
+        <v>1.07</v>
+      </c>
+      <c r="AD114">
+        <v>7.5</v>
+      </c>
+      <c r="AE114">
+        <v>1.38</v>
+      </c>
+      <c r="AF114">
+        <v>2.9</v>
+      </c>
+      <c r="AG114">
+        <v>2.05</v>
+      </c>
+      <c r="AH114">
+        <v>1.68</v>
+      </c>
+      <c r="AI114">
+        <v>1.91</v>
+      </c>
+      <c r="AJ114">
+        <v>1.8</v>
+      </c>
+      <c r="AK114">
+        <v>1.25</v>
+      </c>
+      <c r="AL114">
+        <v>1.25</v>
+      </c>
+      <c r="AM114">
+        <v>1.8</v>
+      </c>
+      <c r="AN114">
+        <v>2.17</v>
+      </c>
+      <c r="AO114">
+        <v>1</v>
+      </c>
+      <c r="AP114">
+        <v>2.29</v>
+      </c>
+      <c r="AQ114">
+        <v>0.86</v>
+      </c>
+      <c r="AR114">
+        <v>1.16</v>
+      </c>
+      <c r="AS114">
+        <v>1.27</v>
+      </c>
+      <c r="AT114">
+        <v>2.43</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>12</v>
+      </c>
+      <c r="AZ114">
+        <v>13</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
+        <v>6</v>
+      </c>
+      <c r="BD114">
+        <v>1.7</v>
+      </c>
+      <c r="BE114">
+        <v>6.5</v>
+      </c>
+      <c r="BF114">
+        <v>2.75</v>
+      </c>
+      <c r="BG114">
+        <v>1.27</v>
+      </c>
+      <c r="BH114">
+        <v>3.04</v>
+      </c>
+      <c r="BI114">
+        <v>1.53</v>
+      </c>
+      <c r="BJ114">
+        <v>2.21</v>
+      </c>
+      <c r="BK114">
+        <v>1.95</v>
+      </c>
+      <c r="BL114">
+        <v>1.76</v>
+      </c>
+      <c r="BM114">
+        <v>2.49</v>
+      </c>
+      <c r="BN114">
+        <v>1.42</v>
+      </c>
+      <c r="BO114">
+        <v>3.35</v>
+      </c>
+      <c r="BP114">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7486616</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s">
+        <v>74</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>127</v>
+      </c>
+      <c r="P115" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q115">
+        <v>2.88</v>
+      </c>
+      <c r="R115">
+        <v>2.2</v>
+      </c>
+      <c r="S115">
+        <v>3.6</v>
+      </c>
+      <c r="T115">
+        <v>1.36</v>
+      </c>
+      <c r="U115">
+        <v>3</v>
+      </c>
+      <c r="V115">
+        <v>2.63</v>
+      </c>
+      <c r="W115">
+        <v>1.44</v>
+      </c>
+      <c r="X115">
+        <v>7</v>
+      </c>
+      <c r="Y115">
+        <v>1.1</v>
+      </c>
+      <c r="Z115">
+        <v>2.35</v>
+      </c>
+      <c r="AA115">
+        <v>3.38</v>
+      </c>
+      <c r="AB115">
+        <v>2.91</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>9</v>
+      </c>
+      <c r="AE115">
+        <v>1.25</v>
+      </c>
+      <c r="AF115">
+        <v>3.6</v>
+      </c>
+      <c r="AG115">
+        <v>1.95</v>
+      </c>
+      <c r="AH115">
+        <v>1.79</v>
+      </c>
+      <c r="AI115">
+        <v>1.67</v>
+      </c>
+      <c r="AJ115">
+        <v>2.1</v>
+      </c>
+      <c r="AK115">
+        <v>1.38</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>1.62</v>
+      </c>
+      <c r="AN115">
+        <v>2</v>
+      </c>
+      <c r="AO115">
+        <v>1.6</v>
+      </c>
+      <c r="AP115">
+        <v>1.86</v>
+      </c>
+      <c r="AQ115">
+        <v>1.5</v>
+      </c>
+      <c r="AR115">
+        <v>1.93</v>
+      </c>
+      <c r="AS115">
+        <v>1.32</v>
+      </c>
+      <c r="AT115">
+        <v>3.25</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>6</v>
+      </c>
+      <c r="AY115">
+        <v>17</v>
+      </c>
+      <c r="AZ115">
+        <v>17</v>
+      </c>
+      <c r="BA115">
+        <v>4</v>
+      </c>
+      <c r="BB115">
+        <v>6</v>
+      </c>
+      <c r="BC115">
+        <v>10</v>
+      </c>
+      <c r="BD115">
+        <v>1.7</v>
+      </c>
+      <c r="BE115">
+        <v>6.55</v>
+      </c>
+      <c r="BF115">
+        <v>2.74</v>
+      </c>
+      <c r="BG115">
+        <v>1.22</v>
+      </c>
+      <c r="BH115">
+        <v>3.35</v>
+      </c>
+      <c r="BI115">
+        <v>1.44</v>
+      </c>
+      <c r="BJ115">
+        <v>2.42</v>
+      </c>
+      <c r="BK115">
+        <v>1.85</v>
+      </c>
+      <c r="BL115">
+        <v>1.85</v>
+      </c>
+      <c r="BM115">
+        <v>2.3</v>
+      </c>
+      <c r="BN115">
+        <v>1.49</v>
+      </c>
+      <c r="BO115">
+        <v>3.02</v>
+      </c>
+      <c r="BP115">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7487070</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45599.35416666666</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>162</v>
+      </c>
+      <c r="P116" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q116">
+        <v>3.6</v>
+      </c>
+      <c r="R116">
+        <v>1.95</v>
+      </c>
+      <c r="S116">
+        <v>3.4</v>
+      </c>
+      <c r="T116">
+        <v>1.53</v>
+      </c>
+      <c r="U116">
+        <v>2.38</v>
+      </c>
+      <c r="V116">
+        <v>3.75</v>
+      </c>
+      <c r="W116">
+        <v>1.25</v>
+      </c>
+      <c r="X116">
+        <v>11</v>
+      </c>
+      <c r="Y116">
+        <v>1.05</v>
+      </c>
+      <c r="Z116">
+        <v>2.75</v>
+      </c>
+      <c r="AA116">
+        <v>3</v>
+      </c>
+      <c r="AB116">
+        <v>2.5</v>
+      </c>
+      <c r="AC116">
+        <v>1.11</v>
+      </c>
+      <c r="AD116">
+        <v>6</v>
+      </c>
+      <c r="AE116">
+        <v>1.49</v>
+      </c>
+      <c r="AF116">
+        <v>2.55</v>
+      </c>
+      <c r="AG116">
+        <v>2.37</v>
+      </c>
+      <c r="AH116">
+        <v>1.51</v>
+      </c>
+      <c r="AI116">
+        <v>2</v>
+      </c>
+      <c r="AJ116">
+        <v>1.73</v>
+      </c>
+      <c r="AK116">
+        <v>1.44</v>
+      </c>
+      <c r="AL116">
+        <v>1.33</v>
+      </c>
+      <c r="AM116">
+        <v>1.42</v>
+      </c>
+      <c r="AN116">
+        <v>1.86</v>
+      </c>
+      <c r="AO116">
+        <v>1.43</v>
+      </c>
+      <c r="AP116">
+        <v>2</v>
+      </c>
+      <c r="AQ116">
+        <v>1.25</v>
+      </c>
+      <c r="AR116">
+        <v>1.47</v>
+      </c>
+      <c r="AS116">
+        <v>1.28</v>
+      </c>
+      <c r="AT116">
+        <v>2.75</v>
+      </c>
+      <c r="AU116">
+        <v>7</v>
+      </c>
+      <c r="AV116">
+        <v>6</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>20</v>
+      </c>
+      <c r="AZ116">
+        <v>13</v>
+      </c>
+      <c r="BA116">
+        <v>10</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>13</v>
+      </c>
+      <c r="BD116">
+        <v>2.13</v>
+      </c>
+      <c r="BE116">
+        <v>6.15</v>
+      </c>
+      <c r="BF116">
+        <v>2.11</v>
+      </c>
+      <c r="BG116">
+        <v>1.36</v>
+      </c>
+      <c r="BH116">
+        <v>2.7</v>
+      </c>
+      <c r="BI116">
+        <v>1.7</v>
+      </c>
+      <c r="BJ116">
+        <v>2.03</v>
+      </c>
+      <c r="BK116">
+        <v>2.14</v>
+      </c>
+      <c r="BL116">
+        <v>1.57</v>
+      </c>
+      <c r="BM116">
+        <v>2.82</v>
+      </c>
+      <c r="BN116">
+        <v>1.31</v>
+      </c>
+      <c r="BO116">
+        <v>4.2</v>
+      </c>
+      <c r="BP116">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7486620</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45599.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>82</v>
+      </c>
+      <c r="H117" t="s">
+        <v>70</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>158</v>
+      </c>
+      <c r="P117" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q117">
+        <v>2.6</v>
+      </c>
+      <c r="R117">
+        <v>2.1</v>
+      </c>
+      <c r="S117">
+        <v>4.75</v>
+      </c>
+      <c r="T117">
+        <v>1.44</v>
+      </c>
+      <c r="U117">
+        <v>2.63</v>
+      </c>
+      <c r="V117">
+        <v>3.25</v>
+      </c>
+      <c r="W117">
+        <v>1.33</v>
+      </c>
+      <c r="X117">
+        <v>10</v>
+      </c>
+      <c r="Y117">
+        <v>1.06</v>
+      </c>
+      <c r="Z117">
+        <v>1.88</v>
+      </c>
+      <c r="AA117">
+        <v>3.25</v>
+      </c>
+      <c r="AB117">
+        <v>3.8</v>
+      </c>
+      <c r="AC117">
+        <v>1.07</v>
+      </c>
+      <c r="AD117">
+        <v>7.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.4</v>
+      </c>
+      <c r="AF117">
+        <v>2.8</v>
+      </c>
+      <c r="AG117">
+        <v>2.1</v>
+      </c>
+      <c r="AH117">
+        <v>1.63</v>
+      </c>
+      <c r="AI117">
+        <v>2</v>
+      </c>
+      <c r="AJ117">
+        <v>1.73</v>
+      </c>
+      <c r="AK117">
+        <v>1.16</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>1.9</v>
+      </c>
+      <c r="AN117">
+        <v>2.6</v>
+      </c>
+      <c r="AO117">
+        <v>0.5</v>
+      </c>
+      <c r="AP117">
+        <v>2.33</v>
+      </c>
+      <c r="AQ117">
+        <v>0.57</v>
+      </c>
+      <c r="AR117">
+        <v>1.34</v>
+      </c>
+      <c r="AS117">
+        <v>1.3</v>
+      </c>
+      <c r="AT117">
+        <v>2.64</v>
+      </c>
+      <c r="AU117">
+        <v>4</v>
+      </c>
+      <c r="AV117">
+        <v>6</v>
+      </c>
+      <c r="AW117">
+        <v>10</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>21</v>
+      </c>
+      <c r="AZ117">
+        <v>12</v>
+      </c>
+      <c r="BA117">
+        <v>8</v>
+      </c>
+      <c r="BB117">
+        <v>3</v>
+      </c>
+      <c r="BC117">
+        <v>11</v>
+      </c>
+      <c r="BD117">
+        <v>1.43</v>
+      </c>
+      <c r="BE117">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF117">
+        <v>3.42</v>
+      </c>
+      <c r="BG117">
+        <v>1.27</v>
+      </c>
+      <c r="BH117">
+        <v>3.04</v>
+      </c>
+      <c r="BI117">
+        <v>1.53</v>
+      </c>
+      <c r="BJ117">
+        <v>2.21</v>
+      </c>
+      <c r="BK117">
+        <v>1.95</v>
+      </c>
+      <c r="BL117">
+        <v>1.76</v>
+      </c>
+      <c r="BM117">
+        <v>2.49</v>
+      </c>
+      <c r="BN117">
+        <v>1.42</v>
+      </c>
+      <c r="BO117">
+        <v>3.35</v>
+      </c>
+      <c r="BP117">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7486621</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45600.54166666666</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>163</v>
+      </c>
+      <c r="P118" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q118">
+        <v>3.2</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>3.75</v>
+      </c>
+      <c r="T118">
+        <v>1.5</v>
+      </c>
+      <c r="U118">
+        <v>2.5</v>
+      </c>
+      <c r="V118">
+        <v>3.5</v>
+      </c>
+      <c r="W118">
+        <v>1.29</v>
+      </c>
+      <c r="X118">
+        <v>10</v>
+      </c>
+      <c r="Y118">
+        <v>1.06</v>
+      </c>
+      <c r="Z118">
+        <v>2.32</v>
+      </c>
+      <c r="AA118">
+        <v>3.02</v>
+      </c>
+      <c r="AB118">
+        <v>3.21</v>
+      </c>
+      <c r="AC118">
+        <v>1.08</v>
+      </c>
+      <c r="AD118">
+        <v>7</v>
+      </c>
+      <c r="AE118">
+        <v>1.42</v>
+      </c>
+      <c r="AF118">
+        <v>2.75</v>
+      </c>
+      <c r="AG118">
+        <v>2.2</v>
+      </c>
+      <c r="AH118">
+        <v>1.55</v>
+      </c>
+      <c r="AI118">
+        <v>1.91</v>
+      </c>
+      <c r="AJ118">
+        <v>1.8</v>
+      </c>
+      <c r="AK118">
+        <v>1.38</v>
+      </c>
+      <c r="AL118">
+        <v>1.3</v>
+      </c>
+      <c r="AM118">
+        <v>1.5</v>
+      </c>
+      <c r="AN118">
+        <v>0.83</v>
+      </c>
+      <c r="AO118">
+        <v>0.71</v>
+      </c>
+      <c r="AP118">
+        <v>1.14</v>
+      </c>
+      <c r="AQ118">
+        <v>0.63</v>
+      </c>
+      <c r="AR118">
+        <v>1.37</v>
+      </c>
+      <c r="AS118">
+        <v>1.13</v>
+      </c>
+      <c r="AT118">
+        <v>2.5</v>
+      </c>
+      <c r="AU118">
+        <v>7</v>
+      </c>
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>4</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>14</v>
+      </c>
+      <c r="AZ118">
+        <v>23</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>12</v>
+      </c>
+      <c r="BC118">
+        <v>18</v>
+      </c>
+      <c r="BD118">
+        <v>1.85</v>
+      </c>
+      <c r="BE118">
+        <v>6.8</v>
+      </c>
+      <c r="BF118">
+        <v>2.39</v>
+      </c>
+      <c r="BG118">
+        <v>1.26</v>
+      </c>
+      <c r="BH118">
+        <v>3.08</v>
+      </c>
+      <c r="BI118">
+        <v>1.52</v>
+      </c>
+      <c r="BJ118">
+        <v>2.24</v>
+      </c>
+      <c r="BK118">
+        <v>1.94</v>
+      </c>
+      <c r="BL118">
+        <v>1.77</v>
+      </c>
+      <c r="BM118">
+        <v>2.49</v>
+      </c>
+      <c r="BN118">
+        <v>1.42</v>
+      </c>
+      <c r="BO118">
+        <v>3.35</v>
+      </c>
+      <c r="BP118">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7486613</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45600.66666666666</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>81</v>
+      </c>
+      <c r="H119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>164</v>
+      </c>
+      <c r="P119" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q119">
+        <v>2.2</v>
+      </c>
+      <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>5.5</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>8</v>
+      </c>
+      <c r="Y119">
+        <v>1.08</v>
+      </c>
+      <c r="Z119">
+        <v>1.53</v>
+      </c>
+      <c r="AA119">
+        <v>4.02</v>
+      </c>
+      <c r="AB119">
+        <v>5.62</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>8.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.28</v>
+      </c>
+      <c r="AF119">
+        <v>3.4</v>
+      </c>
+      <c r="AG119">
+        <v>1.86</v>
+      </c>
+      <c r="AH119">
+        <v>1.91</v>
+      </c>
+      <c r="AI119">
+        <v>1.83</v>
+      </c>
+      <c r="AJ119">
+        <v>1.83</v>
+      </c>
+      <c r="AK119">
+        <v>1.11</v>
+      </c>
+      <c r="AL119">
+        <v>1.2</v>
+      </c>
+      <c r="AM119">
+        <v>2.2</v>
+      </c>
+      <c r="AN119">
+        <v>1.17</v>
+      </c>
+      <c r="AO119">
+        <v>0.17</v>
+      </c>
+      <c r="AP119">
+        <v>1.43</v>
+      </c>
+      <c r="AQ119">
+        <v>0.14</v>
+      </c>
+      <c r="AR119">
+        <v>1.46</v>
+      </c>
+      <c r="AS119">
+        <v>1.41</v>
+      </c>
+      <c r="AT119">
+        <v>2.87</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>8</v>
+      </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>10</v>
+      </c>
+      <c r="AZ119">
+        <v>16</v>
+      </c>
+      <c r="BA119">
+        <v>4</v>
+      </c>
+      <c r="BB119">
+        <v>2</v>
+      </c>
+      <c r="BC119">
+        <v>6</v>
+      </c>
+      <c r="BD119">
+        <v>1.4</v>
+      </c>
+      <c r="BE119">
+        <v>8.6</v>
+      </c>
+      <c r="BF119">
+        <v>3.64</v>
+      </c>
+      <c r="BG119">
+        <v>1.29</v>
+      </c>
+      <c r="BH119">
+        <v>2.92</v>
+      </c>
+      <c r="BI119">
+        <v>1.56</v>
+      </c>
+      <c r="BJ119">
+        <v>2.16</v>
+      </c>
+      <c r="BK119">
+        <v>2</v>
+      </c>
+      <c r="BL119">
+        <v>1.72</v>
+      </c>
+      <c r="BM119">
+        <v>2.56</v>
+      </c>
+      <c r="BN119">
+        <v>1.4</v>
+      </c>
+      <c r="BO119">
+        <v>3.44</v>
+      </c>
+      <c r="BP119">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -691,10 +691,10 @@
     <t>['28']</t>
   </si>
   <si>
-    <t>['17']</t>
+    <t>['2']</t>
   </si>
   <si>
-    <t>['2']</t>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -24551,7 +24551,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7486616</v>
+        <v>7487070</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24560,16 +24560,16 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45598.875</v>
+        <v>45599.35416666666</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -24581,175 +24581,175 @@
         <v>1</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M115">
         <v>1</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="P115" t="s">
         <v>225</v>
       </c>
       <c r="Q115">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="R115">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T115">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="U115">
+        <v>2.38</v>
+      </c>
+      <c r="V115">
+        <v>3.75</v>
+      </c>
+      <c r="W115">
+        <v>1.25</v>
+      </c>
+      <c r="X115">
+        <v>11</v>
+      </c>
+      <c r="Y115">
+        <v>1.05</v>
+      </c>
+      <c r="Z115">
+        <v>2.75</v>
+      </c>
+      <c r="AA115">
         <v>3</v>
       </c>
-      <c r="V115">
-        <v>2.63</v>
-      </c>
-      <c r="W115">
+      <c r="AB115">
+        <v>2.5</v>
+      </c>
+      <c r="AC115">
+        <v>1.11</v>
+      </c>
+      <c r="AD115">
+        <v>6</v>
+      </c>
+      <c r="AE115">
+        <v>1.49</v>
+      </c>
+      <c r="AF115">
+        <v>2.55</v>
+      </c>
+      <c r="AG115">
+        <v>2.37</v>
+      </c>
+      <c r="AH115">
+        <v>1.51</v>
+      </c>
+      <c r="AI115">
+        <v>2</v>
+      </c>
+      <c r="AJ115">
+        <v>1.73</v>
+      </c>
+      <c r="AK115">
         <v>1.44</v>
       </c>
-      <c r="X115">
+      <c r="AL115">
+        <v>1.33</v>
+      </c>
+      <c r="AM115">
+        <v>1.42</v>
+      </c>
+      <c r="AN115">
+        <v>1.86</v>
+      </c>
+      <c r="AO115">
+        <v>1.43</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+      <c r="AQ115">
+        <v>1.25</v>
+      </c>
+      <c r="AR115">
+        <v>1.47</v>
+      </c>
+      <c r="AS115">
+        <v>1.28</v>
+      </c>
+      <c r="AT115">
+        <v>2.75</v>
+      </c>
+      <c r="AU115">
         <v>7</v>
-      </c>
-      <c r="Y115">
-        <v>1.1</v>
-      </c>
-      <c r="Z115">
-        <v>2.35</v>
-      </c>
-      <c r="AA115">
-        <v>3.38</v>
-      </c>
-      <c r="AB115">
-        <v>2.91</v>
-      </c>
-      <c r="AC115">
-        <v>1.04</v>
-      </c>
-      <c r="AD115">
-        <v>9</v>
-      </c>
-      <c r="AE115">
-        <v>1.25</v>
-      </c>
-      <c r="AF115">
-        <v>3.6</v>
-      </c>
-      <c r="AG115">
-        <v>1.95</v>
-      </c>
-      <c r="AH115">
-        <v>1.79</v>
-      </c>
-      <c r="AI115">
-        <v>1.67</v>
-      </c>
-      <c r="AJ115">
-        <v>2.1</v>
-      </c>
-      <c r="AK115">
-        <v>1.38</v>
-      </c>
-      <c r="AL115">
-        <v>1.22</v>
-      </c>
-      <c r="AM115">
-        <v>1.62</v>
-      </c>
-      <c r="AN115">
-        <v>2</v>
-      </c>
-      <c r="AO115">
-        <v>1.6</v>
-      </c>
-      <c r="AP115">
-        <v>1.86</v>
-      </c>
-      <c r="AQ115">
-        <v>1.5</v>
-      </c>
-      <c r="AR115">
-        <v>1.93</v>
-      </c>
-      <c r="AS115">
-        <v>1.32</v>
-      </c>
-      <c r="AT115">
-        <v>3.25</v>
-      </c>
-      <c r="AU115">
-        <v>4</v>
       </c>
       <c r="AV115">
         <v>6</v>
       </c>
       <c r="AW115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY115">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ115">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA115">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC115">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD115">
+        <v>2.13</v>
+      </c>
+      <c r="BE115">
+        <v>6.15</v>
+      </c>
+      <c r="BF115">
+        <v>2.11</v>
+      </c>
+      <c r="BG115">
+        <v>1.36</v>
+      </c>
+      <c r="BH115">
+        <v>2.7</v>
+      </c>
+      <c r="BI115">
         <v>1.7</v>
       </c>
-      <c r="BE115">
-        <v>6.55</v>
-      </c>
-      <c r="BF115">
-        <v>2.74</v>
-      </c>
-      <c r="BG115">
-        <v>1.22</v>
-      </c>
-      <c r="BH115">
-        <v>3.35</v>
-      </c>
-      <c r="BI115">
-        <v>1.44</v>
-      </c>
       <c r="BJ115">
-        <v>2.42</v>
+        <v>2.03</v>
       </c>
       <c r="BK115">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="BL115">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="BM115">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="BN115">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="BO115">
-        <v>3.02</v>
+        <v>4.2</v>
       </c>
       <c r="BP115">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24757,7 +24757,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7487070</v>
+        <v>7486620</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24766,94 +24766,94 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45599.35416666666</v>
+        <v>45599.45833333334</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H116" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>1</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116">
         <v>1</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O116" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="Q116">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S116">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="T116">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U116">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V116">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W116">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X116">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y116">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z116">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="AA116">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB116">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="AC116">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AD116">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE116">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AF116">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AG116">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="AH116">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="AI116">
         <v>2</v>
@@ -24862,100 +24862,100 @@
         <v>1.73</v>
       </c>
       <c r="AK116">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AL116">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM116">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="AN116">
-        <v>1.86</v>
+        <v>2.6</v>
       </c>
       <c r="AO116">
-        <v>1.43</v>
+        <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AS116">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AT116">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="AU116">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV116">
         <v>6</v>
       </c>
       <c r="AW116">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY116">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ116">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA116">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB116">
         <v>3</v>
       </c>
       <c r="BC116">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD116">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="BE116">
-        <v>6.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF116">
-        <v>2.11</v>
+        <v>3.42</v>
       </c>
       <c r="BG116">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="BH116">
-        <v>2.7</v>
+        <v>3.04</v>
       </c>
       <c r="BI116">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BJ116">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="BK116">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="BL116">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="BM116">
-        <v>2.82</v>
+        <v>2.49</v>
       </c>
       <c r="BN116">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="BO116">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="BP116">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -24963,7 +24963,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7486620</v>
+        <v>7486616</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -24972,25 +24972,25 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45599.45833333334</v>
+        <v>45599.66666666666</v>
       </c>
       <c r="F117">
         <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>1</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -25002,100 +25002,100 @@
         <v>2</v>
       </c>
       <c r="O117" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="Q117">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R117">
+        <v>2.2</v>
+      </c>
+      <c r="S117">
+        <v>3.6</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>2.35</v>
+      </c>
+      <c r="AA117">
+        <v>3.38</v>
+      </c>
+      <c r="AB117">
+        <v>2.91</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
+        <v>9</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>3.6</v>
+      </c>
+      <c r="AG117">
+        <v>1.95</v>
+      </c>
+      <c r="AH117">
+        <v>1.79</v>
+      </c>
+      <c r="AI117">
+        <v>1.67</v>
+      </c>
+      <c r="AJ117">
         <v>2.1</v>
       </c>
-      <c r="S117">
-        <v>4.75</v>
-      </c>
-      <c r="T117">
-        <v>1.44</v>
-      </c>
-      <c r="U117">
-        <v>2.63</v>
-      </c>
-      <c r="V117">
+      <c r="AK117">
+        <v>1.38</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>1.62</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+      <c r="AO117">
+        <v>1.6</v>
+      </c>
+      <c r="AP117">
+        <v>1.86</v>
+      </c>
+      <c r="AQ117">
+        <v>1.5</v>
+      </c>
+      <c r="AR117">
+        <v>1.93</v>
+      </c>
+      <c r="AS117">
+        <v>1.32</v>
+      </c>
+      <c r="AT117">
         <v>3.25</v>
-      </c>
-      <c r="W117">
-        <v>1.33</v>
-      </c>
-      <c r="X117">
-        <v>10</v>
-      </c>
-      <c r="Y117">
-        <v>1.06</v>
-      </c>
-      <c r="Z117">
-        <v>1.88</v>
-      </c>
-      <c r="AA117">
-        <v>3.25</v>
-      </c>
-      <c r="AB117">
-        <v>3.8</v>
-      </c>
-      <c r="AC117">
-        <v>1.07</v>
-      </c>
-      <c r="AD117">
-        <v>7.5</v>
-      </c>
-      <c r="AE117">
-        <v>1.4</v>
-      </c>
-      <c r="AF117">
-        <v>2.8</v>
-      </c>
-      <c r="AG117">
-        <v>2.1</v>
-      </c>
-      <c r="AH117">
-        <v>1.63</v>
-      </c>
-      <c r="AI117">
-        <v>2</v>
-      </c>
-      <c r="AJ117">
-        <v>1.73</v>
-      </c>
-      <c r="AK117">
-        <v>1.16</v>
-      </c>
-      <c r="AL117">
-        <v>1.25</v>
-      </c>
-      <c r="AM117">
-        <v>1.9</v>
-      </c>
-      <c r="AN117">
-        <v>2.6</v>
-      </c>
-      <c r="AO117">
-        <v>0.5</v>
-      </c>
-      <c r="AP117">
-        <v>2.33</v>
-      </c>
-      <c r="AQ117">
-        <v>0.57</v>
-      </c>
-      <c r="AR117">
-        <v>1.34</v>
-      </c>
-      <c r="AS117">
-        <v>1.3</v>
-      </c>
-      <c r="AT117">
-        <v>2.64</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25104,64 +25104,64 @@
         <v>6</v>
       </c>
       <c r="AW117">
+        <v>5</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>17</v>
+      </c>
+      <c r="AZ117">
+        <v>17</v>
+      </c>
+      <c r="BA117">
+        <v>4</v>
+      </c>
+      <c r="BB117">
+        <v>6</v>
+      </c>
+      <c r="BC117">
         <v>10</v>
       </c>
-      <c r="AX117">
-        <v>4</v>
-      </c>
-      <c r="AY117">
-        <v>21</v>
-      </c>
-      <c r="AZ117">
-        <v>12</v>
-      </c>
-      <c r="BA117">
-        <v>8</v>
-      </c>
-      <c r="BB117">
-        <v>3</v>
-      </c>
-      <c r="BC117">
-        <v>11</v>
-      </c>
       <c r="BD117">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="BE117">
-        <v>8.800000000000001</v>
+        <v>6.55</v>
       </c>
       <c r="BF117">
-        <v>3.42</v>
+        <v>2.74</v>
       </c>
       <c r="BG117">
+        <v>1.22</v>
+      </c>
+      <c r="BH117">
+        <v>3.35</v>
+      </c>
+      <c r="BI117">
+        <v>1.44</v>
+      </c>
+      <c r="BJ117">
+        <v>2.42</v>
+      </c>
+      <c r="BK117">
+        <v>1.85</v>
+      </c>
+      <c r="BL117">
+        <v>1.85</v>
+      </c>
+      <c r="BM117">
+        <v>2.3</v>
+      </c>
+      <c r="BN117">
+        <v>1.49</v>
+      </c>
+      <c r="BO117">
+        <v>3.02</v>
+      </c>
+      <c r="BP117">
         <v>1.27</v>
-      </c>
-      <c r="BH117">
-        <v>3.04</v>
-      </c>
-      <c r="BI117">
-        <v>1.53</v>
-      </c>
-      <c r="BJ117">
-        <v>2.21</v>
-      </c>
-      <c r="BK117">
-        <v>1.95</v>
-      </c>
-      <c r="BL117">
-        <v>1.76</v>
-      </c>
-      <c r="BM117">
-        <v>2.49</v>
-      </c>
-      <c r="BN117">
-        <v>1.42</v>
-      </c>
-      <c r="BO117">
-        <v>3.35</v>
-      </c>
-      <c r="BP117">
-        <v>1.22</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -25181,7 +25181,7 @@
         <v>45600.54166666666</v>
       </c>
       <c r="F118">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>79</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -696,6 +696,9 @@
   <si>
     <t>['17']</t>
   </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1056,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3044,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3662,7 +3665,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4071,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
         <v>1.29</v>
@@ -4483,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17">
         <v>0.57</v>
@@ -5516,7 +5519,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -6337,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ26">
         <v>0.14</v>
@@ -6543,7 +6546,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
         <v>0.63</v>
@@ -7988,7 +7991,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -11487,7 +11490,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>1.13</v>
@@ -11696,7 +11699,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12517,7 +12520,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
         <v>1.14</v>
@@ -13344,7 +13347,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -14168,7 +14171,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14371,7 +14374,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -16019,7 +16022,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16228,7 +16231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -17667,10 +17670,10 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ81">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -19933,7 +19936,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
         <v>1.13</v>
@@ -21378,7 +21381,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -21584,7 +21587,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -21787,7 +21790,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101">
         <v>1.5</v>
@@ -23229,7 +23232,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ108">
         <v>1.25</v>
@@ -24056,7 +24059,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ112">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24465,7 +24468,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -25292,7 +25295,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ118">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR118">
         <v>1.37</v>
@@ -25573,6 +25576,418 @@
         <v>3.44</v>
       </c>
       <c r="BP119">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7486628</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45604.54166666666</v>
+      </c>
+      <c r="F120">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>85</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>86</v>
+      </c>
+      <c r="P120" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q120">
+        <v>2.64</v>
+      </c>
+      <c r="R120">
+        <v>1.96</v>
+      </c>
+      <c r="S120">
+        <v>4.65</v>
+      </c>
+      <c r="T120">
+        <v>1.53</v>
+      </c>
+      <c r="U120">
+        <v>2.4</v>
+      </c>
+      <c r="V120">
+        <v>3.44</v>
+      </c>
+      <c r="W120">
+        <v>1.28</v>
+      </c>
+      <c r="X120">
+        <v>8.6</v>
+      </c>
+      <c r="Y120">
+        <v>1.05</v>
+      </c>
+      <c r="Z120">
+        <v>1.75</v>
+      </c>
+      <c r="AA120">
+        <v>3.25</v>
+      </c>
+      <c r="AB120">
+        <v>4.75</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>5.75</v>
+      </c>
+      <c r="AE120">
+        <v>1.43</v>
+      </c>
+      <c r="AF120">
+        <v>2.39</v>
+      </c>
+      <c r="AG120">
+        <v>2.4</v>
+      </c>
+      <c r="AH120">
+        <v>1.5</v>
+      </c>
+      <c r="AI120">
+        <v>2.09</v>
+      </c>
+      <c r="AJ120">
+        <v>1.66</v>
+      </c>
+      <c r="AK120">
+        <v>1.24</v>
+      </c>
+      <c r="AL120">
+        <v>1.32</v>
+      </c>
+      <c r="AM120">
+        <v>1.76</v>
+      </c>
+      <c r="AN120">
+        <v>1.5</v>
+      </c>
+      <c r="AO120">
+        <v>0.63</v>
+      </c>
+      <c r="AP120">
+        <v>1.43</v>
+      </c>
+      <c r="AQ120">
+        <v>0.67</v>
+      </c>
+      <c r="AR120">
+        <v>1.36</v>
+      </c>
+      <c r="AS120">
+        <v>1.22</v>
+      </c>
+      <c r="AT120">
+        <v>2.58</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>8</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>11</v>
+      </c>
+      <c r="AZ120">
+        <v>6</v>
+      </c>
+      <c r="BA120">
+        <v>5</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>6</v>
+      </c>
+      <c r="BD120">
+        <v>1.64</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>2.77</v>
+      </c>
+      <c r="BG120">
+        <v>1.43</v>
+      </c>
+      <c r="BH120">
+        <v>2.6</v>
+      </c>
+      <c r="BI120">
+        <v>1.75</v>
+      </c>
+      <c r="BJ120">
+        <v>1.96</v>
+      </c>
+      <c r="BK120">
+        <v>2.24</v>
+      </c>
+      <c r="BL120">
+        <v>1.57</v>
+      </c>
+      <c r="BM120">
+        <v>2.98</v>
+      </c>
+      <c r="BN120">
+        <v>1.34</v>
+      </c>
+      <c r="BO120">
+        <v>3.65</v>
+      </c>
+      <c r="BP120">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7486624</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>83</v>
+      </c>
+      <c r="H121" t="s">
+        <v>75</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>124</v>
+      </c>
+      <c r="P121" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q121">
+        <v>3.68</v>
+      </c>
+      <c r="R121">
+        <v>2.06</v>
+      </c>
+      <c r="S121">
+        <v>2.88</v>
+      </c>
+      <c r="T121">
+        <v>1.42</v>
+      </c>
+      <c r="U121">
+        <v>2.74</v>
+      </c>
+      <c r="V121">
+        <v>2.98</v>
+      </c>
+      <c r="W121">
+        <v>1.36</v>
+      </c>
+      <c r="X121">
+        <v>7.7</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>2.73</v>
+      </c>
+      <c r="AA121">
+        <v>4.68</v>
+      </c>
+      <c r="AB121">
+        <v>1.89</v>
+      </c>
+      <c r="AC121">
+        <v>1.01</v>
+      </c>
+      <c r="AD121">
+        <v>7.8</v>
+      </c>
+      <c r="AE121">
+        <v>1.28</v>
+      </c>
+      <c r="AF121">
+        <v>2.94</v>
+      </c>
+      <c r="AG121">
+        <v>2.15</v>
+      </c>
+      <c r="AH121">
+        <v>1.62</v>
+      </c>
+      <c r="AI121">
+        <v>1.79</v>
+      </c>
+      <c r="AJ121">
+        <v>1.92</v>
+      </c>
+      <c r="AK121">
+        <v>1.59</v>
+      </c>
+      <c r="AL121">
+        <v>1.31</v>
+      </c>
+      <c r="AM121">
+        <v>1.36</v>
+      </c>
+      <c r="AN121">
+        <v>2.29</v>
+      </c>
+      <c r="AO121">
+        <v>1.8</v>
+      </c>
+      <c r="AP121">
+        <v>2.13</v>
+      </c>
+      <c r="AQ121">
+        <v>1.67</v>
+      </c>
+      <c r="AR121">
+        <v>1.14</v>
+      </c>
+      <c r="AS121">
+        <v>1.46</v>
+      </c>
+      <c r="AT121">
+        <v>2.6</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>7</v>
+      </c>
+      <c r="BA121">
+        <v>11</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>13</v>
+      </c>
+      <c r="BD121">
+        <v>2.42</v>
+      </c>
+      <c r="BE121">
+        <v>7.5</v>
+      </c>
+      <c r="BF121">
+        <v>1.82</v>
+      </c>
+      <c r="BG121">
+        <v>1.4</v>
+      </c>
+      <c r="BH121">
+        <v>2.73</v>
+      </c>
+      <c r="BI121">
+        <v>1.69</v>
+      </c>
+      <c r="BJ121">
+        <v>2.04</v>
+      </c>
+      <c r="BK121">
+        <v>2.15</v>
+      </c>
+      <c r="BL121">
+        <v>1.62</v>
+      </c>
+      <c r="BM121">
+        <v>2.83</v>
+      </c>
+      <c r="BN121">
+        <v>1.37</v>
+      </c>
+      <c r="BO121">
+        <v>3.88</v>
+      </c>
+      <c r="BP121">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,15 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['19', '50', '65']</t>
+  </si>
+  <si>
+    <t>['48', '72']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -698,6 +707,9 @@
   </si>
   <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['20', '63']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1330,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2142,7 +2154,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2348,7 +2360,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2554,7 +2566,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3044,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -3172,7 +3184,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3378,7 +3390,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3456,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3584,7 +3596,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3662,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -3790,7 +3802,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3871,7 +3883,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3996,7 +4008,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4202,7 +4214,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4283,7 +4295,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4614,7 +4626,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4820,7 +4832,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5026,7 +5038,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5104,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5438,7 +5450,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5644,7 +5656,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6343,7 +6355,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ26">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6958,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.29</v>
@@ -7086,7 +7098,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7292,7 +7304,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7373,7 +7385,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7498,7 +7510,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7576,10 +7588,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7704,7 +7716,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7910,7 +7922,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8116,7 +8128,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8322,7 +8334,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8528,7 +8540,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9146,7 +9158,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9224,7 +9236,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9352,7 +9364,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9558,7 +9570,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9636,7 +9648,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -9845,7 +9857,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10254,7 +10266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10463,7 +10475,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10588,7 +10600,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10669,7 +10681,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -11000,7 +11012,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11078,7 +11090,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -12030,7 +12042,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12236,7 +12248,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12523,7 +12535,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12648,7 +12660,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12854,7 +12866,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12932,7 +12944,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.25</v>
@@ -13060,7 +13072,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13266,7 +13278,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13553,7 +13565,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>2.06</v>
@@ -13678,7 +13690,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14708,7 +14720,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14992,7 +15004,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15120,7 +15132,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15326,7 +15338,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15407,7 +15419,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15532,7 +15544,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15610,7 +15622,7 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71">
         <v>1.78</v>
@@ -15738,7 +15750,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15944,7 +15956,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16356,7 +16368,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16562,7 +16574,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16643,7 +16655,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -16768,7 +16780,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17180,7 +17192,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17467,7 +17479,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17592,7 +17604,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17876,7 +17888,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
         <v>1.78</v>
@@ -18004,7 +18016,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18085,7 +18097,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18288,7 +18300,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>1.25</v>
@@ -18622,7 +18634,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18906,7 +18918,7 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>1.25</v>
@@ -19446,7 +19458,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19652,7 +19664,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19858,7 +19870,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20064,7 +20076,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20145,7 +20157,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20476,7 +20488,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20763,7 +20775,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -21175,7 +21187,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ98">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21584,7 +21596,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.67</v>
@@ -21712,7 +21724,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21996,7 +22008,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22202,7 +22214,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
         <v>0.57</v>
@@ -22330,7 +22342,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22411,7 +22423,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -22742,7 +22754,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22948,7 +22960,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23154,7 +23166,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23566,7 +23578,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23772,7 +23784,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -23978,7 +23990,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24184,7 +24196,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24471,7 +24483,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
         <v>1.16</v>
@@ -24596,7 +24608,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24674,7 +24686,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ115">
         <v>1.25</v>
@@ -25008,7 +25020,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25086,7 +25098,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25498,10 +25510,10 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ119">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -25593,7 +25605,7 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45604.54166666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F120">
         <v>16</v>
@@ -25799,7 +25811,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -25832,7 +25844,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -25989,6 +26001,624 @@
       </c>
       <c r="BP121">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7486622</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45605.35416666666</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>165</v>
+      </c>
+      <c r="P122" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q122">
+        <v>3.72</v>
+      </c>
+      <c r="R122">
+        <v>1.99</v>
+      </c>
+      <c r="S122">
+        <v>3</v>
+      </c>
+      <c r="T122">
+        <v>1.47</v>
+      </c>
+      <c r="U122">
+        <v>2.57</v>
+      </c>
+      <c r="V122">
+        <v>3.2</v>
+      </c>
+      <c r="W122">
+        <v>1.32</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.04</v>
+      </c>
+      <c r="Z122">
+        <v>3</v>
+      </c>
+      <c r="AA122">
+        <v>3</v>
+      </c>
+      <c r="AB122">
+        <v>2.4</v>
+      </c>
+      <c r="AC122">
+        <v>1.02</v>
+      </c>
+      <c r="AD122">
+        <v>7.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.33</v>
+      </c>
+      <c r="AF122">
+        <v>2.72</v>
+      </c>
+      <c r="AG122">
+        <v>1.95</v>
+      </c>
+      <c r="AH122">
+        <v>1.75</v>
+      </c>
+      <c r="AI122">
+        <v>1.89</v>
+      </c>
+      <c r="AJ122">
+        <v>1.81</v>
+      </c>
+      <c r="AK122">
+        <v>1.56</v>
+      </c>
+      <c r="AL122">
+        <v>1.32</v>
+      </c>
+      <c r="AM122">
+        <v>1.36</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>1.14</v>
+      </c>
+      <c r="AP122">
+        <v>1.78</v>
+      </c>
+      <c r="AQ122">
+        <v>1.38</v>
+      </c>
+      <c r="AR122">
+        <v>1.54</v>
+      </c>
+      <c r="AS122">
+        <v>1.62</v>
+      </c>
+      <c r="AT122">
+        <v>3.16</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>16</v>
+      </c>
+      <c r="AZ122">
+        <v>7</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>8</v>
+      </c>
+      <c r="BC122">
+        <v>15</v>
+      </c>
+      <c r="BD122">
+        <v>2.1</v>
+      </c>
+      <c r="BE122">
+        <v>7.5</v>
+      </c>
+      <c r="BF122">
+        <v>2</v>
+      </c>
+      <c r="BG122">
+        <v>1.34</v>
+      </c>
+      <c r="BH122">
+        <v>2.98</v>
+      </c>
+      <c r="BI122">
+        <v>1.6</v>
+      </c>
+      <c r="BJ122">
+        <v>2.19</v>
+      </c>
+      <c r="BK122">
+        <v>2</v>
+      </c>
+      <c r="BL122">
+        <v>1.72</v>
+      </c>
+      <c r="BM122">
+        <v>2.6</v>
+      </c>
+      <c r="BN122">
+        <v>1.44</v>
+      </c>
+      <c r="BO122">
+        <v>3.5</v>
+      </c>
+      <c r="BP122">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7486626</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45605.55208333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>80</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>166</v>
+      </c>
+      <c r="P123" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q123">
+        <v>2.2</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>5.55</v>
+      </c>
+      <c r="T123">
+        <v>1.4</v>
+      </c>
+      <c r="U123">
+        <v>2.82</v>
+      </c>
+      <c r="V123">
+        <v>2.78</v>
+      </c>
+      <c r="W123">
+        <v>1.41</v>
+      </c>
+      <c r="X123">
+        <v>6.65</v>
+      </c>
+      <c r="Y123">
+        <v>1.09</v>
+      </c>
+      <c r="Z123">
+        <v>1.62</v>
+      </c>
+      <c r="AA123">
+        <v>3.8</v>
+      </c>
+      <c r="AB123">
+        <v>5</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>7.3</v>
+      </c>
+      <c r="AE123">
+        <v>1.27</v>
+      </c>
+      <c r="AF123">
+        <v>3.04</v>
+      </c>
+      <c r="AG123">
+        <v>1.78</v>
+      </c>
+      <c r="AH123">
+        <v>1.93</v>
+      </c>
+      <c r="AI123">
+        <v>1.89</v>
+      </c>
+      <c r="AJ123">
+        <v>1.81</v>
+      </c>
+      <c r="AK123">
+        <v>1.14</v>
+      </c>
+      <c r="AL123">
+        <v>1.24</v>
+      </c>
+      <c r="AM123">
+        <v>2.2</v>
+      </c>
+      <c r="AN123">
+        <v>1.86</v>
+      </c>
+      <c r="AO123">
+        <v>0.14</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+      <c r="AQ123">
+        <v>0.13</v>
+      </c>
+      <c r="AR123">
+        <v>1.82</v>
+      </c>
+      <c r="AS123">
+        <v>1.45</v>
+      </c>
+      <c r="AT123">
+        <v>3.27</v>
+      </c>
+      <c r="AU123">
+        <v>8</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>4</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>14</v>
+      </c>
+      <c r="AZ123">
+        <v>8</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>6</v>
+      </c>
+      <c r="BC123">
+        <v>8</v>
+      </c>
+      <c r="BD123">
+        <v>1.34</v>
+      </c>
+      <c r="BE123">
+        <v>9</v>
+      </c>
+      <c r="BF123">
+        <v>4.09</v>
+      </c>
+      <c r="BG123">
+        <v>1.27</v>
+      </c>
+      <c r="BH123">
+        <v>3.4</v>
+      </c>
+      <c r="BI123">
+        <v>1.48</v>
+      </c>
+      <c r="BJ123">
+        <v>2.47</v>
+      </c>
+      <c r="BK123">
+        <v>1.8</v>
+      </c>
+      <c r="BL123">
+        <v>1.9</v>
+      </c>
+      <c r="BM123">
+        <v>2.26</v>
+      </c>
+      <c r="BN123">
+        <v>1.57</v>
+      </c>
+      <c r="BO123">
+        <v>2.9</v>
+      </c>
+      <c r="BP123">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7486625</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45605.66666666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>167</v>
+      </c>
+      <c r="P124" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q124">
+        <v>2.34</v>
+      </c>
+      <c r="R124">
+        <v>2.1</v>
+      </c>
+      <c r="S124">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>1.42</v>
+      </c>
+      <c r="U124">
+        <v>2.74</v>
+      </c>
+      <c r="V124">
+        <v>2.99</v>
+      </c>
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>7.7</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>1.82</v>
+      </c>
+      <c r="AA124">
+        <v>3.55</v>
+      </c>
+      <c r="AB124">
+        <v>4.27</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>7.8</v>
+      </c>
+      <c r="AE124">
+        <v>1.28</v>
+      </c>
+      <c r="AF124">
+        <v>2.94</v>
+      </c>
+      <c r="AG124">
+        <v>1.8</v>
+      </c>
+      <c r="AH124">
+        <v>1.88</v>
+      </c>
+      <c r="AI124">
+        <v>1.9</v>
+      </c>
+      <c r="AJ124">
+        <v>1.8</v>
+      </c>
+      <c r="AK124">
+        <v>1.18</v>
+      </c>
+      <c r="AL124">
+        <v>1.27</v>
+      </c>
+      <c r="AM124">
+        <v>1.99</v>
+      </c>
+      <c r="AN124">
+        <v>1.43</v>
+      </c>
+      <c r="AO124">
+        <v>0.86</v>
+      </c>
+      <c r="AP124">
+        <v>1.63</v>
+      </c>
+      <c r="AQ124">
+        <v>0.75</v>
+      </c>
+      <c r="AR124">
+        <v>1.43</v>
+      </c>
+      <c r="AS124">
+        <v>1.27</v>
+      </c>
+      <c r="AT124">
+        <v>2.7</v>
+      </c>
+      <c r="AU124">
+        <v>13</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>4</v>
+      </c>
+      <c r="AY124">
+        <v>20</v>
+      </c>
+      <c r="AZ124">
+        <v>14</v>
+      </c>
+      <c r="BA124">
+        <v>7</v>
+      </c>
+      <c r="BB124">
+        <v>1</v>
+      </c>
+      <c r="BC124">
+        <v>8</v>
+      </c>
+      <c r="BD124">
+        <v>1.45</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>3.46</v>
+      </c>
+      <c r="BG124">
+        <v>1.29</v>
+      </c>
+      <c r="BH124">
+        <v>3.3</v>
+      </c>
+      <c r="BI124">
+        <v>1.51</v>
+      </c>
+      <c r="BJ124">
+        <v>2.4</v>
+      </c>
+      <c r="BK124">
+        <v>1.85</v>
+      </c>
+      <c r="BL124">
+        <v>1.85</v>
+      </c>
+      <c r="BM124">
+        <v>2.33</v>
+      </c>
+      <c r="BN124">
+        <v>1.53</v>
+      </c>
+      <c r="BO124">
+        <v>3</v>
+      </c>
+      <c r="BP124">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,9 @@
     <t>['48', '72']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -710,6 +713,12 @@
   </si>
   <si>
     <t>['20', '63']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['30', '51']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1339,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2154,7 +2163,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2360,7 +2369,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2566,7 +2575,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3184,7 +3193,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3262,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3390,7 +3399,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3596,7 +3605,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3677,7 +3686,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3802,7 +3811,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3880,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.13</v>
@@ -4008,7 +4017,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4089,7 +4098,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4214,7 +4223,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4292,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4498,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4626,7 +4635,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4832,7 +4841,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5038,7 +5047,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5450,7 +5459,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5656,7 +5665,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6352,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.13</v>
@@ -6973,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -7098,7 +7107,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7304,7 +7313,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7382,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7510,7 +7519,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7716,7 +7725,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7797,7 +7806,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -7922,7 +7931,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8128,7 +8137,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8334,7 +8343,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8412,7 +8421,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8540,7 +8549,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9158,7 +9167,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9364,7 +9373,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9442,10 +9451,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9570,7 +9579,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10472,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -10600,7 +10609,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11012,7 +11021,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11917,7 +11926,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12042,7 +12051,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12120,7 +12129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.78</v>
@@ -12248,7 +12257,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12329,7 +12338,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12532,7 +12541,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -12660,7 +12669,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12866,7 +12875,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -13072,7 +13081,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13153,7 +13162,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13278,7 +13287,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13359,7 +13368,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -13690,7 +13699,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13768,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>0.63</v>
@@ -13974,7 +13983,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14592,7 +14601,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.25</v>
@@ -14720,7 +14729,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14801,7 +14810,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15132,7 +15141,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15213,7 +15222,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15338,7 +15347,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15544,7 +15553,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15750,7 +15759,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15956,7 +15965,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16034,7 +16043,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16243,7 +16252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16368,7 +16377,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16449,7 +16458,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -16574,7 +16583,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16780,7 +16789,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16858,7 +16867,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -17192,7 +17201,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17270,7 +17279,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.25</v>
@@ -17604,7 +17613,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18016,7 +18025,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18506,10 +18515,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18634,7 +18643,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18715,7 +18724,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19127,7 +19136,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19458,7 +19467,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19536,7 +19545,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.78</v>
@@ -19664,7 +19673,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19870,7 +19879,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19948,7 +19957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>1.13</v>
@@ -20076,7 +20085,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20488,7 +20497,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20772,7 +20781,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>0.13</v>
@@ -20978,7 +20987,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.25</v>
@@ -21393,7 +21402,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -21724,7 +21733,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21805,7 +21814,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22217,7 +22226,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22342,7 +22351,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22754,7 +22763,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22960,7 +22969,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23166,7 +23175,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23244,7 +23253,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ108">
         <v>1.25</v>
@@ -23578,7 +23587,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23784,7 +23793,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -23990,7 +23999,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24068,10 +24077,10 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24196,7 +24205,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24277,7 +24286,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.54</v>
@@ -24608,7 +24617,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24892,10 +24901,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -25020,7 +25029,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25101,7 +25110,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -25304,7 +25313,7 @@
         <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25605,7 +25614,7 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45603.875</v>
+        <v>45604.54166666666</v>
       </c>
       <c r="F120">
         <v>16</v>
@@ -25716,7 +25725,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -25811,7 +25820,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -25844,7 +25853,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -25925,7 +25934,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26050,7 +26059,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26226,7 +26235,7 @@
         <v>45605.55208333334</v>
       </c>
       <c r="F123">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
         <v>80</v>
@@ -26619,6 +26628,830 @@
       </c>
       <c r="BP124">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7486627</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>79</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>86</v>
+      </c>
+      <c r="P125" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q125">
+        <v>3.3</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>3.2</v>
+      </c>
+      <c r="T125">
+        <v>1.46</v>
+      </c>
+      <c r="U125">
+        <v>2.55</v>
+      </c>
+      <c r="V125">
+        <v>3.1</v>
+      </c>
+      <c r="W125">
+        <v>1.34</v>
+      </c>
+      <c r="X125">
+        <v>8.4</v>
+      </c>
+      <c r="Y125">
+        <v>1.05</v>
+      </c>
+      <c r="Z125">
+        <v>7.15</v>
+      </c>
+      <c r="AA125">
+        <v>4.02</v>
+      </c>
+      <c r="AB125">
+        <v>1.38</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>8</v>
+      </c>
+      <c r="AE125">
+        <v>1.36</v>
+      </c>
+      <c r="AF125">
+        <v>2.95</v>
+      </c>
+      <c r="AG125">
+        <v>2</v>
+      </c>
+      <c r="AH125">
+        <v>1.73</v>
+      </c>
+      <c r="AI125">
+        <v>1.85</v>
+      </c>
+      <c r="AJ125">
+        <v>1.9</v>
+      </c>
+      <c r="AK125">
+        <v>1.5</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.44</v>
+      </c>
+      <c r="AN125">
+        <v>1.14</v>
+      </c>
+      <c r="AO125">
+        <v>0.57</v>
+      </c>
+      <c r="AP125">
+        <v>1</v>
+      </c>
+      <c r="AQ125">
+        <v>0.88</v>
+      </c>
+      <c r="AR125">
+        <v>1.4</v>
+      </c>
+      <c r="AS125">
+        <v>1.3</v>
+      </c>
+      <c r="AT125">
+        <v>2.7</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>10</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>23</v>
+      </c>
+      <c r="AZ125">
+        <v>16</v>
+      </c>
+      <c r="BA125">
+        <v>10</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>14</v>
+      </c>
+      <c r="BD125">
+        <v>2.1</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>1.91</v>
+      </c>
+      <c r="BG125">
+        <v>1.29</v>
+      </c>
+      <c r="BH125">
+        <v>3.25</v>
+      </c>
+      <c r="BI125">
+        <v>1.52</v>
+      </c>
+      <c r="BJ125">
+        <v>2.36</v>
+      </c>
+      <c r="BK125">
+        <v>1.87</v>
+      </c>
+      <c r="BL125">
+        <v>1.83</v>
+      </c>
+      <c r="BM125">
+        <v>2.39</v>
+      </c>
+      <c r="BN125">
+        <v>1.51</v>
+      </c>
+      <c r="BO125">
+        <v>3.2</v>
+      </c>
+      <c r="BP125">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7486979</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>82</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>168</v>
+      </c>
+      <c r="P126" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q126">
+        <v>3.52</v>
+      </c>
+      <c r="R126">
+        <v>1.96</v>
+      </c>
+      <c r="S126">
+        <v>3.22</v>
+      </c>
+      <c r="T126">
+        <v>1.47</v>
+      </c>
+      <c r="U126">
+        <v>2.57</v>
+      </c>
+      <c r="V126">
+        <v>3.34</v>
+      </c>
+      <c r="W126">
+        <v>1.3</v>
+      </c>
+      <c r="X126">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y126">
+        <v>1.03</v>
+      </c>
+      <c r="Z126">
+        <v>2.7</v>
+      </c>
+      <c r="AA126">
+        <v>3.15</v>
+      </c>
+      <c r="AB126">
+        <v>2.52</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>7.8</v>
+      </c>
+      <c r="AE126">
+        <v>1.34</v>
+      </c>
+      <c r="AF126">
+        <v>2.69</v>
+      </c>
+      <c r="AG126">
+        <v>2.29</v>
+      </c>
+      <c r="AH126">
+        <v>1.55</v>
+      </c>
+      <c r="AI126">
+        <v>1.9</v>
+      </c>
+      <c r="AJ126">
+        <v>1.8</v>
+      </c>
+      <c r="AK126">
+        <v>1.49</v>
+      </c>
+      <c r="AL126">
+        <v>1.33</v>
+      </c>
+      <c r="AM126">
+        <v>1.41</v>
+      </c>
+      <c r="AN126">
+        <v>2.33</v>
+      </c>
+      <c r="AO126">
+        <v>1.5</v>
+      </c>
+      <c r="AP126">
+        <v>2</v>
+      </c>
+      <c r="AQ126">
+        <v>1.71</v>
+      </c>
+      <c r="AR126">
+        <v>1.38</v>
+      </c>
+      <c r="AS126">
+        <v>1.38</v>
+      </c>
+      <c r="AT126">
+        <v>2.76</v>
+      </c>
+      <c r="AU126">
+        <v>7</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>11</v>
+      </c>
+      <c r="AZ126">
+        <v>10</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
+        <v>8</v>
+      </c>
+      <c r="BD126">
+        <v>1.82</v>
+      </c>
+      <c r="BE126">
+        <v>7.5</v>
+      </c>
+      <c r="BF126">
+        <v>2.42</v>
+      </c>
+      <c r="BG126">
+        <v>1.44</v>
+      </c>
+      <c r="BH126">
+        <v>2.6</v>
+      </c>
+      <c r="BI126">
+        <v>1.75</v>
+      </c>
+      <c r="BJ126">
+        <v>1.96</v>
+      </c>
+      <c r="BK126">
+        <v>2.24</v>
+      </c>
+      <c r="BL126">
+        <v>1.57</v>
+      </c>
+      <c r="BM126">
+        <v>2.98</v>
+      </c>
+      <c r="BN126">
+        <v>1.34</v>
+      </c>
+      <c r="BO126">
+        <v>3.55</v>
+      </c>
+      <c r="BP126">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7486623</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45607.54166666666</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>86</v>
+      </c>
+      <c r="P127" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q127">
+        <v>3.75</v>
+      </c>
+      <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>3.25</v>
+      </c>
+      <c r="T127">
+        <v>1.53</v>
+      </c>
+      <c r="U127">
+        <v>2.38</v>
+      </c>
+      <c r="V127">
+        <v>3.75</v>
+      </c>
+      <c r="W127">
+        <v>1.25</v>
+      </c>
+      <c r="X127">
+        <v>11</v>
+      </c>
+      <c r="Y127">
+        <v>1.05</v>
+      </c>
+      <c r="Z127">
+        <v>2.71</v>
+      </c>
+      <c r="AA127">
+        <v>2.76</v>
+      </c>
+      <c r="AB127">
+        <v>2.33</v>
+      </c>
+      <c r="AC127">
+        <v>1.06</v>
+      </c>
+      <c r="AD127">
+        <v>5.6</v>
+      </c>
+      <c r="AE127">
+        <v>1.45</v>
+      </c>
+      <c r="AF127">
+        <v>2.5</v>
+      </c>
+      <c r="AG127">
+        <v>2.3</v>
+      </c>
+      <c r="AH127">
+        <v>1.5</v>
+      </c>
+      <c r="AI127">
+        <v>2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.73</v>
+      </c>
+      <c r="AK127">
+        <v>1.5</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.36</v>
+      </c>
+      <c r="AN127">
+        <v>1.14</v>
+      </c>
+      <c r="AO127">
+        <v>1.29</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+      <c r="AQ127">
+        <v>1.5</v>
+      </c>
+      <c r="AR127">
+        <v>1.4</v>
+      </c>
+      <c r="AS127">
+        <v>1.39</v>
+      </c>
+      <c r="AT127">
+        <v>2.79</v>
+      </c>
+      <c r="AU127">
+        <v>7</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>1</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>2.05</v>
+      </c>
+      <c r="BE127">
+        <v>7.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.05</v>
+      </c>
+      <c r="BG127">
+        <v>1.28</v>
+      </c>
+      <c r="BH127">
+        <v>2.94</v>
+      </c>
+      <c r="BI127">
+        <v>1.56</v>
+      </c>
+      <c r="BJ127">
+        <v>2.16</v>
+      </c>
+      <c r="BK127">
+        <v>2</v>
+      </c>
+      <c r="BL127">
+        <v>1.72</v>
+      </c>
+      <c r="BM127">
+        <v>2.59</v>
+      </c>
+      <c r="BN127">
+        <v>1.39</v>
+      </c>
+      <c r="BO127">
+        <v>3.52</v>
+      </c>
+      <c r="BP127">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7486491</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45607.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>86</v>
+      </c>
+      <c r="P128" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q128">
+        <v>3.75</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>3.1</v>
+      </c>
+      <c r="T128">
+        <v>1.56</v>
+      </c>
+      <c r="U128">
+        <v>2.31</v>
+      </c>
+      <c r="V128">
+        <v>3.54</v>
+      </c>
+      <c r="W128">
+        <v>1.27</v>
+      </c>
+      <c r="X128">
+        <v>9.1</v>
+      </c>
+      <c r="Y128">
+        <v>1.04</v>
+      </c>
+      <c r="Z128">
+        <v>2.86</v>
+      </c>
+      <c r="AA128">
+        <v>2.86</v>
+      </c>
+      <c r="AB128">
+        <v>2.17</v>
+      </c>
+      <c r="AC128">
+        <v>1.09</v>
+      </c>
+      <c r="AD128">
+        <v>6.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.48</v>
+      </c>
+      <c r="AF128">
+        <v>2.37</v>
+      </c>
+      <c r="AG128">
+        <v>2.2</v>
+      </c>
+      <c r="AH128">
+        <v>1.62</v>
+      </c>
+      <c r="AI128">
+        <v>2.1</v>
+      </c>
+      <c r="AJ128">
+        <v>1.68</v>
+      </c>
+      <c r="AK128">
+        <v>1.57</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.33</v>
+      </c>
+      <c r="AN128">
+        <v>1.43</v>
+      </c>
+      <c r="AO128">
+        <v>1.67</v>
+      </c>
+      <c r="AP128">
+        <v>1.25</v>
+      </c>
+      <c r="AQ128">
+        <v>1.86</v>
+      </c>
+      <c r="AR128">
+        <v>1.38</v>
+      </c>
+      <c r="AS128">
+        <v>1.37</v>
+      </c>
+      <c r="AT128">
+        <v>2.75</v>
+      </c>
+      <c r="AU128">
+        <v>3</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>14</v>
+      </c>
+      <c r="AZ128">
+        <v>5</v>
+      </c>
+      <c r="BA128">
+        <v>8</v>
+      </c>
+      <c r="BB128">
+        <v>1</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>2.33</v>
+      </c>
+      <c r="BE128">
+        <v>6.3</v>
+      </c>
+      <c r="BF128">
+        <v>1.93</v>
+      </c>
+      <c r="BG128">
+        <v>1.26</v>
+      </c>
+      <c r="BH128">
+        <v>3.08</v>
+      </c>
+      <c r="BI128">
+        <v>1.52</v>
+      </c>
+      <c r="BJ128">
+        <v>2.24</v>
+      </c>
+      <c r="BK128">
+        <v>1.94</v>
+      </c>
+      <c r="BL128">
+        <v>1.77</v>
+      </c>
+      <c r="BM128">
+        <v>2.49</v>
+      </c>
+      <c r="BN128">
+        <v>1.42</v>
+      </c>
+      <c r="BO128">
+        <v>3.35</v>
+      </c>
+      <c r="BP128">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1080,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3686,7 +3686,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ26">
         <v>0.13</v>
@@ -6982,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -8421,7 +8421,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -12129,7 +12129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>1.78</v>
@@ -12541,7 +12541,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -13162,7 +13162,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13368,7 +13368,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -14601,7 +14601,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ66">
         <v>1.25</v>
@@ -16043,7 +16043,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16252,7 +16252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16458,7 +16458,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -18515,7 +18515,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ85">
         <v>0.88</v>
@@ -19136,7 +19136,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19957,7 +19957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
         <v>1.13</v>
@@ -20781,7 +20781,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ96">
         <v>0.13</v>
@@ -21402,7 +21402,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -23253,7 +23253,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ108">
         <v>1.25</v>
@@ -24077,10 +24077,10 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24286,7 +24286,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR113">
         <v>1.54</v>
@@ -25725,7 +25725,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -25934,7 +25934,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ121">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26644,7 +26644,7 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F125">
         <v>16</v>
@@ -26850,10 +26850,10 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45605.875</v>
+        <v>45606.66666666666</v>
       </c>
       <c r="F126">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>82</v>
@@ -27040,418 +27040,6 @@
       </c>
       <c r="BP126">
         <v>1.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:68">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>7486623</v>
-      </c>
-      <c r="C127" t="s">
-        <v>68</v>
-      </c>
-      <c r="D127" t="s">
-        <v>69</v>
-      </c>
-      <c r="E127" s="2">
-        <v>45607.54166666666</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>84</v>
-      </c>
-      <c r="H127" t="s">
-        <v>77</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127" t="s">
-        <v>86</v>
-      </c>
-      <c r="P127" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q127">
-        <v>3.75</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>3.25</v>
-      </c>
-      <c r="T127">
-        <v>1.53</v>
-      </c>
-      <c r="U127">
-        <v>2.38</v>
-      </c>
-      <c r="V127">
-        <v>3.75</v>
-      </c>
-      <c r="W127">
-        <v>1.25</v>
-      </c>
-      <c r="X127">
-        <v>11</v>
-      </c>
-      <c r="Y127">
-        <v>1.05</v>
-      </c>
-      <c r="Z127">
-        <v>2.71</v>
-      </c>
-      <c r="AA127">
-        <v>2.76</v>
-      </c>
-      <c r="AB127">
-        <v>2.33</v>
-      </c>
-      <c r="AC127">
-        <v>1.06</v>
-      </c>
-      <c r="AD127">
-        <v>5.6</v>
-      </c>
-      <c r="AE127">
-        <v>1.45</v>
-      </c>
-      <c r="AF127">
-        <v>2.5</v>
-      </c>
-      <c r="AG127">
-        <v>2.3</v>
-      </c>
-      <c r="AH127">
-        <v>1.5</v>
-      </c>
-      <c r="AI127">
-        <v>2</v>
-      </c>
-      <c r="AJ127">
-        <v>1.73</v>
-      </c>
-      <c r="AK127">
-        <v>1.5</v>
-      </c>
-      <c r="AL127">
-        <v>1.3</v>
-      </c>
-      <c r="AM127">
-        <v>1.36</v>
-      </c>
-      <c r="AN127">
-        <v>1.14</v>
-      </c>
-      <c r="AO127">
-        <v>1.29</v>
-      </c>
-      <c r="AP127">
-        <v>1</v>
-      </c>
-      <c r="AQ127">
-        <v>1.5</v>
-      </c>
-      <c r="AR127">
-        <v>1.4</v>
-      </c>
-      <c r="AS127">
-        <v>1.39</v>
-      </c>
-      <c r="AT127">
-        <v>2.79</v>
-      </c>
-      <c r="AU127">
-        <v>7</v>
-      </c>
-      <c r="AV127">
-        <v>4</v>
-      </c>
-      <c r="AW127">
-        <v>1</v>
-      </c>
-      <c r="AX127">
-        <v>4</v>
-      </c>
-      <c r="AY127">
-        <v>13</v>
-      </c>
-      <c r="AZ127">
-        <v>10</v>
-      </c>
-      <c r="BA127">
-        <v>4</v>
-      </c>
-      <c r="BB127">
-        <v>6</v>
-      </c>
-      <c r="BC127">
-        <v>10</v>
-      </c>
-      <c r="BD127">
-        <v>2.05</v>
-      </c>
-      <c r="BE127">
-        <v>7.5</v>
-      </c>
-      <c r="BF127">
-        <v>2.05</v>
-      </c>
-      <c r="BG127">
-        <v>1.28</v>
-      </c>
-      <c r="BH127">
-        <v>2.94</v>
-      </c>
-      <c r="BI127">
-        <v>1.56</v>
-      </c>
-      <c r="BJ127">
-        <v>2.16</v>
-      </c>
-      <c r="BK127">
-        <v>2</v>
-      </c>
-      <c r="BL127">
-        <v>1.72</v>
-      </c>
-      <c r="BM127">
-        <v>2.59</v>
-      </c>
-      <c r="BN127">
-        <v>1.39</v>
-      </c>
-      <c r="BO127">
-        <v>3.52</v>
-      </c>
-      <c r="BP127">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:68">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>7486491</v>
-      </c>
-      <c r="C128" t="s">
-        <v>68</v>
-      </c>
-      <c r="D128" t="s">
-        <v>69</v>
-      </c>
-      <c r="E128" s="2">
-        <v>45607.66666666666</v>
-      </c>
-      <c r="F128">
-        <v>6</v>
-      </c>
-      <c r="G128" t="s">
-        <v>85</v>
-      </c>
-      <c r="H128" t="s">
-        <v>75</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128" t="s">
-        <v>86</v>
-      </c>
-      <c r="P128" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q128">
-        <v>3.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>3.1</v>
-      </c>
-      <c r="T128">
-        <v>1.56</v>
-      </c>
-      <c r="U128">
-        <v>2.31</v>
-      </c>
-      <c r="V128">
-        <v>3.54</v>
-      </c>
-      <c r="W128">
-        <v>1.27</v>
-      </c>
-      <c r="X128">
-        <v>9.1</v>
-      </c>
-      <c r="Y128">
-        <v>1.04</v>
-      </c>
-      <c r="Z128">
-        <v>2.86</v>
-      </c>
-      <c r="AA128">
-        <v>2.86</v>
-      </c>
-      <c r="AB128">
-        <v>2.17</v>
-      </c>
-      <c r="AC128">
-        <v>1.09</v>
-      </c>
-      <c r="AD128">
-        <v>6.5</v>
-      </c>
-      <c r="AE128">
-        <v>1.48</v>
-      </c>
-      <c r="AF128">
-        <v>2.37</v>
-      </c>
-      <c r="AG128">
-        <v>2.2</v>
-      </c>
-      <c r="AH128">
-        <v>1.62</v>
-      </c>
-      <c r="AI128">
-        <v>2.1</v>
-      </c>
-      <c r="AJ128">
-        <v>1.68</v>
-      </c>
-      <c r="AK128">
-        <v>1.57</v>
-      </c>
-      <c r="AL128">
-        <v>1.3</v>
-      </c>
-      <c r="AM128">
-        <v>1.33</v>
-      </c>
-      <c r="AN128">
-        <v>1.43</v>
-      </c>
-      <c r="AO128">
-        <v>1.67</v>
-      </c>
-      <c r="AP128">
-        <v>1.25</v>
-      </c>
-      <c r="AQ128">
-        <v>1.86</v>
-      </c>
-      <c r="AR128">
-        <v>1.38</v>
-      </c>
-      <c r="AS128">
-        <v>1.37</v>
-      </c>
-      <c r="AT128">
-        <v>2.75</v>
-      </c>
-      <c r="AU128">
-        <v>3</v>
-      </c>
-      <c r="AV128">
-        <v>2</v>
-      </c>
-      <c r="AW128">
-        <v>9</v>
-      </c>
-      <c r="AX128">
-        <v>2</v>
-      </c>
-      <c r="AY128">
-        <v>14</v>
-      </c>
-      <c r="AZ128">
-        <v>5</v>
-      </c>
-      <c r="BA128">
-        <v>8</v>
-      </c>
-      <c r="BB128">
-        <v>1</v>
-      </c>
-      <c r="BC128">
-        <v>9</v>
-      </c>
-      <c r="BD128">
-        <v>2.33</v>
-      </c>
-      <c r="BE128">
-        <v>6.3</v>
-      </c>
-      <c r="BF128">
-        <v>1.93</v>
-      </c>
-      <c r="BG128">
-        <v>1.26</v>
-      </c>
-      <c r="BH128">
-        <v>3.08</v>
-      </c>
-      <c r="BI128">
-        <v>1.52</v>
-      </c>
-      <c r="BJ128">
-        <v>2.24</v>
-      </c>
-      <c r="BK128">
-        <v>1.94</v>
-      </c>
-      <c r="BL128">
-        <v>1.77</v>
-      </c>
-      <c r="BM128">
-        <v>2.49</v>
-      </c>
-      <c r="BN128">
-        <v>1.42</v>
-      </c>
-      <c r="BO128">
-        <v>3.35</v>
-      </c>
-      <c r="BP128">
-        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1080,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3686,7 +3686,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.13</v>
@@ -6982,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -8421,7 +8421,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -12129,7 +12129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.78</v>
@@ -12541,7 +12541,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -13162,7 +13162,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13368,7 +13368,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -14601,7 +14601,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.25</v>
@@ -16043,7 +16043,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16252,7 +16252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16458,7 +16458,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -18515,7 +18515,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>0.88</v>
@@ -19136,7 +19136,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19957,7 +19957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>1.13</v>
@@ -20781,7 +20781,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>0.13</v>
@@ -21402,7 +21402,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -23253,7 +23253,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ108">
         <v>1.25</v>
@@ -24077,10 +24077,10 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24286,7 +24286,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.54</v>
@@ -25725,7 +25725,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -25934,7 +25934,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -27040,6 +27040,418 @@
       </c>
       <c r="BP126">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7486623</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45607.54166666666</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>86</v>
+      </c>
+      <c r="P127" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q127">
+        <v>3.75</v>
+      </c>
+      <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>3.25</v>
+      </c>
+      <c r="T127">
+        <v>1.53</v>
+      </c>
+      <c r="U127">
+        <v>2.38</v>
+      </c>
+      <c r="V127">
+        <v>3.75</v>
+      </c>
+      <c r="W127">
+        <v>1.25</v>
+      </c>
+      <c r="X127">
+        <v>11</v>
+      </c>
+      <c r="Y127">
+        <v>1.05</v>
+      </c>
+      <c r="Z127">
+        <v>2.71</v>
+      </c>
+      <c r="AA127">
+        <v>2.76</v>
+      </c>
+      <c r="AB127">
+        <v>2.33</v>
+      </c>
+      <c r="AC127">
+        <v>1.06</v>
+      </c>
+      <c r="AD127">
+        <v>5.6</v>
+      </c>
+      <c r="AE127">
+        <v>1.45</v>
+      </c>
+      <c r="AF127">
+        <v>2.5</v>
+      </c>
+      <c r="AG127">
+        <v>2.3</v>
+      </c>
+      <c r="AH127">
+        <v>1.5</v>
+      </c>
+      <c r="AI127">
+        <v>2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.73</v>
+      </c>
+      <c r="AK127">
+        <v>1.5</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.36</v>
+      </c>
+      <c r="AN127">
+        <v>1.14</v>
+      </c>
+      <c r="AO127">
+        <v>1.29</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+      <c r="AQ127">
+        <v>1.5</v>
+      </c>
+      <c r="AR127">
+        <v>1.4</v>
+      </c>
+      <c r="AS127">
+        <v>1.39</v>
+      </c>
+      <c r="AT127">
+        <v>2.79</v>
+      </c>
+      <c r="AU127">
+        <v>7</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>1</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>2.05</v>
+      </c>
+      <c r="BE127">
+        <v>7.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.05</v>
+      </c>
+      <c r="BG127">
+        <v>1.28</v>
+      </c>
+      <c r="BH127">
+        <v>2.94</v>
+      </c>
+      <c r="BI127">
+        <v>1.56</v>
+      </c>
+      <c r="BJ127">
+        <v>2.16</v>
+      </c>
+      <c r="BK127">
+        <v>2</v>
+      </c>
+      <c r="BL127">
+        <v>1.72</v>
+      </c>
+      <c r="BM127">
+        <v>2.59</v>
+      </c>
+      <c r="BN127">
+        <v>1.39</v>
+      </c>
+      <c r="BO127">
+        <v>3.52</v>
+      </c>
+      <c r="BP127">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7486491</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45607.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>86</v>
+      </c>
+      <c r="P128" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q128">
+        <v>3.75</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>3.1</v>
+      </c>
+      <c r="T128">
+        <v>1.56</v>
+      </c>
+      <c r="U128">
+        <v>2.31</v>
+      </c>
+      <c r="V128">
+        <v>3.54</v>
+      </c>
+      <c r="W128">
+        <v>1.27</v>
+      </c>
+      <c r="X128">
+        <v>9.1</v>
+      </c>
+      <c r="Y128">
+        <v>1.04</v>
+      </c>
+      <c r="Z128">
+        <v>2.86</v>
+      </c>
+      <c r="AA128">
+        <v>2.86</v>
+      </c>
+      <c r="AB128">
+        <v>2.17</v>
+      </c>
+      <c r="AC128">
+        <v>1.09</v>
+      </c>
+      <c r="AD128">
+        <v>6.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.48</v>
+      </c>
+      <c r="AF128">
+        <v>2.37</v>
+      </c>
+      <c r="AG128">
+        <v>2.2</v>
+      </c>
+      <c r="AH128">
+        <v>1.62</v>
+      </c>
+      <c r="AI128">
+        <v>2.1</v>
+      </c>
+      <c r="AJ128">
+        <v>1.68</v>
+      </c>
+      <c r="AK128">
+        <v>1.57</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.33</v>
+      </c>
+      <c r="AN128">
+        <v>1.43</v>
+      </c>
+      <c r="AO128">
+        <v>1.67</v>
+      </c>
+      <c r="AP128">
+        <v>1.25</v>
+      </c>
+      <c r="AQ128">
+        <v>1.86</v>
+      </c>
+      <c r="AR128">
+        <v>1.38</v>
+      </c>
+      <c r="AS128">
+        <v>1.37</v>
+      </c>
+      <c r="AT128">
+        <v>2.75</v>
+      </c>
+      <c r="AU128">
+        <v>3</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>14</v>
+      </c>
+      <c r="AZ128">
+        <v>5</v>
+      </c>
+      <c r="BA128">
+        <v>8</v>
+      </c>
+      <c r="BB128">
+        <v>1</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>2.33</v>
+      </c>
+      <c r="BE128">
+        <v>6.3</v>
+      </c>
+      <c r="BF128">
+        <v>1.93</v>
+      </c>
+      <c r="BG128">
+        <v>1.26</v>
+      </c>
+      <c r="BH128">
+        <v>3.08</v>
+      </c>
+      <c r="BI128">
+        <v>1.52</v>
+      </c>
+      <c r="BJ128">
+        <v>2.24</v>
+      </c>
+      <c r="BK128">
+        <v>1.94</v>
+      </c>
+      <c r="BL128">
+        <v>1.77</v>
+      </c>
+      <c r="BM128">
+        <v>2.49</v>
+      </c>
+      <c r="BN128">
+        <v>1.42</v>
+      </c>
+      <c r="BO128">
+        <v>3.35</v>
+      </c>
+      <c r="BP128">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>
